--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.1/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349303A6-EF27-F248-84FB-831E0CD82A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E8F6A-CEF3-824C-AF22-700BFA3E1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22180" yWindow="500" windowWidth="29020" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="225">
   <si>
     <t>Variables de Costo</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>Nutriflex Omega Peri 1875 mL</t>
+  </si>
+  <si>
+    <t>Valor Estimado / Capacidad produccion mensual / Lineas de Producción de la central</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1272,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1418,6 +1421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1427,13 +1437,12 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1753,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3638,16 +3647,16 @@
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="119" t="s">
+      <c r="A57" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="120">
+      <c r="B57" s="117">
         <v>4</v>
       </c>
-      <c r="C57" s="121">
+      <c r="C57" s="118">
         <v>1000</v>
       </c>
-      <c r="D57" s="121">
+      <c r="D57" s="118">
         <f>C57*B57</f>
         <v>4000</v>
       </c>
@@ -3656,16 +3665,16 @@
       <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="120">
+      <c r="B58" s="117">
         <v>2</v>
       </c>
-      <c r="C58" s="121">
+      <c r="C58" s="118">
         <v>4000</v>
       </c>
-      <c r="D58" s="121">
+      <c r="D58" s="118">
         <f t="shared" ref="D58:D61" si="8">C58*B58</f>
         <v>8000</v>
       </c>
@@ -3673,48 +3682,48 @@
       <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="120">
+      <c r="B59" s="117">
         <v>2</v>
       </c>
-      <c r="C59" s="121">
+      <c r="C59" s="118">
         <v>300</v>
       </c>
-      <c r="D59" s="121">
+      <c r="D59" s="118">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="119" t="s">
+      <c r="A60" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="120">
+      <c r="B60" s="117">
         <v>2</v>
       </c>
-      <c r="C60" s="121">
+      <c r="C60" s="118">
         <v>100</v>
       </c>
-      <c r="D60" s="121">
+      <c r="D60" s="118">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="119" t="s">
+      <c r="A61" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="120">
+      <c r="B61" s="117">
         <v>2</v>
       </c>
-      <c r="C61" s="121">
+      <c r="C61" s="118">
         <v>300</v>
       </c>
-      <c r="D61" s="121">
+      <c r="D61" s="118">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
@@ -3763,82 +3772,82 @@
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="119" t="s">
+      <c r="A68" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="120">
+      <c r="B68" s="117">
         <v>0.08</v>
       </c>
-      <c r="C68" s="121">
+      <c r="C68" s="118">
         <v>9000</v>
       </c>
-      <c r="D68" s="119">
+      <c r="D68" s="116">
         <f>C68*B68</f>
         <v>720</v>
       </c>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="119" t="s">
+      <c r="A69" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="120">
+      <c r="B69" s="117">
         <v>0.1</v>
       </c>
-      <c r="C69" s="121">
+      <c r="C69" s="118">
         <v>1000</v>
       </c>
-      <c r="D69" s="119">
+      <c r="D69" s="116">
         <f t="shared" ref="D69:D72" si="9">C69*B69</f>
         <v>100</v>
       </c>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="119" t="s">
+      <c r="A70" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="120">
+      <c r="B70" s="117">
         <v>0.15</v>
       </c>
-      <c r="C70" s="121">
+      <c r="C70" s="118">
         <v>1200</v>
       </c>
-      <c r="D70" s="119">
+      <c r="D70" s="116">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="119" t="s">
+      <c r="A71" s="116" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="120">
+      <c r="B71" s="117">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C71" s="121">
+      <c r="C71" s="118">
         <v>70479</v>
       </c>
-      <c r="D71" s="119">
+      <c r="D71" s="116">
         <f t="shared" si="9"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="120">
+      <c r="B72" s="117">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C72" s="121">
+      <c r="C72" s="118">
         <v>55000</v>
       </c>
-      <c r="D72" s="119">
+      <c r="D72" s="116">
         <f t="shared" si="9"/>
         <v>275</v>
       </c>
@@ -3898,16 +3907,16 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="119" t="s">
+      <c r="A79" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="120">
-        <v>1</v>
-      </c>
-      <c r="C79" s="121">
+      <c r="B79" s="117">
+        <v>1</v>
+      </c>
+      <c r="C79" s="118">
         <v>400</v>
       </c>
-      <c r="D79" s="121">
+      <c r="D79" s="118">
         <f>B79*C79</f>
         <v>400</v>
       </c>
@@ -3918,16 +3927,16 @@
       <c r="K79" s="31"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="119" t="s">
+      <c r="A80" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="120">
-        <v>1</v>
-      </c>
-      <c r="C80" s="121">
+      <c r="B80" s="117">
+        <v>1</v>
+      </c>
+      <c r="C80" s="118">
         <v>400</v>
       </c>
-      <c r="D80" s="121">
+      <c r="D80" s="118">
         <f t="shared" ref="D80:D93" si="10">B80*C80</f>
         <v>400</v>
       </c>
@@ -3937,16 +3946,16 @@
       <c r="K80" s="31"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="119" t="s">
+      <c r="A81" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="120">
+      <c r="B81" s="117">
         <v>2</v>
       </c>
-      <c r="C81" s="121">
+      <c r="C81" s="118">
         <v>400</v>
       </c>
-      <c r="D81" s="121">
+      <c r="D81" s="118">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -3956,16 +3965,16 @@
       <c r="K81" s="31"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="119" t="s">
+      <c r="A82" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="120">
+      <c r="B82" s="117">
         <v>3</v>
       </c>
-      <c r="C82" s="121">
+      <c r="C82" s="118">
         <v>500</v>
       </c>
-      <c r="D82" s="121">
+      <c r="D82" s="118">
         <f t="shared" si="10"/>
         <v>1500</v>
       </c>
@@ -3975,16 +3984,16 @@
       <c r="K82" s="31"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="119" t="s">
+      <c r="A83" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="120">
+      <c r="B83" s="117">
         <v>3</v>
       </c>
-      <c r="C83" s="121">
+      <c r="C83" s="118">
         <v>2000</v>
       </c>
-      <c r="D83" s="121">
+      <c r="D83" s="118">
         <f t="shared" si="10"/>
         <v>6000</v>
       </c>
@@ -3994,16 +4003,16 @@
       <c r="K83" s="31"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="119" t="s">
+      <c r="A84" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="120">
+      <c r="B84" s="117">
         <v>4</v>
       </c>
-      <c r="C84" s="121">
+      <c r="C84" s="118">
         <v>2500</v>
       </c>
-      <c r="D84" s="121">
+      <c r="D84" s="118">
         <f t="shared" si="10"/>
         <v>10000</v>
       </c>
@@ -4013,16 +4022,16 @@
       <c r="K84" s="31"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="119" t="s">
+      <c r="A85" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="120">
-        <v>1</v>
-      </c>
-      <c r="C85" s="121">
+      <c r="B85" s="117">
+        <v>1</v>
+      </c>
+      <c r="C85" s="118">
         <v>2000</v>
       </c>
-      <c r="D85" s="121">
+      <c r="D85" s="118">
         <f t="shared" si="10"/>
         <v>2000</v>
       </c>
@@ -4032,16 +4041,16 @@
       <c r="K85" s="31"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="119" t="s">
+      <c r="A86" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="120">
+      <c r="B86" s="117">
         <v>3</v>
       </c>
-      <c r="C86" s="121">
+      <c r="C86" s="118">
         <v>200</v>
       </c>
-      <c r="D86" s="121">
+      <c r="D86" s="118">
         <f t="shared" si="10"/>
         <v>600</v>
       </c>
@@ -4051,16 +4060,16 @@
       <c r="K86" s="31"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="119" t="s">
+      <c r="A87" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="120">
-        <v>1</v>
-      </c>
-      <c r="C87" s="121">
+      <c r="B87" s="117">
+        <v>1</v>
+      </c>
+      <c r="C87" s="118">
         <v>5000</v>
       </c>
-      <c r="D87" s="121">
+      <c r="D87" s="118">
         <f t="shared" si="10"/>
         <v>5000</v>
       </c>
@@ -4070,16 +4079,16 @@
       <c r="K87" s="31"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="119" t="s">
+      <c r="A88" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="B88" s="120">
-        <v>1</v>
-      </c>
-      <c r="C88" s="121">
+      <c r="B88" s="117">
+        <v>1</v>
+      </c>
+      <c r="C88" s="118">
         <v>1000</v>
       </c>
-      <c r="D88" s="121">
+      <c r="D88" s="118">
         <f t="shared" si="10"/>
         <v>1000</v>
       </c>
@@ -4089,16 +4098,16 @@
       <c r="K88" s="31"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="119" t="s">
+      <c r="A89" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="120">
+      <c r="B89" s="117">
         <v>0.05</v>
       </c>
-      <c r="C89" s="121">
+      <c r="C89" s="118">
         <v>8000</v>
       </c>
-      <c r="D89" s="121">
+      <c r="D89" s="118">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
@@ -4108,16 +4117,16 @@
       <c r="K89" s="31"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="119" t="s">
+      <c r="A90" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="B90" s="120">
+      <c r="B90" s="117">
         <v>10</v>
       </c>
-      <c r="C90" s="121">
+      <c r="C90" s="118">
         <v>400</v>
       </c>
-      <c r="D90" s="121">
+      <c r="D90" s="118">
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
@@ -4127,16 +4136,16 @@
       <c r="K90" s="31"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="119" t="s">
+      <c r="A91" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="120">
+      <c r="B91" s="117">
         <v>0.1</v>
       </c>
-      <c r="C91" s="121">
+      <c r="C91" s="118">
         <v>500</v>
       </c>
-      <c r="D91" s="121">
+      <c r="D91" s="118">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
@@ -4146,16 +4155,16 @@
       <c r="K91" s="31"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="119" t="s">
+      <c r="A92" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="120">
+      <c r="B92" s="117">
         <v>0.5</v>
       </c>
-      <c r="C92" s="121">
+      <c r="C92" s="118">
         <v>500</v>
       </c>
-      <c r="D92" s="121">
+      <c r="D92" s="118">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
@@ -4165,17 +4174,17 @@
       <c r="K92" s="31"/>
     </row>
     <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="119" t="s">
+      <c r="A93" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="120">
+      <c r="B93" s="117">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C93" s="121">
+      <c r="C93" s="118">
         <v>1500</v>
       </c>
-      <c r="D93" s="121">
+      <c r="D93" s="118">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
@@ -4267,20 +4276,20 @@
       <c r="T101" s="44"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A102" s="119" t="s">
+      <c r="A102" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="123">
+      <c r="B102" s="120">
         <v>3800000</v>
       </c>
-      <c r="C102" s="119"/>
-      <c r="E102" s="119" t="s">
+      <c r="C102" s="116"/>
+      <c r="E102" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="123">
+      <c r="F102" s="120">
         <v>1500000</v>
       </c>
-      <c r="G102" s="119"/>
+      <c r="G102" s="116"/>
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
@@ -4292,16 +4301,16 @@
       <c r="T102" s="48"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A103" s="119" t="s">
+      <c r="A103" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="119"/>
-      <c r="C103" s="119"/>
-      <c r="E103" s="119" t="s">
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="E103" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="F103" s="119"/>
-      <c r="G103" s="119"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
       <c r="J103" s="15"/>
       <c r="N103" s="15"/>
       <c r="R103" s="44"/>
@@ -4309,53 +4318,53 @@
       <c r="T103" s="44"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="119" t="s">
+      <c r="A104" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B104" s="119"/>
-      <c r="C104" s="119"/>
-      <c r="E104" s="119" t="s">
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="E104" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F104" s="119"/>
-      <c r="G104" s="119"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
       <c r="R104" s="44"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A105" s="119" t="s">
+      <c r="A105" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="119"/>
-      <c r="C105" s="119"/>
-      <c r="E105" s="119" t="s">
+      <c r="B105" s="116"/>
+      <c r="C105" s="116"/>
+      <c r="E105" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="116"/>
       <c r="R105" s="44"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" s="119" t="s">
+      <c r="A106" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="124">
+      <c r="B106" s="121">
         <v>0.08</v>
       </c>
-      <c r="C106" s="123">
+      <c r="C106" s="120">
         <f t="shared" ref="C106:C115" si="11">+$B$102*B106</f>
         <v>304000</v>
       </c>
-      <c r="E106" s="119" t="s">
+      <c r="E106" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="124">
+      <c r="F106" s="121">
         <v>0.08</v>
       </c>
-      <c r="G106" s="123">
+      <c r="G106" s="120">
         <f t="shared" ref="G106:G115" si="12">+$F$102*F106</f>
         <v>120000</v>
       </c>
@@ -4364,23 +4373,23 @@
       <c r="T106" s="44"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" s="119" t="s">
+      <c r="A107" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="124">
+      <c r="B107" s="121">
         <v>0.08</v>
       </c>
-      <c r="C107" s="123">
+      <c r="C107" s="120">
         <f t="shared" si="11"/>
         <v>304000</v>
       </c>
-      <c r="E107" s="119" t="s">
+      <c r="E107" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="F107" s="124">
+      <c r="F107" s="121">
         <v>0.08</v>
       </c>
-      <c r="G107" s="123">
+      <c r="G107" s="120">
         <f t="shared" si="12"/>
         <v>120000</v>
       </c>
@@ -4393,23 +4402,23 @@
       <c r="T107" s="49"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" s="119" t="s">
+      <c r="A108" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="124">
+      <c r="B108" s="121">
         <v>0.04</v>
       </c>
-      <c r="C108" s="123">
+      <c r="C108" s="120">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
-      <c r="E108" s="119" t="s">
+      <c r="E108" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="F108" s="124">
+      <c r="F108" s="121">
         <v>0.04</v>
       </c>
-      <c r="G108" s="123">
+      <c r="G108" s="120">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
@@ -4422,23 +4431,23 @@
       <c r="T108" s="49"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" s="119" t="s">
+      <c r="A109" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="124">
+      <c r="B109" s="121">
         <v>0.01</v>
       </c>
-      <c r="C109" s="123">
+      <c r="C109" s="120">
         <f t="shared" si="11"/>
         <v>38000</v>
       </c>
-      <c r="E109" s="119" t="s">
+      <c r="E109" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="124">
+      <c r="F109" s="121">
         <v>0.01</v>
       </c>
-      <c r="G109" s="123">
+      <c r="G109" s="120">
         <f t="shared" si="12"/>
         <v>15000</v>
       </c>
@@ -4451,23 +4460,23 @@
       <c r="T109" s="49"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" s="119" t="s">
+      <c r="A110" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="124">
+      <c r="B110" s="121">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C110" s="123">
+      <c r="C110" s="120">
         <f t="shared" si="11"/>
         <v>323000</v>
       </c>
-      <c r="E110" s="119" t="s">
+      <c r="E110" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="124">
+      <c r="F110" s="121">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G110" s="123">
+      <c r="G110" s="120">
         <f t="shared" si="12"/>
         <v>127500.00000000001</v>
       </c>
@@ -4480,23 +4489,23 @@
       <c r="T110" s="49"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="119" t="s">
+      <c r="A111" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="124">
+      <c r="B111" s="121">
         <v>0.12</v>
       </c>
-      <c r="C111" s="123">
+      <c r="C111" s="120">
         <f t="shared" si="11"/>
         <v>456000</v>
       </c>
-      <c r="E111" s="119" t="s">
+      <c r="E111" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="F111" s="124">
+      <c r="F111" s="121">
         <v>0.12</v>
       </c>
-      <c r="G111" s="123">
+      <c r="G111" s="120">
         <f t="shared" si="12"/>
         <v>180000</v>
       </c>
@@ -4509,23 +4518,23 @@
       <c r="T111" s="49"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="119" t="s">
+      <c r="A112" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="124">
+      <c r="B112" s="121">
         <v>0.02</v>
       </c>
-      <c r="C112" s="123">
+      <c r="C112" s="120">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
-      <c r="E112" s="119" t="s">
+      <c r="E112" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F112" s="124">
+      <c r="F112" s="121">
         <v>2.4E-2</v>
       </c>
-      <c r="G112" s="123">
+      <c r="G112" s="120">
         <f t="shared" si="12"/>
         <v>36000</v>
       </c>
@@ -4538,23 +4547,23 @@
       <c r="T112" s="49"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="119" t="s">
+      <c r="A113" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="124">
+      <c r="B113" s="121">
         <v>0.04</v>
       </c>
-      <c r="C113" s="123">
+      <c r="C113" s="120">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
-      <c r="E113" s="119" t="s">
+      <c r="E113" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="F113" s="124">
+      <c r="F113" s="121">
         <v>0.04</v>
       </c>
-      <c r="G113" s="123">
+      <c r="G113" s="120">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
@@ -4567,23 +4576,23 @@
       <c r="T113" s="49"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="119" t="s">
+      <c r="A114" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="124">
+      <c r="B114" s="121">
         <v>0.02</v>
       </c>
-      <c r="C114" s="123">
+      <c r="C114" s="120">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="F114" s="124">
+      <c r="F114" s="121">
         <v>0.02</v>
       </c>
-      <c r="G114" s="123">
+      <c r="G114" s="120">
         <f t="shared" si="12"/>
         <v>30000</v>
       </c>
@@ -4596,23 +4605,23 @@
       <c r="T114" s="49"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="119" t="s">
+      <c r="A115" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="124">
+      <c r="B115" s="121">
         <v>0.03</v>
       </c>
-      <c r="C115" s="123">
+      <c r="C115" s="120">
         <f t="shared" si="11"/>
         <v>114000</v>
       </c>
-      <c r="E115" s="119" t="s">
+      <c r="E115" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="F115" s="124">
+      <c r="F115" s="121">
         <v>0.03</v>
       </c>
-      <c r="G115" s="123">
+      <c r="G115" s="120">
         <f t="shared" si="12"/>
         <v>45000</v>
       </c>
@@ -4625,19 +4634,19 @@
       <c r="T115" s="49"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A116" s="119" t="s">
+      <c r="A116" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="119"/>
-      <c r="C116" s="123">
+      <c r="B116" s="116"/>
+      <c r="C116" s="120">
         <f>SUM(C106:C115)</f>
         <v>1995000</v>
       </c>
-      <c r="E116" s="125" t="s">
+      <c r="E116" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="F116" s="119"/>
-      <c r="G116" s="123">
+      <c r="F116" s="116"/>
+      <c r="G116" s="120">
         <v>117000</v>
       </c>
       <c r="J116" s="47"/>
@@ -4649,19 +4658,19 @@
       <c r="T116" s="49"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A117" s="119" t="s">
+      <c r="A117" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="119"/>
-      <c r="C117" s="123">
+      <c r="B117" s="116"/>
+      <c r="C117" s="120">
         <f>+C116+B102</f>
         <v>5795000</v>
       </c>
-      <c r="E117" s="119" t="s">
+      <c r="E117" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="F117" s="119"/>
-      <c r="G117" s="123">
+      <c r="F117" s="116"/>
+      <c r="G117" s="120">
         <f>SUM(G106:G116)</f>
         <v>910500</v>
       </c>
@@ -4675,11 +4684,11 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="E118" s="125" t="s">
+      <c r="E118" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="F118" s="119"/>
-      <c r="G118" s="123">
+      <c r="F118" s="116"/>
+      <c r="G118" s="120">
         <f>+G117+F102</f>
         <v>2410500</v>
       </c>
@@ -4698,11 +4707,11 @@
         <f>+C117/B99</f>
         <v>25195.652173913044</v>
       </c>
-      <c r="E119" s="119" t="s">
+      <c r="E119" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="F119" s="119"/>
-      <c r="G119" s="123">
+      <c r="F119" s="116"/>
+      <c r="G119" s="120">
         <f>+G118/B99</f>
         <v>10480.434782608696</v>
       </c>
@@ -4764,61 +4773,67 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A126" s="119" t="s">
+      <c r="A126" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="123">
+      <c r="B126" s="120">
         <v>2388262</v>
       </c>
-      <c r="C126" s="123">
+      <c r="C126" s="120">
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
+      <c r="D126" s="127" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" s="126"/>
+      <c r="F126" s="126"/>
+      <c r="G126" s="126"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A127" s="119" t="s">
+      <c r="A127" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="123">
+      <c r="B127" s="120">
         <v>6775276.5</v>
       </c>
-      <c r="C127" s="123">
+      <c r="C127" s="120">
         <f t="shared" ref="C127:C130" si="13">B127/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A128" s="119" t="s">
+      <c r="A128" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="123">
+      <c r="B128" s="120">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C128" s="123">
+      <c r="C128" s="120">
         <f t="shared" si="13"/>
         <v>3986.6369999999997</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="119" t="s">
+      <c r="A129" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="123">
+      <c r="B129" s="120">
         <v>6688000</v>
       </c>
-      <c r="C129" s="123">
+      <c r="C129" s="120">
         <f t="shared" si="13"/>
         <v>5573.333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="123">
+      <c r="B130" s="120">
         <v>63000</v>
       </c>
-      <c r="C130" s="123">
+      <c r="C130" s="120">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
@@ -4873,16 +4888,16 @@
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="119" t="s">
+      <c r="A138" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="120">
-        <v>1</v>
-      </c>
-      <c r="C138" s="121">
+      <c r="B138" s="117">
+        <v>1</v>
+      </c>
+      <c r="C138" s="118">
         <v>10000000</v>
       </c>
-      <c r="D138" s="121">
+      <c r="D138" s="118">
         <f>B138*C138</f>
         <v>10000000</v>
       </c>
@@ -4890,16 +4905,16 @@
       <c r="I138" s="35"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="119" t="s">
+      <c r="A139" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="120">
+      <c r="B139" s="117">
         <v>12</v>
       </c>
-      <c r="C139" s="121">
+      <c r="C139" s="118">
         <v>4000000</v>
       </c>
-      <c r="D139" s="121">
+      <c r="D139" s="118">
         <f t="shared" ref="D139:D148" si="14">B139*C139</f>
         <v>48000000</v>
       </c>
@@ -4907,16 +4922,16 @@
       <c r="I139" s="36"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="119" t="s">
+      <c r="A140" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="120">
+      <c r="B140" s="117">
         <v>6</v>
       </c>
-      <c r="C140" s="121">
+      <c r="C140" s="118">
         <v>1000000</v>
       </c>
-      <c r="D140" s="121">
+      <c r="D140" s="118">
         <f t="shared" si="14"/>
         <v>6000000</v>
       </c>
@@ -4924,121 +4939,121 @@
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="119" t="s">
+      <c r="A141" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="120">
-        <v>1</v>
-      </c>
-      <c r="C141" s="121">
+      <c r="B141" s="117">
+        <v>1</v>
+      </c>
+      <c r="C141" s="118">
         <v>1000000</v>
       </c>
-      <c r="D141" s="121">
+      <c r="D141" s="118">
         <f t="shared" si="14"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="119" t="s">
+      <c r="A142" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="120">
+      <c r="B142" s="117">
         <v>6</v>
       </c>
-      <c r="C142" s="121">
+      <c r="C142" s="118">
         <v>2000000</v>
       </c>
-      <c r="D142" s="121">
+      <c r="D142" s="118">
         <f t="shared" si="14"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="119" t="s">
+      <c r="A143" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="120">
+      <c r="B143" s="117">
         <v>3</v>
       </c>
-      <c r="C143" s="121">
+      <c r="C143" s="118">
         <v>2500000</v>
       </c>
-      <c r="D143" s="121">
+      <c r="D143" s="118">
         <f t="shared" si="14"/>
         <v>7500000</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="119" t="s">
+      <c r="A144" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="120">
+      <c r="B144" s="117">
         <v>10</v>
       </c>
-      <c r="C144" s="121">
+      <c r="C144" s="118">
         <v>400000</v>
       </c>
-      <c r="D144" s="121">
+      <c r="D144" s="118">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="119" t="s">
+      <c r="A145" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="120">
-        <v>1</v>
-      </c>
-      <c r="C145" s="121">
+      <c r="B145" s="117">
+        <v>1</v>
+      </c>
+      <c r="C145" s="118">
         <v>5000000</v>
       </c>
-      <c r="D145" s="121">
+      <c r="D145" s="118">
         <f t="shared" si="14"/>
         <v>5000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="119" t="s">
+      <c r="A146" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="120">
+      <c r="B146" s="117">
         <v>2</v>
       </c>
-      <c r="C146" s="121">
+      <c r="C146" s="118">
         <v>2000000</v>
       </c>
-      <c r="D146" s="121">
+      <c r="D146" s="118">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="119" t="s">
+      <c r="A147" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="120">
+      <c r="B147" s="117">
         <v>5</v>
       </c>
-      <c r="C147" s="121">
+      <c r="C147" s="118">
         <v>400000</v>
       </c>
-      <c r="D147" s="121">
+      <c r="D147" s="118">
         <f t="shared" si="14"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="119" t="s">
+      <c r="A148" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="B148" s="120">
-        <v>1</v>
-      </c>
-      <c r="C148" s="121">
+      <c r="B148" s="117">
+        <v>1</v>
+      </c>
+      <c r="C148" s="118">
         <v>10000000</v>
       </c>
-      <c r="D148" s="121">
+      <c r="D148" s="118">
         <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
@@ -6918,16 +6933,16 @@
       <c r="X211" s="65"/>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A212" s="119" t="s">
+      <c r="A212" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B212" s="120">
-        <v>1</v>
-      </c>
-      <c r="C212" s="121">
+      <c r="B212" s="117">
+        <v>1</v>
+      </c>
+      <c r="C212" s="118">
         <v>1000</v>
       </c>
-      <c r="D212" s="121">
+      <c r="D212" s="118">
         <f>C212*B212</f>
         <v>1000</v>
       </c>
@@ -6938,16 +6953,16 @@
       <c r="X212" s="65"/>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A213" s="119" t="s">
+      <c r="A213" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="B213" s="120">
-        <v>0</v>
-      </c>
-      <c r="C213" s="121">
+      <c r="B213" s="117">
+        <v>0</v>
+      </c>
+      <c r="C213" s="118">
         <v>290000</v>
       </c>
-      <c r="D213" s="121">
+      <c r="D213" s="118">
         <f>C213*B213</f>
         <v>0</v>
       </c>
@@ -6956,17 +6971,17 @@
       <c r="X213" s="69"/>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A214" s="119" t="s">
+      <c r="A214" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="B214" s="120">
+      <c r="B214" s="117">
         <f>1/B4</f>
         <v>0.1</v>
       </c>
-      <c r="C214" s="121">
+      <c r="C214" s="118">
         <v>343000</v>
       </c>
-      <c r="D214" s="121">
+      <c r="D214" s="118">
         <f>C214*B214</f>
         <v>34300</v>
       </c>
@@ -7003,76 +7018,76 @@
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A221" s="119" t="s">
+      <c r="A221" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B221" s="120">
+      <c r="B221" s="117">
         <v>2</v>
       </c>
-      <c r="C221" s="121">
+      <c r="C221" s="118">
         <v>500</v>
       </c>
-      <c r="D221" s="121">
+      <c r="D221" s="118">
         <f>C221*B221</f>
         <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A222" s="119" t="s">
+      <c r="A222" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B222" s="120">
+      <c r="B222" s="117">
         <v>2</v>
       </c>
-      <c r="C222" s="121">
+      <c r="C222" s="118">
         <v>4000</v>
       </c>
-      <c r="D222" s="121">
+      <c r="D222" s="118">
         <f t="shared" ref="D222:D225" si="32">C222*B222</f>
         <v>8000</v>
       </c>
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A223" s="119" t="s">
+      <c r="A223" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B223" s="120">
+      <c r="B223" s="117">
         <v>2</v>
       </c>
-      <c r="C223" s="121">
+      <c r="C223" s="118">
         <v>300</v>
       </c>
-      <c r="D223" s="121">
+      <c r="D223" s="118">
         <f t="shared" si="32"/>
         <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A224" s="119" t="s">
+      <c r="A224" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B224" s="120">
+      <c r="B224" s="117">
         <v>2</v>
       </c>
-      <c r="C224" s="121">
+      <c r="C224" s="118">
         <v>100</v>
       </c>
-      <c r="D224" s="121">
+      <c r="D224" s="118">
         <f t="shared" si="32"/>
         <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="119" t="s">
+      <c r="A225" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B225" s="120">
+      <c r="B225" s="117">
         <v>2</v>
       </c>
-      <c r="C225" s="121">
+      <c r="C225" s="118">
         <v>300</v>
       </c>
-      <c r="D225" s="121">
+      <c r="D225" s="118">
         <f t="shared" si="32"/>
         <v>600</v>
       </c>
@@ -7112,82 +7127,82 @@
       <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="119" t="s">
+      <c r="A232" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="120">
-        <v>0</v>
-      </c>
-      <c r="C232" s="121">
+      <c r="B232" s="117">
+        <v>0</v>
+      </c>
+      <c r="C232" s="118">
         <v>9000</v>
       </c>
-      <c r="D232" s="119">
+      <c r="D232" s="116">
         <f>C232*B232</f>
         <v>0</v>
       </c>
       <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="119" t="s">
+      <c r="A233" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="B233" s="120">
-        <v>1</v>
-      </c>
-      <c r="C233" s="121">
+      <c r="B233" s="117">
+        <v>1</v>
+      </c>
+      <c r="C233" s="118">
         <v>1000</v>
       </c>
-      <c r="D233" s="119">
+      <c r="D233" s="116">
         <f t="shared" ref="D233:D236" si="33">C233*B233</f>
         <v>1000</v>
       </c>
       <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="119" t="s">
+      <c r="A234" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B234" s="120">
-        <v>0</v>
-      </c>
-      <c r="C234" s="121">
+      <c r="B234" s="117">
+        <v>0</v>
+      </c>
+      <c r="C234" s="118">
         <v>1200</v>
       </c>
-      <c r="D234" s="119">
+      <c r="D234" s="116">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F234" s="7"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="119" t="s">
+      <c r="A235" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B235" s="120">
+      <c r="B235" s="117">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C235" s="121">
+      <c r="C235" s="118">
         <v>70479</v>
       </c>
-      <c r="D235" s="119">
+      <c r="D235" s="116">
         <f t="shared" si="33"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="119" t="s">
+      <c r="A236" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B236" s="120">
+      <c r="B236" s="117">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C236" s="121">
+      <c r="C236" s="118">
         <v>55000</v>
       </c>
-      <c r="D236" s="119">
+      <c r="D236" s="116">
         <f t="shared" si="33"/>
         <v>275</v>
       </c>
@@ -7242,241 +7257,241 @@
       <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="119" t="s">
+      <c r="A243" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B243" s="120">
-        <v>1</v>
-      </c>
-      <c r="C243" s="121">
+      <c r="B243" s="117">
+        <v>1</v>
+      </c>
+      <c r="C243" s="118">
         <v>400</v>
       </c>
-      <c r="D243" s="121">
+      <c r="D243" s="118">
         <f t="shared" ref="D243:D257" si="34">B243*C243</f>
         <v>400</v>
       </c>
       <c r="F243" s="7"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="119" t="s">
+      <c r="A244" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="120">
-        <v>1</v>
-      </c>
-      <c r="C244" s="121">
+      <c r="B244" s="117">
+        <v>1</v>
+      </c>
+      <c r="C244" s="118">
         <v>400</v>
       </c>
-      <c r="D244" s="121">
+      <c r="D244" s="118">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F244" s="7"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="119" t="s">
+      <c r="A245" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="120">
-        <v>0</v>
-      </c>
-      <c r="C245" s="121">
+      <c r="B245" s="117">
+        <v>0</v>
+      </c>
+      <c r="C245" s="118">
         <v>400</v>
       </c>
-      <c r="D245" s="121">
+      <c r="D245" s="118">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F245" s="7"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="119" t="s">
+      <c r="A246" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B246" s="120">
-        <v>0</v>
-      </c>
-      <c r="C246" s="121">
+      <c r="B246" s="117">
+        <v>0</v>
+      </c>
+      <c r="C246" s="118">
         <v>500</v>
       </c>
-      <c r="D246" s="121">
+      <c r="D246" s="118">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="119" t="s">
+      <c r="A247" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="B247" s="120">
-        <v>1</v>
-      </c>
-      <c r="C247" s="121">
+      <c r="B247" s="117">
+        <v>1</v>
+      </c>
+      <c r="C247" s="118">
         <v>2000</v>
       </c>
-      <c r="D247" s="121">
+      <c r="D247" s="118">
         <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="F247" s="7"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="119" t="s">
+      <c r="A248" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="B248" s="120">
+      <c r="B248" s="117">
         <v>2</v>
       </c>
-      <c r="C248" s="121">
+      <c r="C248" s="118">
         <v>400</v>
       </c>
-      <c r="D248" s="121">
+      <c r="D248" s="118">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F248" s="7"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="119" t="s">
+      <c r="A249" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="B249" s="120">
-        <v>0</v>
-      </c>
-      <c r="C249" s="121">
+      <c r="B249" s="117">
+        <v>0</v>
+      </c>
+      <c r="C249" s="118">
         <v>2500</v>
       </c>
-      <c r="D249" s="121">
+      <c r="D249" s="118">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F249" s="7"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="122" t="s">
+      <c r="A250" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="B250" s="120">
-        <v>0</v>
-      </c>
-      <c r="C250" s="121">
+      <c r="B250" s="117">
+        <v>0</v>
+      </c>
+      <c r="C250" s="118">
         <v>2000</v>
       </c>
-      <c r="D250" s="121">
+      <c r="D250" s="118">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F250" s="7"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="119" t="s">
+      <c r="A251" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B251" s="120">
-        <v>1</v>
-      </c>
-      <c r="C251" s="121">
+      <c r="B251" s="117">
+        <v>1</v>
+      </c>
+      <c r="C251" s="118">
         <v>5000</v>
       </c>
-      <c r="D251" s="121">
+      <c r="D251" s="118">
         <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="F251" s="7"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="119" t="s">
+      <c r="A252" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="120">
-        <v>1</v>
-      </c>
-      <c r="C252" s="121">
+      <c r="B252" s="117">
+        <v>1</v>
+      </c>
+      <c r="C252" s="118">
         <v>1000</v>
       </c>
-      <c r="D252" s="121">
+      <c r="D252" s="118">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F252" s="7"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="119" t="s">
+      <c r="A253" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B253" s="120">
+      <c r="B253" s="117">
         <v>0.05</v>
       </c>
-      <c r="C253" s="121">
+      <c r="C253" s="118">
         <v>8000</v>
       </c>
-      <c r="D253" s="121">
+      <c r="D253" s="118">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="119" t="s">
+      <c r="A254" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="B254" s="120">
+      <c r="B254" s="117">
         <v>2</v>
       </c>
-      <c r="C254" s="121">
+      <c r="C254" s="118">
         <v>400</v>
       </c>
-      <c r="D254" s="121">
+      <c r="D254" s="118">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F254" s="7"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="119" t="s">
+      <c r="A255" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B255" s="120">
+      <c r="B255" s="117">
         <v>0.1</v>
       </c>
-      <c r="C255" s="121">
+      <c r="C255" s="118">
         <v>500</v>
       </c>
-      <c r="D255" s="121">
+      <c r="D255" s="118">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="F255" s="7"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="119" t="s">
+      <c r="A256" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="B256" s="120">
+      <c r="B256" s="117">
         <v>0.5</v>
       </c>
-      <c r="C256" s="121">
+      <c r="C256" s="118">
         <v>500</v>
       </c>
-      <c r="D256" s="121">
+      <c r="D256" s="118">
         <f t="shared" si="34"/>
         <v>250</v>
       </c>
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="119" t="s">
+      <c r="A257" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="B257" s="120">
+      <c r="B257" s="117">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C257" s="121">
+      <c r="C257" s="118">
         <v>1500</v>
       </c>
-      <c r="D257" s="121">
+      <c r="D257" s="118">
         <f t="shared" si="34"/>
         <v>25</v>
       </c>
@@ -7565,79 +7580,79 @@
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A266" s="119" t="s">
+      <c r="A266" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B266" s="123">
+      <c r="B266" s="120">
         <v>4000000</v>
       </c>
-      <c r="C266" s="119"/>
-      <c r="E266" s="119" t="s">
+      <c r="C266" s="116"/>
+      <c r="E266" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F266" s="123">
+      <c r="F266" s="120">
         <v>1500000</v>
       </c>
-      <c r="G266" s="119"/>
+      <c r="G266" s="116"/>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A267" s="119" t="s">
+      <c r="A267" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B267" s="119"/>
-      <c r="C267" s="119"/>
-      <c r="E267" s="119" t="s">
+      <c r="B267" s="116"/>
+      <c r="C267" s="116"/>
+      <c r="E267" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="F267" s="119"/>
-      <c r="G267" s="119"/>
+      <c r="F267" s="116"/>
+      <c r="G267" s="116"/>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A268" s="119" t="s">
+      <c r="A268" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="B268" s="119"/>
-      <c r="C268" s="119"/>
-      <c r="E268" s="119" t="s">
+      <c r="B268" s="116"/>
+      <c r="C268" s="116"/>
+      <c r="E268" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F268" s="119"/>
-      <c r="G268" s="119"/>
+      <c r="F268" s="116"/>
+      <c r="G268" s="116"/>
       <c r="J268" s="46"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A269" s="119" t="s">
+      <c r="A269" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="B269" s="119"/>
-      <c r="C269" s="119"/>
-      <c r="E269" s="119" t="s">
+      <c r="B269" s="116"/>
+      <c r="C269" s="116"/>
+      <c r="E269" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="F269" s="119"/>
-      <c r="G269" s="119"/>
+      <c r="F269" s="116"/>
+      <c r="G269" s="116"/>
       <c r="R269" s="44"/>
       <c r="S269" s="44"/>
       <c r="T269" s="44"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A270" s="119" t="s">
+      <c r="A270" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B270" s="124">
+      <c r="B270" s="121">
         <v>0.08</v>
       </c>
-      <c r="C270" s="123">
+      <c r="C270" s="120">
         <f>+$B$102*B270</f>
         <v>304000</v>
       </c>
-      <c r="E270" s="119" t="s">
+      <c r="E270" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="F270" s="124">
+      <c r="F270" s="121">
         <v>0.08</v>
       </c>
-      <c r="G270" s="123">
+      <c r="G270" s="120">
         <f t="shared" ref="G270:G279" si="35">+$F$102*F270</f>
         <v>120000</v>
       </c>
@@ -7646,23 +7661,23 @@
       <c r="T270" s="44"/>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A271" s="119" t="s">
+      <c r="A271" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="B271" s="124">
+      <c r="B271" s="121">
         <v>0.08</v>
       </c>
-      <c r="C271" s="123">
+      <c r="C271" s="120">
         <f>+$B$102*B271</f>
         <v>304000</v>
       </c>
-      <c r="E271" s="119" t="s">
+      <c r="E271" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="F271" s="124">
+      <c r="F271" s="121">
         <v>0.08</v>
       </c>
-      <c r="G271" s="123">
+      <c r="G271" s="120">
         <f t="shared" si="35"/>
         <v>120000</v>
       </c>
@@ -7677,23 +7692,23 @@
       <c r="T271" s="48"/>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A272" s="119" t="s">
+      <c r="A272" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B272" s="124">
+      <c r="B272" s="121">
         <v>0.04</v>
       </c>
-      <c r="C272" s="123">
+      <c r="C272" s="120">
         <f t="shared" ref="C272:C279" si="36">+$B$102*B272</f>
         <v>152000</v>
       </c>
-      <c r="E272" s="119" t="s">
+      <c r="E272" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="F272" s="124">
+      <c r="F272" s="121">
         <v>0.04</v>
       </c>
-      <c r="G272" s="123">
+      <c r="G272" s="120">
         <f t="shared" si="35"/>
         <v>60000</v>
       </c>
@@ -7704,23 +7719,23 @@
       <c r="T272" s="44"/>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A273" s="119" t="s">
+      <c r="A273" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B273" s="124">
+      <c r="B273" s="121">
         <v>0.01</v>
       </c>
-      <c r="C273" s="123">
+      <c r="C273" s="120">
         <f t="shared" si="36"/>
         <v>38000</v>
       </c>
-      <c r="E273" s="119" t="s">
+      <c r="E273" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="F273" s="124">
+      <c r="F273" s="121">
         <v>0.01</v>
       </c>
-      <c r="G273" s="123">
+      <c r="G273" s="120">
         <f t="shared" si="35"/>
         <v>15000</v>
       </c>
@@ -7729,23 +7744,23 @@
       <c r="T273" s="44"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A274" s="119" t="s">
+      <c r="A274" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="B274" s="124">
+      <c r="B274" s="121">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C274" s="123">
+      <c r="C274" s="120">
         <f t="shared" si="36"/>
         <v>323000</v>
       </c>
-      <c r="E274" s="119" t="s">
+      <c r="E274" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="F274" s="124">
+      <c r="F274" s="121">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G274" s="123">
+      <c r="G274" s="120">
         <f t="shared" si="35"/>
         <v>127500.00000000001</v>
       </c>
@@ -7754,23 +7769,23 @@
       <c r="T274" s="44"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A275" s="119" t="s">
+      <c r="A275" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="B275" s="124">
+      <c r="B275" s="121">
         <v>0.12</v>
       </c>
-      <c r="C275" s="123">
+      <c r="C275" s="120">
         <f t="shared" si="36"/>
         <v>456000</v>
       </c>
-      <c r="E275" s="119" t="s">
+      <c r="E275" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="F275" s="124">
+      <c r="F275" s="121">
         <v>0.12</v>
       </c>
-      <c r="G275" s="123">
+      <c r="G275" s="120">
         <f t="shared" si="35"/>
         <v>180000</v>
       </c>
@@ -7779,23 +7794,23 @@
       <c r="T275" s="44"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A276" s="119" t="s">
+      <c r="A276" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B276" s="124">
+      <c r="B276" s="121">
         <v>0.02</v>
       </c>
-      <c r="C276" s="123">
+      <c r="C276" s="120">
         <f t="shared" si="36"/>
         <v>76000</v>
       </c>
-      <c r="E276" s="119" t="s">
+      <c r="E276" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F276" s="124">
+      <c r="F276" s="121">
         <v>2.4E-2</v>
       </c>
-      <c r="G276" s="123">
+      <c r="G276" s="120">
         <f t="shared" si="35"/>
         <v>36000</v>
       </c>
@@ -7808,23 +7823,23 @@
       <c r="T276" s="49"/>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A277" s="119" t="s">
+      <c r="A277" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B277" s="124">
+      <c r="B277" s="121">
         <v>0.04</v>
       </c>
-      <c r="C277" s="123">
+      <c r="C277" s="120">
         <f t="shared" si="36"/>
         <v>152000</v>
       </c>
-      <c r="E277" s="119" t="s">
+      <c r="E277" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="F277" s="124">
+      <c r="F277" s="121">
         <v>0.04</v>
       </c>
-      <c r="G277" s="123">
+      <c r="G277" s="120">
         <f t="shared" si="35"/>
         <v>60000</v>
       </c>
@@ -7837,23 +7852,23 @@
       <c r="T277" s="49"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A278" s="119" t="s">
+      <c r="A278" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B278" s="124">
+      <c r="B278" s="121">
         <v>0.02</v>
       </c>
-      <c r="C278" s="123">
+      <c r="C278" s="120">
         <f t="shared" si="36"/>
         <v>76000</v>
       </c>
-      <c r="E278" s="119" t="s">
+      <c r="E278" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="F278" s="124">
+      <c r="F278" s="121">
         <v>0.02</v>
       </c>
-      <c r="G278" s="123">
+      <c r="G278" s="120">
         <f t="shared" si="35"/>
         <v>30000</v>
       </c>
@@ -7866,23 +7881,23 @@
       <c r="T278" s="49"/>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A279" s="119" t="s">
+      <c r="A279" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="B279" s="124">
+      <c r="B279" s="121">
         <v>0.03</v>
       </c>
-      <c r="C279" s="123">
+      <c r="C279" s="120">
         <f t="shared" si="36"/>
         <v>114000</v>
       </c>
-      <c r="E279" s="119" t="s">
+      <c r="E279" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="F279" s="124">
+      <c r="F279" s="121">
         <v>0.03</v>
       </c>
-      <c r="G279" s="123">
+      <c r="G279" s="120">
         <f t="shared" si="35"/>
         <v>45000</v>
       </c>
@@ -7895,19 +7910,19 @@
       <c r="T279" s="49"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A280" s="119" t="s">
+      <c r="A280" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="B280" s="119"/>
-      <c r="C280" s="123">
+      <c r="B280" s="116"/>
+      <c r="C280" s="120">
         <f>SUM(C260:C279)</f>
         <v>2299000</v>
       </c>
-      <c r="E280" s="125" t="s">
+      <c r="E280" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="F280" s="119"/>
-      <c r="G280" s="123">
+      <c r="F280" s="116"/>
+      <c r="G280" s="120">
         <v>117000</v>
       </c>
       <c r="J280" s="47"/>
@@ -7919,19 +7934,19 @@
       <c r="T280" s="49"/>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A281" s="119" t="s">
+      <c r="A281" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="B281" s="119"/>
-      <c r="C281" s="123">
+      <c r="B281" s="116"/>
+      <c r="C281" s="120">
         <f>+C280+B266</f>
         <v>6299000</v>
       </c>
-      <c r="E281" s="119" t="s">
+      <c r="E281" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="F281" s="119"/>
-      <c r="G281" s="123">
+      <c r="F281" s="116"/>
+      <c r="G281" s="120">
         <f>SUM(G270:G280)</f>
         <v>910500</v>
       </c>
@@ -7947,11 +7962,11 @@
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="E282" s="125" t="s">
+      <c r="E282" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="F282" s="119"/>
-      <c r="G282" s="123">
+      <c r="F282" s="116"/>
+      <c r="G282" s="120">
         <f>+G281+F266</f>
         <v>2410500</v>
       </c>
@@ -7972,11 +7987,11 @@
         <f>+C281/B263</f>
         <v>27386.956521739132</v>
       </c>
-      <c r="E283" s="119" t="s">
+      <c r="E283" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="F283" s="119"/>
-      <c r="G283" s="123">
+      <c r="F283" s="116"/>
+      <c r="G283" s="120">
         <f>+G282/B263</f>
         <v>10480.434782608696</v>
       </c>
@@ -8031,13 +8046,13 @@
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="119" t="s">
+      <c r="A289" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="B289" s="123">
+      <c r="B289" s="120">
         <v>2388262</v>
       </c>
-      <c r="C289" s="123">
+      <c r="C289" s="120">
         <f>B289/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -8045,13 +8060,13 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="119" t="s">
+      <c r="A290" s="116" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="123">
+      <c r="B290" s="120">
         <v>6775276.5</v>
       </c>
-      <c r="C290" s="123">
+      <c r="C290" s="120">
         <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -8059,26 +8074,26 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="119" t="s">
+      <c r="A291" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="B291" s="123">
+      <c r="B291" s="120">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C291" s="123">
+      <c r="C291" s="120">
         <f t="shared" si="37"/>
         <v>3986.6369999999997</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="119" t="s">
+      <c r="A292" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="B292" s="123">
+      <c r="B292" s="120">
         <v>6688000</v>
       </c>
-      <c r="C292" s="123">
+      <c r="C292" s="120">
         <f t="shared" si="37"/>
         <v>5573.333333333333</v>
       </c>
@@ -8087,13 +8102,13 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="119" t="s">
+      <c r="A293" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B293" s="123">
+      <c r="B293" s="120">
         <v>63000</v>
       </c>
-      <c r="C293" s="123">
+      <c r="C293" s="120">
         <f t="shared" si="37"/>
         <v>52.5</v>
       </c>
@@ -8130,92 +8145,92 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A299" s="119" t="s">
+      <c r="A299" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="B299" s="120">
-        <v>1</v>
-      </c>
-      <c r="C299" s="121">
+      <c r="B299" s="117">
+        <v>1</v>
+      </c>
+      <c r="C299" s="118">
         <v>10000000</v>
       </c>
-      <c r="D299" s="121">
+      <c r="D299" s="118">
         <f t="shared" ref="D299:D309" si="38">B299*C299</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" s="119" t="s">
+      <c r="A300" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="B300" s="120">
+      <c r="B300" s="117">
         <v>12</v>
       </c>
-      <c r="C300" s="121">
+      <c r="C300" s="118">
         <v>4000000</v>
       </c>
-      <c r="D300" s="121">
+      <c r="D300" s="118">
         <f t="shared" si="38"/>
         <v>48000000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301" s="119" t="s">
+      <c r="A301" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="B301" s="120">
+      <c r="B301" s="117">
         <v>6</v>
       </c>
-      <c r="C301" s="121">
+      <c r="C301" s="118">
         <v>1000000</v>
       </c>
-      <c r="D301" s="121">
+      <c r="D301" s="118">
         <f t="shared" si="38"/>
         <v>6000000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A302" s="119" t="s">
+      <c r="A302" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="B302" s="120">
-        <v>1</v>
-      </c>
-      <c r="C302" s="121">
+      <c r="B302" s="117">
+        <v>1</v>
+      </c>
+      <c r="C302" s="118">
         <v>1000000</v>
       </c>
-      <c r="D302" s="121">
+      <c r="D302" s="118">
         <f t="shared" si="38"/>
         <v>1000000</v>
       </c>
       <c r="I302" s="37"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A303" s="119" t="s">
+      <c r="A303" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B303" s="120">
+      <c r="B303" s="117">
         <v>6</v>
       </c>
-      <c r="C303" s="121">
+      <c r="C303" s="118">
         <v>2000000</v>
       </c>
-      <c r="D303" s="121">
+      <c r="D303" s="118">
         <f t="shared" si="38"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="119" t="s">
+      <c r="A304" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="B304" s="120">
+      <c r="B304" s="117">
         <v>3</v>
       </c>
-      <c r="C304" s="121">
+      <c r="C304" s="118">
         <v>2500000</v>
       </c>
-      <c r="D304" s="121">
+      <c r="D304" s="118">
         <f t="shared" si="38"/>
         <v>7500000</v>
       </c>
@@ -8223,80 +8238,80 @@
       <c r="G304" s="27"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="119" t="s">
+      <c r="A305" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="B305" s="120">
+      <c r="B305" s="117">
         <v>10</v>
       </c>
-      <c r="C305" s="121">
+      <c r="C305" s="118">
         <v>400000</v>
       </c>
-      <c r="D305" s="121">
+      <c r="D305" s="118">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="G305" s="29"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="119" t="s">
+      <c r="A306" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="B306" s="120">
-        <v>1</v>
-      </c>
-      <c r="C306" s="121">
+      <c r="B306" s="117">
+        <v>1</v>
+      </c>
+      <c r="C306" s="118">
         <v>5000000</v>
       </c>
-      <c r="D306" s="121">
+      <c r="D306" s="118">
         <f t="shared" si="38"/>
         <v>5000000</v>
       </c>
       <c r="H306" s="30"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="119" t="s">
+      <c r="A307" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="B307" s="120">
+      <c r="B307" s="117">
         <v>2</v>
       </c>
-      <c r="C307" s="121">
+      <c r="C307" s="118">
         <v>2000000</v>
       </c>
-      <c r="D307" s="121">
+      <c r="D307" s="118">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="H307" s="29"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A308" s="119" t="s">
+      <c r="A308" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="120">
+      <c r="B308" s="117">
         <v>5</v>
       </c>
-      <c r="C308" s="121">
+      <c r="C308" s="118">
         <v>400000</v>
       </c>
-      <c r="D308" s="121">
+      <c r="D308" s="118">
         <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
       <c r="H308" s="29"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A309" s="119" t="s">
+      <c r="A309" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="B309" s="120">
-        <v>1</v>
-      </c>
-      <c r="C309" s="121">
+      <c r="B309" s="117">
+        <v>1</v>
+      </c>
+      <c r="C309" s="118">
         <v>10000000</v>
       </c>
-      <c r="D309" s="121">
+      <c r="D309" s="118">
         <f t="shared" si="38"/>
         <v>10000000</v>
       </c>
@@ -8433,6 +8448,9 @@
       <c r="E325" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D126:G126"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -9396,23 +9414,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="D4" s="116" t="s">
+      <c r="B4" s="124"/>
+      <c r="D4" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="124"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
@@ -9938,26 +9956,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -10164,10 +10162,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
+    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10184,20 +10213,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
-    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.varela/Development/github_personal/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E8F6A-CEF3-824C-AF22-700BFA3E1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC46302-A249-8B42-80D6-E1A1E001607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22180" yWindow="500" windowWidth="29020" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="1380" windowWidth="38420" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo 1" sheetId="1" r:id="rId1"/>
@@ -1437,10 +1437,10 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126:G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4783,12 +4783,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="127" t="s">
+      <c r="D126" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="126"/>
-      <c r="F126" s="126"/>
-      <c r="G126" s="126"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="127"/>
+      <c r="G126" s="127"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="116" t="s">
@@ -9956,6 +9956,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -10162,27 +10182,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
+    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10199,23 +10218,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
-    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.varela/Development/github_personal/nutreconelalma_v2.2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC46302-A249-8B42-80D6-E1A1E001607F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740F5C1-F54B-8445-A675-BE42E7CF593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="1380" windowWidth="38420" windowHeight="25060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26000" yWindow="600" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo 1" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1428,6 +1428,12 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1437,12 +1443,11 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1762,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126:G126"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3748,7 +3753,7 @@
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="129" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="7"/>
@@ -4318,12 +4323,12 @@
       <c r="T103" s="44"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="116" t="s">
+      <c r="A104" s="128" t="s">
         <v>64</v>
       </c>
       <c r="B104" s="116"/>
       <c r="C104" s="116"/>
-      <c r="E104" s="116" t="s">
+      <c r="E104" s="128" t="s">
         <v>64</v>
       </c>
       <c r="F104" s="116"/>
@@ -4348,13 +4353,13 @@
       <c r="T105" s="44"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" s="116" t="s">
+      <c r="A106" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="121">
+      <c r="B106" s="131">
         <v>0.08</v>
       </c>
-      <c r="C106" s="120">
+      <c r="C106" s="132">
         <f t="shared" ref="C106:C115" si="11">+$B$102*B106</f>
         <v>304000</v>
       </c>
@@ -4373,13 +4378,13 @@
       <c r="T106" s="44"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" s="116" t="s">
+      <c r="A107" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="121">
+      <c r="B107" s="131">
         <v>0.08</v>
       </c>
-      <c r="C107" s="120">
+      <c r="C107" s="132">
         <f t="shared" si="11"/>
         <v>304000</v>
       </c>
@@ -4402,13 +4407,13 @@
       <c r="T107" s="49"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" s="116" t="s">
+      <c r="A108" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="121">
+      <c r="B108" s="131">
         <v>0.04</v>
       </c>
-      <c r="C108" s="120">
+      <c r="C108" s="132">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
@@ -4431,13 +4436,13 @@
       <c r="T108" s="49"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" s="116" t="s">
+      <c r="A109" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="121">
+      <c r="B109" s="131">
         <v>0.01</v>
       </c>
-      <c r="C109" s="120">
+      <c r="C109" s="132">
         <f t="shared" si="11"/>
         <v>38000</v>
       </c>
@@ -4460,13 +4465,13 @@
       <c r="T109" s="49"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" s="116" t="s">
+      <c r="A110" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="121">
+      <c r="B110" s="131">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C110" s="120">
+      <c r="C110" s="132">
         <f t="shared" si="11"/>
         <v>323000</v>
       </c>
@@ -4489,13 +4494,13 @@
       <c r="T110" s="49"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="116" t="s">
+      <c r="A111" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="121">
+      <c r="B111" s="131">
         <v>0.12</v>
       </c>
-      <c r="C111" s="120">
+      <c r="C111" s="132">
         <f t="shared" si="11"/>
         <v>456000</v>
       </c>
@@ -4518,13 +4523,13 @@
       <c r="T111" s="49"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="116" t="s">
+      <c r="A112" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="121">
+      <c r="B112" s="131">
         <v>0.02</v>
       </c>
-      <c r="C112" s="120">
+      <c r="C112" s="132">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
@@ -4547,13 +4552,13 @@
       <c r="T112" s="49"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="116" t="s">
+      <c r="A113" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="121">
+      <c r="B113" s="131">
         <v>0.04</v>
       </c>
-      <c r="C113" s="120">
+      <c r="C113" s="132">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
@@ -4576,13 +4581,13 @@
       <c r="T113" s="49"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="116" t="s">
+      <c r="A114" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="121">
+      <c r="B114" s="131">
         <v>0.02</v>
       </c>
-      <c r="C114" s="120">
+      <c r="C114" s="132">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
@@ -4605,13 +4610,13 @@
       <c r="T114" s="49"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="116" t="s">
+      <c r="A115" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="121">
+      <c r="B115" s="131">
         <v>0.03</v>
       </c>
-      <c r="C115" s="120">
+      <c r="C115" s="132">
         <f t="shared" si="11"/>
         <v>114000</v>
       </c>
@@ -4783,12 +4788,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="126" t="s">
+      <c r="D126" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="127"/>
+      <c r="E126" s="124"/>
+      <c r="F126" s="124"/>
+      <c r="G126" s="124"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="116" t="s">
@@ -9414,23 +9419,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="126"/>
+      <c r="D4" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="126"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="s">
@@ -9956,26 +9961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -10182,10 +10167,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
+    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10202,20 +10218,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
-    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.varela/Development/github_personal/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740F5C1-F54B-8445-A675-BE42E7CF593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30899546-7FE4-5D4E-9C0C-523244F85FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26000" yWindow="600" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25500" yWindow="540" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="226">
   <si>
     <t>Variables de Costo</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>Valor Estimado / Capacidad produccion mensual / Lineas de Producción de la central</t>
+  </si>
+  <si>
+    <t>LA CONFIGURACIO DE LOS PORCENTAJES ESTA SOBRE CUALQUIER CENTRAL, PORQUE LA IDEA ES COMPARAR LA MANUAL CONTRA CUALQUIER AUTOMATIZADA</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1275,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1369,7 +1372,6 @@
     <xf numFmtId="168" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="18" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1428,6 +1430,11 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1443,11 +1450,10 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="8" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1767,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A296" sqref="A296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1798,10 +1804,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
@@ -1821,7 +1827,7 @@
       <c r="C4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="89">
         <f>B4*30</f>
         <v>300</v>
       </c>
@@ -2009,7 +2015,7 @@
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="92">
+      <c r="B22" s="91">
         <f>+B18+B20+B11+B12+B15+B13+B14+B8</f>
         <v>269755.70538768114</v>
       </c>
@@ -2048,7 +2054,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="88" t="s">
         <v>167</v>
       </c>
       <c r="B29" s="64" t="s">
@@ -2059,7 +2065,7 @@
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
-      <c r="I29" s="87" t="s">
+      <c r="I29" s="86" t="s">
         <v>168</v>
       </c>
       <c r="J29" s="64" t="s">
@@ -2068,7 +2074,7 @@
       <c r="K29" s="64">
         <v>1</v>
       </c>
-      <c r="R29" s="77" t="s">
+      <c r="R29" s="76" t="s">
         <v>169</v>
       </c>
       <c r="S29" s="64" t="s">
@@ -2082,65 +2088,65 @@
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="82" t="s">
+      <c r="B30" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="81" t="s">
         <v>161</v>
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="82" t="s">
+      <c r="J30" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="83" t="s">
+      <c r="K30" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="83" t="s">
+      <c r="L30" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="M30" s="82" t="s">
+      <c r="M30" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="83" t="s">
+      <c r="N30" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="O30" s="82" t="s">
+      <c r="O30" s="81" t="s">
         <v>161</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S30" s="82" t="s">
+      <c r="S30" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="T30" s="83" t="s">
+      <c r="T30" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="U30" s="83" t="s">
+      <c r="U30" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="V30" s="82" t="s">
+      <c r="V30" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="W30" s="83" t="s">
+      <c r="W30" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="X30" s="82" t="s">
+      <c r="X30" s="81" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2151,17 +2157,17 @@
       <c r="B31" s="3">
         <v>100</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="83">
         <v>50</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="83">
         <v>1</v>
       </c>
       <c r="E31" s="6">
         <f>C31*F31/B31</f>
         <v>20000</v>
       </c>
-      <c r="F31" s="86">
+      <c r="F31" s="85">
         <v>40000</v>
       </c>
       <c r="G31" s="52">
@@ -2175,17 +2181,17 @@
       <c r="J31" s="3">
         <v>100</v>
       </c>
-      <c r="K31" s="84">
-        <v>0</v>
-      </c>
-      <c r="L31" s="84">
+      <c r="K31" s="83">
+        <v>0</v>
+      </c>
+      <c r="L31" s="83">
         <v>1</v>
       </c>
       <c r="M31" s="6">
         <f t="shared" ref="M31:M51" si="0">K31*N31/J31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="86">
+      <c r="N31" s="85">
         <v>40000</v>
       </c>
       <c r="O31" s="52"/>
@@ -2195,17 +2201,17 @@
       <c r="S31" s="3">
         <v>500</v>
       </c>
-      <c r="T31" s="84">
+      <c r="T31" s="83">
         <v>600</v>
       </c>
-      <c r="U31" s="84">
+      <c r="U31" s="83">
         <v>1</v>
       </c>
       <c r="V31" s="6">
         <f>T31*W31/S31</f>
         <v>48000</v>
       </c>
-      <c r="W31" s="86">
+      <c r="W31" s="85">
         <v>40000</v>
       </c>
       <c r="X31" s="52">
@@ -2220,17 +2226,17 @@
       <c r="B32" s="3">
         <v>250</v>
       </c>
-      <c r="C32" s="84">
-        <v>0</v>
-      </c>
-      <c r="D32" s="84">
+      <c r="C32" s="83">
+        <v>0</v>
+      </c>
+      <c r="D32" s="83">
         <v>0</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" ref="E32:E34" si="1">C32*F32/B32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="86">
+      <c r="F32" s="85">
         <v>50000</v>
       </c>
       <c r="G32" s="52">
@@ -2244,17 +2250,17 @@
       <c r="J32" s="3">
         <v>250</v>
       </c>
-      <c r="K32" s="84">
-        <v>0</v>
-      </c>
-      <c r="L32" s="84">
+      <c r="K32" s="83">
+        <v>0</v>
+      </c>
+      <c r="L32" s="83">
         <v>0</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N32" s="86">
+      <c r="N32" s="85">
         <v>50000</v>
       </c>
       <c r="O32" s="52">
@@ -2267,17 +2273,17 @@
       <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="84">
-        <v>0</v>
-      </c>
-      <c r="U32" s="84">
+      <c r="T32" s="83">
+        <v>0</v>
+      </c>
+      <c r="U32" s="83">
         <v>0</v>
       </c>
       <c r="V32" s="6">
         <f t="shared" ref="V32:V42" si="4">T32*W32/S32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="86">
+      <c r="W32" s="85">
         <v>61000</v>
       </c>
       <c r="X32" s="52">
@@ -2292,17 +2298,17 @@
       <c r="B33" s="3">
         <v>500</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="83">
         <v>100</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="83">
         <v>0</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="F33" s="86">
+      <c r="F33" s="85">
         <v>100000</v>
       </c>
       <c r="G33" s="52">
@@ -2316,17 +2322,17 @@
       <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="84">
-        <v>0</v>
-      </c>
-      <c r="L33" s="84">
+      <c r="K33" s="83">
+        <v>0</v>
+      </c>
+      <c r="L33" s="83">
         <v>0</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N33" s="86">
+      <c r="N33" s="85">
         <v>100000</v>
       </c>
       <c r="O33" s="52">
@@ -2339,17 +2345,17 @@
       <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="84">
-        <v>0</v>
-      </c>
-      <c r="U33" s="84">
+      <c r="T33" s="83">
+        <v>0</v>
+      </c>
+      <c r="U33" s="83">
         <v>0</v>
       </c>
       <c r="V33" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W33" s="86">
+      <c r="W33" s="85">
         <v>66000</v>
       </c>
       <c r="X33" s="52">
@@ -2364,17 +2370,17 @@
       <c r="B34" s="3">
         <v>1000</v>
       </c>
-      <c r="C34" s="84">
-        <v>0</v>
-      </c>
-      <c r="D34" s="84">
+      <c r="C34" s="83">
+        <v>0</v>
+      </c>
+      <c r="D34" s="83">
         <v>0</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="86">
+      <c r="F34" s="85">
         <v>20546.599999999999</v>
       </c>
       <c r="G34" s="52">
@@ -2388,17 +2394,17 @@
       <c r="J34" s="3">
         <v>1000</v>
       </c>
-      <c r="K34" s="84">
-        <v>0</v>
-      </c>
-      <c r="L34" s="84">
+      <c r="K34" s="83">
+        <v>0</v>
+      </c>
+      <c r="L34" s="83">
         <v>0</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N34" s="86">
+      <c r="N34" s="85">
         <v>20546.599999999999</v>
       </c>
       <c r="O34" s="52">
@@ -2411,17 +2417,17 @@
       <c r="S34" s="3">
         <v>1000</v>
       </c>
-      <c r="T34" s="84">
-        <v>0</v>
-      </c>
-      <c r="U34" s="84">
+      <c r="T34" s="83">
+        <v>0</v>
+      </c>
+      <c r="U34" s="83">
         <v>0</v>
       </c>
       <c r="V34" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W34" s="86">
+      <c r="W34" s="85">
         <v>135000</v>
       </c>
       <c r="X34" s="52">
@@ -2436,17 +2442,17 @@
       <c r="B35" s="3">
         <v>10</v>
       </c>
-      <c r="C35" s="84">
-        <v>0</v>
-      </c>
-      <c r="D35" s="84">
+      <c r="C35" s="83">
+        <v>0</v>
+      </c>
+      <c r="D35" s="83">
         <v>1</v>
       </c>
       <c r="E35" s="6">
         <f>C35*F35/B35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="86">
+      <c r="F35" s="85">
         <v>1500</v>
       </c>
       <c r="G35" s="52">
@@ -2460,17 +2466,17 @@
       <c r="J35" s="3">
         <v>10</v>
       </c>
-      <c r="K35" s="84">
-        <v>0</v>
-      </c>
-      <c r="L35" s="84">
+      <c r="K35" s="83">
+        <v>0</v>
+      </c>
+      <c r="L35" s="83">
         <v>1</v>
       </c>
       <c r="M35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="86">
+      <c r="N35" s="85">
         <v>1500</v>
       </c>
       <c r="O35" s="52">
@@ -2483,17 +2489,17 @@
       <c r="S35" s="3">
         <v>10</v>
       </c>
-      <c r="T35" s="84">
+      <c r="T35" s="83">
         <v>30</v>
       </c>
-      <c r="U35" s="84">
+      <c r="U35" s="83">
         <v>1</v>
       </c>
       <c r="V35" s="6">
         <f t="shared" si="4"/>
         <v>4500</v>
       </c>
-      <c r="W35" s="86">
+      <c r="W35" s="85">
         <v>1500</v>
       </c>
       <c r="X35" s="52">
@@ -2508,17 +2514,17 @@
       <c r="B36" s="3">
         <v>10</v>
       </c>
-      <c r="C36" s="84">
-        <v>0</v>
-      </c>
-      <c r="D36" s="84">
+      <c r="C36" s="83">
+        <v>0</v>
+      </c>
+      <c r="D36" s="83">
         <v>1</v>
       </c>
       <c r="E36" s="6">
         <f>C36*F36/B36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="86">
+      <c r="F36" s="85">
         <v>5700</v>
       </c>
       <c r="G36" s="52">
@@ -2532,17 +2538,17 @@
       <c r="J36" s="3">
         <v>10</v>
       </c>
-      <c r="K36" s="84">
-        <v>0</v>
-      </c>
-      <c r="L36" s="84">
+      <c r="K36" s="83">
+        <v>0</v>
+      </c>
+      <c r="L36" s="83">
         <v>1</v>
       </c>
       <c r="M36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N36" s="86">
+      <c r="N36" s="85">
         <v>5700</v>
       </c>
       <c r="O36" s="52">
@@ -2555,17 +2561,17 @@
       <c r="S36" s="3">
         <v>10</v>
       </c>
-      <c r="T36" s="84">
+      <c r="T36" s="83">
         <v>10</v>
       </c>
-      <c r="U36" s="84">
+      <c r="U36" s="83">
         <v>1</v>
       </c>
       <c r="V36" s="6">
         <f t="shared" si="4"/>
         <v>5700</v>
       </c>
-      <c r="W36" s="86">
+      <c r="W36" s="85">
         <v>5700</v>
       </c>
       <c r="X36" s="52">
@@ -2580,17 +2586,17 @@
       <c r="B37" s="3">
         <v>10</v>
       </c>
-      <c r="C37" s="84">
-        <v>0</v>
-      </c>
-      <c r="D37" s="84">
+      <c r="C37" s="83">
+        <v>0</v>
+      </c>
+      <c r="D37" s="83">
         <v>1</v>
       </c>
       <c r="E37" s="6">
         <f>C37*F37/B37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="86">
+      <c r="F37" s="85">
         <v>1500</v>
       </c>
       <c r="G37" s="52">
@@ -2604,17 +2610,17 @@
       <c r="J37" s="3">
         <v>10</v>
       </c>
-      <c r="K37" s="84">
-        <v>0</v>
-      </c>
-      <c r="L37" s="84">
+      <c r="K37" s="83">
+        <v>0</v>
+      </c>
+      <c r="L37" s="83">
         <v>1</v>
       </c>
       <c r="M37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="86">
+      <c r="N37" s="85">
         <v>1500</v>
       </c>
       <c r="O37" s="52">
@@ -2627,17 +2633,17 @@
       <c r="S37" s="3">
         <v>20</v>
       </c>
-      <c r="T37" s="84">
-        <v>0</v>
-      </c>
-      <c r="U37" s="84">
+      <c r="T37" s="83">
+        <v>0</v>
+      </c>
+      <c r="U37" s="83">
         <v>1</v>
       </c>
       <c r="V37" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W37" s="86">
+      <c r="W37" s="85">
         <v>20000</v>
       </c>
       <c r="X37" s="52">
@@ -2652,17 +2658,17 @@
       <c r="B38" s="3">
         <v>10</v>
       </c>
-      <c r="C38" s="84">
-        <v>0</v>
-      </c>
-      <c r="D38" s="84">
+      <c r="C38" s="83">
+        <v>0</v>
+      </c>
+      <c r="D38" s="83">
         <v>1</v>
       </c>
       <c r="E38" s="6">
         <f>C38*F38/B38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="86">
+      <c r="F38" s="85">
         <v>1500</v>
       </c>
       <c r="G38" s="52">
@@ -2676,17 +2682,17 @@
       <c r="J38" s="3">
         <v>10</v>
       </c>
-      <c r="K38" s="84">
-        <v>0</v>
-      </c>
-      <c r="L38" s="84">
+      <c r="K38" s="83">
+        <v>0</v>
+      </c>
+      <c r="L38" s="83">
         <v>1</v>
       </c>
       <c r="M38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N38" s="86">
+      <c r="N38" s="85">
         <v>1500</v>
       </c>
       <c r="O38" s="52">
@@ -2699,15 +2705,15 @@
       <c r="S38" s="3">
         <v>10</v>
       </c>
-      <c r="T38" s="84">
+      <c r="T38" s="83">
         <v>30</v>
       </c>
-      <c r="U38" s="84"/>
+      <c r="U38" s="83"/>
       <c r="V38" s="6">
         <f t="shared" si="4"/>
         <v>4500</v>
       </c>
-      <c r="W38" s="86">
+      <c r="W38" s="85">
         <v>1500</v>
       </c>
       <c r="X38" s="52">
@@ -2722,17 +2728,17 @@
       <c r="B39" s="3">
         <v>10</v>
       </c>
-      <c r="C39" s="84">
-        <v>0</v>
-      </c>
-      <c r="D39" s="84">
+      <c r="C39" s="83">
+        <v>0</v>
+      </c>
+      <c r="D39" s="83">
         <v>0</v>
       </c>
       <c r="E39" s="6">
         <f>C39*F39/B39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="86">
+      <c r="F39" s="85">
         <v>1800</v>
       </c>
       <c r="G39" s="52">
@@ -2745,17 +2751,17 @@
       <c r="J39" s="3">
         <v>10</v>
       </c>
-      <c r="K39" s="84">
-        <v>0</v>
-      </c>
-      <c r="L39" s="84">
+      <c r="K39" s="83">
+        <v>0</v>
+      </c>
+      <c r="L39" s="83">
         <v>0</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39" s="86">
+      <c r="N39" s="85">
         <v>1800</v>
       </c>
       <c r="O39" s="52">
@@ -2768,17 +2774,17 @@
       <c r="S39" s="3">
         <v>10</v>
       </c>
-      <c r="T39" s="84">
+      <c r="T39" s="83">
         <v>12</v>
       </c>
-      <c r="U39" s="84">
+      <c r="U39" s="83">
         <v>1</v>
       </c>
       <c r="V39" s="6">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="W39" s="86">
+      <c r="W39" s="85">
         <v>1500</v>
       </c>
       <c r="X39" s="52">
@@ -2793,17 +2799,17 @@
       <c r="B40" s="3">
         <v>100</v>
       </c>
-      <c r="C40" s="84">
-        <v>0</v>
-      </c>
-      <c r="D40" s="84">
+      <c r="C40" s="83">
+        <v>0</v>
+      </c>
+      <c r="D40" s="83">
         <v>1</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" ref="E40" si="6">C40*F40/B40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="86">
+      <c r="F40" s="85">
         <v>80000</v>
       </c>
       <c r="G40" s="6">
@@ -2817,15 +2823,15 @@
       <c r="J40" s="3">
         <v>100</v>
       </c>
-      <c r="K40" s="84">
-        <v>0</v>
-      </c>
-      <c r="L40" s="84"/>
+      <c r="K40" s="83">
+        <v>0</v>
+      </c>
+      <c r="L40" s="83"/>
       <c r="M40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N40" s="86">
+      <c r="N40" s="85">
         <v>80000</v>
       </c>
       <c r="O40" s="52">
@@ -2838,17 +2844,17 @@
       <c r="S40" s="3">
         <v>10</v>
       </c>
-      <c r="T40" s="84">
+      <c r="T40" s="83">
         <v>20</v>
       </c>
-      <c r="U40" s="84">
+      <c r="U40" s="83">
         <v>0</v>
       </c>
       <c r="V40" s="6">
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="W40" s="86">
+      <c r="W40" s="85">
         <v>1800</v>
       </c>
       <c r="X40" s="52">
@@ -2863,17 +2869,17 @@
       <c r="B41" s="3">
         <v>500</v>
       </c>
-      <c r="C41" s="84">
-        <v>0</v>
-      </c>
-      <c r="D41" s="84">
+      <c r="C41" s="83">
+        <v>0</v>
+      </c>
+      <c r="D41" s="83">
         <v>0</v>
       </c>
       <c r="E41" s="6">
         <f>C41*F41/B41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="86">
+      <c r="F41" s="85">
         <v>10814</v>
       </c>
       <c r="G41" s="52">
@@ -2887,15 +2893,15 @@
       <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="84">
-        <v>0</v>
-      </c>
-      <c r="L41" s="84"/>
+      <c r="K41" s="83">
+        <v>0</v>
+      </c>
+      <c r="L41" s="83"/>
       <c r="M41" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N41" s="86">
+      <c r="N41" s="85">
         <v>10814</v>
       </c>
       <c r="O41" s="52">
@@ -2908,15 +2914,15 @@
       <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="84">
+      <c r="T41" s="83">
         <v>200</v>
       </c>
-      <c r="U41" s="84"/>
+      <c r="U41" s="83"/>
       <c r="V41" s="6">
         <f t="shared" si="4"/>
         <v>32000</v>
       </c>
-      <c r="W41" s="86">
+      <c r="W41" s="85">
         <v>80000</v>
       </c>
       <c r="X41" s="52">
@@ -2931,17 +2937,17 @@
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="84">
-        <v>0</v>
-      </c>
-      <c r="D42" s="84">
+      <c r="C42" s="83">
+        <v>0</v>
+      </c>
+      <c r="D42" s="83">
         <v>0</v>
       </c>
       <c r="E42" s="6">
         <f>C42*F42/B42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="86">
+      <c r="F42" s="85">
         <v>13000</v>
       </c>
       <c r="G42" s="42">
@@ -2954,17 +2960,17 @@
       <c r="J42" s="3">
         <v>1</v>
       </c>
-      <c r="K42" s="84">
-        <v>0</v>
-      </c>
-      <c r="L42" s="84">
+      <c r="K42" s="83">
+        <v>0</v>
+      </c>
+      <c r="L42" s="83">
         <v>1</v>
       </c>
       <c r="M42" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N42" s="86">
+      <c r="N42" s="85">
         <v>13000</v>
       </c>
       <c r="O42" s="52">
@@ -2977,15 +2983,15 @@
       <c r="S42" s="3">
         <v>500</v>
       </c>
-      <c r="T42" s="84">
+      <c r="T42" s="83">
         <v>250</v>
       </c>
-      <c r="U42" s="84"/>
+      <c r="U42" s="83"/>
       <c r="V42" s="6">
         <f t="shared" si="4"/>
         <v>5407</v>
       </c>
-      <c r="W42" s="86">
+      <c r="W42" s="85">
         <v>10814</v>
       </c>
       <c r="X42" s="52">
@@ -3000,15 +3006,15 @@
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="84">
-        <v>0</v>
-      </c>
-      <c r="D43" s="84"/>
+      <c r="C43" s="83">
+        <v>0</v>
+      </c>
+      <c r="D43" s="83"/>
       <c r="E43" s="6">
         <f t="shared" ref="E43:E49" si="7">C43*F43/B43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="86">
+      <c r="F43" s="85">
         <v>23000</v>
       </c>
       <c r="G43" s="42">
@@ -3021,17 +3027,17 @@
       <c r="J43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="84">
-        <v>0</v>
-      </c>
-      <c r="L43" s="84">
+      <c r="K43" s="83">
+        <v>0</v>
+      </c>
+      <c r="L43" s="83">
         <v>1</v>
       </c>
       <c r="M43" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N43" s="86">
+      <c r="N43" s="85">
         <v>13000</v>
       </c>
       <c r="O43" s="52"/>
@@ -3041,14 +3047,14 @@
       <c r="S43" s="3">
         <v>1</v>
       </c>
-      <c r="T43" s="84">
-        <v>1</v>
-      </c>
-      <c r="U43" s="84">
+      <c r="T43" s="83">
+        <v>1</v>
+      </c>
+      <c r="U43" s="83">
         <v>1</v>
       </c>
       <c r="V43" s="6"/>
-      <c r="W43" s="86">
+      <c r="W43" s="85">
         <v>13000</v>
       </c>
       <c r="X43" s="52">
@@ -3063,15 +3069,15 @@
       <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="84">
-        <v>0</v>
-      </c>
-      <c r="D44" s="84"/>
+      <c r="C44" s="83">
+        <v>0</v>
+      </c>
+      <c r="D44" s="83"/>
       <c r="E44" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F44" s="86">
+      <c r="F44" s="85">
         <v>25000</v>
       </c>
       <c r="G44" s="52">
@@ -3085,15 +3091,15 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="84">
-        <v>0</v>
-      </c>
-      <c r="L44" s="84"/>
+      <c r="K44" s="83">
+        <v>0</v>
+      </c>
+      <c r="L44" s="83"/>
       <c r="M44" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N44" s="86">
+      <c r="N44" s="85">
         <v>23000</v>
       </c>
       <c r="O44" s="52">
@@ -3105,12 +3111,12 @@
       <c r="S44" s="3">
         <v>1</v>
       </c>
-      <c r="T44" s="84">
-        <v>1</v>
-      </c>
-      <c r="U44" s="84"/>
+      <c r="T44" s="83">
+        <v>1</v>
+      </c>
+      <c r="U44" s="83"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="86">
+      <c r="W44" s="85">
         <v>23000</v>
       </c>
       <c r="X44" s="52">
@@ -3125,15 +3131,15 @@
       <c r="B45" s="3">
         <v>5</v>
       </c>
-      <c r="C45" s="84">
-        <v>0</v>
-      </c>
-      <c r="D45" s="84"/>
+      <c r="C45" s="83">
+        <v>0</v>
+      </c>
+      <c r="D45" s="83"/>
       <c r="E45" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F45" s="86">
+      <c r="F45" s="85">
         <v>2000</v>
       </c>
       <c r="G45" s="52">
@@ -3147,15 +3153,15 @@
       <c r="J45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="84">
-        <v>0</v>
-      </c>
-      <c r="L45" s="84"/>
+      <c r="K45" s="83">
+        <v>0</v>
+      </c>
+      <c r="L45" s="83"/>
       <c r="M45" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N45" s="86">
+      <c r="N45" s="85">
         <v>25000</v>
       </c>
       <c r="O45" s="52">
@@ -3168,12 +3174,12 @@
       <c r="S45" s="3">
         <v>1</v>
       </c>
-      <c r="T45" s="84">
-        <v>0</v>
-      </c>
-      <c r="U45" s="84"/>
+      <c r="T45" s="83">
+        <v>0</v>
+      </c>
+      <c r="U45" s="83"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="86">
+      <c r="W45" s="85">
         <v>25000</v>
       </c>
       <c r="X45" s="52">
@@ -3188,15 +3194,15 @@
       <c r="B46" s="3">
         <v>10</v>
       </c>
-      <c r="C46" s="84">
-        <v>0</v>
-      </c>
-      <c r="D46" s="84"/>
+      <c r="C46" s="83">
+        <v>0</v>
+      </c>
+      <c r="D46" s="83"/>
       <c r="E46" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F46" s="86">
+      <c r="F46" s="85">
         <v>3000</v>
       </c>
       <c r="G46" s="52">
@@ -3210,15 +3216,15 @@
       <c r="J46" s="3">
         <v>5</v>
       </c>
-      <c r="K46" s="84">
-        <v>0</v>
-      </c>
-      <c r="L46" s="84"/>
+      <c r="K46" s="83">
+        <v>0</v>
+      </c>
+      <c r="L46" s="83"/>
       <c r="M46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N46" s="86">
+      <c r="N46" s="85">
         <v>2000</v>
       </c>
       <c r="O46" s="52">
@@ -3231,12 +3237,12 @@
       <c r="S46" s="3">
         <v>5</v>
       </c>
-      <c r="T46" s="84">
-        <v>1</v>
-      </c>
-      <c r="U46" s="84"/>
+      <c r="T46" s="83">
+        <v>1</v>
+      </c>
+      <c r="U46" s="83"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="86">
+      <c r="W46" s="85">
         <v>2000</v>
       </c>
       <c r="X46" s="52">
@@ -3251,15 +3257,15 @@
       <c r="B47" s="3">
         <v>10</v>
       </c>
-      <c r="C47" s="84">
-        <v>0</v>
-      </c>
-      <c r="D47" s="84"/>
+      <c r="C47" s="83">
+        <v>0</v>
+      </c>
+      <c r="D47" s="83"/>
       <c r="E47" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F47" s="86">
+      <c r="F47" s="85">
         <v>15000</v>
       </c>
       <c r="G47" s="6">
@@ -3272,15 +3278,15 @@
       <c r="J47" s="3">
         <v>10</v>
       </c>
-      <c r="K47" s="84">
-        <v>0</v>
-      </c>
-      <c r="L47" s="84"/>
+      <c r="K47" s="83">
+        <v>0</v>
+      </c>
+      <c r="L47" s="83"/>
       <c r="M47" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N47" s="86">
+      <c r="N47" s="85">
         <v>3000</v>
       </c>
       <c r="O47" s="52">
@@ -3293,12 +3299,12 @@
       <c r="S47" s="3">
         <v>5</v>
       </c>
-      <c r="T47" s="84">
-        <v>1</v>
-      </c>
-      <c r="U47" s="84"/>
+      <c r="T47" s="83">
+        <v>1</v>
+      </c>
+      <c r="U47" s="83"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="86">
+      <c r="W47" s="85">
         <v>3000</v>
       </c>
       <c r="X47" s="52">
@@ -3313,15 +3319,15 @@
       <c r="B48" s="3">
         <v>500</v>
       </c>
-      <c r="C48" s="84">
-        <v>0</v>
-      </c>
-      <c r="D48" s="85"/>
+      <c r="C48" s="83">
+        <v>0</v>
+      </c>
+      <c r="D48" s="84"/>
       <c r="E48" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F48" s="86">
+      <c r="F48" s="85">
         <v>4000</v>
       </c>
       <c r="G48" s="6">
@@ -3334,17 +3340,17 @@
       <c r="J48" s="3">
         <v>10</v>
       </c>
-      <c r="K48" s="84">
-        <v>0</v>
-      </c>
-      <c r="L48" s="84">
+      <c r="K48" s="83">
+        <v>0</v>
+      </c>
+      <c r="L48" s="83">
         <v>1</v>
       </c>
       <c r="M48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N48" s="86">
+      <c r="N48" s="85">
         <v>15000</v>
       </c>
       <c r="O48" s="52">
@@ -3357,12 +3363,12 @@
       <c r="S48" s="3">
         <v>10</v>
       </c>
-      <c r="T48" s="84">
-        <v>1</v>
-      </c>
-      <c r="U48" s="84"/>
+      <c r="T48" s="83">
+        <v>1</v>
+      </c>
+      <c r="U48" s="83"/>
       <c r="V48" s="6"/>
-      <c r="W48" s="86">
+      <c r="W48" s="85">
         <v>3000</v>
       </c>
       <c r="X48" s="52">
@@ -3377,15 +3383,15 @@
       <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49" s="84">
-        <v>0</v>
-      </c>
-      <c r="D49" s="85"/>
+      <c r="C49" s="83">
+        <v>0</v>
+      </c>
+      <c r="D49" s="84"/>
       <c r="E49" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F49" s="86">
+      <c r="F49" s="85">
         <v>31000</v>
       </c>
       <c r="G49" s="6"/>
@@ -3396,15 +3402,15 @@
       <c r="J49" s="3">
         <v>1</v>
       </c>
-      <c r="K49" s="84">
-        <v>0</v>
-      </c>
-      <c r="L49" s="84"/>
+      <c r="K49" s="83">
+        <v>0</v>
+      </c>
+      <c r="L49" s="83"/>
       <c r="M49" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N49" s="86">
+      <c r="N49" s="85">
         <v>21000</v>
       </c>
       <c r="O49" s="52">
@@ -3417,14 +3423,14 @@
       <c r="S49" s="3">
         <v>1</v>
       </c>
-      <c r="T49" s="84">
-        <v>1</v>
-      </c>
-      <c r="U49" s="84">
+      <c r="T49" s="83">
+        <v>1</v>
+      </c>
+      <c r="U49" s="83">
         <v>1</v>
       </c>
       <c r="V49" s="6"/>
-      <c r="W49" s="86">
+      <c r="W49" s="85">
         <v>39000</v>
       </c>
       <c r="X49" s="52">
@@ -3439,15 +3445,15 @@
       <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="84">
-        <v>0</v>
-      </c>
-      <c r="D50" s="85"/>
+      <c r="C50" s="83">
+        <v>0</v>
+      </c>
+      <c r="D50" s="84"/>
       <c r="E50" s="6">
         <f>C50*F50/B50</f>
         <v>0</v>
       </c>
-      <c r="F50" s="86">
+      <c r="F50" s="85">
         <v>20000</v>
       </c>
       <c r="G50" s="6">
@@ -3461,15 +3467,15 @@
       <c r="J50" s="3">
         <v>1</v>
       </c>
-      <c r="K50" s="84">
-        <v>0</v>
-      </c>
-      <c r="L50" s="84"/>
+      <c r="K50" s="83">
+        <v>0</v>
+      </c>
+      <c r="L50" s="83"/>
       <c r="M50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N50" s="86">
+      <c r="N50" s="85">
         <v>20000</v>
       </c>
       <c r="O50" s="52"/>
@@ -3479,12 +3485,12 @@
       <c r="S50" s="3">
         <v>1</v>
       </c>
-      <c r="T50" s="84">
-        <v>0</v>
-      </c>
-      <c r="U50" s="84"/>
+      <c r="T50" s="83">
+        <v>0</v>
+      </c>
+      <c r="U50" s="83"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="86">
+      <c r="W50" s="85">
         <v>30000</v>
       </c>
       <c r="X50" s="52">
@@ -3497,13 +3503,13 @@
         <v>31</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
       <c r="E51" s="54">
         <f>SUM(E31:E50)</f>
         <v>40000</v>
       </c>
-      <c r="F51" s="86"/>
+      <c r="F51" s="85"/>
       <c r="G51" s="53">
         <f>SUM(G31:G50)</f>
         <v>107000</v>
@@ -3515,17 +3521,17 @@
       <c r="J51" s="3">
         <v>500</v>
       </c>
-      <c r="K51" s="84">
-        <v>0</v>
-      </c>
-      <c r="L51" s="84">
+      <c r="K51" s="83">
+        <v>0</v>
+      </c>
+      <c r="L51" s="83">
         <v>1</v>
       </c>
       <c r="M51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N51" s="86">
+      <c r="N51" s="85">
         <v>4000</v>
       </c>
       <c r="O51" s="52">
@@ -3538,14 +3544,14 @@
       <c r="S51" s="3">
         <v>10</v>
       </c>
-      <c r="T51" s="84">
-        <v>1</v>
-      </c>
-      <c r="U51" s="84">
+      <c r="T51" s="83">
+        <v>1</v>
+      </c>
+      <c r="U51" s="83">
         <v>1</v>
       </c>
       <c r="V51" s="6"/>
-      <c r="W51" s="86">
+      <c r="W51" s="85">
         <v>20000</v>
       </c>
       <c r="X51" s="52">
@@ -3566,13 +3572,13 @@
         <v>31</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
       <c r="M52" s="54">
         <f>SUM(M31:M51)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="85"/>
+      <c r="N52" s="84"/>
       <c r="O52" s="53">
         <f>SUM(O31:O51)</f>
         <v>86200</v>
@@ -3583,17 +3589,17 @@
       <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="84">
+      <c r="T52" s="83">
         <v>100</v>
       </c>
-      <c r="U52" s="85">
+      <c r="U52" s="84">
         <v>1</v>
       </c>
       <c r="V52" s="6">
         <f>T52*W52/S52</f>
         <v>800</v>
       </c>
-      <c r="W52" s="86">
+      <c r="W52" s="85">
         <v>4000</v>
       </c>
       <c r="X52" s="52">
@@ -3638,10 +3644,10 @@
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3652,16 +3658,16 @@
       <c r="H56" s="45"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A57" s="116" t="s">
+      <c r="A57" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="117">
+      <c r="B57" s="116">
         <v>4</v>
       </c>
-      <c r="C57" s="118">
+      <c r="C57" s="117">
         <v>1000</v>
       </c>
-      <c r="D57" s="118">
+      <c r="D57" s="117">
         <f>C57*B57</f>
         <v>4000</v>
       </c>
@@ -3670,16 +3676,16 @@
       <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A58" s="116" t="s">
+      <c r="A58" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="117">
+      <c r="B58" s="116">
         <v>2</v>
       </c>
-      <c r="C58" s="118">
+      <c r="C58" s="117">
         <v>4000</v>
       </c>
-      <c r="D58" s="118">
+      <c r="D58" s="117">
         <f t="shared" ref="D58:D61" si="8">C58*B58</f>
         <v>8000</v>
       </c>
@@ -3687,48 +3693,48 @@
       <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A59" s="116" t="s">
+      <c r="A59" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="117">
+      <c r="B59" s="116">
         <v>2</v>
       </c>
-      <c r="C59" s="118">
+      <c r="C59" s="117">
         <v>300</v>
       </c>
-      <c r="D59" s="118">
+      <c r="D59" s="117">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="117">
+      <c r="B60" s="116">
         <v>2</v>
       </c>
-      <c r="C60" s="118">
+      <c r="C60" s="117">
         <v>100</v>
       </c>
-      <c r="D60" s="118">
+      <c r="D60" s="117">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A61" s="116" t="s">
+      <c r="A61" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="117">
+      <c r="B61" s="116">
         <v>2</v>
       </c>
-      <c r="C61" s="118">
+      <c r="C61" s="117">
         <v>300</v>
       </c>
-      <c r="D61" s="118">
+      <c r="D61" s="117">
         <f t="shared" si="8"/>
         <v>600</v>
       </c>
@@ -3753,7 +3759,7 @@
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="129" t="s">
+      <c r="A65" s="123" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="7"/>
@@ -3765,10 +3771,10 @@
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3777,82 +3783,82 @@
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="116" t="s">
+      <c r="A68" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="117">
+      <c r="B68" s="116">
         <v>0.08</v>
       </c>
-      <c r="C68" s="118">
+      <c r="C68" s="117">
         <v>9000</v>
       </c>
-      <c r="D68" s="116">
+      <c r="D68" s="115">
         <f>C68*B68</f>
         <v>720</v>
       </c>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="116" t="s">
+      <c r="A69" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="117">
+      <c r="B69" s="116">
         <v>0.1</v>
       </c>
-      <c r="C69" s="118">
+      <c r="C69" s="117">
         <v>1000</v>
       </c>
-      <c r="D69" s="116">
+      <c r="D69" s="115">
         <f t="shared" ref="D69:D72" si="9">C69*B69</f>
         <v>100</v>
       </c>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="116" t="s">
+      <c r="A70" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="117">
+      <c r="B70" s="116">
         <v>0.15</v>
       </c>
-      <c r="C70" s="118">
+      <c r="C70" s="117">
         <v>1200</v>
       </c>
-      <c r="D70" s="116">
+      <c r="D70" s="115">
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="116" t="s">
+      <c r="A71" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="117">
+      <c r="B71" s="116">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C71" s="118">
+      <c r="C71" s="117">
         <v>70479</v>
       </c>
-      <c r="D71" s="116">
+      <c r="D71" s="115">
         <f t="shared" si="9"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="116" t="s">
+      <c r="A72" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="117">
+      <c r="B72" s="116">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C72" s="118">
+      <c r="C72" s="117">
         <v>55000</v>
       </c>
-      <c r="D72" s="116">
+      <c r="D72" s="115">
         <f t="shared" si="9"/>
         <v>275</v>
       </c>
@@ -3896,10 +3902,10 @@
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="88" t="s">
+      <c r="C78" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3912,16 +3918,16 @@
       <c r="K78" s="28"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="116" t="s">
+      <c r="A79" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="117">
-        <v>1</v>
-      </c>
-      <c r="C79" s="118">
+      <c r="B79" s="116">
+        <v>1</v>
+      </c>
+      <c r="C79" s="117">
         <v>400</v>
       </c>
-      <c r="D79" s="118">
+      <c r="D79" s="117">
         <f>B79*C79</f>
         <v>400</v>
       </c>
@@ -3932,16 +3938,16 @@
       <c r="K79" s="31"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="116" t="s">
+      <c r="A80" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="117">
-        <v>1</v>
-      </c>
-      <c r="C80" s="118">
+      <c r="B80" s="116">
+        <v>1</v>
+      </c>
+      <c r="C80" s="117">
         <v>400</v>
       </c>
-      <c r="D80" s="118">
+      <c r="D80" s="117">
         <f t="shared" ref="D80:D93" si="10">B80*C80</f>
         <v>400</v>
       </c>
@@ -3951,16 +3957,16 @@
       <c r="K80" s="31"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="116" t="s">
+      <c r="A81" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="117">
+      <c r="B81" s="116">
         <v>2</v>
       </c>
-      <c r="C81" s="118">
+      <c r="C81" s="117">
         <v>400</v>
       </c>
-      <c r="D81" s="118">
+      <c r="D81" s="117">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
@@ -3970,16 +3976,16 @@
       <c r="K81" s="31"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="116" t="s">
+      <c r="A82" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="117">
+      <c r="B82" s="116">
         <v>3</v>
       </c>
-      <c r="C82" s="118">
+      <c r="C82" s="117">
         <v>500</v>
       </c>
-      <c r="D82" s="118">
+      <c r="D82" s="117">
         <f t="shared" si="10"/>
         <v>1500</v>
       </c>
@@ -3989,16 +3995,16 @@
       <c r="K82" s="31"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="116" t="s">
+      <c r="A83" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="117">
+      <c r="B83" s="116">
         <v>3</v>
       </c>
-      <c r="C83" s="118">
+      <c r="C83" s="117">
         <v>2000</v>
       </c>
-      <c r="D83" s="118">
+      <c r="D83" s="117">
         <f t="shared" si="10"/>
         <v>6000</v>
       </c>
@@ -4008,16 +4014,16 @@
       <c r="K83" s="31"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="117">
+      <c r="B84" s="116">
         <v>4</v>
       </c>
-      <c r="C84" s="118">
+      <c r="C84" s="117">
         <v>2500</v>
       </c>
-      <c r="D84" s="118">
+      <c r="D84" s="117">
         <f t="shared" si="10"/>
         <v>10000</v>
       </c>
@@ -4027,16 +4033,16 @@
       <c r="K84" s="31"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="116" t="s">
+      <c r="A85" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="117">
-        <v>1</v>
-      </c>
-      <c r="C85" s="118">
+      <c r="B85" s="116">
+        <v>1</v>
+      </c>
+      <c r="C85" s="117">
         <v>2000</v>
       </c>
-      <c r="D85" s="118">
+      <c r="D85" s="117">
         <f t="shared" si="10"/>
         <v>2000</v>
       </c>
@@ -4046,16 +4052,16 @@
       <c r="K85" s="31"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="116" t="s">
+      <c r="A86" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="117">
+      <c r="B86" s="116">
         <v>3</v>
       </c>
-      <c r="C86" s="118">
+      <c r="C86" s="117">
         <v>200</v>
       </c>
-      <c r="D86" s="118">
+      <c r="D86" s="117">
         <f t="shared" si="10"/>
         <v>600</v>
       </c>
@@ -4065,16 +4071,16 @@
       <c r="K86" s="31"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="116" t="s">
+      <c r="A87" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="117">
-        <v>1</v>
-      </c>
-      <c r="C87" s="118">
+      <c r="B87" s="116">
+        <v>1</v>
+      </c>
+      <c r="C87" s="117">
         <v>5000</v>
       </c>
-      <c r="D87" s="118">
+      <c r="D87" s="117">
         <f t="shared" si="10"/>
         <v>5000</v>
       </c>
@@ -4084,16 +4090,16 @@
       <c r="K87" s="31"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="116" t="s">
+      <c r="A88" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B88" s="117">
-        <v>1</v>
-      </c>
-      <c r="C88" s="118">
+      <c r="B88" s="116">
+        <v>1</v>
+      </c>
+      <c r="C88" s="117">
         <v>1000</v>
       </c>
-      <c r="D88" s="118">
+      <c r="D88" s="117">
         <f t="shared" si="10"/>
         <v>1000</v>
       </c>
@@ -4103,16 +4109,16 @@
       <c r="K88" s="31"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="116" t="s">
+      <c r="A89" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B89" s="117">
+      <c r="B89" s="116">
         <v>0.05</v>
       </c>
-      <c r="C89" s="118">
+      <c r="C89" s="117">
         <v>8000</v>
       </c>
-      <c r="D89" s="118">
+      <c r="D89" s="117">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
@@ -4122,16 +4128,16 @@
       <c r="K89" s="31"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="116" t="s">
+      <c r="A90" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="B90" s="117">
+      <c r="B90" s="116">
         <v>10</v>
       </c>
-      <c r="C90" s="118">
+      <c r="C90" s="117">
         <v>400</v>
       </c>
-      <c r="D90" s="118">
+      <c r="D90" s="117">
         <f t="shared" si="10"/>
         <v>4000</v>
       </c>
@@ -4141,16 +4147,16 @@
       <c r="K90" s="31"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="116" t="s">
+      <c r="A91" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="117">
+      <c r="B91" s="116">
         <v>0.1</v>
       </c>
-      <c r="C91" s="118">
+      <c r="C91" s="117">
         <v>500</v>
       </c>
-      <c r="D91" s="118">
+      <c r="D91" s="117">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
@@ -4160,16 +4166,16 @@
       <c r="K91" s="31"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="117">
+      <c r="B92" s="116">
         <v>0.5</v>
       </c>
-      <c r="C92" s="118">
+      <c r="C92" s="117">
         <v>500</v>
       </c>
-      <c r="D92" s="118">
+      <c r="D92" s="117">
         <f t="shared" si="10"/>
         <v>250</v>
       </c>
@@ -4179,17 +4185,17 @@
       <c r="K92" s="31"/>
     </row>
     <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="116" t="s">
+      <c r="A93" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B93" s="117">
+      <c r="B93" s="116">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C93" s="118">
+      <c r="C93" s="117">
         <v>1500</v>
       </c>
-      <c r="D93" s="118">
+      <c r="D93" s="117">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
@@ -4281,20 +4287,20 @@
       <c r="T101" s="44"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A102" s="116" t="s">
+      <c r="A102" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="120">
+      <c r="B102" s="119">
         <v>3800000</v>
       </c>
-      <c r="C102" s="116"/>
-      <c r="E102" s="116" t="s">
+      <c r="C102" s="115"/>
+      <c r="E102" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="120">
+      <c r="F102" s="119">
         <v>1500000</v>
       </c>
-      <c r="G102" s="116"/>
+      <c r="G102" s="115"/>
       <c r="I102" s="19"/>
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
@@ -4306,16 +4312,16 @@
       <c r="T102" s="48"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A103" s="116" t="s">
+      <c r="A103" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B103" s="116"/>
-      <c r="C103" s="116"/>
-      <c r="E103" s="116" t="s">
+      <c r="B103" s="115"/>
+      <c r="C103" s="115"/>
+      <c r="E103" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F103" s="116"/>
-      <c r="G103" s="116"/>
+      <c r="F103" s="115"/>
+      <c r="G103" s="115"/>
       <c r="J103" s="15"/>
       <c r="N103" s="15"/>
       <c r="R103" s="44"/>
@@ -4323,53 +4329,53 @@
       <c r="T103" s="44"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="128" t="s">
+      <c r="A104" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B104" s="116"/>
-      <c r="C104" s="116"/>
-      <c r="E104" s="128" t="s">
+      <c r="B104" s="115"/>
+      <c r="C104" s="115"/>
+      <c r="E104" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
+      <c r="F104" s="115"/>
+      <c r="G104" s="115"/>
       <c r="R104" s="44"/>
       <c r="S104" s="44"/>
       <c r="T104" s="44"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A105" s="116" t="s">
+      <c r="A105" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="116"/>
-      <c r="C105" s="116"/>
-      <c r="E105" s="116" t="s">
+      <c r="B105" s="115"/>
+      <c r="C105" s="115"/>
+      <c r="E105" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F105" s="116"/>
-      <c r="G105" s="116"/>
+      <c r="F105" s="115"/>
+      <c r="G105" s="115"/>
       <c r="R105" s="44"/>
       <c r="S105" s="44"/>
       <c r="T105" s="44"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" s="130" t="s">
+      <c r="A106" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="131">
+      <c r="B106" s="125">
         <v>0.08</v>
       </c>
-      <c r="C106" s="132">
+      <c r="C106" s="126">
         <f t="shared" ref="C106:C115" si="11">+$B$102*B106</f>
         <v>304000</v>
       </c>
-      <c r="E106" s="116" t="s">
+      <c r="E106" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="121">
+      <c r="F106" s="120">
         <v>0.08</v>
       </c>
-      <c r="G106" s="120">
+      <c r="G106" s="119">
         <f t="shared" ref="G106:G115" si="12">+$F$102*F106</f>
         <v>120000</v>
       </c>
@@ -4378,23 +4384,23 @@
       <c r="T106" s="44"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" s="130" t="s">
+      <c r="A107" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="131">
+      <c r="B107" s="125">
         <v>0.08</v>
       </c>
-      <c r="C107" s="132">
+      <c r="C107" s="126">
         <f t="shared" si="11"/>
         <v>304000</v>
       </c>
-      <c r="E107" s="116" t="s">
+      <c r="E107" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F107" s="121">
+      <c r="F107" s="120">
         <v>0.08</v>
       </c>
-      <c r="G107" s="120">
+      <c r="G107" s="119">
         <f t="shared" si="12"/>
         <v>120000</v>
       </c>
@@ -4407,23 +4413,23 @@
       <c r="T107" s="49"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" s="130" t="s">
+      <c r="A108" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="131">
+      <c r="B108" s="125">
         <v>0.04</v>
       </c>
-      <c r="C108" s="132">
+      <c r="C108" s="126">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
-      <c r="E108" s="116" t="s">
+      <c r="E108" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F108" s="121">
+      <c r="F108" s="120">
         <v>0.04</v>
       </c>
-      <c r="G108" s="120">
+      <c r="G108" s="119">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
@@ -4436,23 +4442,23 @@
       <c r="T108" s="49"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" s="130" t="s">
+      <c r="A109" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="131">
+      <c r="B109" s="125">
         <v>0.01</v>
       </c>
-      <c r="C109" s="132">
+      <c r="C109" s="126">
         <f t="shared" si="11"/>
         <v>38000</v>
       </c>
-      <c r="E109" s="116" t="s">
+      <c r="E109" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="121">
+      <c r="F109" s="120">
         <v>0.01</v>
       </c>
-      <c r="G109" s="120">
+      <c r="G109" s="119">
         <f t="shared" si="12"/>
         <v>15000</v>
       </c>
@@ -4465,23 +4471,23 @@
       <c r="T109" s="49"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" s="130" t="s">
+      <c r="A110" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="131">
+      <c r="B110" s="125">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C110" s="132">
+      <c r="C110" s="126">
         <f t="shared" si="11"/>
         <v>323000</v>
       </c>
-      <c r="E110" s="116" t="s">
+      <c r="E110" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="121">
+      <c r="F110" s="120">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G110" s="120">
+      <c r="G110" s="119">
         <f t="shared" si="12"/>
         <v>127500.00000000001</v>
       </c>
@@ -4494,23 +4500,23 @@
       <c r="T110" s="49"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="130" t="s">
+      <c r="A111" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="131">
+      <c r="B111" s="125">
         <v>0.12</v>
       </c>
-      <c r="C111" s="132">
+      <c r="C111" s="126">
         <f t="shared" si="11"/>
         <v>456000</v>
       </c>
-      <c r="E111" s="116" t="s">
+      <c r="E111" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F111" s="121">
+      <c r="F111" s="120">
         <v>0.12</v>
       </c>
-      <c r="G111" s="120">
+      <c r="G111" s="119">
         <f t="shared" si="12"/>
         <v>180000</v>
       </c>
@@ -4523,23 +4529,23 @@
       <c r="T111" s="49"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="130" t="s">
+      <c r="A112" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="131">
+      <c r="B112" s="125">
         <v>0.02</v>
       </c>
-      <c r="C112" s="132">
+      <c r="C112" s="126">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
-      <c r="E112" s="116" t="s">
+      <c r="E112" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F112" s="121">
+      <c r="F112" s="120">
         <v>2.4E-2</v>
       </c>
-      <c r="G112" s="120">
+      <c r="G112" s="119">
         <f t="shared" si="12"/>
         <v>36000</v>
       </c>
@@ -4552,23 +4558,23 @@
       <c r="T112" s="49"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="130" t="s">
+      <c r="A113" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="131">
+      <c r="B113" s="125">
         <v>0.04</v>
       </c>
-      <c r="C113" s="132">
+      <c r="C113" s="126">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
-      <c r="E113" s="116" t="s">
+      <c r="E113" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F113" s="121">
+      <c r="F113" s="120">
         <v>0.04</v>
       </c>
-      <c r="G113" s="120">
+      <c r="G113" s="119">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
@@ -4581,23 +4587,23 @@
       <c r="T113" s="49"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="130" t="s">
+      <c r="A114" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="131">
+      <c r="B114" s="125">
         <v>0.02</v>
       </c>
-      <c r="C114" s="132">
+      <c r="C114" s="126">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F114" s="121">
+      <c r="F114" s="120">
         <v>0.02</v>
       </c>
-      <c r="G114" s="120">
+      <c r="G114" s="119">
         <f t="shared" si="12"/>
         <v>30000</v>
       </c>
@@ -4610,23 +4616,23 @@
       <c r="T114" s="49"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="130" t="s">
+      <c r="A115" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="131">
+      <c r="B115" s="125">
         <v>0.03</v>
       </c>
-      <c r="C115" s="132">
+      <c r="C115" s="126">
         <f t="shared" si="11"/>
         <v>114000</v>
       </c>
-      <c r="E115" s="116" t="s">
+      <c r="E115" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="F115" s="121">
+      <c r="F115" s="120">
         <v>0.03</v>
       </c>
-      <c r="G115" s="120">
+      <c r="G115" s="119">
         <f t="shared" si="12"/>
         <v>45000</v>
       </c>
@@ -4639,19 +4645,19 @@
       <c r="T115" s="49"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A116" s="116" t="s">
+      <c r="A116" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B116" s="116"/>
-      <c r="C116" s="120">
+      <c r="B116" s="115"/>
+      <c r="C116" s="119">
         <f>SUM(C106:C115)</f>
         <v>1995000</v>
       </c>
-      <c r="E116" s="122" t="s">
+      <c r="E116" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="F116" s="116"/>
-      <c r="G116" s="120">
+      <c r="F116" s="115"/>
+      <c r="G116" s="119">
         <v>117000</v>
       </c>
       <c r="J116" s="47"/>
@@ -4663,19 +4669,19 @@
       <c r="T116" s="49"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A117" s="116" t="s">
+      <c r="A117" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="116"/>
-      <c r="C117" s="120">
+      <c r="B117" s="115"/>
+      <c r="C117" s="119">
         <f>+C116+B102</f>
         <v>5795000</v>
       </c>
-      <c r="E117" s="116" t="s">
+      <c r="E117" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="F117" s="116"/>
-      <c r="G117" s="120">
+      <c r="F117" s="115"/>
+      <c r="G117" s="119">
         <f>SUM(G106:G116)</f>
         <v>910500</v>
       </c>
@@ -4689,11 +4695,11 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="E118" s="122" t="s">
+      <c r="E118" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="F118" s="116"/>
-      <c r="G118" s="120">
+      <c r="F118" s="115"/>
+      <c r="G118" s="119">
         <f>+G117+F102</f>
         <v>2410500</v>
       </c>
@@ -4712,11 +4718,11 @@
         <f>+C117/B99</f>
         <v>25195.652173913044</v>
       </c>
-      <c r="E119" s="116" t="s">
+      <c r="E119" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="F119" s="116"/>
-      <c r="G119" s="120">
+      <c r="F119" s="115"/>
+      <c r="G119" s="119">
         <f>+G118/B99</f>
         <v>10480.434782608696</v>
       </c>
@@ -4778,67 +4784,67 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A126" s="116" t="s">
+      <c r="A126" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="120">
+      <c r="B126" s="119">
         <v>2388262</v>
       </c>
-      <c r="C126" s="120">
+      <c r="C126" s="119">
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="123" t="s">
+      <c r="D126" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="124"/>
-      <c r="F126" s="124"/>
-      <c r="G126" s="124"/>
+      <c r="E126" s="128"/>
+      <c r="F126" s="128"/>
+      <c r="G126" s="128"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A127" s="116" t="s">
+      <c r="A127" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="120">
+      <c r="B127" s="119">
         <v>6775276.5</v>
       </c>
-      <c r="C127" s="120">
+      <c r="C127" s="119">
         <f t="shared" ref="C127:C130" si="13">B127/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A128" s="116" t="s">
+      <c r="A128" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="120">
+      <c r="B128" s="119">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C128" s="120">
+      <c r="C128" s="119">
         <f t="shared" si="13"/>
         <v>3986.6369999999997</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="116" t="s">
+      <c r="A129" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="120">
+      <c r="B129" s="119">
         <v>6688000</v>
       </c>
-      <c r="C129" s="120">
+      <c r="C129" s="119">
         <f t="shared" si="13"/>
         <v>5573.333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="116" t="s">
+      <c r="A130" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="120">
+      <c r="B130" s="119">
         <v>63000</v>
       </c>
-      <c r="C130" s="120">
+      <c r="C130" s="119">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
@@ -4883,7 +4889,7 @@
       <c r="B137" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="88" t="s">
+      <c r="C137" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -4893,16 +4899,16 @@
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="116" t="s">
+      <c r="A138" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="117">
-        <v>1</v>
-      </c>
-      <c r="C138" s="118">
+      <c r="B138" s="116">
+        <v>1</v>
+      </c>
+      <c r="C138" s="117">
         <v>10000000</v>
       </c>
-      <c r="D138" s="118">
+      <c r="D138" s="117">
         <f>B138*C138</f>
         <v>10000000</v>
       </c>
@@ -4910,16 +4916,16 @@
       <c r="I138" s="35"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="116" t="s">
+      <c r="A139" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="117">
+      <c r="B139" s="116">
         <v>12</v>
       </c>
-      <c r="C139" s="118">
+      <c r="C139" s="117">
         <v>4000000</v>
       </c>
-      <c r="D139" s="118">
+      <c r="D139" s="117">
         <f t="shared" ref="D139:D148" si="14">B139*C139</f>
         <v>48000000</v>
       </c>
@@ -4927,16 +4933,16 @@
       <c r="I139" s="36"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="116" t="s">
+      <c r="A140" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="117">
+      <c r="B140" s="116">
         <v>6</v>
       </c>
-      <c r="C140" s="118">
+      <c r="C140" s="117">
         <v>1000000</v>
       </c>
-      <c r="D140" s="118">
+      <c r="D140" s="117">
         <f t="shared" si="14"/>
         <v>6000000</v>
       </c>
@@ -4944,132 +4950,132 @@
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="116" t="s">
+      <c r="A141" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="117">
-        <v>1</v>
-      </c>
-      <c r="C141" s="118">
+      <c r="B141" s="116">
+        <v>1</v>
+      </c>
+      <c r="C141" s="117">
         <v>1000000</v>
       </c>
-      <c r="D141" s="118">
+      <c r="D141" s="117">
         <f t="shared" si="14"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="116" t="s">
+      <c r="A142" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="117">
+      <c r="B142" s="116">
         <v>6</v>
       </c>
-      <c r="C142" s="118">
+      <c r="C142" s="117">
         <v>2000000</v>
       </c>
-      <c r="D142" s="118">
+      <c r="D142" s="117">
         <f t="shared" si="14"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="116" t="s">
+      <c r="A143" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="117">
+      <c r="B143" s="116">
         <v>3</v>
       </c>
-      <c r="C143" s="118">
+      <c r="C143" s="117">
         <v>2500000</v>
       </c>
-      <c r="D143" s="118">
+      <c r="D143" s="117">
         <f t="shared" si="14"/>
         <v>7500000</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="116" t="s">
+      <c r="A144" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="117">
+      <c r="B144" s="116">
         <v>10</v>
       </c>
-      <c r="C144" s="118">
+      <c r="C144" s="117">
         <v>400000</v>
       </c>
-      <c r="D144" s="118">
+      <c r="D144" s="117">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="116" t="s">
+      <c r="A145" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="117">
-        <v>1</v>
-      </c>
-      <c r="C145" s="118">
+      <c r="B145" s="116">
+        <v>1</v>
+      </c>
+      <c r="C145" s="117">
         <v>5000000</v>
       </c>
-      <c r="D145" s="118">
+      <c r="D145" s="117">
         <f t="shared" si="14"/>
         <v>5000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="116" t="s">
+      <c r="A146" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="117">
+      <c r="B146" s="116">
         <v>2</v>
       </c>
-      <c r="C146" s="118">
+      <c r="C146" s="117">
         <v>2000000</v>
       </c>
-      <c r="D146" s="118">
+      <c r="D146" s="117">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="116" t="s">
+      <c r="A147" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="117">
+      <c r="B147" s="116">
         <v>5</v>
       </c>
-      <c r="C147" s="118">
+      <c r="C147" s="117">
         <v>400000</v>
       </c>
-      <c r="D147" s="118">
+      <c r="D147" s="117">
         <f t="shared" si="14"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="116" t="s">
+      <c r="A148" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="B148" s="117">
-        <v>1</v>
-      </c>
-      <c r="C148" s="118">
+      <c r="B148" s="116">
+        <v>1</v>
+      </c>
+      <c r="C148" s="117">
         <v>10000000</v>
       </c>
-      <c r="D148" s="118">
+      <c r="D148" s="117">
         <f t="shared" si="14"/>
         <v>10000000</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="132" t="s">
         <v>31</v>
       </c>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
-      <c r="D149" s="91">
+      <c r="D149" s="90">
         <f>SUM(D138:D148)</f>
         <v>109500000</v>
       </c>
@@ -5108,32 +5114,40 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D155" s="76"/>
+      <c r="A155" s="133" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" s="133"/>
+      <c r="C155" s="133"/>
+      <c r="D155" s="133"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D156" s="76"/>
+      <c r="A156" s="133"/>
+      <c r="B156" s="133"/>
+      <c r="C156" s="133"/>
+      <c r="D156" s="133"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A159" s="79" t="s">
+      <c r="A159" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="B159" s="78"/>
+      <c r="B159" s="77"/>
     </row>
     <row r="160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="80" t="s">
+      <c r="A160" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="81">
+      <c r="B160" s="80">
         <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="80" t="s">
+      <c r="A161" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="B161" s="80">
+      <c r="B161" s="79">
         <v>10</v>
       </c>
       <c r="C161" t="s">
@@ -5349,7 +5363,7 @@
       <c r="A180" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B180" s="92">
+      <c r="B180" s="91">
         <f>+B168+B176+B178+B169+B170+B171+B172+E17+B173+B165</f>
         <v>273132.66190942028</v>
       </c>
@@ -6920,10 +6934,10 @@
       <c r="A211" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B211" s="88" t="s">
+      <c r="B211" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C211" s="88" t="s">
+      <c r="C211" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -6938,16 +6952,16 @@
       <c r="X211" s="65"/>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A212" s="116" t="s">
+      <c r="A212" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B212" s="117">
-        <v>1</v>
-      </c>
-      <c r="C212" s="118">
+      <c r="B212" s="116">
+        <v>1</v>
+      </c>
+      <c r="C212" s="117">
         <v>1000</v>
       </c>
-      <c r="D212" s="118">
+      <c r="D212" s="117">
         <f>C212*B212</f>
         <v>1000</v>
       </c>
@@ -6958,16 +6972,16 @@
       <c r="X212" s="65"/>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A213" s="116" t="s">
+      <c r="A213" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="B213" s="117">
-        <v>0</v>
-      </c>
-      <c r="C213" s="118">
+      <c r="B213" s="116">
+        <v>0</v>
+      </c>
+      <c r="C213" s="117">
         <v>290000</v>
       </c>
-      <c r="D213" s="118">
+      <c r="D213" s="117">
         <f>C213*B213</f>
         <v>0</v>
       </c>
@@ -6976,17 +6990,17 @@
       <c r="X213" s="69"/>
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A214" s="116" t="s">
+      <c r="A214" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="B214" s="117">
+      <c r="B214" s="116">
         <f>1/B4</f>
         <v>0.1</v>
       </c>
-      <c r="C214" s="118">
+      <c r="C214" s="117">
         <v>343000</v>
       </c>
-      <c r="D214" s="118">
+      <c r="D214" s="117">
         <f>C214*B214</f>
         <v>34300</v>
       </c>
@@ -7012,10 +7026,10 @@
       <c r="A220" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B220" s="88" t="s">
+      <c r="B220" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C220" s="88" t="s">
+      <c r="C220" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -7023,76 +7037,76 @@
       </c>
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A221" s="116" t="s">
+      <c r="A221" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="B221" s="117">
+      <c r="B221" s="116">
         <v>2</v>
       </c>
-      <c r="C221" s="118">
+      <c r="C221" s="117">
         <v>500</v>
       </c>
-      <c r="D221" s="118">
+      <c r="D221" s="117">
         <f>C221*B221</f>
         <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A222" s="116" t="s">
+      <c r="A222" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B222" s="117">
+      <c r="B222" s="116">
         <v>2</v>
       </c>
-      <c r="C222" s="118">
+      <c r="C222" s="117">
         <v>4000</v>
       </c>
-      <c r="D222" s="118">
+      <c r="D222" s="117">
         <f t="shared" ref="D222:D225" si="32">C222*B222</f>
         <v>8000</v>
       </c>
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A223" s="116" t="s">
+      <c r="A223" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B223" s="117">
+      <c r="B223" s="116">
         <v>2</v>
       </c>
-      <c r="C223" s="118">
+      <c r="C223" s="117">
         <v>300</v>
       </c>
-      <c r="D223" s="118">
+      <c r="D223" s="117">
         <f t="shared" si="32"/>
         <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A224" s="116" t="s">
+      <c r="A224" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B224" s="117">
+      <c r="B224" s="116">
         <v>2</v>
       </c>
-      <c r="C224" s="118">
+      <c r="C224" s="117">
         <v>100</v>
       </c>
-      <c r="D224" s="118">
+      <c r="D224" s="117">
         <f t="shared" si="32"/>
         <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="116" t="s">
+      <c r="A225" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B225" s="117">
+      <c r="B225" s="116">
         <v>2</v>
       </c>
-      <c r="C225" s="118">
+      <c r="C225" s="117">
         <v>300</v>
       </c>
-      <c r="D225" s="118">
+      <c r="D225" s="117">
         <f t="shared" si="32"/>
         <v>600</v>
       </c>
@@ -7120,10 +7134,10 @@
       <c r="A231" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B231" s="88" t="s">
+      <c r="B231" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C231" s="88" t="s">
+      <c r="C231" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -7132,82 +7146,82 @@
       <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="116" t="s">
+      <c r="A232" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="117">
-        <v>0</v>
-      </c>
-      <c r="C232" s="118">
+      <c r="B232" s="116">
+        <v>0</v>
+      </c>
+      <c r="C232" s="117">
         <v>9000</v>
       </c>
-      <c r="D232" s="116">
+      <c r="D232" s="115">
         <f>C232*B232</f>
         <v>0</v>
       </c>
       <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="116" t="s">
+      <c r="A233" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B233" s="117">
-        <v>1</v>
-      </c>
-      <c r="C233" s="118">
+      <c r="B233" s="116">
+        <v>1</v>
+      </c>
+      <c r="C233" s="117">
         <v>1000</v>
       </c>
-      <c r="D233" s="116">
+      <c r="D233" s="115">
         <f t="shared" ref="D233:D236" si="33">C233*B233</f>
         <v>1000</v>
       </c>
       <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="116" t="s">
+      <c r="A234" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B234" s="117">
-        <v>0</v>
-      </c>
-      <c r="C234" s="118">
+      <c r="B234" s="116">
+        <v>0</v>
+      </c>
+      <c r="C234" s="117">
         <v>1200</v>
       </c>
-      <c r="D234" s="116">
+      <c r="D234" s="115">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F234" s="7"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="116" t="s">
+      <c r="A235" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="B235" s="117">
+      <c r="B235" s="116">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C235" s="118">
+      <c r="C235" s="117">
         <v>70479</v>
       </c>
-      <c r="D235" s="116">
+      <c r="D235" s="115">
         <f t="shared" si="33"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="116" t="s">
+      <c r="A236" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="B236" s="117">
+      <c r="B236" s="116">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C236" s="118">
+      <c r="C236" s="117">
         <v>55000</v>
       </c>
-      <c r="D236" s="116">
+      <c r="D236" s="115">
         <f t="shared" si="33"/>
         <v>275</v>
       </c>
@@ -7250,10 +7264,10 @@
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B242" s="88" t="s">
+      <c r="B242" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="88" t="s">
+      <c r="C242" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -7262,241 +7276,241 @@
       <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="116" t="s">
+      <c r="A243" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="B243" s="117">
-        <v>1</v>
-      </c>
-      <c r="C243" s="118">
+      <c r="B243" s="116">
+        <v>1</v>
+      </c>
+      <c r="C243" s="117">
         <v>400</v>
       </c>
-      <c r="D243" s="118">
+      <c r="D243" s="117">
         <f t="shared" ref="D243:D257" si="34">B243*C243</f>
         <v>400</v>
       </c>
       <c r="F243" s="7"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="116" t="s">
+      <c r="A244" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="117">
-        <v>1</v>
-      </c>
-      <c r="C244" s="118">
+      <c r="B244" s="116">
+        <v>1</v>
+      </c>
+      <c r="C244" s="117">
         <v>400</v>
       </c>
-      <c r="D244" s="118">
+      <c r="D244" s="117">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F244" s="7"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="116" t="s">
+      <c r="A245" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="117">
-        <v>0</v>
-      </c>
-      <c r="C245" s="118">
+      <c r="B245" s="116">
+        <v>0</v>
+      </c>
+      <c r="C245" s="117">
         <v>400</v>
       </c>
-      <c r="D245" s="118">
+      <c r="D245" s="117">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F245" s="7"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="116" t="s">
+      <c r="A246" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="B246" s="117">
-        <v>0</v>
-      </c>
-      <c r="C246" s="118">
+      <c r="B246" s="116">
+        <v>0</v>
+      </c>
+      <c r="C246" s="117">
         <v>500</v>
       </c>
-      <c r="D246" s="118">
+      <c r="D246" s="117">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="116" t="s">
+      <c r="A247" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="B247" s="117">
-        <v>1</v>
-      </c>
-      <c r="C247" s="118">
+      <c r="B247" s="116">
+        <v>1</v>
+      </c>
+      <c r="C247" s="117">
         <v>2000</v>
       </c>
-      <c r="D247" s="118">
+      <c r="D247" s="117">
         <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="F247" s="7"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="116" t="s">
+      <c r="A248" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="B248" s="117">
+      <c r="B248" s="116">
         <v>2</v>
       </c>
-      <c r="C248" s="118">
+      <c r="C248" s="117">
         <v>400</v>
       </c>
-      <c r="D248" s="118">
+      <c r="D248" s="117">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F248" s="7"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="116" t="s">
+      <c r="A249" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="B249" s="117">
-        <v>0</v>
-      </c>
-      <c r="C249" s="118">
+      <c r="B249" s="116">
+        <v>0</v>
+      </c>
+      <c r="C249" s="117">
         <v>2500</v>
       </c>
-      <c r="D249" s="118">
+      <c r="D249" s="117">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F249" s="7"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="119" t="s">
+      <c r="A250" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="B250" s="117">
-        <v>0</v>
-      </c>
-      <c r="C250" s="118">
+      <c r="B250" s="116">
+        <v>0</v>
+      </c>
+      <c r="C250" s="117">
         <v>2000</v>
       </c>
-      <c r="D250" s="118">
+      <c r="D250" s="117">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F250" s="7"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="116" t="s">
+      <c r="A251" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="B251" s="117">
-        <v>1</v>
-      </c>
-      <c r="C251" s="118">
+      <c r="B251" s="116">
+        <v>1</v>
+      </c>
+      <c r="C251" s="117">
         <v>5000</v>
       </c>
-      <c r="D251" s="118">
+      <c r="D251" s="117">
         <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="F251" s="7"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="116" t="s">
+      <c r="A252" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="117">
-        <v>1</v>
-      </c>
-      <c r="C252" s="118">
+      <c r="B252" s="116">
+        <v>1</v>
+      </c>
+      <c r="C252" s="117">
         <v>1000</v>
       </c>
-      <c r="D252" s="118">
+      <c r="D252" s="117">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F252" s="7"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="116" t="s">
+      <c r="A253" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B253" s="117">
+      <c r="B253" s="116">
         <v>0.05</v>
       </c>
-      <c r="C253" s="118">
+      <c r="C253" s="117">
         <v>8000</v>
       </c>
-      <c r="D253" s="118">
+      <c r="D253" s="117">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="116" t="s">
+      <c r="A254" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B254" s="117">
+      <c r="B254" s="116">
         <v>2</v>
       </c>
-      <c r="C254" s="118">
+      <c r="C254" s="117">
         <v>400</v>
       </c>
-      <c r="D254" s="118">
+      <c r="D254" s="117">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F254" s="7"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="116" t="s">
+      <c r="A255" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B255" s="117">
+      <c r="B255" s="116">
         <v>0.1</v>
       </c>
-      <c r="C255" s="118">
+      <c r="C255" s="117">
         <v>500</v>
       </c>
-      <c r="D255" s="118">
+      <c r="D255" s="117">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="F255" s="7"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="116" t="s">
+      <c r="A256" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B256" s="117">
+      <c r="B256" s="116">
         <v>0.5</v>
       </c>
-      <c r="C256" s="118">
+      <c r="C256" s="117">
         <v>500</v>
       </c>
-      <c r="D256" s="118">
+      <c r="D256" s="117">
         <f t="shared" si="34"/>
         <v>250</v>
       </c>
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="116" t="s">
+      <c r="A257" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B257" s="117">
+      <c r="B257" s="116">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C257" s="118">
+      <c r="C257" s="117">
         <v>1500</v>
       </c>
-      <c r="D257" s="118">
+      <c r="D257" s="117">
         <f t="shared" si="34"/>
         <v>25</v>
       </c>
@@ -7585,79 +7599,79 @@
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A266" s="116" t="s">
+      <c r="A266" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B266" s="120">
+      <c r="B266" s="119">
         <v>4000000</v>
       </c>
-      <c r="C266" s="116"/>
-      <c r="E266" s="116" t="s">
+      <c r="C266" s="115"/>
+      <c r="E266" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F266" s="120">
+      <c r="F266" s="119">
         <v>1500000</v>
       </c>
-      <c r="G266" s="116"/>
+      <c r="G266" s="115"/>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A267" s="116" t="s">
+      <c r="A267" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B267" s="116"/>
-      <c r="C267" s="116"/>
-      <c r="E267" s="116" t="s">
+      <c r="B267" s="115"/>
+      <c r="C267" s="115"/>
+      <c r="E267" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F267" s="116"/>
-      <c r="G267" s="116"/>
+      <c r="F267" s="115"/>
+      <c r="G267" s="115"/>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A268" s="116" t="s">
+      <c r="A268" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B268" s="116"/>
-      <c r="C268" s="116"/>
-      <c r="E268" s="116" t="s">
+      <c r="B268" s="115"/>
+      <c r="C268" s="115"/>
+      <c r="E268" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F268" s="116"/>
-      <c r="G268" s="116"/>
+      <c r="F268" s="115"/>
+      <c r="G268" s="115"/>
       <c r="J268" s="46"/>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A269" s="116" t="s">
+      <c r="A269" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B269" s="116"/>
-      <c r="C269" s="116"/>
-      <c r="E269" s="116" t="s">
+      <c r="B269" s="115"/>
+      <c r="C269" s="115"/>
+      <c r="E269" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F269" s="116"/>
-      <c r="G269" s="116"/>
+      <c r="F269" s="115"/>
+      <c r="G269" s="115"/>
       <c r="R269" s="44"/>
       <c r="S269" s="44"/>
       <c r="T269" s="44"/>
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A270" s="116" t="s">
+      <c r="A270" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B270" s="121">
+      <c r="B270" s="120">
         <v>0.08</v>
       </c>
-      <c r="C270" s="120">
+      <c r="C270" s="119">
         <f>+$B$102*B270</f>
         <v>304000</v>
       </c>
-      <c r="E270" s="116" t="s">
+      <c r="E270" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="F270" s="121">
+      <c r="F270" s="120">
         <v>0.08</v>
       </c>
-      <c r="G270" s="120">
+      <c r="G270" s="119">
         <f t="shared" ref="G270:G279" si="35">+$F$102*F270</f>
         <v>120000</v>
       </c>
@@ -7666,23 +7680,23 @@
       <c r="T270" s="44"/>
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A271" s="116" t="s">
+      <c r="A271" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B271" s="121">
+      <c r="B271" s="120">
         <v>0.08</v>
       </c>
-      <c r="C271" s="120">
+      <c r="C271" s="119">
         <f>+$B$102*B271</f>
         <v>304000</v>
       </c>
-      <c r="E271" s="116" t="s">
+      <c r="E271" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F271" s="121">
+      <c r="F271" s="120">
         <v>0.08</v>
       </c>
-      <c r="G271" s="120">
+      <c r="G271" s="119">
         <f t="shared" si="35"/>
         <v>120000</v>
       </c>
@@ -7697,23 +7711,23 @@
       <c r="T271" s="48"/>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A272" s="116" t="s">
+      <c r="A272" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B272" s="121">
+      <c r="B272" s="120">
         <v>0.04</v>
       </c>
-      <c r="C272" s="120">
+      <c r="C272" s="119">
         <f t="shared" ref="C272:C279" si="36">+$B$102*B272</f>
         <v>152000</v>
       </c>
-      <c r="E272" s="116" t="s">
+      <c r="E272" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F272" s="121">
+      <c r="F272" s="120">
         <v>0.04</v>
       </c>
-      <c r="G272" s="120">
+      <c r="G272" s="119">
         <f t="shared" si="35"/>
         <v>60000</v>
       </c>
@@ -7724,23 +7738,23 @@
       <c r="T272" s="44"/>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A273" s="116" t="s">
+      <c r="A273" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="B273" s="121">
+      <c r="B273" s="120">
         <v>0.01</v>
       </c>
-      <c r="C273" s="120">
+      <c r="C273" s="119">
         <f t="shared" si="36"/>
         <v>38000</v>
       </c>
-      <c r="E273" s="116" t="s">
+      <c r="E273" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F273" s="121">
+      <c r="F273" s="120">
         <v>0.01</v>
       </c>
-      <c r="G273" s="120">
+      <c r="G273" s="119">
         <f t="shared" si="35"/>
         <v>15000</v>
       </c>
@@ -7749,23 +7763,23 @@
       <c r="T273" s="44"/>
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A274" s="116" t="s">
+      <c r="A274" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="B274" s="121">
+      <c r="B274" s="120">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C274" s="120">
+      <c r="C274" s="119">
         <f t="shared" si="36"/>
         <v>323000</v>
       </c>
-      <c r="E274" s="116" t="s">
+      <c r="E274" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="F274" s="121">
+      <c r="F274" s="120">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G274" s="120">
+      <c r="G274" s="119">
         <f t="shared" si="35"/>
         <v>127500.00000000001</v>
       </c>
@@ -7774,23 +7788,23 @@
       <c r="T274" s="44"/>
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A275" s="116" t="s">
+      <c r="A275" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B275" s="121">
+      <c r="B275" s="120">
         <v>0.12</v>
       </c>
-      <c r="C275" s="120">
+      <c r="C275" s="119">
         <f t="shared" si="36"/>
         <v>456000</v>
       </c>
-      <c r="E275" s="116" t="s">
+      <c r="E275" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F275" s="121">
+      <c r="F275" s="120">
         <v>0.12</v>
       </c>
-      <c r="G275" s="120">
+      <c r="G275" s="119">
         <f t="shared" si="35"/>
         <v>180000</v>
       </c>
@@ -7799,23 +7813,23 @@
       <c r="T275" s="44"/>
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A276" s="116" t="s">
+      <c r="A276" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B276" s="121">
+      <c r="B276" s="120">
         <v>0.02</v>
       </c>
-      <c r="C276" s="120">
+      <c r="C276" s="119">
         <f t="shared" si="36"/>
         <v>76000</v>
       </c>
-      <c r="E276" s="116" t="s">
+      <c r="E276" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F276" s="121">
+      <c r="F276" s="120">
         <v>2.4E-2</v>
       </c>
-      <c r="G276" s="120">
+      <c r="G276" s="119">
         <f t="shared" si="35"/>
         <v>36000</v>
       </c>
@@ -7828,23 +7842,23 @@
       <c r="T276" s="49"/>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A277" s="116" t="s">
+      <c r="A277" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B277" s="121">
+      <c r="B277" s="120">
         <v>0.04</v>
       </c>
-      <c r="C277" s="120">
+      <c r="C277" s="119">
         <f t="shared" si="36"/>
         <v>152000</v>
       </c>
-      <c r="E277" s="116" t="s">
+      <c r="E277" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F277" s="121">
+      <c r="F277" s="120">
         <v>0.04</v>
       </c>
-      <c r="G277" s="120">
+      <c r="G277" s="119">
         <f t="shared" si="35"/>
         <v>60000</v>
       </c>
@@ -7857,23 +7871,23 @@
       <c r="T277" s="49"/>
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A278" s="116" t="s">
+      <c r="A278" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B278" s="121">
+      <c r="B278" s="120">
         <v>0.02</v>
       </c>
-      <c r="C278" s="120">
+      <c r="C278" s="119">
         <f t="shared" si="36"/>
         <v>76000</v>
       </c>
-      <c r="E278" s="116" t="s">
+      <c r="E278" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F278" s="121">
+      <c r="F278" s="120">
         <v>0.02</v>
       </c>
-      <c r="G278" s="120">
+      <c r="G278" s="119">
         <f t="shared" si="35"/>
         <v>30000</v>
       </c>
@@ -7886,23 +7900,23 @@
       <c r="T278" s="49"/>
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A279" s="116" t="s">
+      <c r="A279" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="B279" s="121">
+      <c r="B279" s="120">
         <v>0.03</v>
       </c>
-      <c r="C279" s="120">
+      <c r="C279" s="119">
         <f t="shared" si="36"/>
         <v>114000</v>
       </c>
-      <c r="E279" s="116" t="s">
+      <c r="E279" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="F279" s="121">
+      <c r="F279" s="120">
         <v>0.03</v>
       </c>
-      <c r="G279" s="120">
+      <c r="G279" s="119">
         <f t="shared" si="35"/>
         <v>45000</v>
       </c>
@@ -7915,19 +7929,19 @@
       <c r="T279" s="49"/>
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A280" s="116" t="s">
+      <c r="A280" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="B280" s="116"/>
-      <c r="C280" s="120">
+      <c r="B280" s="115"/>
+      <c r="C280" s="119">
         <f>SUM(C260:C279)</f>
         <v>2299000</v>
       </c>
-      <c r="E280" s="122" t="s">
+      <c r="E280" s="121" t="s">
         <v>78</v>
       </c>
-      <c r="F280" s="116"/>
-      <c r="G280" s="120">
+      <c r="F280" s="115"/>
+      <c r="G280" s="119">
         <v>117000</v>
       </c>
       <c r="J280" s="47"/>
@@ -7939,19 +7953,19 @@
       <c r="T280" s="49"/>
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A281" s="116" t="s">
+      <c r="A281" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="B281" s="116"/>
-      <c r="C281" s="120">
+      <c r="B281" s="115"/>
+      <c r="C281" s="119">
         <f>+C280+B266</f>
         <v>6299000</v>
       </c>
-      <c r="E281" s="116" t="s">
+      <c r="E281" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="F281" s="116"/>
-      <c r="G281" s="120">
+      <c r="F281" s="115"/>
+      <c r="G281" s="119">
         <f>SUM(G270:G280)</f>
         <v>910500</v>
       </c>
@@ -7967,11 +7981,11 @@
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="E282" s="122" t="s">
+      <c r="E282" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="F282" s="116"/>
-      <c r="G282" s="120">
+      <c r="F282" s="115"/>
+      <c r="G282" s="119">
         <f>+G281+F266</f>
         <v>2410500</v>
       </c>
@@ -7992,11 +8006,11 @@
         <f>+C281/B263</f>
         <v>27386.956521739132</v>
       </c>
-      <c r="E283" s="116" t="s">
+      <c r="E283" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="F283" s="116"/>
-      <c r="G283" s="120">
+      <c r="F283" s="115"/>
+      <c r="G283" s="119">
         <f>+G282/B263</f>
         <v>10480.434782608696</v>
       </c>
@@ -8051,13 +8065,13 @@
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="116" t="s">
+      <c r="A289" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B289" s="120">
+      <c r="B289" s="119">
         <v>2388262</v>
       </c>
-      <c r="C289" s="120">
+      <c r="C289" s="119">
         <f>B289/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -8065,13 +8079,13 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="116" t="s">
+      <c r="A290" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="120">
+      <c r="B290" s="119">
         <v>6775276.5</v>
       </c>
-      <c r="C290" s="120">
+      <c r="C290" s="119">
         <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -8079,26 +8093,26 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="116" t="s">
+      <c r="A291" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B291" s="120">
+      <c r="B291" s="119">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C291" s="120">
+      <c r="C291" s="119">
         <f t="shared" si="37"/>
         <v>3986.6369999999997</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="116" t="s">
+      <c r="A292" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B292" s="120">
+      <c r="B292" s="119">
         <v>6688000</v>
       </c>
-      <c r="C292" s="120">
+      <c r="C292" s="119">
         <f t="shared" si="37"/>
         <v>5573.333333333333</v>
       </c>
@@ -8107,13 +8121,13 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="116" t="s">
+      <c r="A293" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B293" s="120">
+      <c r="B293" s="119">
         <v>63000</v>
       </c>
-      <c r="C293" s="120">
+      <c r="C293" s="119">
         <f t="shared" si="37"/>
         <v>52.5</v>
       </c>
@@ -8150,92 +8164,92 @@
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A299" s="116" t="s">
+      <c r="A299" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="B299" s="117">
-        <v>1</v>
-      </c>
-      <c r="C299" s="118">
+      <c r="B299" s="116">
+        <v>1</v>
+      </c>
+      <c r="C299" s="117">
         <v>10000000</v>
       </c>
-      <c r="D299" s="118">
+      <c r="D299" s="117">
         <f t="shared" ref="D299:D309" si="38">B299*C299</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" s="116" t="s">
+      <c r="A300" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="B300" s="117">
+      <c r="B300" s="116">
         <v>12</v>
       </c>
-      <c r="C300" s="118">
+      <c r="C300" s="117">
         <v>4000000</v>
       </c>
-      <c r="D300" s="118">
+      <c r="D300" s="117">
         <f t="shared" si="38"/>
         <v>48000000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301" s="116" t="s">
+      <c r="A301" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="B301" s="117">
+      <c r="B301" s="116">
         <v>6</v>
       </c>
-      <c r="C301" s="118">
+      <c r="C301" s="117">
         <v>1000000</v>
       </c>
-      <c r="D301" s="118">
+      <c r="D301" s="117">
         <f t="shared" si="38"/>
         <v>6000000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A302" s="116" t="s">
+      <c r="A302" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="B302" s="117">
-        <v>1</v>
-      </c>
-      <c r="C302" s="118">
+      <c r="B302" s="116">
+        <v>1</v>
+      </c>
+      <c r="C302" s="117">
         <v>1000000</v>
       </c>
-      <c r="D302" s="118">
+      <c r="D302" s="117">
         <f t="shared" si="38"/>
         <v>1000000</v>
       </c>
       <c r="I302" s="37"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A303" s="116" t="s">
+      <c r="A303" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="B303" s="117">
+      <c r="B303" s="116">
         <v>6</v>
       </c>
-      <c r="C303" s="118">
+      <c r="C303" s="117">
         <v>2000000</v>
       </c>
-      <c r="D303" s="118">
+      <c r="D303" s="117">
         <f t="shared" si="38"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="116" t="s">
+      <c r="A304" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="B304" s="117">
+      <c r="B304" s="116">
         <v>3</v>
       </c>
-      <c r="C304" s="118">
+      <c r="C304" s="117">
         <v>2500000</v>
       </c>
-      <c r="D304" s="118">
+      <c r="D304" s="117">
         <f t="shared" si="38"/>
         <v>7500000</v>
       </c>
@@ -8243,80 +8257,80 @@
       <c r="G304" s="27"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="116" t="s">
+      <c r="A305" s="115" t="s">
         <v>123</v>
       </c>
-      <c r="B305" s="117">
+      <c r="B305" s="116">
         <v>10</v>
       </c>
-      <c r="C305" s="118">
+      <c r="C305" s="117">
         <v>400000</v>
       </c>
-      <c r="D305" s="118">
+      <c r="D305" s="117">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="G305" s="29"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="116" t="s">
+      <c r="A306" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="B306" s="117">
-        <v>1</v>
-      </c>
-      <c r="C306" s="118">
+      <c r="B306" s="116">
+        <v>1</v>
+      </c>
+      <c r="C306" s="117">
         <v>5000000</v>
       </c>
-      <c r="D306" s="118">
+      <c r="D306" s="117">
         <f t="shared" si="38"/>
         <v>5000000</v>
       </c>
       <c r="H306" s="30"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="116" t="s">
+      <c r="A307" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="B307" s="117">
+      <c r="B307" s="116">
         <v>2</v>
       </c>
-      <c r="C307" s="118">
+      <c r="C307" s="117">
         <v>2000000</v>
       </c>
-      <c r="D307" s="118">
+      <c r="D307" s="117">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="H307" s="29"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A308" s="116" t="s">
+      <c r="A308" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="117">
+      <c r="B308" s="116">
         <v>5</v>
       </c>
-      <c r="C308" s="118">
+      <c r="C308" s="117">
         <v>400000</v>
       </c>
-      <c r="D308" s="118">
+      <c r="D308" s="117">
         <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
       <c r="H308" s="29"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A309" s="116" t="s">
+      <c r="A309" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B309" s="117">
-        <v>1</v>
-      </c>
-      <c r="C309" s="118">
+      <c r="B309" s="116">
+        <v>1</v>
+      </c>
+      <c r="C309" s="117">
         <v>10000000</v>
       </c>
-      <c r="D309" s="118">
+      <c r="D309" s="117">
         <f t="shared" si="38"/>
         <v>10000000</v>
       </c>
@@ -8328,7 +8342,7 @@
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
-      <c r="D310" s="91">
+      <c r="D310" s="90">
         <f>SUM(D299:D309)</f>
         <v>109500000</v>
       </c>
@@ -8453,8 +8467,9 @@
       <c r="E325" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D126:G126"/>
+    <mergeCell ref="A155:D156"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9419,73 +9434,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="D4" s="125" t="s">
+      <c r="B4" s="130"/>
+      <c r="D4" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="126"/>
+      <c r="E4" s="130"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="96">
         <v>4</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="96">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="99">
+      <c r="B6" s="98">
         <v>10</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="98" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="98">
         <v>10</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="98">
         <f>B6*30</f>
         <v>300</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="102">
         <f>E6*30</f>
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
@@ -9541,10 +9556,10 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="94">
         <v>35300</v>
       </c>
       <c r="F13" s="2"/>
@@ -9553,7 +9568,7 @@
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <v>13400</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -9571,7 +9586,7 @@
       <c r="B15" s="39">
         <v>1627.395</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
@@ -9584,7 +9599,7 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="94">
         <v>32425</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -9631,72 +9646,72 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="104">
+      <c r="B20" s="103">
         <v>0.36</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="103">
         <v>0.08</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="104" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="105">
         <v>18140.869565217392</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="106">
         <v>4381.913043478261</v>
       </c>
-      <c r="F21" s="104"/>
+      <c r="F21" s="103"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="104">
+      <c r="B22" s="103">
         <v>0.36</v>
       </c>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="104">
+      <c r="E22" s="103">
         <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="105">
         <v>3772.9565217391305</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105" t="s">
+      <c r="C23" s="103"/>
+      <c r="D23" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="106">
         <v>838.43478260869574</v>
       </c>
     </row>
@@ -9708,23 +9723,23 @@
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="109">
         <v>278826.1401702899</v>
       </c>
-      <c r="C25" s="109"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="110">
+      <c r="E25" s="109">
         <v>273132.66190942028</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="111">
         <f>B25-E25</f>
         <v>5693.478260869626</v>
       </c>
@@ -9764,10 +9779,10 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -9778,10 +9793,10 @@
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="84">
-        <v>1</v>
-      </c>
-      <c r="C10" s="86">
+      <c r="B10" s="83">
+        <v>1</v>
+      </c>
+      <c r="C10" s="85">
         <v>400000</v>
       </c>
       <c r="D10" s="6">
@@ -9793,10 +9808,10 @@
       <c r="A11" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>5</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="85">
         <v>50000</v>
       </c>
       <c r="D11" s="6">
@@ -9808,10 +9823,10 @@
       <c r="A12" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>5</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="85">
         <v>50000</v>
       </c>
       <c r="D12" s="6">
@@ -9823,10 +9838,10 @@
       <c r="A13" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>5</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="85">
         <v>50000</v>
       </c>
       <c r="D13" s="6">
@@ -9835,13 +9850,13 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="114">
-        <v>1</v>
-      </c>
-      <c r="C14" s="115">
+      <c r="B14" s="113">
+        <v>1</v>
+      </c>
+      <c r="C14" s="114">
         <v>20000</v>
       </c>
       <c r="D14" s="6">
@@ -9850,13 +9865,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="B15" s="114">
+      <c r="B15" s="113">
         <v>2</v>
       </c>
-      <c r="C15" s="115">
+      <c r="C15" s="114">
         <v>5000</v>
       </c>
       <c r="D15" s="6">
@@ -9904,10 +9919,10 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="87" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9915,10 +9930,10 @@
       <c r="A6" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="84">
-        <v>1</v>
-      </c>
-      <c r="C6" s="86">
+      <c r="B6" s="83">
+        <v>1</v>
+      </c>
+      <c r="C6" s="85">
         <v>200000</v>
       </c>
     </row>
@@ -9926,10 +9941,10 @@
       <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="84">
-        <v>0</v>
-      </c>
-      <c r="C7" s="86">
+      <c r="B7" s="83">
+        <v>0</v>
+      </c>
+      <c r="C7" s="85">
         <v>300000</v>
       </c>
     </row>
@@ -9937,10 +9952,10 @@
       <c r="A8" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="84">
-        <v>0</v>
-      </c>
-      <c r="C8" s="86">
+      <c r="B8" s="83">
+        <v>0</v>
+      </c>
+      <c r="C8" s="85">
         <v>0</v>
       </c>
     </row>
@@ -9948,10 +9963,10 @@
       <c r="A9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="84">
-        <v>0</v>
-      </c>
-      <c r="C9" s="86">
+      <c r="B9" s="83">
+        <v>0</v>
+      </c>
+      <c r="C9" s="85">
         <v>0</v>
       </c>
     </row>
@@ -9961,6 +9976,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -10167,27 +10202,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
+    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10204,23 +10238,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
-    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.varela/Development/github_personal/nutreconelalma_v2.2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30899546-7FE4-5D4E-9C0C-523244F85FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001962B4-8BA1-BC48-9D87-21B3B9B2A4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25500" yWindow="540" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
@@ -782,6 +782,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0\ [$COP]_-;\-* #,##0\ [$COP]_-;_-* &quot;-&quot;??\ [$COP]_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-[$COP]\ * #,##0.0_-;\-[$COP]\ * #,##0.0_-;_-[$COP]\ * &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1275,7 +1276,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1426,7 +1427,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1435,11 +1435,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,10 +1454,9 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1773,8 +1776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3759,7 +3762,7 @@
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="122" t="s">
         <v>40</v>
       </c>
       <c r="F65" s="7"/>
@@ -3786,7 +3789,7 @@
       <c r="A68" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="116">
+      <c r="B68" s="133">
         <v>0.08</v>
       </c>
       <c r="C68" s="117">
@@ -3802,7 +3805,7 @@
       <c r="A69" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="116">
+      <c r="B69" s="133">
         <v>0.1</v>
       </c>
       <c r="C69" s="117">
@@ -3818,7 +3821,7 @@
       <c r="A70" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="116">
+      <c r="B70" s="133">
         <v>0.15</v>
       </c>
       <c r="C70" s="117">
@@ -3834,7 +3837,7 @@
       <c r="A71" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="116">
+      <c r="B71" s="134">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3851,7 +3854,7 @@
       <c r="A72" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="116">
+      <c r="B72" s="134">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3886,7 +3889,7 @@
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="122" t="s">
         <v>46</v>
       </c>
       <c r="B76" s="23"/>
@@ -4290,14 +4293,14 @@
       <c r="A102" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="119">
+      <c r="B102" s="118">
         <v>3800000</v>
       </c>
       <c r="C102" s="115"/>
       <c r="E102" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="119">
+      <c r="F102" s="118">
         <v>1500000</v>
       </c>
       <c r="G102" s="115"/>
@@ -4329,12 +4332,12 @@
       <c r="T103" s="44"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="122" t="s">
+      <c r="A104" s="121" t="s">
         <v>64</v>
       </c>
       <c r="B104" s="115"/>
       <c r="C104" s="115"/>
-      <c r="E104" s="122" t="s">
+      <c r="E104" s="121" t="s">
         <v>64</v>
       </c>
       <c r="F104" s="115"/>
@@ -4359,23 +4362,23 @@
       <c r="T105" s="44"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A106" s="124" t="s">
+      <c r="A106" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="125">
+      <c r="B106" s="124">
         <v>0.08</v>
       </c>
-      <c r="C106" s="126">
+      <c r="C106" s="125">
         <f t="shared" ref="C106:C115" si="11">+$B$102*B106</f>
         <v>304000</v>
       </c>
       <c r="E106" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="120">
+      <c r="F106" s="119">
         <v>0.08</v>
       </c>
-      <c r="G106" s="119">
+      <c r="G106" s="118">
         <f t="shared" ref="G106:G115" si="12">+$F$102*F106</f>
         <v>120000</v>
       </c>
@@ -4384,23 +4387,23 @@
       <c r="T106" s="44"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A107" s="124" t="s">
+      <c r="A107" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="125">
+      <c r="B107" s="124">
         <v>0.08</v>
       </c>
-      <c r="C107" s="126">
+      <c r="C107" s="125">
         <f t="shared" si="11"/>
         <v>304000</v>
       </c>
       <c r="E107" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F107" s="120">
+      <c r="F107" s="119">
         <v>0.08</v>
       </c>
-      <c r="G107" s="119">
+      <c r="G107" s="118">
         <f t="shared" si="12"/>
         <v>120000</v>
       </c>
@@ -4413,23 +4416,23 @@
       <c r="T107" s="49"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A108" s="124" t="s">
+      <c r="A108" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="125">
+      <c r="B108" s="124">
         <v>0.04</v>
       </c>
-      <c r="C108" s="126">
+      <c r="C108" s="125">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
       <c r="E108" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F108" s="120">
+      <c r="F108" s="119">
         <v>0.04</v>
       </c>
-      <c r="G108" s="119">
+      <c r="G108" s="118">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
@@ -4442,23 +4445,23 @@
       <c r="T108" s="49"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A109" s="124" t="s">
+      <c r="A109" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="125">
+      <c r="B109" s="124">
         <v>0.01</v>
       </c>
-      <c r="C109" s="126">
+      <c r="C109" s="125">
         <f t="shared" si="11"/>
         <v>38000</v>
       </c>
       <c r="E109" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F109" s="120">
+      <c r="F109" s="119">
         <v>0.01</v>
       </c>
-      <c r="G109" s="119">
+      <c r="G109" s="118">
         <f t="shared" si="12"/>
         <v>15000</v>
       </c>
@@ -4471,23 +4474,23 @@
       <c r="T109" s="49"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A110" s="124" t="s">
+      <c r="A110" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="125">
+      <c r="B110" s="124">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C110" s="126">
+      <c r="C110" s="125">
         <f t="shared" si="11"/>
         <v>323000</v>
       </c>
       <c r="E110" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="F110" s="120">
+      <c r="F110" s="119">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G110" s="119">
+      <c r="G110" s="118">
         <f t="shared" si="12"/>
         <v>127500.00000000001</v>
       </c>
@@ -4500,23 +4503,23 @@
       <c r="T110" s="49"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A111" s="124" t="s">
+      <c r="A111" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="125">
+      <c r="B111" s="124">
         <v>0.12</v>
       </c>
-      <c r="C111" s="126">
+      <c r="C111" s="125">
         <f t="shared" si="11"/>
         <v>456000</v>
       </c>
       <c r="E111" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F111" s="120">
+      <c r="F111" s="119">
         <v>0.12</v>
       </c>
-      <c r="G111" s="119">
+      <c r="G111" s="118">
         <f t="shared" si="12"/>
         <v>180000</v>
       </c>
@@ -4529,23 +4532,23 @@
       <c r="T111" s="49"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A112" s="124" t="s">
+      <c r="A112" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="125">
+      <c r="B112" s="124">
         <v>0.02</v>
       </c>
-      <c r="C112" s="126">
+      <c r="C112" s="125">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
       <c r="E112" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F112" s="120">
+      <c r="F112" s="119">
         <v>2.4E-2</v>
       </c>
-      <c r="G112" s="119">
+      <c r="G112" s="118">
         <f t="shared" si="12"/>
         <v>36000</v>
       </c>
@@ -4558,23 +4561,23 @@
       <c r="T112" s="49"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="124" t="s">
+      <c r="A113" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="B113" s="125">
+      <c r="B113" s="124">
         <v>0.04</v>
       </c>
-      <c r="C113" s="126">
+      <c r="C113" s="125">
         <f t="shared" si="11"/>
         <v>152000</v>
       </c>
       <c r="E113" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F113" s="120">
+      <c r="F113" s="119">
         <v>0.04</v>
       </c>
-      <c r="G113" s="119">
+      <c r="G113" s="118">
         <f t="shared" si="12"/>
         <v>60000</v>
       </c>
@@ -4587,23 +4590,23 @@
       <c r="T113" s="49"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="124" t="s">
+      <c r="A114" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="B114" s="125">
+      <c r="B114" s="124">
         <v>0.02</v>
       </c>
-      <c r="C114" s="126">
+      <c r="C114" s="125">
         <f t="shared" si="11"/>
         <v>76000</v>
       </c>
       <c r="E114" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F114" s="120">
+      <c r="F114" s="119">
         <v>0.02</v>
       </c>
-      <c r="G114" s="119">
+      <c r="G114" s="118">
         <f t="shared" si="12"/>
         <v>30000</v>
       </c>
@@ -4616,23 +4619,23 @@
       <c r="T114" s="49"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A115" s="124" t="s">
+      <c r="A115" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B115" s="125">
+      <c r="B115" s="124">
         <v>0.03</v>
       </c>
-      <c r="C115" s="126">
+      <c r="C115" s="125">
         <f t="shared" si="11"/>
         <v>114000</v>
       </c>
       <c r="E115" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="F115" s="120">
+      <c r="F115" s="119">
         <v>0.03</v>
       </c>
-      <c r="G115" s="119">
+      <c r="G115" s="118">
         <f t="shared" si="12"/>
         <v>45000</v>
       </c>
@@ -4649,15 +4652,15 @@
         <v>77</v>
       </c>
       <c r="B116" s="115"/>
-      <c r="C116" s="119">
+      <c r="C116" s="118">
         <f>SUM(C106:C115)</f>
         <v>1995000</v>
       </c>
-      <c r="E116" s="121" t="s">
+      <c r="E116" s="120" t="s">
         <v>78</v>
       </c>
       <c r="F116" s="115"/>
-      <c r="G116" s="119">
+      <c r="G116" s="118">
         <v>117000</v>
       </c>
       <c r="J116" s="47"/>
@@ -4673,7 +4676,7 @@
         <v>79</v>
       </c>
       <c r="B117" s="115"/>
-      <c r="C117" s="119">
+      <c r="C117" s="118">
         <f>+C116+B102</f>
         <v>5795000</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>80</v>
       </c>
       <c r="F117" s="115"/>
-      <c r="G117" s="119">
+      <c r="G117" s="118">
         <f>SUM(G106:G116)</f>
         <v>910500</v>
       </c>
@@ -4695,11 +4698,11 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="E118" s="121" t="s">
+      <c r="E118" s="120" t="s">
         <v>81</v>
       </c>
       <c r="F118" s="115"/>
-      <c r="G118" s="119">
+      <c r="G118" s="118">
         <f>+G117+F102</f>
         <v>2410500</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>83</v>
       </c>
       <c r="F119" s="115"/>
-      <c r="G119" s="119">
+      <c r="G119" s="118">
         <f>+G118/B99</f>
         <v>10480.434782608696</v>
       </c>
@@ -4787,10 +4790,10 @@
       <c r="A126" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="119">
+      <c r="B126" s="118">
         <v>2388262</v>
       </c>
-      <c r="C126" s="119">
+      <c r="C126" s="118">
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -4805,10 +4808,10 @@
       <c r="A127" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="119">
+      <c r="B127" s="118">
         <v>6775276.5</v>
       </c>
-      <c r="C127" s="119">
+      <c r="C127" s="118">
         <f t="shared" ref="C127:C130" si="13">B127/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -4817,10 +4820,10 @@
       <c r="A128" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="119">
+      <c r="B128" s="118">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C128" s="119">
+      <c r="C128" s="118">
         <f t="shared" si="13"/>
         <v>3986.6369999999997</v>
       </c>
@@ -4829,10 +4832,10 @@
       <c r="A129" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="119">
+      <c r="B129" s="118">
         <v>6688000</v>
       </c>
-      <c r="C129" s="119">
+      <c r="C129" s="118">
         <f t="shared" si="13"/>
         <v>5573.333333333333</v>
       </c>
@@ -4841,10 +4844,10 @@
       <c r="A130" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="119">
+      <c r="B130" s="118">
         <v>63000</v>
       </c>
-      <c r="C130" s="119">
+      <c r="C130" s="118">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
@@ -4899,7 +4902,7 @@
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="124" t="s">
+      <c r="A138" s="123" t="s">
         <v>117</v>
       </c>
       <c r="B138" s="116">
@@ -4950,7 +4953,7 @@
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="124" t="s">
+      <c r="A141" s="123" t="s">
         <v>120</v>
       </c>
       <c r="B141" s="116">
@@ -4965,7 +4968,7 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="124" t="s">
+      <c r="A142" s="123" t="s">
         <v>121</v>
       </c>
       <c r="B142" s="116">
@@ -4980,7 +4983,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="124" t="s">
+      <c r="A143" s="123" t="s">
         <v>122</v>
       </c>
       <c r="B143" s="116">
@@ -4995,7 +4998,7 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="124" t="s">
+      <c r="A144" s="123" t="s">
         <v>123</v>
       </c>
       <c r="B144" s="116">
@@ -5010,7 +5013,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="124" t="s">
+      <c r="A145" s="123" t="s">
         <v>142</v>
       </c>
       <c r="B145" s="116">
@@ -5025,7 +5028,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="124" t="s">
+      <c r="A146" s="123" t="s">
         <v>125</v>
       </c>
       <c r="B146" s="116">
@@ -5040,7 +5043,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="124" t="s">
+      <c r="A147" s="123" t="s">
         <v>126</v>
       </c>
       <c r="B147" s="116">
@@ -5055,7 +5058,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="124" t="s">
+      <c r="A148" s="123" t="s">
         <v>127</v>
       </c>
       <c r="B148" s="116">
@@ -5070,7 +5073,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="132" t="s">
+      <c r="A149" s="126" t="s">
         <v>31</v>
       </c>
       <c r="B149" s="8"/>
@@ -5114,18 +5117,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="133" t="s">
+      <c r="A155" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="133"/>
-      <c r="C155" s="133"/>
-      <c r="D155" s="133"/>
+      <c r="B155" s="129"/>
+      <c r="C155" s="129"/>
+      <c r="D155" s="129"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="133"/>
-      <c r="B156" s="133"/>
-      <c r="C156" s="133"/>
-      <c r="D156" s="133"/>
+      <c r="A156" s="129"/>
+      <c r="B156" s="129"/>
+      <c r="C156" s="129"/>
+      <c r="D156" s="129"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7276,7 +7279,7 @@
       <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="115" t="s">
+      <c r="A243" s="123" t="s">
         <v>110</v>
       </c>
       <c r="B243" s="116">
@@ -7292,7 +7295,7 @@
       <c r="F243" s="7"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="115" t="s">
+      <c r="A244" s="123" t="s">
         <v>47</v>
       </c>
       <c r="B244" s="116">
@@ -7308,7 +7311,7 @@
       <c r="F244" s="7"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="115" t="s">
+      <c r="A245" s="123" t="s">
         <v>48</v>
       </c>
       <c r="B245" s="116">
@@ -7324,7 +7327,7 @@
       <c r="F245" s="7"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="115" t="s">
+      <c r="A246" s="123" t="s">
         <v>49</v>
       </c>
       <c r="B246" s="116">
@@ -7340,7 +7343,7 @@
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="115" t="s">
+      <c r="A247" s="123" t="s">
         <v>113</v>
       </c>
       <c r="B247" s="116">
@@ -7356,7 +7359,7 @@
       <c r="F247" s="7"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="115" t="s">
+      <c r="A248" s="123" t="s">
         <v>116</v>
       </c>
       <c r="B248" s="116">
@@ -7372,7 +7375,7 @@
       <c r="F248" s="7"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="115" t="s">
+      <c r="A249" s="123" t="s">
         <v>112</v>
       </c>
       <c r="B249" s="116">
@@ -7388,7 +7391,7 @@
       <c r="F249" s="7"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="118" t="s">
+      <c r="A250" s="135" t="s">
         <v>111</v>
       </c>
       <c r="B250" s="116">
@@ -7404,7 +7407,7 @@
       <c r="F250" s="7"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="115" t="s">
+      <c r="A251" s="123" t="s">
         <v>50</v>
       </c>
       <c r="B251" s="116">
@@ -7420,7 +7423,7 @@
       <c r="F251" s="7"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="115" t="s">
+      <c r="A252" s="123" t="s">
         <v>51</v>
       </c>
       <c r="B252" s="116">
@@ -7436,7 +7439,7 @@
       <c r="F252" s="7"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="115" t="s">
+      <c r="A253" s="123" t="s">
         <v>52</v>
       </c>
       <c r="B253" s="116">
@@ -7452,7 +7455,7 @@
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="115" t="s">
+      <c r="A254" s="123" t="s">
         <v>53</v>
       </c>
       <c r="B254" s="116">
@@ -7468,7 +7471,7 @@
       <c r="F254" s="7"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="115" t="s">
+      <c r="A255" s="123" t="s">
         <v>54</v>
       </c>
       <c r="B255" s="116">
@@ -7484,7 +7487,7 @@
       <c r="F255" s="7"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="115" t="s">
+      <c r="A256" s="123" t="s">
         <v>55</v>
       </c>
       <c r="B256" s="116">
@@ -7500,7 +7503,7 @@
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="115" t="s">
+      <c r="A257" s="123" t="s">
         <v>56</v>
       </c>
       <c r="B257" s="116">
@@ -7602,14 +7605,14 @@
       <c r="A266" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B266" s="119">
+      <c r="B266" s="118">
         <v>4000000</v>
       </c>
       <c r="C266" s="115"/>
       <c r="E266" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F266" s="119">
+      <c r="F266" s="118">
         <v>1500000</v>
       </c>
       <c r="G266" s="115"/>
@@ -7658,20 +7661,20 @@
       <c r="A270" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B270" s="120">
+      <c r="B270" s="119">
         <v>0.08</v>
       </c>
-      <c r="C270" s="119">
+      <c r="C270" s="118">
         <f>+$B$102*B270</f>
         <v>304000</v>
       </c>
       <c r="E270" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="F270" s="120">
+      <c r="F270" s="119">
         <v>0.08</v>
       </c>
-      <c r="G270" s="119">
+      <c r="G270" s="118">
         <f t="shared" ref="G270:G279" si="35">+$F$102*F270</f>
         <v>120000</v>
       </c>
@@ -7683,20 +7686,20 @@
       <c r="A271" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="B271" s="120">
+      <c r="B271" s="119">
         <v>0.08</v>
       </c>
-      <c r="C271" s="119">
+      <c r="C271" s="118">
         <f>+$B$102*B271</f>
         <v>304000</v>
       </c>
       <c r="E271" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="F271" s="120">
+      <c r="F271" s="119">
         <v>0.08</v>
       </c>
-      <c r="G271" s="119">
+      <c r="G271" s="118">
         <f t="shared" si="35"/>
         <v>120000</v>
       </c>
@@ -7714,20 +7717,20 @@
       <c r="A272" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B272" s="120">
+      <c r="B272" s="119">
         <v>0.04</v>
       </c>
-      <c r="C272" s="119">
+      <c r="C272" s="118">
         <f t="shared" ref="C272:C279" si="36">+$B$102*B272</f>
         <v>152000</v>
       </c>
       <c r="E272" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="F272" s="120">
+      <c r="F272" s="119">
         <v>0.04</v>
       </c>
-      <c r="G272" s="119">
+      <c r="G272" s="118">
         <f t="shared" si="35"/>
         <v>60000</v>
       </c>
@@ -7741,20 +7744,20 @@
       <c r="A273" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="B273" s="120">
+      <c r="B273" s="119">
         <v>0.01</v>
       </c>
-      <c r="C273" s="119">
+      <c r="C273" s="118">
         <f t="shared" si="36"/>
         <v>38000</v>
       </c>
       <c r="E273" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="F273" s="120">
+      <c r="F273" s="119">
         <v>0.01</v>
       </c>
-      <c r="G273" s="119">
+      <c r="G273" s="118">
         <f t="shared" si="35"/>
         <v>15000</v>
       </c>
@@ -7766,20 +7769,20 @@
       <c r="A274" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="B274" s="120">
+      <c r="B274" s="119">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C274" s="119">
+      <c r="C274" s="118">
         <f t="shared" si="36"/>
         <v>323000</v>
       </c>
       <c r="E274" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="F274" s="120">
+      <c r="F274" s="119">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G274" s="119">
+      <c r="G274" s="118">
         <f t="shared" si="35"/>
         <v>127500.00000000001</v>
       </c>
@@ -7791,20 +7794,20 @@
       <c r="A275" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="B275" s="120">
+      <c r="B275" s="119">
         <v>0.12</v>
       </c>
-      <c r="C275" s="119">
+      <c r="C275" s="118">
         <f t="shared" si="36"/>
         <v>456000</v>
       </c>
       <c r="E275" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F275" s="120">
+      <c r="F275" s="119">
         <v>0.12</v>
       </c>
-      <c r="G275" s="119">
+      <c r="G275" s="118">
         <f t="shared" si="35"/>
         <v>180000</v>
       </c>
@@ -7816,20 +7819,20 @@
       <c r="A276" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B276" s="120">
+      <c r="B276" s="119">
         <v>0.02</v>
       </c>
-      <c r="C276" s="119">
+      <c r="C276" s="118">
         <f t="shared" si="36"/>
         <v>76000</v>
       </c>
       <c r="E276" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="F276" s="120">
+      <c r="F276" s="119">
         <v>2.4E-2</v>
       </c>
-      <c r="G276" s="119">
+      <c r="G276" s="118">
         <f t="shared" si="35"/>
         <v>36000</v>
       </c>
@@ -7845,20 +7848,20 @@
       <c r="A277" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B277" s="120">
+      <c r="B277" s="119">
         <v>0.04</v>
       </c>
-      <c r="C277" s="119">
+      <c r="C277" s="118">
         <f t="shared" si="36"/>
         <v>152000</v>
       </c>
       <c r="E277" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="F277" s="120">
+      <c r="F277" s="119">
         <v>0.04</v>
       </c>
-      <c r="G277" s="119">
+      <c r="G277" s="118">
         <f t="shared" si="35"/>
         <v>60000</v>
       </c>
@@ -7874,20 +7877,20 @@
       <c r="A278" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B278" s="120">
+      <c r="B278" s="119">
         <v>0.02</v>
       </c>
-      <c r="C278" s="119">
+      <c r="C278" s="118">
         <f t="shared" si="36"/>
         <v>76000</v>
       </c>
       <c r="E278" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F278" s="120">
+      <c r="F278" s="119">
         <v>0.02</v>
       </c>
-      <c r="G278" s="119">
+      <c r="G278" s="118">
         <f t="shared" si="35"/>
         <v>30000</v>
       </c>
@@ -7903,20 +7906,20 @@
       <c r="A279" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="B279" s="120">
+      <c r="B279" s="119">
         <v>0.03</v>
       </c>
-      <c r="C279" s="119">
+      <c r="C279" s="118">
         <f t="shared" si="36"/>
         <v>114000</v>
       </c>
       <c r="E279" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="F279" s="120">
+      <c r="F279" s="119">
         <v>0.03</v>
       </c>
-      <c r="G279" s="119">
+      <c r="G279" s="118">
         <f t="shared" si="35"/>
         <v>45000</v>
       </c>
@@ -7933,15 +7936,15 @@
         <v>77</v>
       </c>
       <c r="B280" s="115"/>
-      <c r="C280" s="119">
+      <c r="C280" s="118">
         <f>SUM(C260:C279)</f>
         <v>2299000</v>
       </c>
-      <c r="E280" s="121" t="s">
+      <c r="E280" s="120" t="s">
         <v>78</v>
       </c>
       <c r="F280" s="115"/>
-      <c r="G280" s="119">
+      <c r="G280" s="118">
         <v>117000</v>
       </c>
       <c r="J280" s="47"/>
@@ -7957,7 +7960,7 @@
         <v>79</v>
       </c>
       <c r="B281" s="115"/>
-      <c r="C281" s="119">
+      <c r="C281" s="118">
         <f>+C280+B266</f>
         <v>6299000</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>80</v>
       </c>
       <c r="F281" s="115"/>
-      <c r="G281" s="119">
+      <c r="G281" s="118">
         <f>SUM(G270:G280)</f>
         <v>910500</v>
       </c>
@@ -7981,11 +7984,11 @@
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="E282" s="121" t="s">
+      <c r="E282" s="120" t="s">
         <v>81</v>
       </c>
       <c r="F282" s="115"/>
-      <c r="G282" s="119">
+      <c r="G282" s="118">
         <f>+G281+F266</f>
         <v>2410500</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>83</v>
       </c>
       <c r="F283" s="115"/>
-      <c r="G283" s="119">
+      <c r="G283" s="118">
         <f>+G282/B263</f>
         <v>10480.434782608696</v>
       </c>
@@ -8068,10 +8071,10 @@
       <c r="A289" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B289" s="119">
+      <c r="B289" s="118">
         <v>2388262</v>
       </c>
-      <c r="C289" s="119">
+      <c r="C289" s="118">
         <f>B289/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -8082,10 +8085,10 @@
       <c r="A290" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="119">
+      <c r="B290" s="118">
         <v>6775276.5</v>
       </c>
-      <c r="C290" s="119">
+      <c r="C290" s="118">
         <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -8096,10 +8099,10 @@
       <c r="A291" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B291" s="119">
+      <c r="B291" s="118">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C291" s="119">
+      <c r="C291" s="118">
         <f t="shared" si="37"/>
         <v>3986.6369999999997</v>
       </c>
@@ -8109,10 +8112,10 @@
       <c r="A292" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B292" s="119">
+      <c r="B292" s="118">
         <v>6688000</v>
       </c>
-      <c r="C292" s="119">
+      <c r="C292" s="118">
         <f t="shared" si="37"/>
         <v>5573.333333333333</v>
       </c>
@@ -8124,10 +8127,10 @@
       <c r="A293" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B293" s="119">
+      <c r="B293" s="118">
         <v>63000</v>
       </c>
-      <c r="C293" s="119">
+      <c r="C293" s="118">
         <f t="shared" si="37"/>
         <v>52.5</v>
       </c>
@@ -9434,23 +9437,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="130" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="D4" s="129" t="s">
+      <c r="B4" s="131"/>
+      <c r="D4" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="131"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
@@ -9976,26 +9979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -10202,10 +10185,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
+    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10222,20 +10236,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
-    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001962B4-8BA1-BC48-9D87-21B3B9B2A4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA9479-814E-1844-92AB-5636B951D90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25500" yWindow="540" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21360" yWindow="520" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo 1" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0\ [$COP]_-;\-* #,##0\ [$COP]_-;_-* &quot;-&quot;??\ [$COP]_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-[$COP]\ * #,##0.0_-;\-[$COP]\ * #,##0.0_-;_-[$COP]\ * &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -986,7 +986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,6 +1071,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1282,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1436,6 +1442,8 @@
     <xf numFmtId="9" fontId="8" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1454,9 +1462,25 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1776,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240:D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3813,7 @@
       <c r="A68" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="133">
+      <c r="B68" s="127">
         <v>0.08</v>
       </c>
       <c r="C68" s="117">
@@ -3805,7 +3829,7 @@
       <c r="A69" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="133">
+      <c r="B69" s="127">
         <v>0.1</v>
       </c>
       <c r="C69" s="117">
@@ -3821,7 +3845,7 @@
       <c r="A70" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="133">
+      <c r="B70" s="127">
         <v>0.15</v>
       </c>
       <c r="C70" s="117">
@@ -3837,7 +3861,7 @@
       <c r="A71" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="134">
+      <c r="B71" s="128">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3854,7 +3878,7 @@
       <c r="A72" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="134">
+      <c r="B72" s="128">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4797,12 +4821,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="127" t="s">
+      <c r="D126" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="128"/>
-      <c r="F126" s="128"/>
-      <c r="G126" s="128"/>
+      <c r="E126" s="130"/>
+      <c r="F126" s="130"/>
+      <c r="G126" s="130"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
@@ -5117,18 +5141,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="129" t="s">
+      <c r="A155" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="129"/>
-      <c r="C155" s="129"/>
-      <c r="D155" s="129"/>
+      <c r="B155" s="131"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="131"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="129"/>
-      <c r="B156" s="129"/>
-      <c r="C156" s="129"/>
-      <c r="D156" s="129"/>
+      <c r="A156" s="131"/>
+      <c r="B156" s="131"/>
+      <c r="C156" s="131"/>
+      <c r="D156" s="131"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -5318,7 +5342,7 @@
       </c>
       <c r="B176" s="15">
         <f>B175*B264*C283</f>
-        <v>4381.913043478261</v>
+        <v>4170.434782608696</v>
       </c>
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.2">
@@ -5368,7 +5392,7 @@
       </c>
       <c r="B180" s="91">
         <f>+B168+B176+B178+B169+B170+B171+B172+E17+B173+B165</f>
-        <v>273132.66190942028</v>
+        <v>272921.18364855071</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>198</v>
@@ -7252,296 +7276,304 @@
       <c r="F239" s="7"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="B240" s="23"/>
+      <c r="B240" s="148"/>
+      <c r="C240" s="136"/>
+      <c r="D240" s="136"/>
       <c r="F240" s="7"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
-      <c r="B241" s="23"/>
+      <c r="A241" s="135"/>
+      <c r="B241" s="148"/>
+      <c r="C241" s="136"/>
+      <c r="D241" s="136"/>
       <c r="F241" s="7"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="B242" s="87" t="s">
+      <c r="B242" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="87" t="s">
+      <c r="C242" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="D242" s="143" t="s">
         <v>34</v>
       </c>
       <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="123" t="s">
+      <c r="A243" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="B243" s="116">
-        <v>1</v>
-      </c>
-      <c r="C243" s="117">
+      <c r="B243" s="144">
+        <v>1</v>
+      </c>
+      <c r="C243" s="145">
         <v>400</v>
       </c>
-      <c r="D243" s="117">
+      <c r="D243" s="145">
         <f t="shared" ref="D243:D257" si="34">B243*C243</f>
         <v>400</v>
       </c>
       <c r="F243" s="7"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="123" t="s">
+      <c r="A244" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="116">
-        <v>1</v>
-      </c>
-      <c r="C244" s="117">
+      <c r="B244" s="144">
+        <v>1</v>
+      </c>
+      <c r="C244" s="145">
         <v>400</v>
       </c>
-      <c r="D244" s="117">
+      <c r="D244" s="145">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F244" s="7"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="123" t="s">
+      <c r="A245" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="116">
-        <v>0</v>
-      </c>
-      <c r="C245" s="117">
+      <c r="B245" s="144">
+        <v>0</v>
+      </c>
+      <c r="C245" s="145">
         <v>400</v>
       </c>
-      <c r="D245" s="117">
+      <c r="D245" s="145">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F245" s="7"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="123" t="s">
+      <c r="A246" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="B246" s="116">
-        <v>0</v>
-      </c>
-      <c r="C246" s="117">
+      <c r="B246" s="144">
+        <v>0</v>
+      </c>
+      <c r="C246" s="145">
         <v>500</v>
       </c>
-      <c r="D246" s="117">
+      <c r="D246" s="145">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="123" t="s">
+      <c r="A247" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="B247" s="116">
-        <v>1</v>
-      </c>
-      <c r="C247" s="117">
+      <c r="B247" s="144">
+        <v>1</v>
+      </c>
+      <c r="C247" s="145">
         <v>2000</v>
       </c>
-      <c r="D247" s="117">
+      <c r="D247" s="145">
         <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="F247" s="7"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="123" t="s">
+      <c r="A248" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B248" s="116">
+      <c r="B248" s="144">
         <v>2</v>
       </c>
-      <c r="C248" s="117">
+      <c r="C248" s="145">
         <v>400</v>
       </c>
-      <c r="D248" s="117">
+      <c r="D248" s="145">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F248" s="7"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="123" t="s">
+      <c r="A249" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="B249" s="116">
-        <v>0</v>
-      </c>
-      <c r="C249" s="117">
+      <c r="B249" s="144">
+        <v>0</v>
+      </c>
+      <c r="C249" s="145">
         <v>2500</v>
       </c>
-      <c r="D249" s="117">
+      <c r="D249" s="145">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F249" s="7"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="135" t="s">
+      <c r="A250" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="B250" s="116">
-        <v>0</v>
-      </c>
-      <c r="C250" s="117">
+      <c r="B250" s="144">
+        <v>0</v>
+      </c>
+      <c r="C250" s="145">
         <v>2000</v>
       </c>
-      <c r="D250" s="117">
+      <c r="D250" s="145">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F250" s="7"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="123" t="s">
+      <c r="A251" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="B251" s="116">
-        <v>1</v>
-      </c>
-      <c r="C251" s="117">
+      <c r="B251" s="144">
+        <v>1</v>
+      </c>
+      <c r="C251" s="145">
         <v>5000</v>
       </c>
-      <c r="D251" s="117">
+      <c r="D251" s="145">
         <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="F251" s="7"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="123" t="s">
+      <c r="A252" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="116">
-        <v>1</v>
-      </c>
-      <c r="C252" s="117">
+      <c r="B252" s="144">
+        <v>1</v>
+      </c>
+      <c r="C252" s="145">
         <v>1000</v>
       </c>
-      <c r="D252" s="117">
+      <c r="D252" s="145">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F252" s="7"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="123" t="s">
+      <c r="A253" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B253" s="116">
+      <c r="B253" s="144">
         <v>0.05</v>
       </c>
-      <c r="C253" s="117">
+      <c r="C253" s="145">
         <v>8000</v>
       </c>
-      <c r="D253" s="117">
+      <c r="D253" s="145">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="123" t="s">
+      <c r="A254" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="B254" s="116">
+      <c r="B254" s="144">
         <v>2</v>
       </c>
-      <c r="C254" s="117">
+      <c r="C254" s="145">
         <v>400</v>
       </c>
-      <c r="D254" s="117">
+      <c r="D254" s="145">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F254" s="7"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="123" t="s">
+      <c r="A255" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="B255" s="116">
+      <c r="B255" s="144">
         <v>0.1</v>
       </c>
-      <c r="C255" s="117">
+      <c r="C255" s="145">
         <v>500</v>
       </c>
-      <c r="D255" s="117">
+      <c r="D255" s="145">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="F255" s="7"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="123" t="s">
+      <c r="A256" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B256" s="116">
+      <c r="B256" s="144">
         <v>0.5</v>
       </c>
-      <c r="C256" s="117">
+      <c r="C256" s="145">
         <v>500</v>
       </c>
-      <c r="D256" s="117">
+      <c r="D256" s="145">
         <f t="shared" si="34"/>
         <v>250</v>
       </c>
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="123" t="s">
+      <c r="A257" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B257" s="116">
+      <c r="B257" s="144">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C257" s="117">
+      <c r="C257" s="145">
         <v>1500</v>
       </c>
-      <c r="D257" s="117">
+      <c r="D257" s="145">
         <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="F257" s="7"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D258" s="7"/>
+      <c r="A258" s="136"/>
+      <c r="B258" s="136"/>
+      <c r="C258" s="136"/>
+      <c r="D258" s="150"/>
       <c r="F258" s="7"/>
     </row>
     <row r="259" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="s">
+      <c r="A259" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B259" s="9"/>
-      <c r="C259" s="8"/>
-      <c r="D259" s="9">
+      <c r="B259" s="151"/>
+      <c r="C259" s="141"/>
+      <c r="D259" s="151">
         <f>SUM(D243:D258)</f>
         <v>11125</v>
       </c>
       <c r="F259" s="7"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B260" s="7"/>
-      <c r="C260" s="10">
+      <c r="A260" s="136"/>
+      <c r="B260" s="150"/>
+      <c r="C260" s="140">
         <f>+$B$102*B270</f>
         <v>304000</v>
       </c>
-      <c r="D260" s="7"/>
+      <c r="D260" s="150"/>
       <c r="F260" s="7"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
@@ -7937,8 +7969,8 @@
       </c>
       <c r="B280" s="115"/>
       <c r="C280" s="118">
-        <f>SUM(C260:C279)</f>
-        <v>2299000</v>
+        <f>SUM(C270:C279)</f>
+        <v>1995000</v>
       </c>
       <c r="E280" s="120" t="s">
         <v>78</v>
@@ -7962,7 +7994,7 @@
       <c r="B281" s="115"/>
       <c r="C281" s="118">
         <f>+C280+B266</f>
-        <v>6299000</v>
+        <v>5995000</v>
       </c>
       <c r="E281" s="115" t="s">
         <v>80</v>
@@ -8007,7 +8039,7 @@
       <c r="B283" s="3"/>
       <c r="C283" s="10">
         <f>+C281/B263</f>
-        <v>27386.956521739132</v>
+        <v>26065.217391304348</v>
       </c>
       <c r="E283" s="115" t="s">
         <v>83</v>
@@ -8042,39 +8074,42 @@
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="135" t="s">
         <v>84</v>
       </c>
+      <c r="B286" s="136"/>
+      <c r="C286" s="136"/>
       <c r="F286" s="47"/>
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
+      <c r="A287" s="137"/>
+      <c r="B287" s="137"/>
+      <c r="C287" s="136"/>
       <c r="F287" s="47"/>
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A288" s="12" t="s">
+      <c r="A288" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B288" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="C288" s="12" t="s">
+      <c r="C288" s="138" t="s">
         <v>87</v>
       </c>
       <c r="F288" s="47"/>
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="115" t="s">
+      <c r="A289" s="139" t="s">
         <v>88</v>
       </c>
-      <c r="B289" s="118">
+      <c r="B289" s="140">
         <v>2388262</v>
       </c>
-      <c r="C289" s="118">
+      <c r="C289" s="140">
         <f>B289/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -8082,13 +8117,13 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="115" t="s">
+      <c r="A290" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="118">
+      <c r="B290" s="140">
         <v>6775276.5</v>
       </c>
-      <c r="C290" s="118">
+      <c r="C290" s="140">
         <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -8096,26 +8131,26 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="115" t="s">
+      <c r="A291" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="B291" s="118">
+      <c r="B291" s="140">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C291" s="118">
+      <c r="C291" s="140">
         <f t="shared" si="37"/>
         <v>3986.6369999999997</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="115" t="s">
+      <c r="A292" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="B292" s="118">
+      <c r="B292" s="140">
         <v>6688000</v>
       </c>
-      <c r="C292" s="118">
+      <c r="C292" s="140">
         <f t="shared" si="37"/>
         <v>5573.333333333333</v>
       </c>
@@ -8124,135 +8159,143 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="115" t="s">
+      <c r="A293" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="B293" s="118">
+      <c r="B293" s="140">
         <v>63000</v>
       </c>
-      <c r="C293" s="118">
+      <c r="C293" s="140">
         <f t="shared" si="37"/>
         <v>52.5</v>
       </c>
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="8" t="s">
+      <c r="A294" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B294" s="8"/>
-      <c r="C294" s="21">
+      <c r="B294" s="141"/>
+      <c r="C294" s="142">
         <f>SUM(C289:C293)</f>
         <v>17248.752416666666</v>
       </c>
       <c r="G294" s="15"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="135" t="s">
         <v>128</v>
       </c>
+      <c r="B296" s="136"/>
+      <c r="C296" s="136"/>
+      <c r="D296" s="136"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="136"/>
+      <c r="B297" s="136"/>
+      <c r="C297" s="136"/>
+      <c r="D297" s="136"/>
       <c r="H297" s="37"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B298" s="1" t="s">
+      <c r="A298" s="136"/>
+      <c r="B298" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="C298" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="D298" s="143" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A299" s="115" t="s">
+      <c r="A299" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="B299" s="116">
-        <v>1</v>
-      </c>
-      <c r="C299" s="117">
+      <c r="B299" s="144">
+        <v>1</v>
+      </c>
+      <c r="C299" s="145">
         <v>10000000</v>
       </c>
-      <c r="D299" s="117">
+      <c r="D299" s="145">
         <f t="shared" ref="D299:D309" si="38">B299*C299</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" s="115" t="s">
+      <c r="A300" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="B300" s="116">
+      <c r="B300" s="144">
         <v>12</v>
       </c>
-      <c r="C300" s="117">
+      <c r="C300" s="145">
         <v>4000000</v>
       </c>
-      <c r="D300" s="117">
+      <c r="D300" s="145">
         <f t="shared" si="38"/>
         <v>48000000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301" s="115" t="s">
+      <c r="A301" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="B301" s="116">
+      <c r="B301" s="144">
         <v>6</v>
       </c>
-      <c r="C301" s="117">
+      <c r="C301" s="145">
         <v>1000000</v>
       </c>
-      <c r="D301" s="117">
+      <c r="D301" s="145">
         <f t="shared" si="38"/>
         <v>6000000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A302" s="115" t="s">
+      <c r="A302" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="B302" s="116">
-        <v>1</v>
-      </c>
-      <c r="C302" s="117">
+      <c r="B302" s="144">
+        <v>1</v>
+      </c>
+      <c r="C302" s="145">
         <v>1000000</v>
       </c>
-      <c r="D302" s="117">
+      <c r="D302" s="145">
         <f t="shared" si="38"/>
         <v>1000000</v>
       </c>
       <c r="I302" s="37"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A303" s="115" t="s">
+      <c r="A303" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="B303" s="116">
+      <c r="B303" s="144">
         <v>6</v>
       </c>
-      <c r="C303" s="117">
+      <c r="C303" s="145">
         <v>2000000</v>
       </c>
-      <c r="D303" s="117">
+      <c r="D303" s="145">
         <f t="shared" si="38"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="115" t="s">
+      <c r="A304" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="B304" s="116">
+      <c r="B304" s="144">
         <v>3</v>
       </c>
-      <c r="C304" s="117">
+      <c r="C304" s="145">
         <v>2500000</v>
       </c>
-      <c r="D304" s="117">
+      <c r="D304" s="145">
         <f t="shared" si="38"/>
         <v>7500000</v>
       </c>
@@ -8260,112 +8303,116 @@
       <c r="G304" s="27"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="115" t="s">
+      <c r="A305" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="B305" s="116">
+      <c r="B305" s="144">
         <v>10</v>
       </c>
-      <c r="C305" s="117">
+      <c r="C305" s="145">
         <v>400000</v>
       </c>
-      <c r="D305" s="117">
+      <c r="D305" s="145">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="G305" s="29"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="115" t="s">
+      <c r="A306" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="B306" s="116">
-        <v>1</v>
-      </c>
-      <c r="C306" s="117">
+      <c r="B306" s="144">
+        <v>1</v>
+      </c>
+      <c r="C306" s="145">
         <v>5000000</v>
       </c>
-      <c r="D306" s="117">
+      <c r="D306" s="145">
         <f t="shared" si="38"/>
         <v>5000000</v>
       </c>
       <c r="H306" s="30"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="115" t="s">
+      <c r="A307" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B307" s="116">
+      <c r="B307" s="144">
         <v>2</v>
       </c>
-      <c r="C307" s="117">
+      <c r="C307" s="145">
         <v>2000000</v>
       </c>
-      <c r="D307" s="117">
+      <c r="D307" s="145">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="H307" s="29"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A308" s="115" t="s">
+      <c r="A308" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="116">
+      <c r="B308" s="144">
         <v>5</v>
       </c>
-      <c r="C308" s="117">
+      <c r="C308" s="145">
         <v>400000</v>
       </c>
-      <c r="D308" s="117">
+      <c r="D308" s="145">
         <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
       <c r="H308" s="29"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A309" s="115" t="s">
+      <c r="A309" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="B309" s="116">
-        <v>1</v>
-      </c>
-      <c r="C309" s="117">
+      <c r="B309" s="144">
+        <v>1</v>
+      </c>
+      <c r="C309" s="145">
         <v>10000000</v>
       </c>
-      <c r="D309" s="117">
+      <c r="D309" s="145">
         <f t="shared" si="38"/>
         <v>10000000</v>
       </c>
       <c r="H309" s="29"/>
     </row>
     <row r="310" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="8" t="s">
+      <c r="A310" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B310" s="8"/>
-      <c r="C310" s="8"/>
-      <c r="D310" s="90">
+      <c r="B310" s="141"/>
+      <c r="C310" s="141"/>
+      <c r="D310" s="146">
         <f>SUM(D299:D309)</f>
         <v>109500000</v>
       </c>
       <c r="H310" s="29"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+      <c r="A311" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D311" s="34">
+      <c r="B311" s="136"/>
+      <c r="C311" s="136"/>
+      <c r="D311" s="147">
         <f>D310/12</f>
         <v>9125000</v>
       </c>
       <c r="H311" s="29"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+      <c r="A312" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="D312" s="34">
+      <c r="B312" s="136"/>
+      <c r="C312" s="136"/>
+      <c r="D312" s="147">
         <f>D311/B3</f>
         <v>2281250</v>
       </c>
@@ -8373,10 +8420,12 @@
       <c r="I312" s="30"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+      <c r="A313" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="D313" s="34">
+      <c r="B313" s="136"/>
+      <c r="C313" s="136"/>
+      <c r="D313" s="147">
         <f>D312/D161</f>
         <v>7604.166666666667</v>
       </c>
@@ -9437,23 +9486,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="132" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="D4" s="130" t="s">
+      <c r="B4" s="133"/>
+      <c r="D4" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="133"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
@@ -9979,6 +10028,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -10185,27 +10254,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
+    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10222,23 +10290,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
-    <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAA9479-814E-1844-92AB-5636B951D90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268E9A8-C3B6-F94F-8443-C44CCF7E7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="520" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metodo 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Metodo 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja Resumen" sheetId="4" r:id="rId4"/>
-    <sheet name="APEX" sheetId="5" r:id="rId5"/>
-    <sheet name="NUTRIFLEX" sheetId="6" r:id="rId6"/>
+    <sheet name="Metodo 1 (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="Metodo 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Metodo 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja Resumen" sheetId="4" r:id="rId5"/>
+    <sheet name="APEX" sheetId="5" r:id="rId6"/>
+    <sheet name="NUTRIFLEX" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="226">
   <si>
     <t>Variables de Costo</t>
   </si>
@@ -1797,11 +1798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F3DEE-FEFC-AE44-A2DE-BE929C614C50}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:D260"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1919,7 +1920,7 @@
       </c>
       <c r="B13" s="7">
         <f>D152</f>
-        <v>7604.166666666667</v>
+        <v>7723.958333333333</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
@@ -1938,7 +1939,7 @@
       </c>
       <c r="B14" s="7">
         <f>C131</f>
-        <v>17248.752416666666</v>
+        <v>11680.992416666668</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>187</v>
@@ -2044,7 +2045,7 @@
       </c>
       <c r="B22" s="91">
         <f>+B18+B20+B11+B12+B15+B13+B14+B8</f>
-        <v>269755.70538768114</v>
+        <v>264307.73705434782</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>197</v>
@@ -4857,11 +4858,11 @@
         <v>91</v>
       </c>
       <c r="B129" s="118">
-        <v>6688000</v>
+        <v>6688</v>
       </c>
       <c r="C129" s="118">
         <f t="shared" si="13"/>
-        <v>5573.333333333333</v>
+        <v>5.5733333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4883,7 +4884,7 @@
       <c r="B131" s="8"/>
       <c r="C131" s="21">
         <f>SUM(C126:C130)</f>
-        <v>17248.752416666666</v>
+        <v>11680.992416666668</v>
       </c>
       <c r="E131" s="7"/>
     </row>
@@ -5041,14 +5042,14 @@
         <v>142</v>
       </c>
       <c r="B145" s="116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" s="117">
         <v>5000000</v>
       </c>
       <c r="D145" s="117">
         <f t="shared" si="14"/>
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5086,14 +5087,14 @@
         <v>127</v>
       </c>
       <c r="B148" s="116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148" s="117">
-        <v>10000000</v>
+        <v>575000</v>
       </c>
       <c r="D148" s="117">
         <f t="shared" si="14"/>
-        <v>10000000</v>
+        <v>1725000</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5105,7 @@
       <c r="C149" s="8"/>
       <c r="D149" s="90">
         <f>SUM(D138:D148)</f>
-        <v>109500000</v>
+        <v>111225000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5113,7 +5114,7 @@
       </c>
       <c r="D150" s="34">
         <f>D149/12</f>
-        <v>9125000</v>
+        <v>9268750</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5122,7 +5123,7 @@
       </c>
       <c r="D151" s="34">
         <f>D150/B135</f>
-        <v>2281250</v>
+        <v>2317187.5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,7 +5132,7 @@
       </c>
       <c r="D152" s="34">
         <f>D151/E4</f>
-        <v>7604.166666666667</v>
+        <v>7723.958333333333</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -7150,121 +7151,131 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="135" t="s">
         <v>40</v>
       </c>
+      <c r="B229" s="136"/>
+      <c r="C229" s="136"/>
+      <c r="D229" s="136"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="136"/>
+      <c r="B230" s="136"/>
+      <c r="C230" s="136"/>
+      <c r="D230" s="136"/>
       <c r="F230" s="7"/>
     </row>
     <row r="231" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="B231" s="87" t="s">
+      <c r="B231" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="C231" s="87" t="s">
+      <c r="C231" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="143" t="s">
         <v>34</v>
       </c>
       <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="115" t="s">
+      <c r="A232" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="116">
-        <v>0</v>
-      </c>
-      <c r="C232" s="117">
+      <c r="B232" s="144">
+        <v>0</v>
+      </c>
+      <c r="C232" s="145">
         <v>9000</v>
       </c>
-      <c r="D232" s="115">
+      <c r="D232" s="139">
         <f>C232*B232</f>
         <v>0</v>
       </c>
       <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="115" t="s">
+      <c r="A233" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="B233" s="116">
-        <v>1</v>
-      </c>
-      <c r="C233" s="117">
+      <c r="B233" s="144">
+        <v>1</v>
+      </c>
+      <c r="C233" s="145">
         <v>1000</v>
       </c>
-      <c r="D233" s="115">
+      <c r="D233" s="139">
         <f t="shared" ref="D233:D236" si="33">C233*B233</f>
         <v>1000</v>
       </c>
       <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="115" t="s">
+      <c r="A234" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="B234" s="116">
-        <v>0</v>
-      </c>
-      <c r="C234" s="117">
+      <c r="B234" s="144">
+        <v>0</v>
+      </c>
+      <c r="C234" s="145">
         <v>1200</v>
       </c>
-      <c r="D234" s="115">
+      <c r="D234" s="139">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F234" s="7"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="115" t="s">
+      <c r="A235" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B235" s="116">
+      <c r="B235" s="144">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C235" s="117">
+      <c r="C235" s="145">
         <v>70479</v>
       </c>
-      <c r="D235" s="115">
+      <c r="D235" s="139">
         <f t="shared" si="33"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="115" t="s">
+      <c r="A236" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="B236" s="116">
+      <c r="B236" s="144">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C236" s="117">
+      <c r="C236" s="145">
         <v>55000</v>
       </c>
-      <c r="D236" s="115">
+      <c r="D236" s="139">
         <f t="shared" si="33"/>
         <v>275</v>
       </c>
       <c r="F236" s="7"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B237" s="23"/>
+      <c r="A237" s="136"/>
+      <c r="B237" s="148"/>
+      <c r="C237" s="136"/>
+      <c r="D237" s="136"/>
       <c r="F237" s="7"/>
     </row>
     <row r="238" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="B238" s="9"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="9">
+      <c r="B238" s="151"/>
+      <c r="C238" s="141"/>
+      <c r="D238" s="151">
         <f>SUM(D232:D237)</f>
         <v>1627.395</v>
       </c>
@@ -8529,6 +8540,6748 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:X325"/>
+  <sheetViews>
+    <sheetView topLeftCell="A93" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="59">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="89">
+        <f>B4*30</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="7">
+        <f>X53*T29</f>
+        <v>184607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="7">
+        <f>O52*K29</f>
+        <v>86200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="7">
+        <f>G51*C29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <f>D63</f>
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <f>D74</f>
+        <v>1627.395</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="61"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="7">
+        <f>D152</f>
+        <v>7604.166666666667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="61">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7">
+        <f>C131</f>
+        <v>17248.752416666666</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="61">
+        <v>33</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <f>D95</f>
+        <v>32425</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="61">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <f>0.36</f>
+        <v>0.36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15">
+        <f>+B17*B100*C119</f>
+        <v>9070.434782608696</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19">
+        <v>0.36</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="73">
+        <f>B4*(G13/100)*X53</f>
+        <v>609203.10000000009</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="15">
+        <f>+B19*G119</f>
+        <v>3772.9565217391305</v>
+      </c>
+      <c r="F20" s="73">
+        <f>B4*(G14/100)*O52</f>
+        <v>284460</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="71"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="F21" s="73">
+        <f>B4*G15/100*G51</f>
+        <v>353100</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="71"/>
+    </row>
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="91">
+        <f>+B18+B20+B11+B12+B15+B13+B14+B8</f>
+        <v>269755.70538768114</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="F22" s="74">
+        <f>SUM(F19:F21)</f>
+        <v>1246763.1000000001</v>
+      </c>
+      <c r="G22" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="71"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="64">
+        <v>0</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="64">
+        <v>1</v>
+      </c>
+      <c r="R29" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="S29" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="T29" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="N30" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="T30" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="U30" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="V30" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="W30" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="X30" s="81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="3">
+        <v>100</v>
+      </c>
+      <c r="C31" s="83">
+        <v>50</v>
+      </c>
+      <c r="D31" s="83">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <f>C31*F31/B31</f>
+        <v>20000</v>
+      </c>
+      <c r="F31" s="85">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="52">
+        <f>E31</f>
+        <v>20000</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" s="3">
+        <v>100</v>
+      </c>
+      <c r="K31" s="83">
+        <v>0</v>
+      </c>
+      <c r="L31" s="83">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31:M51" si="0">K31*N31/J31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="85">
+        <v>40000</v>
+      </c>
+      <c r="O31" s="52"/>
+      <c r="R31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S31" s="3">
+        <v>500</v>
+      </c>
+      <c r="T31" s="83">
+        <v>600</v>
+      </c>
+      <c r="U31" s="83">
+        <v>1</v>
+      </c>
+      <c r="V31" s="6">
+        <f>T31*W31/S31</f>
+        <v>48000</v>
+      </c>
+      <c r="W31" s="85">
+        <v>40000</v>
+      </c>
+      <c r="X31" s="52">
+        <f>(W31/S31)*T31</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="3">
+        <v>250</v>
+      </c>
+      <c r="C32" s="83">
+        <v>0</v>
+      </c>
+      <c r="D32" s="83">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:E34" si="1">C32*F32/B32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="85">
+        <v>50000</v>
+      </c>
+      <c r="G32" s="52">
+        <f t="shared" ref="G32:G46" si="2">D32*F32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="3">
+        <v>250</v>
+      </c>
+      <c r="K32" s="83">
+        <v>0</v>
+      </c>
+      <c r="L32" s="83">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="85">
+        <v>50000</v>
+      </c>
+      <c r="O32" s="52">
+        <f t="shared" ref="O32:O51" si="3">L32*N32</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S32" s="3">
+        <v>500</v>
+      </c>
+      <c r="T32" s="83">
+        <v>0</v>
+      </c>
+      <c r="U32" s="83">
+        <v>0</v>
+      </c>
+      <c r="V32" s="6">
+        <f t="shared" ref="V32:V42" si="4">T32*W32/S32</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="85">
+        <v>61000</v>
+      </c>
+      <c r="X32" s="52">
+        <f t="shared" ref="X32:X52" si="5">(W32/S32)*T32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3">
+        <v>500</v>
+      </c>
+      <c r="C33" s="83">
+        <v>100</v>
+      </c>
+      <c r="D33" s="83">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F33" s="85">
+        <v>100000</v>
+      </c>
+      <c r="G33" s="52">
+        <f>D33*F33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="83">
+        <v>0</v>
+      </c>
+      <c r="L33" s="83">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="85">
+        <v>100000</v>
+      </c>
+      <c r="O33" s="52">
+        <f>M33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S33" s="3">
+        <v>500</v>
+      </c>
+      <c r="T33" s="83">
+        <v>0</v>
+      </c>
+      <c r="U33" s="83">
+        <v>0</v>
+      </c>
+      <c r="V33" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="85">
+        <v>66000</v>
+      </c>
+      <c r="X33" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="83">
+        <v>0</v>
+      </c>
+      <c r="D34" s="83">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="85">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="G34" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="83">
+        <v>0</v>
+      </c>
+      <c r="L34" s="83">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="85">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="O34" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="S34" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T34" s="83">
+        <v>0</v>
+      </c>
+      <c r="U34" s="83">
+        <v>0</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="85">
+        <v>135000</v>
+      </c>
+      <c r="X34" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10</v>
+      </c>
+      <c r="C35" s="83">
+        <v>0</v>
+      </c>
+      <c r="D35" s="83">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <f>C35*F35/B35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="85">
+        <v>1500</v>
+      </c>
+      <c r="G35" s="52">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10</v>
+      </c>
+      <c r="K35" s="83">
+        <v>0</v>
+      </c>
+      <c r="L35" s="83">
+        <v>1</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="85">
+        <v>1500</v>
+      </c>
+      <c r="O35" s="52">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="S35" s="3">
+        <v>10</v>
+      </c>
+      <c r="T35" s="83">
+        <v>30</v>
+      </c>
+      <c r="U35" s="83">
+        <v>1</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="W35" s="85">
+        <v>1500</v>
+      </c>
+      <c r="X35" s="52">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10</v>
+      </c>
+      <c r="C36" s="83">
+        <v>0</v>
+      </c>
+      <c r="D36" s="83">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <f>C36*F36/B36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="85">
+        <v>5700</v>
+      </c>
+      <c r="G36" s="52">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10</v>
+      </c>
+      <c r="K36" s="83">
+        <v>0</v>
+      </c>
+      <c r="L36" s="83">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="85">
+        <v>5700</v>
+      </c>
+      <c r="O36" s="52">
+        <f t="shared" si="3"/>
+        <v>5700</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="3">
+        <v>10</v>
+      </c>
+      <c r="T36" s="83">
+        <v>10</v>
+      </c>
+      <c r="U36" s="83">
+        <v>1</v>
+      </c>
+      <c r="V36" s="6">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+      <c r="W36" s="85">
+        <v>5700</v>
+      </c>
+      <c r="X36" s="52">
+        <f t="shared" si="5"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="3">
+        <v>10</v>
+      </c>
+      <c r="C37" s="83">
+        <v>0</v>
+      </c>
+      <c r="D37" s="83">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <f>C37*F37/B37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="85">
+        <v>1500</v>
+      </c>
+      <c r="G37" s="52">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="H37" s="44"/>
+      <c r="I37" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" s="3">
+        <v>10</v>
+      </c>
+      <c r="K37" s="83">
+        <v>0</v>
+      </c>
+      <c r="L37" s="83">
+        <v>1</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="85">
+        <v>1500</v>
+      </c>
+      <c r="O37" s="52">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="S37" s="3">
+        <v>20</v>
+      </c>
+      <c r="T37" s="83">
+        <v>0</v>
+      </c>
+      <c r="U37" s="83">
+        <v>1</v>
+      </c>
+      <c r="V37" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="85">
+        <v>20000</v>
+      </c>
+      <c r="X37" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3">
+        <v>10</v>
+      </c>
+      <c r="C38" s="83">
+        <v>0</v>
+      </c>
+      <c r="D38" s="83">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <f>C38*F38/B38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="85">
+        <v>1500</v>
+      </c>
+      <c r="G38" s="52">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3">
+        <v>10</v>
+      </c>
+      <c r="K38" s="83">
+        <v>0</v>
+      </c>
+      <c r="L38" s="83">
+        <v>1</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="85">
+        <v>1500</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="R38" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="S38" s="3">
+        <v>10</v>
+      </c>
+      <c r="T38" s="83">
+        <v>30</v>
+      </c>
+      <c r="U38" s="83"/>
+      <c r="V38" s="6">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="W38" s="85">
+        <v>1500</v>
+      </c>
+      <c r="X38" s="52">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" s="83">
+        <v>0</v>
+      </c>
+      <c r="D39" s="83">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <f>C39*F39/B39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="85">
+        <v>1800</v>
+      </c>
+      <c r="G39" s="52">
+        <v>1800</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="3">
+        <v>10</v>
+      </c>
+      <c r="K39" s="83">
+        <v>0</v>
+      </c>
+      <c r="L39" s="83">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="85">
+        <v>1800</v>
+      </c>
+      <c r="O39" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="3">
+        <v>10</v>
+      </c>
+      <c r="T39" s="83">
+        <v>12</v>
+      </c>
+      <c r="U39" s="83">
+        <v>1</v>
+      </c>
+      <c r="V39" s="6">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="W39" s="85">
+        <v>1500</v>
+      </c>
+      <c r="X39" s="52">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="3">
+        <v>100</v>
+      </c>
+      <c r="C40" s="83">
+        <v>0</v>
+      </c>
+      <c r="D40" s="83">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" ref="E40" si="6">C40*F40/B40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="85">
+        <v>80000</v>
+      </c>
+      <c r="G40" s="6">
+        <f>E40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="44"/>
+      <c r="I40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="3">
+        <v>100</v>
+      </c>
+      <c r="K40" s="83">
+        <v>0</v>
+      </c>
+      <c r="L40" s="83"/>
+      <c r="M40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="85">
+        <v>80000</v>
+      </c>
+      <c r="O40" s="52">
+        <f>M40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="3">
+        <v>10</v>
+      </c>
+      <c r="T40" s="83">
+        <v>20</v>
+      </c>
+      <c r="U40" s="83">
+        <v>0</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
+      <c r="W40" s="85">
+        <v>1800</v>
+      </c>
+      <c r="X40" s="52">
+        <f t="shared" si="5"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3">
+        <v>500</v>
+      </c>
+      <c r="C41" s="83">
+        <v>0</v>
+      </c>
+      <c r="D41" s="83">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <f>C41*F41/B41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="85">
+        <v>10814</v>
+      </c>
+      <c r="G41" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="3">
+        <v>500</v>
+      </c>
+      <c r="K41" s="83">
+        <v>0</v>
+      </c>
+      <c r="L41" s="83"/>
+      <c r="M41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="85">
+        <v>10814</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="83">
+        <v>200</v>
+      </c>
+      <c r="U41" s="83"/>
+      <c r="V41" s="6">
+        <f t="shared" si="4"/>
+        <v>32000</v>
+      </c>
+      <c r="W41" s="85">
+        <v>80000</v>
+      </c>
+      <c r="X41" s="52">
+        <f t="shared" si="5"/>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="83">
+        <v>0</v>
+      </c>
+      <c r="D42" s="83">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <f>C42*F42/B42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="85">
+        <v>13000</v>
+      </c>
+      <c r="G42" s="42">
+        <v>13000</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="83">
+        <v>0</v>
+      </c>
+      <c r="L42" s="83">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="85">
+        <v>13000</v>
+      </c>
+      <c r="O42" s="52">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="3">
+        <v>500</v>
+      </c>
+      <c r="T42" s="83">
+        <v>250</v>
+      </c>
+      <c r="U42" s="83"/>
+      <c r="V42" s="6">
+        <f t="shared" si="4"/>
+        <v>5407</v>
+      </c>
+      <c r="W42" s="85">
+        <v>10814</v>
+      </c>
+      <c r="X42" s="52">
+        <f t="shared" si="5"/>
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="83">
+        <v>0</v>
+      </c>
+      <c r="D43" s="83"/>
+      <c r="E43" s="6">
+        <f t="shared" ref="E43:E49" si="7">C43*F43/B43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="85">
+        <v>23000</v>
+      </c>
+      <c r="G43" s="42">
+        <v>23000</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="83">
+        <v>0</v>
+      </c>
+      <c r="L43" s="83">
+        <v>1</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="85">
+        <v>13000</v>
+      </c>
+      <c r="O43" s="52"/>
+      <c r="R43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1</v>
+      </c>
+      <c r="T43" s="83">
+        <v>1</v>
+      </c>
+      <c r="U43" s="83">
+        <v>1</v>
+      </c>
+      <c r="V43" s="6"/>
+      <c r="W43" s="85">
+        <v>13000</v>
+      </c>
+      <c r="X43" s="52">
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="83">
+        <v>0</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="85">
+        <v>25000</v>
+      </c>
+      <c r="G44" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="83">
+        <v>0</v>
+      </c>
+      <c r="L44" s="83"/>
+      <c r="M44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="85">
+        <v>23000</v>
+      </c>
+      <c r="O44" s="52">
+        <v>23000</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1</v>
+      </c>
+      <c r="T44" s="83">
+        <v>1</v>
+      </c>
+      <c r="U44" s="83"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="85">
+        <v>23000</v>
+      </c>
+      <c r="X44" s="52">
+        <f t="shared" si="5"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="83">
+        <v>0</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="85">
+        <v>2000</v>
+      </c>
+      <c r="G45" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="83">
+        <v>0</v>
+      </c>
+      <c r="L45" s="83"/>
+      <c r="M45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="85">
+        <v>25000</v>
+      </c>
+      <c r="O45" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1</v>
+      </c>
+      <c r="T45" s="83">
+        <v>0</v>
+      </c>
+      <c r="U45" s="83"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="85">
+        <v>25000</v>
+      </c>
+      <c r="X45" s="52">
+        <f>(W45/S45)*T45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="3">
+        <v>10</v>
+      </c>
+      <c r="C46" s="83">
+        <v>0</v>
+      </c>
+      <c r="D46" s="83"/>
+      <c r="E46" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="85">
+        <v>3000</v>
+      </c>
+      <c r="G46" s="52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5</v>
+      </c>
+      <c r="K46" s="83">
+        <v>0</v>
+      </c>
+      <c r="L46" s="83"/>
+      <c r="M46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="85">
+        <v>2000</v>
+      </c>
+      <c r="O46" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S46" s="3">
+        <v>5</v>
+      </c>
+      <c r="T46" s="83">
+        <v>1</v>
+      </c>
+      <c r="U46" s="83"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="85">
+        <v>2000</v>
+      </c>
+      <c r="X46" s="52">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="3">
+        <v>10</v>
+      </c>
+      <c r="C47" s="83">
+        <v>0</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="85">
+        <v>15000</v>
+      </c>
+      <c r="G47" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10</v>
+      </c>
+      <c r="K47" s="83">
+        <v>0</v>
+      </c>
+      <c r="L47" s="83"/>
+      <c r="M47" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="85">
+        <v>3000</v>
+      </c>
+      <c r="O47" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S47" s="3">
+        <v>5</v>
+      </c>
+      <c r="T47" s="83">
+        <v>1</v>
+      </c>
+      <c r="U47" s="83"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="85">
+        <v>3000</v>
+      </c>
+      <c r="X47" s="52">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="3">
+        <v>500</v>
+      </c>
+      <c r="C48" s="83">
+        <v>0</v>
+      </c>
+      <c r="D48" s="84"/>
+      <c r="E48" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="85">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="6">
+        <v>4000</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10</v>
+      </c>
+      <c r="K48" s="83">
+        <v>0</v>
+      </c>
+      <c r="L48" s="83">
+        <v>1</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="85">
+        <v>15000</v>
+      </c>
+      <c r="O48" s="52">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="R48" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S48" s="3">
+        <v>10</v>
+      </c>
+      <c r="T48" s="83">
+        <v>1</v>
+      </c>
+      <c r="U48" s="83"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="85">
+        <v>3000</v>
+      </c>
+      <c r="X48" s="52">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="83">
+        <v>0</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="85">
+        <v>31000</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="83">
+        <v>0</v>
+      </c>
+      <c r="L49" s="83"/>
+      <c r="M49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="85">
+        <v>21000</v>
+      </c>
+      <c r="O49" s="52">
+        <f>N49</f>
+        <v>21000</v>
+      </c>
+      <c r="R49" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1</v>
+      </c>
+      <c r="T49" s="83">
+        <v>1</v>
+      </c>
+      <c r="U49" s="83">
+        <v>1</v>
+      </c>
+      <c r="V49" s="6"/>
+      <c r="W49" s="85">
+        <v>39000</v>
+      </c>
+      <c r="X49" s="52">
+        <f t="shared" si="5"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="83">
+        <v>0</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="6">
+        <f>C50*F50/B50</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="85">
+        <v>20000</v>
+      </c>
+      <c r="G50" s="6">
+        <f>F50</f>
+        <v>20000</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="83">
+        <v>0</v>
+      </c>
+      <c r="L50" s="83"/>
+      <c r="M50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="85">
+        <v>20000</v>
+      </c>
+      <c r="O50" s="52"/>
+      <c r="R50" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="S50" s="3">
+        <v>1</v>
+      </c>
+      <c r="T50" s="83">
+        <v>0</v>
+      </c>
+      <c r="U50" s="83"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="85">
+        <v>30000</v>
+      </c>
+      <c r="X50" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="54">
+        <f>SUM(E31:E50)</f>
+        <v>40000</v>
+      </c>
+      <c r="F51" s="85"/>
+      <c r="G51" s="53">
+        <f>SUM(G31:G50)</f>
+        <v>107000</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="3">
+        <v>500</v>
+      </c>
+      <c r="K51" s="83">
+        <v>0</v>
+      </c>
+      <c r="L51" s="83">
+        <v>1</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="85">
+        <v>4000</v>
+      </c>
+      <c r="O51" s="52">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="R51" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="S51" s="3">
+        <v>10</v>
+      </c>
+      <c r="T51" s="83">
+        <v>1</v>
+      </c>
+      <c r="U51" s="83">
+        <v>1</v>
+      </c>
+      <c r="V51" s="6"/>
+      <c r="W51" s="85">
+        <v>20000</v>
+      </c>
+      <c r="X51" s="52">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="54">
+        <f>SUM(M31:M51)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="84"/>
+      <c r="O52" s="53">
+        <f>SUM(O31:O51)</f>
+        <v>86200</v>
+      </c>
+      <c r="R52" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="83">
+        <v>100</v>
+      </c>
+      <c r="U52" s="84">
+        <v>1</v>
+      </c>
+      <c r="V52" s="6">
+        <f>T52*W52/S52</f>
+        <v>800</v>
+      </c>
+      <c r="W52" s="85">
+        <v>4000</v>
+      </c>
+      <c r="X52" s="52">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F53" s="7"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="45"/>
+      <c r="R53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="54">
+        <f>SUM(V31:V52)</f>
+        <v>106307</v>
+      </c>
+      <c r="W53" s="12"/>
+      <c r="X53" s="53">
+        <f>SUM(X31:X52)</f>
+        <v>184607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="45"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F55" s="7"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="45"/>
+    </row>
+    <row r="56" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="45"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A57" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="116">
+        <v>4</v>
+      </c>
+      <c r="C57" s="117">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="117">
+        <f>C57*B57</f>
+        <v>4000</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A58" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="116">
+        <v>2</v>
+      </c>
+      <c r="C58" s="117">
+        <v>4000</v>
+      </c>
+      <c r="D58" s="117">
+        <f t="shared" ref="D58:D61" si="8">C58*B58</f>
+        <v>8000</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="H58" s="44"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A59" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="116">
+        <v>2</v>
+      </c>
+      <c r="C59" s="117">
+        <v>300</v>
+      </c>
+      <c r="D59" s="117">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A60" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="116">
+        <v>2</v>
+      </c>
+      <c r="C60" s="117">
+        <v>100</v>
+      </c>
+      <c r="D60" s="117">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A61" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="116">
+        <v>2</v>
+      </c>
+      <c r="C61" s="117">
+        <v>300</v>
+      </c>
+      <c r="D61" s="117">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9">
+        <f>SUM(D57:D62)</f>
+        <v>13400</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="127">
+        <v>0.08</v>
+      </c>
+      <c r="C68" s="117">
+        <v>9000</v>
+      </c>
+      <c r="D68" s="115">
+        <f>C68*B68</f>
+        <v>720</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="115" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="C69" s="117">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="115">
+        <f t="shared" ref="D69:D72" si="9">C69*B69</f>
+        <v>100</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="127">
+        <v>0.15</v>
+      </c>
+      <c r="C70" s="117">
+        <v>1200</v>
+      </c>
+      <c r="D70" s="115">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="128">
+        <f>1/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C71" s="117">
+        <v>70479</v>
+      </c>
+      <c r="D71" s="115">
+        <f t="shared" si="9"/>
+        <v>352.39499999999998</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="115" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="128">
+        <f>1/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C72" s="117">
+        <v>55000</v>
+      </c>
+      <c r="D72" s="115">
+        <f t="shared" si="9"/>
+        <v>275</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="23"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9">
+        <f>SUM(D68:D73)</f>
+        <v>1627.395</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="23"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="27"/>
+    </row>
+    <row r="78" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="116">
+        <v>1</v>
+      </c>
+      <c r="C79" s="117">
+        <v>400</v>
+      </c>
+      <c r="D79" s="117">
+        <f>B79*C79</f>
+        <v>400</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="116">
+        <v>1</v>
+      </c>
+      <c r="C80" s="117">
+        <v>400</v>
+      </c>
+      <c r="D80" s="117">
+        <f t="shared" ref="D80:D93" si="10">B80*C80</f>
+        <v>400</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="116">
+        <v>2</v>
+      </c>
+      <c r="C81" s="117">
+        <v>400</v>
+      </c>
+      <c r="D81" s="117">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="116">
+        <v>3</v>
+      </c>
+      <c r="C82" s="117">
+        <v>500</v>
+      </c>
+      <c r="D82" s="117">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="116">
+        <v>3</v>
+      </c>
+      <c r="C83" s="117">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="117">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="116">
+        <v>4</v>
+      </c>
+      <c r="C84" s="117">
+        <v>2500</v>
+      </c>
+      <c r="D84" s="117">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="116">
+        <v>1</v>
+      </c>
+      <c r="C85" s="117">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="117">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="F85" s="7"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="116">
+        <v>3</v>
+      </c>
+      <c r="C86" s="117">
+        <v>200</v>
+      </c>
+      <c r="D86" s="117">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="F86" s="7"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="116">
+        <v>1</v>
+      </c>
+      <c r="C87" s="117">
+        <v>5000</v>
+      </c>
+      <c r="D87" s="117">
+        <f t="shared" si="10"/>
+        <v>5000</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="116">
+        <v>1</v>
+      </c>
+      <c r="C88" s="117">
+        <v>1000</v>
+      </c>
+      <c r="D88" s="117">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="116">
+        <v>0.05</v>
+      </c>
+      <c r="C89" s="117">
+        <v>8000</v>
+      </c>
+      <c r="D89" s="117">
+        <f t="shared" si="10"/>
+        <v>400</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="116">
+        <v>10</v>
+      </c>
+      <c r="C90" s="117">
+        <v>400</v>
+      </c>
+      <c r="D90" s="117">
+        <f t="shared" si="10"/>
+        <v>4000</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="C91" s="117">
+        <v>500</v>
+      </c>
+      <c r="D91" s="117">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="C92" s="117">
+        <v>500</v>
+      </c>
+      <c r="D92" s="117">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+    </row>
+    <row r="93" spans="1:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="116">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C93" s="117">
+        <v>1500</v>
+      </c>
+      <c r="D93" s="117">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="F93" s="41"/>
+      <c r="I93" s="32"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D94" s="7"/>
+      <c r="F94" s="7"/>
+    </row>
+    <row r="95" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="9">
+        <f>SUM(D79:D94)</f>
+        <v>32425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="7"/>
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B97" s="7"/>
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="14">
+        <v>230</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F99" s="14">
+        <v>230</v>
+      </c>
+      <c r="J99" s="46"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" s="14">
+        <v>1</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="14">
+        <v>1</v>
+      </c>
+      <c r="R100" s="44"/>
+      <c r="S100" s="44"/>
+      <c r="T100" s="44"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R101" s="44"/>
+      <c r="S101" s="44"/>
+      <c r="T101" s="44"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="118">
+        <v>3800000</v>
+      </c>
+      <c r="C102" s="115"/>
+      <c r="E102" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F102" s="118">
+        <v>1500000</v>
+      </c>
+      <c r="G102" s="115"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="R102" s="48"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="48"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" s="115"/>
+      <c r="C103" s="115"/>
+      <c r="E103" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="F103" s="115"/>
+      <c r="G103" s="115"/>
+      <c r="J103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="R103" s="44"/>
+      <c r="S103" s="49"/>
+      <c r="T103" s="44"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" s="115"/>
+      <c r="C104" s="115"/>
+      <c r="E104" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" s="115"/>
+      <c r="G104" s="115"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="44"/>
+      <c r="T104" s="44"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="115"/>
+      <c r="C105" s="115"/>
+      <c r="E105" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="115"/>
+      <c r="G105" s="115"/>
+      <c r="R105" s="44"/>
+      <c r="S105" s="44"/>
+      <c r="T105" s="44"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="124">
+        <v>0.08</v>
+      </c>
+      <c r="C106" s="125">
+        <f t="shared" ref="C106:C115" si="11">+$B$102*B106</f>
+        <v>304000</v>
+      </c>
+      <c r="E106" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106" s="119">
+        <v>0.08</v>
+      </c>
+      <c r="G106" s="118">
+        <f t="shared" ref="G106:G115" si="12">+$F$102*F106</f>
+        <v>120000</v>
+      </c>
+      <c r="R106" s="44"/>
+      <c r="S106" s="44"/>
+      <c r="T106" s="44"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="124">
+        <v>0.08</v>
+      </c>
+      <c r="C107" s="125">
+        <f t="shared" si="11"/>
+        <v>304000</v>
+      </c>
+      <c r="E107" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="119">
+        <v>0.08</v>
+      </c>
+      <c r="G107" s="118">
+        <f t="shared" si="12"/>
+        <v>120000</v>
+      </c>
+      <c r="J107" s="47"/>
+      <c r="K107" s="15"/>
+      <c r="N107" s="47"/>
+      <c r="O107" s="15"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="50"/>
+      <c r="T107" s="49"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="124">
+        <v>0.04</v>
+      </c>
+      <c r="C108" s="125">
+        <f t="shared" si="11"/>
+        <v>152000</v>
+      </c>
+      <c r="E108" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="119">
+        <v>0.04</v>
+      </c>
+      <c r="G108" s="118">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="J108" s="47"/>
+      <c r="K108" s="15"/>
+      <c r="N108" s="47"/>
+      <c r="O108" s="15"/>
+      <c r="R108" s="44"/>
+      <c r="S108" s="50"/>
+      <c r="T108" s="49"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A109" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" s="124">
+        <v>0.01</v>
+      </c>
+      <c r="C109" s="125">
+        <f t="shared" si="11"/>
+        <v>38000</v>
+      </c>
+      <c r="E109" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="119">
+        <v>0.01</v>
+      </c>
+      <c r="G109" s="118">
+        <f t="shared" si="12"/>
+        <v>15000</v>
+      </c>
+      <c r="J109" s="47"/>
+      <c r="K109" s="15"/>
+      <c r="N109" s="47"/>
+      <c r="O109" s="15"/>
+      <c r="R109" s="44"/>
+      <c r="S109" s="50"/>
+      <c r="T109" s="49"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A110" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" s="124">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C110" s="125">
+        <f t="shared" si="11"/>
+        <v>323000</v>
+      </c>
+      <c r="E110" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F110" s="119">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G110" s="118">
+        <f t="shared" si="12"/>
+        <v>127500.00000000001</v>
+      </c>
+      <c r="J110" s="47"/>
+      <c r="K110" s="15"/>
+      <c r="N110" s="47"/>
+      <c r="O110" s="15"/>
+      <c r="R110" s="44"/>
+      <c r="S110" s="50"/>
+      <c r="T110" s="49"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A111" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="124">
+        <v>0.12</v>
+      </c>
+      <c r="C111" s="125">
+        <f t="shared" si="11"/>
+        <v>456000</v>
+      </c>
+      <c r="E111" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" s="119">
+        <v>0.12</v>
+      </c>
+      <c r="G111" s="118">
+        <f t="shared" si="12"/>
+        <v>180000</v>
+      </c>
+      <c r="J111" s="47"/>
+      <c r="K111" s="15"/>
+      <c r="N111" s="47"/>
+      <c r="O111" s="15"/>
+      <c r="R111" s="44"/>
+      <c r="S111" s="50"/>
+      <c r="T111" s="49"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A112" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="124">
+        <v>0.02</v>
+      </c>
+      <c r="C112" s="125">
+        <f t="shared" si="11"/>
+        <v>76000</v>
+      </c>
+      <c r="E112" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" s="119">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G112" s="118">
+        <f t="shared" si="12"/>
+        <v>36000</v>
+      </c>
+      <c r="J112" s="47"/>
+      <c r="K112" s="15"/>
+      <c r="N112" s="47"/>
+      <c r="O112" s="15"/>
+      <c r="R112" s="44"/>
+      <c r="S112" s="50"/>
+      <c r="T112" s="49"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A113" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" s="124">
+        <v>0.04</v>
+      </c>
+      <c r="C113" s="125">
+        <f t="shared" si="11"/>
+        <v>152000</v>
+      </c>
+      <c r="E113" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="119">
+        <v>0.04</v>
+      </c>
+      <c r="G113" s="118">
+        <f t="shared" si="12"/>
+        <v>60000</v>
+      </c>
+      <c r="J113" s="47"/>
+      <c r="K113" s="15"/>
+      <c r="N113" s="47"/>
+      <c r="O113" s="15"/>
+      <c r="R113" s="44"/>
+      <c r="S113" s="50"/>
+      <c r="T113" s="49"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A114" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" s="124">
+        <v>0.02</v>
+      </c>
+      <c r="C114" s="125">
+        <f t="shared" si="11"/>
+        <v>76000</v>
+      </c>
+      <c r="E114" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="G114" s="118">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="J114" s="47"/>
+      <c r="K114" s="15"/>
+      <c r="N114" s="47"/>
+      <c r="O114" s="15"/>
+      <c r="R114" s="44"/>
+      <c r="S114" s="50"/>
+      <c r="T114" s="49"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A115" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" s="124">
+        <v>0.03</v>
+      </c>
+      <c r="C115" s="125">
+        <f t="shared" si="11"/>
+        <v>114000</v>
+      </c>
+      <c r="E115" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="F115" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="G115" s="118">
+        <f t="shared" si="12"/>
+        <v>45000</v>
+      </c>
+      <c r="J115" s="47"/>
+      <c r="K115" s="15"/>
+      <c r="N115" s="47"/>
+      <c r="O115" s="15"/>
+      <c r="R115" s="44"/>
+      <c r="S115" s="50"/>
+      <c r="T115" s="49"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A116" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" s="115"/>
+      <c r="C116" s="118">
+        <f>SUM(C106:C115)</f>
+        <v>1995000</v>
+      </c>
+      <c r="E116" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="F116" s="115"/>
+      <c r="G116" s="118">
+        <v>117000</v>
+      </c>
+      <c r="J116" s="47"/>
+      <c r="K116" s="15"/>
+      <c r="N116" s="47"/>
+      <c r="O116" s="15"/>
+      <c r="R116" s="44"/>
+      <c r="S116" s="50"/>
+      <c r="T116" s="49"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A117" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="115"/>
+      <c r="C117" s="118">
+        <f>+C116+B102</f>
+        <v>5795000</v>
+      </c>
+      <c r="E117" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" s="115"/>
+      <c r="G117" s="118">
+        <f>SUM(G106:G116)</f>
+        <v>910500</v>
+      </c>
+      <c r="K117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="R117" s="44"/>
+      <c r="S117" s="44"/>
+      <c r="T117" s="49"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="E118" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F118" s="115"/>
+      <c r="G118" s="118">
+        <f>+G117+F102</f>
+        <v>2410500</v>
+      </c>
+      <c r="K118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="R118" s="44"/>
+      <c r="S118" s="44"/>
+      <c r="T118" s="49"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A119" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="10">
+        <f>+C117/B99</f>
+        <v>25195.652173913044</v>
+      </c>
+      <c r="E119" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="F119" s="115"/>
+      <c r="G119" s="118">
+        <f>+G118/B99</f>
+        <v>10480.434782608696</v>
+      </c>
+      <c r="R119" s="44"/>
+      <c r="S119" s="44"/>
+      <c r="T119" s="44"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="2"/>
+      <c r="C120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="I120" s="2"/>
+      <c r="K120" s="15"/>
+      <c r="M120" s="2"/>
+      <c r="O120" s="15"/>
+      <c r="R120" s="51"/>
+      <c r="S120" s="44"/>
+      <c r="T120" s="49"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="C121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="I121" s="2"/>
+      <c r="K121" s="15"/>
+      <c r="M121" s="2"/>
+      <c r="O121" s="15"/>
+      <c r="R121" s="51"/>
+      <c r="S121" s="44"/>
+      <c r="T121" s="49"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I122" s="2"/>
+      <c r="K122" s="15"/>
+      <c r="M122" s="2"/>
+      <c r="O122" s="15"/>
+      <c r="R122" s="51"/>
+      <c r="S122" s="44"/>
+      <c r="T122" s="49"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A126" s="115" t="s">
+        <v>88</v>
+      </c>
+      <c r="B126" s="118">
+        <v>2388262</v>
+      </c>
+      <c r="C126" s="118">
+        <f>B126/$E$4/B$3</f>
+        <v>1990.2183333333332</v>
+      </c>
+      <c r="D126" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" s="130"/>
+      <c r="F126" s="130"/>
+      <c r="G126" s="130"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A127" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" s="118">
+        <v>6775276.5</v>
+      </c>
+      <c r="C127" s="118">
+        <f t="shared" ref="C127:C130" si="13">B127/$E$4/B$3</f>
+        <v>5646.0637500000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A128" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="B128" s="118">
+        <v>4783964.3999999994</v>
+      </c>
+      <c r="C128" s="118">
+        <f t="shared" si="13"/>
+        <v>3986.6369999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="118">
+        <v>6688000</v>
+      </c>
+      <c r="C129" s="118">
+        <f t="shared" si="13"/>
+        <v>5573.333333333333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130" s="118">
+        <v>63000</v>
+      </c>
+      <c r="C130" s="118">
+        <f t="shared" si="13"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="8"/>
+      <c r="C131" s="21">
+        <f>SUM(C126:C130)</f>
+        <v>17248.752416666666</v>
+      </c>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D132" s="15"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H134" s="29"/>
+      <c r="I134" s="30"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135" s="14">
+        <v>4</v>
+      </c>
+      <c r="H135" s="29"/>
+      <c r="I135" s="30"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H136" s="29"/>
+      <c r="I136" s="30"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" s="29"/>
+      <c r="I137" s="30"/>
+    </row>
+    <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="116">
+        <v>1</v>
+      </c>
+      <c r="C138" s="117">
+        <v>10000000</v>
+      </c>
+      <c r="D138" s="117">
+        <f>B138*C138</f>
+        <v>10000000</v>
+      </c>
+      <c r="H138" s="2"/>
+      <c r="I138" s="35"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="116">
+        <v>12</v>
+      </c>
+      <c r="C139" s="117">
+        <v>4000000</v>
+      </c>
+      <c r="D139" s="117">
+        <f t="shared" ref="D139:D148" si="14">B139*C139</f>
+        <v>48000000</v>
+      </c>
+      <c r="H139" s="2"/>
+      <c r="I139" s="36"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="116">
+        <v>6</v>
+      </c>
+      <c r="C140" s="117">
+        <v>1000000</v>
+      </c>
+      <c r="D140" s="117">
+        <f t="shared" si="14"/>
+        <v>6000000</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="36"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B141" s="116">
+        <v>1</v>
+      </c>
+      <c r="C141" s="117">
+        <v>1000000</v>
+      </c>
+      <c r="D141" s="117">
+        <f t="shared" si="14"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142" s="116">
+        <v>6</v>
+      </c>
+      <c r="C142" s="117">
+        <v>2000000</v>
+      </c>
+      <c r="D142" s="117">
+        <f t="shared" si="14"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143" s="116">
+        <v>3</v>
+      </c>
+      <c r="C143" s="117">
+        <v>2500000</v>
+      </c>
+      <c r="D143" s="117">
+        <f t="shared" si="14"/>
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144" s="116">
+        <v>10</v>
+      </c>
+      <c r="C144" s="117">
+        <v>400000</v>
+      </c>
+      <c r="D144" s="117">
+        <f t="shared" si="14"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145" s="116">
+        <v>1</v>
+      </c>
+      <c r="C145" s="117">
+        <v>5000000</v>
+      </c>
+      <c r="D145" s="117">
+        <f t="shared" si="14"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="116">
+        <v>2</v>
+      </c>
+      <c r="C146" s="117">
+        <v>2000000</v>
+      </c>
+      <c r="D146" s="117">
+        <f t="shared" si="14"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="116">
+        <v>5</v>
+      </c>
+      <c r="C147" s="117">
+        <v>400000</v>
+      </c>
+      <c r="D147" s="117">
+        <f t="shared" si="14"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" s="116">
+        <v>1</v>
+      </c>
+      <c r="C148" s="117">
+        <v>10000000</v>
+      </c>
+      <c r="D148" s="117">
+        <f t="shared" si="14"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="90">
+        <f>SUM(D138:D148)</f>
+        <v>109500000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="D150" s="34">
+        <f>D149/12</f>
+        <v>9125000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>134</v>
+      </c>
+      <c r="D151" s="34">
+        <f>D150/B135</f>
+        <v>2281250</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>133</v>
+      </c>
+      <c r="D152" s="34">
+        <f>D151/E4</f>
+        <v>7604.166666666667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D153" s="34"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D154" s="34"/>
+    </row>
+    <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="131" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" s="131"/>
+      <c r="C155" s="131"/>
+      <c r="D155" s="131"/>
+    </row>
+    <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="131"/>
+      <c r="B156" s="131"/>
+      <c r="C156" s="131"/>
+      <c r="D156" s="131"/>
+    </row>
+    <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A159" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B159" s="77"/>
+    </row>
+    <row r="160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161" s="79">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>143</v>
+      </c>
+      <c r="D161">
+        <f>B161*30</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>95</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" s="34">
+        <f>C165</f>
+        <v>184607</v>
+      </c>
+      <c r="C165" s="7">
+        <f>B8</f>
+        <v>184607</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" s="34">
+        <f>O209*K184</f>
+        <v>184400</v>
+      </c>
+      <c r="C166" s="7">
+        <f t="shared" ref="C166:C167" si="15">B9</f>
+        <v>86200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="34">
+        <f>G206*C184</f>
+        <v>113335.2</v>
+      </c>
+      <c r="C167" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B168" s="39">
+        <f>D215</f>
+        <v>35300</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="39">
+        <f>D227</f>
+        <v>10400</v>
+      </c>
+      <c r="E169" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F169" s="61"/>
+    </row>
+    <row r="170" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="39">
+        <f>D238</f>
+        <v>1627.395</v>
+      </c>
+      <c r="E170" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F170" s="61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" s="39">
+        <f>D259</f>
+        <v>11125</v>
+      </c>
+      <c r="E171" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F171" s="61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B172" s="39">
+        <f>C294</f>
+        <v>17248.752416666666</v>
+      </c>
+      <c r="E172" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F172" s="61">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B173" s="39">
+        <f>D313</f>
+        <v>7604.166666666667</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="39"/>
+    </row>
+    <row r="175" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>0.08</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="15">
+        <f>B175*B264*C283</f>
+        <v>4170.434782608696</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>0.08</v>
+      </c>
+      <c r="E177" s="70">
+        <f>B161*X210/100*F170</f>
+        <v>863986.20000000007</v>
+      </c>
+      <c r="F177" s="71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="15">
+        <f>B177*G283*F264</f>
+        <v>838.43478260869574</v>
+      </c>
+      <c r="E178" s="70">
+        <f>B161*O209/100*F171</f>
+        <v>608520</v>
+      </c>
+      <c r="F178" s="71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B179" s="15"/>
+      <c r="E179" s="70">
+        <f>B161*F172/100*G206</f>
+        <v>374006.16</v>
+      </c>
+      <c r="F179" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B180" s="91">
+        <f>+B168+B176+B178+B169+B170+B171+B172+E17+B173+B165</f>
+        <v>272921.18364855071</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E180" s="70">
+        <f>SUM(E177:E179)</f>
+        <v>1846512.36</v>
+      </c>
+      <c r="F180" s="72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C184" s="64">
+        <v>1</v>
+      </c>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+      <c r="I184" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J184" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="K184" s="64">
+        <v>1</v>
+      </c>
+      <c r="R184" t="s">
+        <v>169</v>
+      </c>
+      <c r="S184" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="T184" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H185" s="44"/>
+      <c r="I185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V185" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X185" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B186" s="3">
+        <v>100</v>
+      </c>
+      <c r="C186" s="5">
+        <v>20.54</v>
+      </c>
+      <c r="D186" s="5">
+        <v>1</v>
+      </c>
+      <c r="E186" s="6">
+        <f>C186*F186/B186</f>
+        <v>8216</v>
+      </c>
+      <c r="F186" s="6">
+        <v>40000</v>
+      </c>
+      <c r="G186" s="52">
+        <f>E186</f>
+        <v>8216</v>
+      </c>
+      <c r="H186" s="44"/>
+      <c r="I186" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J186" s="3">
+        <v>100</v>
+      </c>
+      <c r="K186" s="5"/>
+      <c r="L186" s="5">
+        <v>1</v>
+      </c>
+      <c r="M186" s="6">
+        <f t="shared" ref="M186:M196" si="16">K186*N186/J186</f>
+        <v>0</v>
+      </c>
+      <c r="N186" s="6">
+        <v>40000</v>
+      </c>
+      <c r="O186" s="52"/>
+      <c r="R186" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="S186" s="3">
+        <v>500</v>
+      </c>
+      <c r="T186" s="5">
+        <v>600</v>
+      </c>
+      <c r="U186" s="5">
+        <v>1</v>
+      </c>
+      <c r="V186" s="6">
+        <f>T186*W186/S186</f>
+        <v>48000</v>
+      </c>
+      <c r="W186" s="6">
+        <v>40000</v>
+      </c>
+      <c r="X186" s="52">
+        <f>U186*W186</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B187" s="3">
+        <v>250</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0</v>
+      </c>
+      <c r="E187" s="6"/>
+      <c r="F187" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G187" s="52">
+        <f t="shared" ref="G187:G193" si="17">D187*F187</f>
+        <v>0</v>
+      </c>
+      <c r="H187" s="44"/>
+      <c r="I187" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J187" s="3">
+        <v>250</v>
+      </c>
+      <c r="K187" s="5"/>
+      <c r="L187" s="5">
+        <v>0</v>
+      </c>
+      <c r="M187" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="6">
+        <v>50000</v>
+      </c>
+      <c r="O187" s="52">
+        <f t="shared" ref="O187" si="18">L187*N187</f>
+        <v>0</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="S187" s="3">
+        <v>500</v>
+      </c>
+      <c r="T187" s="5">
+        <v>0</v>
+      </c>
+      <c r="U187" s="5">
+        <v>0</v>
+      </c>
+      <c r="V187" s="6">
+        <f t="shared" ref="V187:V197" si="19">T187*W187/S187</f>
+        <v>0</v>
+      </c>
+      <c r="W187" s="6">
+        <v>61000</v>
+      </c>
+      <c r="X187" s="52">
+        <f t="shared" ref="X187:X192" si="20">U187*W187</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B188" s="3">
+        <v>500</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0</v>
+      </c>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G188" s="52">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H188" s="44"/>
+      <c r="I188" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J188" s="3">
+        <v>500</v>
+      </c>
+      <c r="K188" s="5">
+        <v>147</v>
+      </c>
+      <c r="L188" s="5">
+        <v>0</v>
+      </c>
+      <c r="M188" s="6">
+        <f t="shared" si="16"/>
+        <v>29400</v>
+      </c>
+      <c r="N188" s="6">
+        <v>100000</v>
+      </c>
+      <c r="O188" s="52">
+        <f>M188</f>
+        <v>29400</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S188" s="3">
+        <v>500</v>
+      </c>
+      <c r="T188" s="5">
+        <v>0</v>
+      </c>
+      <c r="U188" s="5">
+        <v>0</v>
+      </c>
+      <c r="V188" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W188" s="6">
+        <v>66000</v>
+      </c>
+      <c r="X188" s="52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C189" s="5">
+        <v>0</v>
+      </c>
+      <c r="D189" s="5">
+        <v>0</v>
+      </c>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="G189" s="52">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="44"/>
+      <c r="I189" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J189" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5">
+        <v>0</v>
+      </c>
+      <c r="M189" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N189" s="6">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="O189" s="52">
+        <f t="shared" ref="O189:O194" si="21">L189*N189</f>
+        <v>0</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="S189" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T189" s="5">
+        <v>0</v>
+      </c>
+      <c r="U189" s="5">
+        <v>0</v>
+      </c>
+      <c r="V189" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W189" s="6">
+        <v>135000</v>
+      </c>
+      <c r="X189" s="52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A190" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B190" s="3">
+        <v>10</v>
+      </c>
+      <c r="C190" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D190" s="5">
+        <v>1</v>
+      </c>
+      <c r="E190" s="6">
+        <f>C190*F190/B190</f>
+        <v>60</v>
+      </c>
+      <c r="F190" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G190" s="52">
+        <f t="shared" si="17"/>
+        <v>1500</v>
+      </c>
+      <c r="H190" s="44"/>
+      <c r="I190" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J190" s="3">
+        <v>10</v>
+      </c>
+      <c r="K190" s="5"/>
+      <c r="L190" s="5">
+        <v>1</v>
+      </c>
+      <c r="M190" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O190" s="52">
+        <f t="shared" si="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R190" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="S190" s="3">
+        <v>10</v>
+      </c>
+      <c r="T190" s="5">
+        <v>30</v>
+      </c>
+      <c r="U190" s="5">
+        <v>1</v>
+      </c>
+      <c r="V190" s="6">
+        <f t="shared" si="19"/>
+        <v>4500</v>
+      </c>
+      <c r="W190" s="6">
+        <v>1500</v>
+      </c>
+      <c r="X190" s="52">
+        <f t="shared" si="20"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" s="3">
+        <v>10</v>
+      </c>
+      <c r="C191" s="5">
+        <v>0.3624</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1</v>
+      </c>
+      <c r="E191" s="6">
+        <f>C191*F191/B191</f>
+        <v>206.56799999999998</v>
+      </c>
+      <c r="F191" s="6">
+        <v>5700</v>
+      </c>
+      <c r="G191" s="52">
+        <f t="shared" si="17"/>
+        <v>5700</v>
+      </c>
+      <c r="H191" s="44"/>
+      <c r="I191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J191" s="3">
+        <v>10</v>
+      </c>
+      <c r="K191" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L191" s="5">
+        <v>1</v>
+      </c>
+      <c r="M191" s="6">
+        <f t="shared" si="16"/>
+        <v>1396.5000000000002</v>
+      </c>
+      <c r="N191" s="6">
+        <v>5700</v>
+      </c>
+      <c r="O191" s="52">
+        <f t="shared" si="21"/>
+        <v>5700</v>
+      </c>
+      <c r="R191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S191" s="3">
+        <v>10</v>
+      </c>
+      <c r="T191" s="5">
+        <v>10</v>
+      </c>
+      <c r="U191" s="5">
+        <v>1</v>
+      </c>
+      <c r="V191" s="6">
+        <f t="shared" si="19"/>
+        <v>5700</v>
+      </c>
+      <c r="W191" s="6">
+        <v>5700</v>
+      </c>
+      <c r="X191" s="52">
+        <f t="shared" si="20"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A192" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B192" s="3">
+        <v>10</v>
+      </c>
+      <c r="C192" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1</v>
+      </c>
+      <c r="E192" s="6">
+        <f>C192*F192/B192</f>
+        <v>235.5</v>
+      </c>
+      <c r="F192" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G192" s="52">
+        <f t="shared" si="17"/>
+        <v>1500</v>
+      </c>
+      <c r="H192" s="44"/>
+      <c r="I192" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J192" s="3">
+        <v>10</v>
+      </c>
+      <c r="K192" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="L192" s="5">
+        <v>1</v>
+      </c>
+      <c r="M192" s="6">
+        <f t="shared" si="16"/>
+        <v>375</v>
+      </c>
+      <c r="N192" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O192" s="52">
+        <f t="shared" si="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R192" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="S192" s="3">
+        <v>20</v>
+      </c>
+      <c r="T192" s="5">
+        <v>0</v>
+      </c>
+      <c r="U192" s="5">
+        <v>1</v>
+      </c>
+      <c r="V192" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W192" s="6">
+        <v>20000</v>
+      </c>
+      <c r="X192" s="52">
+        <f t="shared" si="20"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="3">
+        <v>10</v>
+      </c>
+      <c r="C193" s="5">
+        <v>0.3624</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
+      <c r="E193" s="6">
+        <f>C193*F193/B193</f>
+        <v>54.36</v>
+      </c>
+      <c r="F193" s="6">
+        <v>1500</v>
+      </c>
+      <c r="G193" s="52">
+        <f t="shared" si="17"/>
+        <v>1500</v>
+      </c>
+      <c r="H193" s="44"/>
+      <c r="I193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J193" s="3">
+        <v>10</v>
+      </c>
+      <c r="K193" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L193" s="5">
+        <v>1</v>
+      </c>
+      <c r="M193" s="6">
+        <f t="shared" si="16"/>
+        <v>1470.0000000000002</v>
+      </c>
+      <c r="N193" s="6">
+        <v>1500</v>
+      </c>
+      <c r="O193" s="52">
+        <f t="shared" si="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R193" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="S193" s="3">
+        <v>10</v>
+      </c>
+      <c r="T193" s="5">
+        <v>30</v>
+      </c>
+      <c r="U193" s="5"/>
+      <c r="V193" s="6">
+        <f t="shared" si="19"/>
+        <v>4500</v>
+      </c>
+      <c r="W193" s="6">
+        <v>1500</v>
+      </c>
+      <c r="X193" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B194" s="3">
+        <v>10</v>
+      </c>
+      <c r="C194" s="5">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="D194" s="5">
+        <v>0</v>
+      </c>
+      <c r="E194" s="6">
+        <f>C194*F194/B194</f>
+        <v>369.71999999999997</v>
+      </c>
+      <c r="F194" s="6">
+        <v>1800</v>
+      </c>
+      <c r="G194" s="52">
+        <v>1800</v>
+      </c>
+      <c r="H194" s="44"/>
+      <c r="I194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J194" s="3">
+        <v>10</v>
+      </c>
+      <c r="K194" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="L194" s="5">
+        <v>0</v>
+      </c>
+      <c r="M194" s="6">
+        <f t="shared" si="16"/>
+        <v>450</v>
+      </c>
+      <c r="N194" s="6">
+        <v>1800</v>
+      </c>
+      <c r="O194" s="52">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S194" s="3">
+        <v>10</v>
+      </c>
+      <c r="T194" s="5">
+        <v>12</v>
+      </c>
+      <c r="U194" s="5">
+        <v>1</v>
+      </c>
+      <c r="V194" s="6">
+        <f t="shared" si="19"/>
+        <v>1800</v>
+      </c>
+      <c r="W194" s="6">
+        <v>1500</v>
+      </c>
+      <c r="X194" s="52">
+        <f t="shared" ref="X194" si="22">U194*W194</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" s="3">
+        <v>100</v>
+      </c>
+      <c r="C195" s="5">
+        <v>10.148999999999999</v>
+      </c>
+      <c r="D195" s="5">
+        <v>1</v>
+      </c>
+      <c r="E195" s="6">
+        <f t="shared" ref="E195" si="23">C195*F195/B195</f>
+        <v>8119.1999999999989</v>
+      </c>
+      <c r="F195" s="6">
+        <v>80000</v>
+      </c>
+      <c r="G195" s="6">
+        <f>E195</f>
+        <v>8119.1999999999989</v>
+      </c>
+      <c r="H195" s="44"/>
+      <c r="I195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J195" s="3">
+        <v>100</v>
+      </c>
+      <c r="K195" s="5">
+        <v>73.5</v>
+      </c>
+      <c r="L195" s="5"/>
+      <c r="M195" s="6">
+        <f t="shared" si="16"/>
+        <v>58800</v>
+      </c>
+      <c r="N195" s="6">
+        <v>80000</v>
+      </c>
+      <c r="O195" s="52">
+        <f>M195</f>
+        <v>58800</v>
+      </c>
+      <c r="R195" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S195" s="3">
+        <v>10</v>
+      </c>
+      <c r="T195" s="5">
+        <v>20</v>
+      </c>
+      <c r="U195" s="5">
+        <v>0</v>
+      </c>
+      <c r="V195" s="6">
+        <f t="shared" si="19"/>
+        <v>3600</v>
+      </c>
+      <c r="W195" s="6">
+        <v>1800</v>
+      </c>
+      <c r="X195" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" s="3">
+        <v>500</v>
+      </c>
+      <c r="C196" s="5">
+        <v>18</v>
+      </c>
+      <c r="D196" s="5">
+        <v>0</v>
+      </c>
+      <c r="E196" s="6">
+        <f>C196*F196/B196</f>
+        <v>389.30399999999997</v>
+      </c>
+      <c r="F196" s="6">
+        <v>10814</v>
+      </c>
+      <c r="G196" s="52">
+        <f t="shared" ref="G196" si="24">D196*F196</f>
+        <v>0</v>
+      </c>
+      <c r="H196" s="44"/>
+      <c r="I196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J196" s="3">
+        <v>500</v>
+      </c>
+      <c r="K196" s="5">
+        <v>127</v>
+      </c>
+      <c r="L196" s="5"/>
+      <c r="M196" s="6">
+        <f t="shared" si="16"/>
+        <v>2746.7559999999999</v>
+      </c>
+      <c r="N196" s="6">
+        <v>10814</v>
+      </c>
+      <c r="O196" s="52">
+        <f t="shared" ref="O196:O197" si="25">L196*N196</f>
+        <v>0</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S196" s="3">
+        <v>500</v>
+      </c>
+      <c r="T196" s="5">
+        <v>200</v>
+      </c>
+      <c r="U196" s="5"/>
+      <c r="V196" s="6">
+        <f t="shared" si="19"/>
+        <v>32000</v>
+      </c>
+      <c r="W196" s="6">
+        <v>80000</v>
+      </c>
+      <c r="X196" s="6">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A197" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C197" s="5">
+        <v>1</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="6">
+        <v>13000</v>
+      </c>
+      <c r="F197" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G197" s="42">
+        <v>13000</v>
+      </c>
+      <c r="H197" s="44"/>
+      <c r="I197" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K197" s="5"/>
+      <c r="L197" s="5">
+        <v>1</v>
+      </c>
+      <c r="M197" s="6">
+        <v>13000</v>
+      </c>
+      <c r="N197" s="6">
+        <v>13000</v>
+      </c>
+      <c r="O197" s="52">
+        <f t="shared" si="25"/>
+        <v>13000</v>
+      </c>
+      <c r="R197" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S197" s="3">
+        <v>500</v>
+      </c>
+      <c r="T197" s="5">
+        <v>250</v>
+      </c>
+      <c r="U197" s="5"/>
+      <c r="V197" s="6">
+        <f t="shared" si="19"/>
+        <v>5407</v>
+      </c>
+      <c r="W197" s="6">
+        <v>10814</v>
+      </c>
+      <c r="X197" s="6">
+        <v>10814</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A198" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="5">
+        <v>1</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="6">
+        <v>23000</v>
+      </c>
+      <c r="F198" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G198" s="42">
+        <v>23000</v>
+      </c>
+      <c r="H198" s="44"/>
+      <c r="I198" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K198" s="5"/>
+      <c r="L198" s="5">
+        <v>1</v>
+      </c>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6">
+        <v>13000</v>
+      </c>
+      <c r="O198" s="52"/>
+      <c r="R198" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="S198" s="3"/>
+      <c r="T198" s="5">
+        <v>1</v>
+      </c>
+      <c r="U198" s="5">
+        <v>1</v>
+      </c>
+      <c r="V198" s="6">
+        <v>13000</v>
+      </c>
+      <c r="W198" s="6">
+        <v>13000</v>
+      </c>
+      <c r="X198" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A199" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="5">
+        <v>1</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G199" s="52">
+        <f t="shared" ref="G199:G201" si="26">D199*F199</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="44"/>
+      <c r="I199" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K199" s="5"/>
+      <c r="L199" s="5"/>
+      <c r="M199" s="52">
+        <v>23000</v>
+      </c>
+      <c r="N199" s="6">
+        <v>23000</v>
+      </c>
+      <c r="O199" s="52">
+        <v>23000</v>
+      </c>
+      <c r="R199" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S199" s="3"/>
+      <c r="T199" s="5">
+        <v>1</v>
+      </c>
+      <c r="U199" s="5"/>
+      <c r="V199" s="6">
+        <v>23000</v>
+      </c>
+      <c r="W199" s="6">
+        <v>23000</v>
+      </c>
+      <c r="X199" s="6">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A200" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="5">
+        <v>0</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G200" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H200" s="44"/>
+      <c r="I200" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K200" s="5">
+        <v>5</v>
+      </c>
+      <c r="L200" s="5"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6">
+        <v>25000</v>
+      </c>
+      <c r="O200" s="52">
+        <f t="shared" ref="O200:O203" si="27">L200*N200</f>
+        <v>0</v>
+      </c>
+      <c r="R200" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="S200" s="3"/>
+      <c r="T200" s="5">
+        <v>0</v>
+      </c>
+      <c r="U200" s="5"/>
+      <c r="V200" s="6"/>
+      <c r="W200" s="6">
+        <v>25000</v>
+      </c>
+      <c r="X200" s="52">
+        <f t="shared" ref="X200:X203" si="28">U200*W200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A201" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="5">
+        <v>0</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G201" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H201" s="44"/>
+      <c r="I201" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K201" s="5"/>
+      <c r="L201" s="5"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6">
+        <v>2000</v>
+      </c>
+      <c r="O201" s="52">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R201" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="S201" s="3"/>
+      <c r="T201" s="5">
+        <v>1</v>
+      </c>
+      <c r="U201" s="5"/>
+      <c r="V201" s="6"/>
+      <c r="W201" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X201" s="52">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A202" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B202" s="3">
+        <v>10</v>
+      </c>
+      <c r="C202" s="5">
+        <v>0</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F202" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G202" s="6">
+        <v>15000</v>
+      </c>
+      <c r="H202" s="44"/>
+      <c r="I202" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K202" s="5"/>
+      <c r="L202" s="5"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6">
+        <v>3000</v>
+      </c>
+      <c r="O202" s="52">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R202" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="S202" s="3"/>
+      <c r="T202" s="5">
+        <v>1</v>
+      </c>
+      <c r="U202" s="5"/>
+      <c r="V202" s="6"/>
+      <c r="W202" s="6">
+        <v>3000</v>
+      </c>
+      <c r="X202" s="52">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A203" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B203" s="3">
+        <v>500</v>
+      </c>
+      <c r="C203" s="3">
+        <v>100</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="6">
+        <f>C203*F203/B203</f>
+        <v>800</v>
+      </c>
+      <c r="F203" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G203" s="6">
+        <v>4000</v>
+      </c>
+      <c r="H203" s="44"/>
+      <c r="I203" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J203" s="3">
+        <v>10</v>
+      </c>
+      <c r="K203" s="5"/>
+      <c r="L203" s="5">
+        <v>1</v>
+      </c>
+      <c r="M203" s="6">
+        <v>15000</v>
+      </c>
+      <c r="N203" s="6">
+        <v>15000</v>
+      </c>
+      <c r="O203" s="52">
+        <f t="shared" si="27"/>
+        <v>15000</v>
+      </c>
+      <c r="R203" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S203" s="3"/>
+      <c r="T203" s="5">
+        <v>1</v>
+      </c>
+      <c r="U203" s="5"/>
+      <c r="V203" s="6"/>
+      <c r="W203" s="6">
+        <v>3000</v>
+      </c>
+      <c r="X203" s="52">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A204" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1</v>
+      </c>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="6">
+        <v>31000</v>
+      </c>
+      <c r="G204" s="6"/>
+      <c r="H204" s="44"/>
+      <c r="I204" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J204" s="3"/>
+      <c r="K204" s="5">
+        <v>1</v>
+      </c>
+      <c r="L204" s="5"/>
+      <c r="M204" s="52"/>
+      <c r="N204" s="6">
+        <v>31000</v>
+      </c>
+      <c r="O204" s="52">
+        <f>N204</f>
+        <v>31000</v>
+      </c>
+      <c r="R204" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S204" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T204" s="5"/>
+      <c r="U204" s="5">
+        <v>0</v>
+      </c>
+      <c r="V204" s="6">
+        <v>31000</v>
+      </c>
+      <c r="W204" s="6">
+        <v>31000</v>
+      </c>
+      <c r="X204" s="52">
+        <f>U204*W204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A205" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B205" s="3">
+        <v>500</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="6">
+        <f>F205</f>
+        <v>30000</v>
+      </c>
+      <c r="F205" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G205" s="6">
+        <f>F205</f>
+        <v>30000</v>
+      </c>
+      <c r="H205" s="44"/>
+      <c r="I205" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J205" s="3"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="6">
+        <v>30000</v>
+      </c>
+      <c r="N205" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O205" s="52"/>
+      <c r="R205" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S205" s="3">
+        <v>500</v>
+      </c>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5"/>
+      <c r="V205" s="6"/>
+      <c r="W205" s="6">
+        <v>30000</v>
+      </c>
+      <c r="X205" s="52">
+        <f t="shared" ref="X205:X209" si="29">U205*W205</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A206" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="54">
+        <f>SUM(E186:E205)</f>
+        <v>99450.652000000002</v>
+      </c>
+      <c r="F206" s="6"/>
+      <c r="G206" s="53">
+        <f>SUM(G186:G205)</f>
+        <v>113335.2</v>
+      </c>
+      <c r="H206" s="44"/>
+      <c r="I206" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J206" s="3"/>
+      <c r="K206" s="5"/>
+      <c r="L206" s="5"/>
+      <c r="M206" s="52"/>
+      <c r="N206" s="6">
+        <v>31000</v>
+      </c>
+      <c r="O206" s="52"/>
+      <c r="R206" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="S206" s="3"/>
+      <c r="T206" s="5"/>
+      <c r="U206" s="5"/>
+      <c r="V206" s="6"/>
+      <c r="W206" s="6">
+        <v>31000</v>
+      </c>
+      <c r="X206" s="52">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="62"/>
+      <c r="B207" s="62"/>
+      <c r="C207" s="62"/>
+      <c r="D207" s="62"/>
+      <c r="E207" s="62"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="63"/>
+      <c r="H207" s="45"/>
+      <c r="I207" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J207" s="3"/>
+      <c r="K207" s="5"/>
+      <c r="L207" s="5"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6">
+        <v>31000</v>
+      </c>
+      <c r="O207" s="52"/>
+      <c r="R207" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="S207" s="3"/>
+      <c r="T207" s="5">
+        <v>1</v>
+      </c>
+      <c r="U207" s="5">
+        <v>1</v>
+      </c>
+      <c r="V207" s="6"/>
+      <c r="W207" s="6">
+        <v>39000</v>
+      </c>
+      <c r="X207" s="52">
+        <f t="shared" si="29"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A208" s="4"/>
+      <c r="F208" s="7"/>
+      <c r="I208" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J208" s="3">
+        <v>500</v>
+      </c>
+      <c r="K208" s="3">
+        <v>98.37</v>
+      </c>
+      <c r="L208" s="5">
+        <v>1</v>
+      </c>
+      <c r="M208" s="6">
+        <f>K208*N208/J208</f>
+        <v>786.96</v>
+      </c>
+      <c r="N208" s="6">
+        <v>4000</v>
+      </c>
+      <c r="O208" s="52">
+        <f t="shared" ref="O208" si="30">L208*N208</f>
+        <v>4000</v>
+      </c>
+      <c r="R208" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="S208" s="3">
+        <v>10</v>
+      </c>
+      <c r="T208" s="5"/>
+      <c r="U208" s="5">
+        <v>1</v>
+      </c>
+      <c r="V208" s="6">
+        <v>20000</v>
+      </c>
+      <c r="W208" s="6">
+        <v>20000</v>
+      </c>
+      <c r="X208" s="52">
+        <f t="shared" si="29"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
+      <c r="F209" s="7"/>
+      <c r="I209" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="54">
+        <f>SUM(M186:M208)</f>
+        <v>176425.21599999999</v>
+      </c>
+      <c r="N209" s="3"/>
+      <c r="O209" s="53">
+        <f>SUM(O186:O208)</f>
+        <v>184400</v>
+      </c>
+      <c r="R209" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="S209" s="3">
+        <v>500</v>
+      </c>
+      <c r="T209" s="3">
+        <v>100</v>
+      </c>
+      <c r="U209" s="3">
+        <v>1</v>
+      </c>
+      <c r="V209" s="6">
+        <f t="shared" ref="V209" si="31">T209*W209/S209</f>
+        <v>800</v>
+      </c>
+      <c r="W209" s="6">
+        <v>4000</v>
+      </c>
+      <c r="X209" s="52">
+        <f t="shared" si="29"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F210" s="7"/>
+      <c r="I210" s="8"/>
+      <c r="J210" s="8"/>
+      <c r="K210" s="8"/>
+      <c r="L210" s="67"/>
+      <c r="M210" s="9"/>
+      <c r="N210" s="9"/>
+      <c r="O210" s="68"/>
+      <c r="R210" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S210" s="3"/>
+      <c r="T210" s="3"/>
+      <c r="U210" s="3"/>
+      <c r="V210" s="54">
+        <f>SUM(V186:V209)</f>
+        <v>193307</v>
+      </c>
+      <c r="W210" s="12"/>
+      <c r="X210" s="53">
+        <f>SUM(X186:X209)</f>
+        <v>261814</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" s="44"/>
+      <c r="L211" s="23"/>
+      <c r="N211" s="7"/>
+      <c r="O211" s="65"/>
+      <c r="U211" s="23"/>
+      <c r="W211" s="7"/>
+      <c r="X211" s="65"/>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A212" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="B212" s="116">
+        <v>1</v>
+      </c>
+      <c r="C212" s="117">
+        <v>1000</v>
+      </c>
+      <c r="D212" s="117">
+        <f>C212*B212</f>
+        <v>1000</v>
+      </c>
+      <c r="M212" s="7"/>
+      <c r="O212" s="66"/>
+      <c r="U212" s="23"/>
+      <c r="W212" s="7"/>
+      <c r="X212" s="65"/>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A213" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B213" s="116">
+        <v>0</v>
+      </c>
+      <c r="C213" s="117">
+        <v>290000</v>
+      </c>
+      <c r="D213" s="117">
+        <f>C213*B213</f>
+        <v>0</v>
+      </c>
+      <c r="U213" s="23"/>
+      <c r="V213" s="7"/>
+      <c r="X213" s="69"/>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A214" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B214" s="116">
+        <f>1/B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="C214" s="117">
+        <v>343000</v>
+      </c>
+      <c r="D214" s="117">
+        <f>C214*B214</f>
+        <v>34300</v>
+      </c>
+      <c r="M214" s="7"/>
+    </row>
+    <row r="215" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="9">
+        <f>+SUM(D212:D214)</f>
+        <v>35300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A221" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B221" s="116">
+        <v>2</v>
+      </c>
+      <c r="C221" s="117">
+        <v>500</v>
+      </c>
+      <c r="D221" s="117">
+        <f>C221*B221</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A222" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B222" s="116">
+        <v>2</v>
+      </c>
+      <c r="C222" s="117">
+        <v>4000</v>
+      </c>
+      <c r="D222" s="117">
+        <f t="shared" ref="D222:D225" si="32">C222*B222</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A223" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B223" s="116">
+        <v>2</v>
+      </c>
+      <c r="C223" s="117">
+        <v>300</v>
+      </c>
+      <c r="D223" s="117">
+        <f t="shared" si="32"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A224" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="B224" s="116">
+        <v>2</v>
+      </c>
+      <c r="C224" s="117">
+        <v>100</v>
+      </c>
+      <c r="D224" s="117">
+        <f t="shared" si="32"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B225" s="116">
+        <v>2</v>
+      </c>
+      <c r="C225" s="117">
+        <v>300</v>
+      </c>
+      <c r="D225" s="117">
+        <f t="shared" si="32"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227" s="9"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="9">
+        <f>SUM(D221:D226)</f>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="B229" s="136"/>
+      <c r="C229" s="136"/>
+      <c r="D229" s="136"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="136"/>
+      <c r="B230" s="136"/>
+      <c r="C230" s="136"/>
+      <c r="D230" s="136"/>
+      <c r="F230" s="7"/>
+    </row>
+    <row r="231" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="F231" s="7"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="B232" s="144">
+        <v>0</v>
+      </c>
+      <c r="C232" s="145">
+        <v>9000</v>
+      </c>
+      <c r="D232" s="139">
+        <f>C232*B232</f>
+        <v>0</v>
+      </c>
+      <c r="F232" s="7"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="139" t="s">
+        <v>42</v>
+      </c>
+      <c r="B233" s="144">
+        <v>1</v>
+      </c>
+      <c r="C233" s="145">
+        <v>1000</v>
+      </c>
+      <c r="D233" s="139">
+        <f t="shared" ref="D233:D236" si="33">C233*B233</f>
+        <v>1000</v>
+      </c>
+      <c r="F233" s="7"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="B234" s="144">
+        <v>0</v>
+      </c>
+      <c r="C234" s="145">
+        <v>1200</v>
+      </c>
+      <c r="D234" s="139">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F234" s="7"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B235" s="144">
+        <f>1/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C235" s="145">
+        <v>70479</v>
+      </c>
+      <c r="D235" s="139">
+        <f t="shared" si="33"/>
+        <v>352.39499999999998</v>
+      </c>
+      <c r="F235" s="7"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" s="144">
+        <f>1/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C236" s="145">
+        <v>55000</v>
+      </c>
+      <c r="D236" s="139">
+        <f t="shared" si="33"/>
+        <v>275</v>
+      </c>
+      <c r="F236" s="7"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="136"/>
+      <c r="B237" s="148"/>
+      <c r="C237" s="136"/>
+      <c r="D237" s="136"/>
+      <c r="F237" s="7"/>
+    </row>
+    <row r="238" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B238" s="151"/>
+      <c r="C238" s="141"/>
+      <c r="D238" s="151">
+        <f>SUM(D232:D237)</f>
+        <v>1627.395</v>
+      </c>
+      <c r="F238" s="7"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="F239" s="7"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" s="148"/>
+      <c r="C240" s="136"/>
+      <c r="D240" s="136"/>
+      <c r="F240" s="7"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="135"/>
+      <c r="B241" s="148"/>
+      <c r="C241" s="136"/>
+      <c r="D241" s="136"/>
+      <c r="F241" s="7"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" s="7"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="B243" s="144">
+        <v>1</v>
+      </c>
+      <c r="C243" s="145">
+        <v>400</v>
+      </c>
+      <c r="D243" s="145">
+        <f t="shared" ref="D243:D257" si="34">B243*C243</f>
+        <v>400</v>
+      </c>
+      <c r="F243" s="7"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="139" t="s">
+        <v>47</v>
+      </c>
+      <c r="B244" s="144">
+        <v>1</v>
+      </c>
+      <c r="C244" s="145">
+        <v>400</v>
+      </c>
+      <c r="D244" s="145">
+        <f t="shared" si="34"/>
+        <v>400</v>
+      </c>
+      <c r="F244" s="7"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="144">
+        <v>0</v>
+      </c>
+      <c r="C245" s="145">
+        <v>400</v>
+      </c>
+      <c r="D245" s="145">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F245" s="7"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246" s="144">
+        <v>0</v>
+      </c>
+      <c r="C246" s="145">
+        <v>500</v>
+      </c>
+      <c r="D246" s="145">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F246" s="7"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="B247" s="144">
+        <v>1</v>
+      </c>
+      <c r="C247" s="145">
+        <v>2000</v>
+      </c>
+      <c r="D247" s="145">
+        <f t="shared" si="34"/>
+        <v>2000</v>
+      </c>
+      <c r="F247" s="7"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" s="144">
+        <v>2</v>
+      </c>
+      <c r="C248" s="145">
+        <v>400</v>
+      </c>
+      <c r="D248" s="145">
+        <f t="shared" si="34"/>
+        <v>800</v>
+      </c>
+      <c r="F248" s="7"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="139" t="s">
+        <v>112</v>
+      </c>
+      <c r="B249" s="144">
+        <v>0</v>
+      </c>
+      <c r="C249" s="145">
+        <v>2500</v>
+      </c>
+      <c r="D249" s="145">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F249" s="7"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="149" t="s">
+        <v>111</v>
+      </c>
+      <c r="B250" s="144">
+        <v>0</v>
+      </c>
+      <c r="C250" s="145">
+        <v>2000</v>
+      </c>
+      <c r="D250" s="145">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F250" s="7"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B251" s="144">
+        <v>1</v>
+      </c>
+      <c r="C251" s="145">
+        <v>5000</v>
+      </c>
+      <c r="D251" s="145">
+        <f t="shared" si="34"/>
+        <v>5000</v>
+      </c>
+      <c r="F251" s="7"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="B252" s="144">
+        <v>1</v>
+      </c>
+      <c r="C252" s="145">
+        <v>1000</v>
+      </c>
+      <c r="D252" s="145">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="F252" s="7"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="B253" s="144">
+        <v>0.05</v>
+      </c>
+      <c r="C253" s="145">
+        <v>8000</v>
+      </c>
+      <c r="D253" s="145">
+        <f t="shared" si="34"/>
+        <v>400</v>
+      </c>
+      <c r="F253" s="7"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B254" s="144">
+        <v>2</v>
+      </c>
+      <c r="C254" s="145">
+        <v>400</v>
+      </c>
+      <c r="D254" s="145">
+        <f t="shared" si="34"/>
+        <v>800</v>
+      </c>
+      <c r="F254" s="7"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B255" s="144">
+        <v>0.1</v>
+      </c>
+      <c r="C255" s="145">
+        <v>500</v>
+      </c>
+      <c r="D255" s="145">
+        <f t="shared" si="34"/>
+        <v>50</v>
+      </c>
+      <c r="F255" s="7"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="B256" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="C256" s="145">
+        <v>500</v>
+      </c>
+      <c r="D256" s="145">
+        <f t="shared" si="34"/>
+        <v>250</v>
+      </c>
+      <c r="F256" s="7"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A257" s="139" t="s">
+        <v>56</v>
+      </c>
+      <c r="B257" s="144">
+        <f>1/60</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C257" s="145">
+        <v>1500</v>
+      </c>
+      <c r="D257" s="145">
+        <f t="shared" si="34"/>
+        <v>25</v>
+      </c>
+      <c r="F257" s="7"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A258" s="136"/>
+      <c r="B258" s="136"/>
+      <c r="C258" s="136"/>
+      <c r="D258" s="150"/>
+      <c r="F258" s="7"/>
+    </row>
+    <row r="259" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B259" s="151"/>
+      <c r="C259" s="141"/>
+      <c r="D259" s="151">
+        <f>SUM(D243:D258)</f>
+        <v>11125</v>
+      </c>
+      <c r="F259" s="7"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A260" s="136"/>
+      <c r="B260" s="150"/>
+      <c r="C260" s="140">
+        <f>+$B$102*B270</f>
+        <v>304000</v>
+      </c>
+      <c r="D260" s="150"/>
+      <c r="F260" s="7"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F261" s="7"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A263" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" s="14">
+        <v>230</v>
+      </c>
+      <c r="E263" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F263" s="14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A264" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B264" s="14">
+        <v>2</v>
+      </c>
+      <c r="E264" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F264" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D265" s="19"/>
+      <c r="E265" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A266" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B266" s="118">
+        <v>4000000</v>
+      </c>
+      <c r="C266" s="115"/>
+      <c r="E266" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F266" s="118">
+        <v>1500000</v>
+      </c>
+      <c r="G266" s="115"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A267" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="B267" s="115"/>
+      <c r="C267" s="115"/>
+      <c r="E267" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="F267" s="115"/>
+      <c r="G267" s="115"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A268" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B268" s="115"/>
+      <c r="C268" s="115"/>
+      <c r="E268" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F268" s="115"/>
+      <c r="G268" s="115"/>
+      <c r="J268" s="46"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A269" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B269" s="115"/>
+      <c r="C269" s="115"/>
+      <c r="E269" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="F269" s="115"/>
+      <c r="G269" s="115"/>
+      <c r="R269" s="44"/>
+      <c r="S269" s="44"/>
+      <c r="T269" s="44"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A270" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="B270" s="119">
+        <v>0.08</v>
+      </c>
+      <c r="C270" s="118">
+        <f>+$B$102*B270</f>
+        <v>304000</v>
+      </c>
+      <c r="E270" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="F270" s="119">
+        <v>0.08</v>
+      </c>
+      <c r="G270" s="118">
+        <f t="shared" ref="G270:G279" si="35">+$F$102*F270</f>
+        <v>120000</v>
+      </c>
+      <c r="R270" s="44"/>
+      <c r="S270" s="44"/>
+      <c r="T270" s="44"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A271" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="B271" s="119">
+        <v>0.08</v>
+      </c>
+      <c r="C271" s="118">
+        <f>+$B$102*B271</f>
+        <v>304000</v>
+      </c>
+      <c r="E271" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="F271" s="119">
+        <v>0.08</v>
+      </c>
+      <c r="G271" s="118">
+        <f t="shared" si="35"/>
+        <v>120000</v>
+      </c>
+      <c r="I271" s="19"/>
+      <c r="J271" s="19"/>
+      <c r="K271" s="19"/>
+      <c r="M271" s="19"/>
+      <c r="N271" s="19"/>
+      <c r="O271" s="19"/>
+      <c r="R271" s="48"/>
+      <c r="S271" s="48"/>
+      <c r="T271" s="48"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A272" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="B272" s="119">
+        <v>0.04</v>
+      </c>
+      <c r="C272" s="118">
+        <f t="shared" ref="C272:C279" si="36">+$B$102*B272</f>
+        <v>152000</v>
+      </c>
+      <c r="E272" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F272" s="119">
+        <v>0.04</v>
+      </c>
+      <c r="G272" s="118">
+        <f t="shared" si="35"/>
+        <v>60000</v>
+      </c>
+      <c r="J272" s="15"/>
+      <c r="N272" s="15"/>
+      <c r="R272" s="44"/>
+      <c r="S272" s="49"/>
+      <c r="T272" s="44"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="B273" s="119">
+        <v>0.01</v>
+      </c>
+      <c r="C273" s="118">
+        <f t="shared" si="36"/>
+        <v>38000</v>
+      </c>
+      <c r="E273" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="F273" s="119">
+        <v>0.01</v>
+      </c>
+      <c r="G273" s="118">
+        <f t="shared" si="35"/>
+        <v>15000</v>
+      </c>
+      <c r="R273" s="44"/>
+      <c r="S273" s="44"/>
+      <c r="T273" s="44"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="B274" s="119">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C274" s="118">
+        <f t="shared" si="36"/>
+        <v>323000</v>
+      </c>
+      <c r="E274" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="F274" s="119">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G274" s="118">
+        <f t="shared" si="35"/>
+        <v>127500.00000000001</v>
+      </c>
+      <c r="R274" s="44"/>
+      <c r="S274" s="44"/>
+      <c r="T274" s="44"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="B275" s="119">
+        <v>0.12</v>
+      </c>
+      <c r="C275" s="118">
+        <f t="shared" si="36"/>
+        <v>456000</v>
+      </c>
+      <c r="E275" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F275" s="119">
+        <v>0.12</v>
+      </c>
+      <c r="G275" s="118">
+        <f t="shared" si="35"/>
+        <v>180000</v>
+      </c>
+      <c r="R275" s="44"/>
+      <c r="S275" s="44"/>
+      <c r="T275" s="44"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B276" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="C276" s="118">
+        <f t="shared" si="36"/>
+        <v>76000</v>
+      </c>
+      <c r="E276" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F276" s="119">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G276" s="118">
+        <f t="shared" si="35"/>
+        <v>36000</v>
+      </c>
+      <c r="J276" s="47"/>
+      <c r="K276" s="15"/>
+      <c r="N276" s="47"/>
+      <c r="O276" s="15"/>
+      <c r="R276" s="44"/>
+      <c r="S276" s="50"/>
+      <c r="T276" s="49"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A277" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B277" s="119">
+        <v>0.04</v>
+      </c>
+      <c r="C277" s="118">
+        <f t="shared" si="36"/>
+        <v>152000</v>
+      </c>
+      <c r="E277" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="F277" s="119">
+        <v>0.04</v>
+      </c>
+      <c r="G277" s="118">
+        <f t="shared" si="35"/>
+        <v>60000</v>
+      </c>
+      <c r="J277" s="47"/>
+      <c r="K277" s="15"/>
+      <c r="N277" s="47"/>
+      <c r="O277" s="15"/>
+      <c r="R277" s="44"/>
+      <c r="S277" s="50"/>
+      <c r="T277" s="49"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A278" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B278" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="C278" s="118">
+        <f t="shared" si="36"/>
+        <v>76000</v>
+      </c>
+      <c r="E278" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="F278" s="119">
+        <v>0.02</v>
+      </c>
+      <c r="G278" s="118">
+        <f t="shared" si="35"/>
+        <v>30000</v>
+      </c>
+      <c r="J278" s="47"/>
+      <c r="K278" s="15"/>
+      <c r="N278" s="47"/>
+      <c r="O278" s="15"/>
+      <c r="R278" s="44"/>
+      <c r="S278" s="50"/>
+      <c r="T278" s="49"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A279" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B279" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="C279" s="118">
+        <f t="shared" si="36"/>
+        <v>114000</v>
+      </c>
+      <c r="E279" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="F279" s="119">
+        <v>0.03</v>
+      </c>
+      <c r="G279" s="118">
+        <f t="shared" si="35"/>
+        <v>45000</v>
+      </c>
+      <c r="J279" s="47"/>
+      <c r="K279" s="15"/>
+      <c r="N279" s="47"/>
+      <c r="O279" s="15"/>
+      <c r="R279" s="44"/>
+      <c r="S279" s="50"/>
+      <c r="T279" s="49"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A280" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="B280" s="115"/>
+      <c r="C280" s="118">
+        <f>SUM(C270:C279)</f>
+        <v>1995000</v>
+      </c>
+      <c r="E280" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="F280" s="115"/>
+      <c r="G280" s="118">
+        <v>117000</v>
+      </c>
+      <c r="J280" s="47"/>
+      <c r="K280" s="15"/>
+      <c r="N280" s="47"/>
+      <c r="O280" s="15"/>
+      <c r="R280" s="44"/>
+      <c r="S280" s="50"/>
+      <c r="T280" s="49"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A281" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="B281" s="115"/>
+      <c r="C281" s="118">
+        <f>+C280+B266</f>
+        <v>5995000</v>
+      </c>
+      <c r="E281" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="F281" s="115"/>
+      <c r="G281" s="118">
+        <f>SUM(G270:G280)</f>
+        <v>910500</v>
+      </c>
+      <c r="J281" s="47"/>
+      <c r="K281" s="15"/>
+      <c r="N281" s="47"/>
+      <c r="O281" s="15"/>
+      <c r="R281" s="44"/>
+      <c r="S281" s="50"/>
+      <c r="T281" s="49"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="E282" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="F282" s="115"/>
+      <c r="G282" s="118">
+        <f>+G281+F266</f>
+        <v>2410500</v>
+      </c>
+      <c r="J282" s="47"/>
+      <c r="K282" s="15"/>
+      <c r="N282" s="47"/>
+      <c r="O282" s="15"/>
+      <c r="R282" s="44"/>
+      <c r="S282" s="50"/>
+      <c r="T282" s="49"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A283" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B283" s="3"/>
+      <c r="C283" s="10">
+        <f>+C281/B263</f>
+        <v>26065.217391304348</v>
+      </c>
+      <c r="E283" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="F283" s="115"/>
+      <c r="G283" s="118">
+        <f>+G282/B263</f>
+        <v>10480.434782608696</v>
+      </c>
+      <c r="J283" s="47"/>
+      <c r="K283" s="15"/>
+      <c r="N283" s="47"/>
+      <c r="O283" s="15"/>
+      <c r="R283" s="44"/>
+      <c r="S283" s="50"/>
+      <c r="T283" s="49"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F284" s="47"/>
+      <c r="G284" s="15"/>
+      <c r="J284" s="47"/>
+      <c r="K284" s="15"/>
+      <c r="N284" s="47"/>
+      <c r="O284" s="15"/>
+      <c r="R284" s="44"/>
+      <c r="S284" s="50"/>
+      <c r="T284" s="49"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
+      <c r="F285" s="47"/>
+      <c r="G285" s="15"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A286" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="B286" s="136"/>
+      <c r="C286" s="136"/>
+      <c r="F286" s="47"/>
+      <c r="G286" s="15"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A287" s="137"/>
+      <c r="B287" s="137"/>
+      <c r="C287" s="136"/>
+      <c r="F287" s="47"/>
+      <c r="G287" s="15"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A288" s="138" t="s">
+        <v>85</v>
+      </c>
+      <c r="B288" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="C288" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F288" s="47"/>
+      <c r="G288" s="15"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B289" s="140">
+        <v>2388262</v>
+      </c>
+      <c r="C289" s="140">
+        <f>B289/$E$4/B$3</f>
+        <v>1990.2183333333332</v>
+      </c>
+      <c r="F289" s="47"/>
+      <c r="G289" s="15"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B290" s="140">
+        <v>6775276.5</v>
+      </c>
+      <c r="C290" s="140">
+        <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
+        <v>5646.0637500000003</v>
+      </c>
+      <c r="F290" s="47"/>
+      <c r="G290" s="15"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="B291" s="140">
+        <v>4783964.3999999994</v>
+      </c>
+      <c r="C291" s="140">
+        <f t="shared" si="37"/>
+        <v>3986.6369999999997</v>
+      </c>
+      <c r="G291" s="15"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B292" s="140">
+        <v>6688000</v>
+      </c>
+      <c r="C292" s="140">
+        <f t="shared" si="37"/>
+        <v>5573.333333333333</v>
+      </c>
+      <c r="D292" s="27"/>
+      <c r="E292" s="27"/>
+      <c r="G292" s="15"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="B293" s="140">
+        <v>63000</v>
+      </c>
+      <c r="C293" s="140">
+        <f t="shared" si="37"/>
+        <v>52.5</v>
+      </c>
+      <c r="G293" s="15"/>
+    </row>
+    <row r="294" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B294" s="141"/>
+      <c r="C294" s="142">
+        <f>SUM(C289:C293)</f>
+        <v>17248.752416666666</v>
+      </c>
+      <c r="G294" s="15"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="B296" s="136"/>
+      <c r="C296" s="136"/>
+      <c r="D296" s="136"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="136"/>
+      <c r="B297" s="136"/>
+      <c r="C297" s="136"/>
+      <c r="D297" s="136"/>
+      <c r="H297" s="37"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="136"/>
+      <c r="B298" s="143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="D298" s="143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B299" s="144">
+        <v>1</v>
+      </c>
+      <c r="C299" s="145">
+        <v>10000000</v>
+      </c>
+      <c r="D299" s="145">
+        <f t="shared" ref="D299:D309" si="38">B299*C299</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="B300" s="144">
+        <v>12</v>
+      </c>
+      <c r="C300" s="145">
+        <v>4000000</v>
+      </c>
+      <c r="D300" s="145">
+        <f t="shared" si="38"/>
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="B301" s="144">
+        <v>6</v>
+      </c>
+      <c r="C301" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="D301" s="145">
+        <f t="shared" si="38"/>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="139" t="s">
+        <v>120</v>
+      </c>
+      <c r="B302" s="144">
+        <v>1</v>
+      </c>
+      <c r="C302" s="145">
+        <v>1000000</v>
+      </c>
+      <c r="D302" s="145">
+        <f t="shared" si="38"/>
+        <v>1000000</v>
+      </c>
+      <c r="I302" s="37"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B303" s="144">
+        <v>6</v>
+      </c>
+      <c r="C303" s="145">
+        <v>2000000</v>
+      </c>
+      <c r="D303" s="145">
+        <f t="shared" si="38"/>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="B304" s="144">
+        <v>3</v>
+      </c>
+      <c r="C304" s="145">
+        <v>2500000</v>
+      </c>
+      <c r="D304" s="145">
+        <f t="shared" si="38"/>
+        <v>7500000</v>
+      </c>
+      <c r="F304" s="27"/>
+      <c r="G304" s="27"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A305" s="139" t="s">
+        <v>123</v>
+      </c>
+      <c r="B305" s="144">
+        <v>10</v>
+      </c>
+      <c r="C305" s="145">
+        <v>400000</v>
+      </c>
+      <c r="D305" s="145">
+        <f t="shared" si="38"/>
+        <v>4000000</v>
+      </c>
+      <c r="G305" s="29"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" s="139" t="s">
+        <v>124</v>
+      </c>
+      <c r="B306" s="144">
+        <v>1</v>
+      </c>
+      <c r="C306" s="145">
+        <v>5000000</v>
+      </c>
+      <c r="D306" s="145">
+        <f t="shared" si="38"/>
+        <v>5000000</v>
+      </c>
+      <c r="H306" s="30"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" s="139" t="s">
+        <v>125</v>
+      </c>
+      <c r="B307" s="144">
+        <v>2</v>
+      </c>
+      <c r="C307" s="145">
+        <v>2000000</v>
+      </c>
+      <c r="D307" s="145">
+        <f t="shared" si="38"/>
+        <v>4000000</v>
+      </c>
+      <c r="H307" s="29"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A308" s="139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B308" s="144">
+        <v>5</v>
+      </c>
+      <c r="C308" s="145">
+        <v>400000</v>
+      </c>
+      <c r="D308" s="145">
+        <f t="shared" si="38"/>
+        <v>2000000</v>
+      </c>
+      <c r="H308" s="29"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A309" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="B309" s="144">
+        <v>1</v>
+      </c>
+      <c r="C309" s="145">
+        <v>10000000</v>
+      </c>
+      <c r="D309" s="145">
+        <f t="shared" si="38"/>
+        <v>10000000</v>
+      </c>
+      <c r="H309" s="29"/>
+    </row>
+    <row r="310" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B310" s="141"/>
+      <c r="C310" s="141"/>
+      <c r="D310" s="146">
+        <f>SUM(D299:D309)</f>
+        <v>109500000</v>
+      </c>
+      <c r="H310" s="29"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A311" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B311" s="136"/>
+      <c r="C311" s="136"/>
+      <c r="D311" s="147">
+        <f>D310/12</f>
+        <v>9125000</v>
+      </c>
+      <c r="H311" s="29"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B312" s="136"/>
+      <c r="C312" s="136"/>
+      <c r="D312" s="147">
+        <f>D311/B3</f>
+        <v>2281250</v>
+      </c>
+      <c r="H312" s="2"/>
+      <c r="I312" s="30"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B313" s="136"/>
+      <c r="C313" s="136"/>
+      <c r="D313" s="147">
+        <f>D312/D161</f>
+        <v>7604.166666666667</v>
+      </c>
+      <c r="H313" s="2"/>
+      <c r="I313" s="30"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H314" s="2"/>
+      <c r="I314" s="30"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" s="25"/>
+      <c r="B315" s="25"/>
+      <c r="C315" s="55"/>
+      <c r="D315" s="25"/>
+      <c r="E315" s="25"/>
+      <c r="I315" s="30"/>
+    </row>
+    <row r="316" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="25"/>
+      <c r="B316" s="56"/>
+      <c r="C316" s="56"/>
+      <c r="D316" s="56"/>
+      <c r="E316" s="25"/>
+      <c r="I316" s="30"/>
+    </row>
+    <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="25"/>
+      <c r="B317" s="57"/>
+      <c r="C317" s="57"/>
+      <c r="D317" s="57"/>
+      <c r="E317" s="25"/>
+      <c r="I317" s="35"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" s="25"/>
+      <c r="B318" s="55"/>
+      <c r="C318" s="55"/>
+      <c r="D318" s="55"/>
+      <c r="E318" s="25"/>
+      <c r="I318" s="36"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" s="25"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
+      <c r="D319" s="25"/>
+      <c r="E319" s="25"/>
+      <c r="I319" s="36"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A320" s="25"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
+      <c r="D320" s="25"/>
+      <c r="E320" s="25"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="25"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
+      <c r="D321" s="25"/>
+      <c r="E321" s="25"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="25"/>
+      <c r="B322" s="25"/>
+      <c r="C322" s="25"/>
+      <c r="D322" s="25"/>
+      <c r="E322" s="25"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="25"/>
+      <c r="B323" s="25"/>
+      <c r="C323" s="25"/>
+      <c r="D323" s="25"/>
+      <c r="E323" s="25"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="25"/>
+      <c r="B324" s="25"/>
+      <c r="C324" s="25"/>
+      <c r="D324" s="25"/>
+      <c r="E324" s="25"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="25"/>
+      <c r="B325" s="25"/>
+      <c r="C325" s="25"/>
+      <c r="D325" s="25"/>
+      <c r="E325" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="A155:D156"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC313A9-C4FC-CF4E-895F-FFFD8D968FA4}">
   <dimension ref="A6:I53"/>
   <sheetViews>
@@ -9287,7 +16040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAEC93E-6A2D-594D-B06A-D7EE668DC9F8}">
   <dimension ref="I9:J29"/>
   <sheetViews>
@@ -9467,7 +16220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105DDAB5-037E-4F8A-8C89-C898E252AB15}">
   <dimension ref="A2:F26"/>
   <sheetViews>
@@ -9806,7 +16559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197329E8-BAD3-4721-9453-D416E7B0A793}">
   <dimension ref="A8:D16"/>
   <sheetViews>
@@ -9947,7 +16700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C53FD5F-B1DF-4969-A4C2-279A92B202FC}">
   <dimension ref="A4:C9"/>
   <sheetViews>

--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A268E9A8-C3B6-F94F-8443-C44CCF7E7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326513AC-9E0F-7F41-B86A-605312E1EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="520" windowWidth="25200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo 1 (2)" sheetId="7" r:id="rId1"/>
@@ -41,6 +41,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Joseph Varela Badilla</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{5428ACF5-C60F-9344-AC51-74FCB86E9C97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Joseph Varela Badilla:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>la variable "cantidad" hace falta!!!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="226">
   <si>
@@ -774,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
@@ -784,8 +827,9 @@
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-[$COP]\ * #,##0.0_-;\-[$COP]\ * #,##0.0_-;_-[$COP]\ * &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00\ [$COP]_-;\-* #,##0.00\ [$COP]_-;_-* &quot;-&quot;??\ [$COP]_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +1029,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1283,7 +1340,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1445,24 +1502,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1482,6 +1521,29 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="22" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1798,11 +1860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F3DEE-FEFC-AE44-A2DE-BE929C614C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F3DEE-FEFC-AE44-A2DE-BE929C614C50}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1811,7 +1873,7 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" customWidth="1"/>
     <col min="6" max="6" width="23.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
@@ -1869,7 +1931,7 @@
       <c r="A8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="154">
         <f>X53*T29</f>
         <v>184607</v>
       </c>
@@ -1878,7 +1940,7 @@
       <c r="A9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="154">
         <f>O52*K29</f>
         <v>86200</v>
       </c>
@@ -1887,7 +1949,7 @@
       <c r="A10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="154">
         <f>G51*C29</f>
         <v>0</v>
       </c>
@@ -1896,7 +1958,7 @@
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="155">
         <f>D63</f>
         <v>13400</v>
       </c>
@@ -1905,7 +1967,7 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="155">
         <f>D74</f>
         <v>1627.395</v>
       </c>
@@ -1918,7 +1980,7 @@
       <c r="A13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="155">
         <f>D152</f>
         <v>7723.958333333333</v>
       </c>
@@ -1937,7 +1999,7 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="155">
         <f>C131</f>
         <v>11680.992416666668</v>
       </c>
@@ -1953,7 +2015,7 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="155">
         <f>D95</f>
         <v>32425</v>
       </c>
@@ -1964,12 +2026,15 @@
         <v>33</v>
       </c>
       <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="154"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="155">
         <f>0.36</f>
         <v>0.36</v>
       </c>
@@ -1981,7 +2046,7 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="155">
         <f>+B17*B100*C119</f>
         <v>9070.434782608696</v>
       </c>
@@ -1996,7 +2061,7 @@
       <c r="A19" t="s">
         <v>202</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="155">
         <v>0.36</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -2015,7 +2080,7 @@
       <c r="A20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="155">
         <f>+B19*G119</f>
         <v>3772.9565217391305</v>
       </c>
@@ -2029,7 +2094,7 @@
       <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
+      <c r="B21" s="154"/>
       <c r="F21" s="73">
         <f>B4*G15/100*G51</f>
         <v>353100</v>
@@ -2043,7 +2108,7 @@
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="156">
         <f>+B18+B20+B11+B12+B15+B13+B14+B8</f>
         <v>264307.73705434782</v>
       </c>
@@ -4815,28 +4880,28 @@
       <c r="A126" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="118">
+      <c r="B126" s="152">
         <v>2388262</v>
       </c>
-      <c r="C126" s="118">
+      <c r="C126" s="152">
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="129" t="s">
+      <c r="D126" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="130"/>
-      <c r="F126" s="130"/>
-      <c r="G126" s="130"/>
+      <c r="E126" s="147"/>
+      <c r="F126" s="147"/>
+      <c r="G126" s="147"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="118">
+      <c r="B127" s="152">
         <v>6775276.5</v>
       </c>
-      <c r="C127" s="118">
+      <c r="C127" s="152">
         <f t="shared" ref="C127:C130" si="13">B127/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -4845,10 +4910,10 @@
       <c r="A128" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="118">
+      <c r="B128" s="152">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C128" s="118">
+      <c r="C128" s="152">
         <f t="shared" si="13"/>
         <v>3986.6369999999997</v>
       </c>
@@ -4857,10 +4922,10 @@
       <c r="A129" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="118">
+      <c r="B129" s="152">
         <v>6688</v>
       </c>
-      <c r="C129" s="118">
+      <c r="C129" s="152">
         <f t="shared" si="13"/>
         <v>5.5733333333333333</v>
       </c>
@@ -4869,10 +4934,10 @@
       <c r="A130" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="118">
+      <c r="B130" s="152">
         <v>63000</v>
       </c>
-      <c r="C130" s="118">
+      <c r="C130" s="152">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
@@ -4882,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B131" s="8"/>
-      <c r="C131" s="21">
+      <c r="C131" s="153">
         <f>SUM(C126:C130)</f>
         <v>11680.992416666668</v>
       </c>
@@ -5142,18 +5207,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="131" t="s">
+      <c r="A155" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="131"/>
-      <c r="C155" s="131"/>
-      <c r="D155" s="131"/>
+      <c r="B155" s="148"/>
+      <c r="C155" s="148"/>
+      <c r="D155" s="148"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="131"/>
-      <c r="B156" s="131"/>
-      <c r="C156" s="131"/>
-      <c r="D156" s="131"/>
+      <c r="A156" s="148"/>
+      <c r="B156" s="148"/>
+      <c r="C156" s="148"/>
+      <c r="D156" s="148"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -7151,131 +7216,131 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="135" t="s">
+      <c r="A229" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B229" s="136"/>
-      <c r="C229" s="136"/>
-      <c r="D229" s="136"/>
+      <c r="B229" s="130"/>
+      <c r="C229" s="130"/>
+      <c r="D229" s="130"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="136"/>
-      <c r="B230" s="136"/>
-      <c r="C230" s="136"/>
-      <c r="D230" s="136"/>
+      <c r="A230" s="130"/>
+      <c r="B230" s="130"/>
+      <c r="C230" s="130"/>
+      <c r="D230" s="130"/>
       <c r="F230" s="7"/>
     </row>
     <row r="231" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="143" t="s">
+      <c r="A231" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B231" s="143" t="s">
+      <c r="B231" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C231" s="143" t="s">
+      <c r="C231" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D231" s="143" t="s">
+      <c r="D231" s="137" t="s">
         <v>34</v>
       </c>
       <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="139" t="s">
+      <c r="A232" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="144">
-        <v>0</v>
-      </c>
-      <c r="C232" s="145">
+      <c r="B232" s="138">
+        <v>0</v>
+      </c>
+      <c r="C232" s="139">
         <v>9000</v>
       </c>
-      <c r="D232" s="139">
+      <c r="D232" s="133">
         <f>C232*B232</f>
         <v>0</v>
       </c>
       <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="139" t="s">
+      <c r="A233" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="B233" s="144">
-        <v>1</v>
-      </c>
-      <c r="C233" s="145">
+      <c r="B233" s="138">
+        <v>1</v>
+      </c>
+      <c r="C233" s="139">
         <v>1000</v>
       </c>
-      <c r="D233" s="139">
+      <c r="D233" s="133">
         <f t="shared" ref="D233:D236" si="33">C233*B233</f>
         <v>1000</v>
       </c>
       <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="139" t="s">
+      <c r="A234" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="B234" s="144">
-        <v>0</v>
-      </c>
-      <c r="C234" s="145">
+      <c r="B234" s="138">
+        <v>0</v>
+      </c>
+      <c r="C234" s="139">
         <v>1200</v>
       </c>
-      <c r="D234" s="139">
+      <c r="D234" s="133">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F234" s="7"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="139" t="s">
+      <c r="A235" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B235" s="144">
+      <c r="B235" s="138">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C235" s="145">
+      <c r="C235" s="139">
         <v>70479</v>
       </c>
-      <c r="D235" s="139">
+      <c r="D235" s="133">
         <f t="shared" si="33"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="139" t="s">
+      <c r="A236" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B236" s="144">
+      <c r="B236" s="138">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C236" s="145">
+      <c r="C236" s="139">
         <v>55000</v>
       </c>
-      <c r="D236" s="139">
+      <c r="D236" s="133">
         <f t="shared" si="33"/>
         <v>275</v>
       </c>
       <c r="F236" s="7"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="136"/>
-      <c r="B237" s="148"/>
-      <c r="C237" s="136"/>
-      <c r="D237" s="136"/>
+      <c r="A237" s="130"/>
+      <c r="B237" s="142"/>
+      <c r="C237" s="130"/>
+      <c r="D237" s="130"/>
       <c r="F237" s="7"/>
     </row>
     <row r="238" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="141" t="s">
+      <c r="A238" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B238" s="151"/>
-      <c r="C238" s="141"/>
-      <c r="D238" s="151">
+      <c r="B238" s="145"/>
+      <c r="C238" s="135"/>
+      <c r="D238" s="145">
         <f>SUM(D232:D237)</f>
         <v>1627.395</v>
       </c>
@@ -7287,304 +7352,304 @@
       <c r="F239" s="7"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="135" t="s">
+      <c r="A240" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B240" s="148"/>
-      <c r="C240" s="136"/>
-      <c r="D240" s="136"/>
+      <c r="B240" s="142"/>
+      <c r="C240" s="130"/>
+      <c r="D240" s="130"/>
       <c r="F240" s="7"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="135"/>
-      <c r="B241" s="148"/>
-      <c r="C241" s="136"/>
-      <c r="D241" s="136"/>
+      <c r="A241" s="129"/>
+      <c r="B241" s="142"/>
+      <c r="C241" s="130"/>
+      <c r="D241" s="130"/>
       <c r="F241" s="7"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="143" t="s">
+      <c r="A242" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B242" s="143" t="s">
+      <c r="B242" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="143" t="s">
+      <c r="C242" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D242" s="143" t="s">
+      <c r="D242" s="137" t="s">
         <v>34</v>
       </c>
       <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="139" t="s">
+      <c r="A243" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="B243" s="144">
-        <v>1</v>
-      </c>
-      <c r="C243" s="145">
+      <c r="B243" s="138">
+        <v>1</v>
+      </c>
+      <c r="C243" s="139">
         <v>400</v>
       </c>
-      <c r="D243" s="145">
+      <c r="D243" s="139">
         <f t="shared" ref="D243:D257" si="34">B243*C243</f>
         <v>400</v>
       </c>
       <c r="F243" s="7"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="139" t="s">
+      <c r="A244" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="144">
-        <v>1</v>
-      </c>
-      <c r="C244" s="145">
+      <c r="B244" s="138">
+        <v>1</v>
+      </c>
+      <c r="C244" s="139">
         <v>400</v>
       </c>
-      <c r="D244" s="145">
+      <c r="D244" s="139">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F244" s="7"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="139" t="s">
+      <c r="A245" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="144">
-        <v>0</v>
-      </c>
-      <c r="C245" s="145">
+      <c r="B245" s="138">
+        <v>0</v>
+      </c>
+      <c r="C245" s="139">
         <v>400</v>
       </c>
-      <c r="D245" s="145">
+      <c r="D245" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F245" s="7"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="139" t="s">
+      <c r="A246" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B246" s="144">
-        <v>0</v>
-      </c>
-      <c r="C246" s="145">
+      <c r="B246" s="138">
+        <v>0</v>
+      </c>
+      <c r="C246" s="139">
         <v>500</v>
       </c>
-      <c r="D246" s="145">
+      <c r="D246" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="139" t="s">
+      <c r="A247" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="B247" s="144">
-        <v>1</v>
-      </c>
-      <c r="C247" s="145">
+      <c r="B247" s="138">
+        <v>1</v>
+      </c>
+      <c r="C247" s="139">
         <v>2000</v>
       </c>
-      <c r="D247" s="145">
+      <c r="D247" s="139">
         <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="F247" s="7"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="139" t="s">
+      <c r="A248" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="B248" s="144">
+      <c r="B248" s="138">
         <v>2</v>
       </c>
-      <c r="C248" s="145">
+      <c r="C248" s="139">
         <v>400</v>
       </c>
-      <c r="D248" s="145">
+      <c r="D248" s="139">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F248" s="7"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="139" t="s">
+      <c r="A249" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="B249" s="144">
-        <v>0</v>
-      </c>
-      <c r="C249" s="145">
+      <c r="B249" s="138">
+        <v>0</v>
+      </c>
+      <c r="C249" s="139">
         <v>2500</v>
       </c>
-      <c r="D249" s="145">
+      <c r="D249" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F249" s="7"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="149" t="s">
+      <c r="A250" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B250" s="144">
-        <v>0</v>
-      </c>
-      <c r="C250" s="145">
+      <c r="B250" s="138">
+        <v>0</v>
+      </c>
+      <c r="C250" s="139">
         <v>2000</v>
       </c>
-      <c r="D250" s="145">
+      <c r="D250" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F250" s="7"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="139" t="s">
+      <c r="A251" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="B251" s="144">
-        <v>1</v>
-      </c>
-      <c r="C251" s="145">
+      <c r="B251" s="138">
+        <v>1</v>
+      </c>
+      <c r="C251" s="139">
         <v>5000</v>
       </c>
-      <c r="D251" s="145">
+      <c r="D251" s="139">
         <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="F251" s="7"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="139" t="s">
+      <c r="A252" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="144">
-        <v>1</v>
-      </c>
-      <c r="C252" s="145">
+      <c r="B252" s="138">
+        <v>1</v>
+      </c>
+      <c r="C252" s="139">
         <v>1000</v>
       </c>
-      <c r="D252" s="145">
+      <c r="D252" s="139">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F252" s="7"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="139" t="s">
+      <c r="A253" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B253" s="144">
+      <c r="B253" s="138">
         <v>0.05</v>
       </c>
-      <c r="C253" s="145">
+      <c r="C253" s="139">
         <v>8000</v>
       </c>
-      <c r="D253" s="145">
+      <c r="D253" s="139">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="139" t="s">
+      <c r="A254" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B254" s="144">
+      <c r="B254" s="138">
         <v>2</v>
       </c>
-      <c r="C254" s="145">
+      <c r="C254" s="139">
         <v>400</v>
       </c>
-      <c r="D254" s="145">
+      <c r="D254" s="139">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F254" s="7"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="139" t="s">
+      <c r="A255" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="B255" s="144">
+      <c r="B255" s="138">
         <v>0.1</v>
       </c>
-      <c r="C255" s="145">
+      <c r="C255" s="139">
         <v>500</v>
       </c>
-      <c r="D255" s="145">
+      <c r="D255" s="139">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="F255" s="7"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="139" t="s">
+      <c r="A256" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B256" s="144">
+      <c r="B256" s="138">
         <v>0.5</v>
       </c>
-      <c r="C256" s="145">
+      <c r="C256" s="139">
         <v>500</v>
       </c>
-      <c r="D256" s="145">
+      <c r="D256" s="139">
         <f t="shared" si="34"/>
         <v>250</v>
       </c>
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="139" t="s">
+      <c r="A257" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B257" s="144">
+      <c r="B257" s="138">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C257" s="145">
+      <c r="C257" s="139">
         <v>1500</v>
       </c>
-      <c r="D257" s="145">
+      <c r="D257" s="139">
         <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="F257" s="7"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A258" s="136"/>
-      <c r="B258" s="136"/>
-      <c r="C258" s="136"/>
-      <c r="D258" s="150"/>
+      <c r="A258" s="130"/>
+      <c r="B258" s="130"/>
+      <c r="C258" s="130"/>
+      <c r="D258" s="144"/>
       <c r="F258" s="7"/>
     </row>
     <row r="259" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="141" t="s">
+      <c r="A259" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B259" s="151"/>
-      <c r="C259" s="141"/>
-      <c r="D259" s="151">
+      <c r="B259" s="145"/>
+      <c r="C259" s="135"/>
+      <c r="D259" s="145">
         <f>SUM(D243:D258)</f>
         <v>11125</v>
       </c>
       <c r="F259" s="7"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A260" s="136"/>
-      <c r="B260" s="150"/>
-      <c r="C260" s="140">
+      <c r="A260" s="130"/>
+      <c r="B260" s="144"/>
+      <c r="C260" s="134">
         <f>+$B$102*B270</f>
         <v>304000</v>
       </c>
-      <c r="D260" s="150"/>
+      <c r="D260" s="144"/>
       <c r="F260" s="7"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
@@ -8085,42 +8150,42 @@
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A286" s="135" t="s">
+      <c r="A286" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B286" s="136"/>
-      <c r="C286" s="136"/>
+      <c r="B286" s="130"/>
+      <c r="C286" s="130"/>
       <c r="F286" s="47"/>
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A287" s="137"/>
-      <c r="B287" s="137"/>
-      <c r="C287" s="136"/>
+      <c r="A287" s="131"/>
+      <c r="B287" s="131"/>
+      <c r="C287" s="130"/>
       <c r="F287" s="47"/>
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A288" s="138" t="s">
+      <c r="A288" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="B288" s="138" t="s">
+      <c r="B288" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="C288" s="138" t="s">
+      <c r="C288" s="132" t="s">
         <v>87</v>
       </c>
       <c r="F288" s="47"/>
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="139" t="s">
+      <c r="A289" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="B289" s="140">
+      <c r="B289" s="134">
         <v>2388262</v>
       </c>
-      <c r="C289" s="140">
+      <c r="C289" s="134">
         <f>B289/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -8128,13 +8193,13 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="139" t="s">
+      <c r="A290" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="140">
+      <c r="B290" s="134">
         <v>6775276.5</v>
       </c>
-      <c r="C290" s="140">
+      <c r="C290" s="134">
         <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -8142,26 +8207,26 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="139" t="s">
+      <c r="A291" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="B291" s="140">
+      <c r="B291" s="134">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C291" s="140">
+      <c r="C291" s="134">
         <f t="shared" si="37"/>
         <v>3986.6369999999997</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="139" t="s">
+      <c r="A292" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="B292" s="140">
+      <c r="B292" s="134">
         <v>6688000</v>
       </c>
-      <c r="C292" s="140">
+      <c r="C292" s="134">
         <f t="shared" si="37"/>
         <v>5573.333333333333</v>
       </c>
@@ -8170,143 +8235,143 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="139" t="s">
+      <c r="A293" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="B293" s="140">
+      <c r="B293" s="134">
         <v>63000</v>
       </c>
-      <c r="C293" s="140">
+      <c r="C293" s="134">
         <f t="shared" si="37"/>
         <v>52.5</v>
       </c>
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="141" t="s">
+      <c r="A294" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B294" s="141"/>
-      <c r="C294" s="142">
+      <c r="B294" s="135"/>
+      <c r="C294" s="136">
         <f>SUM(C289:C293)</f>
         <v>17248.752416666666</v>
       </c>
       <c r="G294" s="15"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A296" s="135" t="s">
+      <c r="A296" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="B296" s="136"/>
-      <c r="C296" s="136"/>
-      <c r="D296" s="136"/>
+      <c r="B296" s="130"/>
+      <c r="C296" s="130"/>
+      <c r="D296" s="130"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A297" s="136"/>
-      <c r="B297" s="136"/>
-      <c r="C297" s="136"/>
-      <c r="D297" s="136"/>
+      <c r="A297" s="130"/>
+      <c r="B297" s="130"/>
+      <c r="C297" s="130"/>
+      <c r="D297" s="130"/>
       <c r="H297" s="37"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A298" s="136"/>
-      <c r="B298" s="143" t="s">
+      <c r="A298" s="130"/>
+      <c r="B298" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C298" s="143" t="s">
+      <c r="C298" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D298" s="143" t="s">
+      <c r="D298" s="137" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A299" s="139" t="s">
+      <c r="A299" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="B299" s="144">
-        <v>1</v>
-      </c>
-      <c r="C299" s="145">
+      <c r="B299" s="138">
+        <v>1</v>
+      </c>
+      <c r="C299" s="139">
         <v>10000000</v>
       </c>
-      <c r="D299" s="145">
+      <c r="D299" s="139">
         <f t="shared" ref="D299:D309" si="38">B299*C299</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" s="139" t="s">
+      <c r="A300" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="B300" s="144">
+      <c r="B300" s="138">
         <v>12</v>
       </c>
-      <c r="C300" s="145">
+      <c r="C300" s="139">
         <v>4000000</v>
       </c>
-      <c r="D300" s="145">
+      <c r="D300" s="139">
         <f t="shared" si="38"/>
         <v>48000000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301" s="139" t="s">
+      <c r="A301" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="B301" s="144">
+      <c r="B301" s="138">
         <v>6</v>
       </c>
-      <c r="C301" s="145">
+      <c r="C301" s="139">
         <v>1000000</v>
       </c>
-      <c r="D301" s="145">
+      <c r="D301" s="139">
         <f t="shared" si="38"/>
         <v>6000000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A302" s="139" t="s">
+      <c r="A302" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="B302" s="144">
-        <v>1</v>
-      </c>
-      <c r="C302" s="145">
+      <c r="B302" s="138">
+        <v>1</v>
+      </c>
+      <c r="C302" s="139">
         <v>1000000</v>
       </c>
-      <c r="D302" s="145">
+      <c r="D302" s="139">
         <f t="shared" si="38"/>
         <v>1000000</v>
       </c>
       <c r="I302" s="37"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A303" s="139" t="s">
+      <c r="A303" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="B303" s="144">
+      <c r="B303" s="138">
         <v>6</v>
       </c>
-      <c r="C303" s="145">
+      <c r="C303" s="139">
         <v>2000000</v>
       </c>
-      <c r="D303" s="145">
+      <c r="D303" s="139">
         <f t="shared" si="38"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="139" t="s">
+      <c r="A304" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="B304" s="144">
+      <c r="B304" s="138">
         <v>3</v>
       </c>
-      <c r="C304" s="145">
+      <c r="C304" s="139">
         <v>2500000</v>
       </c>
-      <c r="D304" s="145">
+      <c r="D304" s="139">
         <f t="shared" si="38"/>
         <v>7500000</v>
       </c>
@@ -8314,116 +8379,116 @@
       <c r="G304" s="27"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="139" t="s">
+      <c r="A305" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="B305" s="144">
+      <c r="B305" s="138">
         <v>10</v>
       </c>
-      <c r="C305" s="145">
+      <c r="C305" s="139">
         <v>400000</v>
       </c>
-      <c r="D305" s="145">
+      <c r="D305" s="139">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="G305" s="29"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="139" t="s">
+      <c r="A306" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="B306" s="144">
-        <v>1</v>
-      </c>
-      <c r="C306" s="145">
+      <c r="B306" s="138">
+        <v>1</v>
+      </c>
+      <c r="C306" s="139">
         <v>5000000</v>
       </c>
-      <c r="D306" s="145">
+      <c r="D306" s="139">
         <f t="shared" si="38"/>
         <v>5000000</v>
       </c>
       <c r="H306" s="30"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="139" t="s">
+      <c r="A307" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B307" s="144">
+      <c r="B307" s="138">
         <v>2</v>
       </c>
-      <c r="C307" s="145">
+      <c r="C307" s="139">
         <v>2000000</v>
       </c>
-      <c r="D307" s="145">
+      <c r="D307" s="139">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="H307" s="29"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A308" s="139" t="s">
+      <c r="A308" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="144">
+      <c r="B308" s="138">
         <v>5</v>
       </c>
-      <c r="C308" s="145">
+      <c r="C308" s="139">
         <v>400000</v>
       </c>
-      <c r="D308" s="145">
+      <c r="D308" s="139">
         <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
       <c r="H308" s="29"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A309" s="139" t="s">
+      <c r="A309" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="B309" s="144">
-        <v>1</v>
-      </c>
-      <c r="C309" s="145">
+      <c r="B309" s="138">
+        <v>1</v>
+      </c>
+      <c r="C309" s="139">
         <v>10000000</v>
       </c>
-      <c r="D309" s="145">
+      <c r="D309" s="139">
         <f t="shared" si="38"/>
         <v>10000000</v>
       </c>
       <c r="H309" s="29"/>
     </row>
     <row r="310" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="141" t="s">
+      <c r="A310" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B310" s="141"/>
-      <c r="C310" s="141"/>
-      <c r="D310" s="146">
+      <c r="B310" s="135"/>
+      <c r="C310" s="135"/>
+      <c r="D310" s="140">
         <f>SUM(D299:D309)</f>
         <v>109500000</v>
       </c>
       <c r="H310" s="29"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A311" s="136" t="s">
+      <c r="A311" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B311" s="136"/>
-      <c r="C311" s="136"/>
-      <c r="D311" s="147">
+      <c r="B311" s="130"/>
+      <c r="C311" s="130"/>
+      <c r="D311" s="141">
         <f>D310/12</f>
         <v>9125000</v>
       </c>
       <c r="H311" s="29"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A312" s="136" t="s">
+      <c r="A312" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="B312" s="136"/>
-      <c r="C312" s="136"/>
-      <c r="D312" s="147">
+      <c r="B312" s="130"/>
+      <c r="C312" s="130"/>
+      <c r="D312" s="141">
         <f>D311/B3</f>
         <v>2281250</v>
       </c>
@@ -8431,12 +8496,12 @@
       <c r="I312" s="30"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A313" s="136" t="s">
+      <c r="A313" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B313" s="136"/>
-      <c r="C313" s="136"/>
-      <c r="D313" s="147">
+      <c r="B313" s="130"/>
+      <c r="C313" s="130"/>
+      <c r="D313" s="141">
         <f>D312/D161</f>
         <v>7604.166666666667</v>
       </c>
@@ -8536,6 +8601,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11564,12 +11630,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="129" t="s">
+      <c r="D126" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="130"/>
-      <c r="F126" s="130"/>
-      <c r="G126" s="130"/>
+      <c r="E126" s="147"/>
+      <c r="F126" s="147"/>
+      <c r="G126" s="147"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
@@ -11884,18 +11950,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="131" t="s">
+      <c r="A155" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="131"/>
-      <c r="C155" s="131"/>
-      <c r="D155" s="131"/>
+      <c r="B155" s="148"/>
+      <c r="C155" s="148"/>
+      <c r="D155" s="148"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="131"/>
-      <c r="B156" s="131"/>
-      <c r="C156" s="131"/>
-      <c r="D156" s="131"/>
+      <c r="A156" s="148"/>
+      <c r="B156" s="148"/>
+      <c r="C156" s="148"/>
+      <c r="D156" s="148"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13893,131 +13959,131 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="135" t="s">
+      <c r="A229" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B229" s="136"/>
-      <c r="C229" s="136"/>
-      <c r="D229" s="136"/>
+      <c r="B229" s="130"/>
+      <c r="C229" s="130"/>
+      <c r="D229" s="130"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="136"/>
-      <c r="B230" s="136"/>
-      <c r="C230" s="136"/>
-      <c r="D230" s="136"/>
+      <c r="A230" s="130"/>
+      <c r="B230" s="130"/>
+      <c r="C230" s="130"/>
+      <c r="D230" s="130"/>
       <c r="F230" s="7"/>
     </row>
     <row r="231" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="143" t="s">
+      <c r="A231" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B231" s="143" t="s">
+      <c r="B231" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C231" s="143" t="s">
+      <c r="C231" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D231" s="143" t="s">
+      <c r="D231" s="137" t="s">
         <v>34</v>
       </c>
       <c r="F231" s="7"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="139" t="s">
+      <c r="A232" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="144">
-        <v>0</v>
-      </c>
-      <c r="C232" s="145">
+      <c r="B232" s="138">
+        <v>0</v>
+      </c>
+      <c r="C232" s="139">
         <v>9000</v>
       </c>
-      <c r="D232" s="139">
+      <c r="D232" s="133">
         <f>C232*B232</f>
         <v>0</v>
       </c>
       <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="139" t="s">
+      <c r="A233" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="B233" s="144">
-        <v>1</v>
-      </c>
-      <c r="C233" s="145">
+      <c r="B233" s="138">
+        <v>1</v>
+      </c>
+      <c r="C233" s="139">
         <v>1000</v>
       </c>
-      <c r="D233" s="139">
+      <c r="D233" s="133">
         <f t="shared" ref="D233:D236" si="33">C233*B233</f>
         <v>1000</v>
       </c>
       <c r="F233" s="7"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="139" t="s">
+      <c r="A234" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="B234" s="144">
-        <v>0</v>
-      </c>
-      <c r="C234" s="145">
+      <c r="B234" s="138">
+        <v>0</v>
+      </c>
+      <c r="C234" s="139">
         <v>1200</v>
       </c>
-      <c r="D234" s="139">
+      <c r="D234" s="133">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F234" s="7"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="139" t="s">
+      <c r="A235" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B235" s="144">
+      <c r="B235" s="138">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C235" s="145">
+      <c r="C235" s="139">
         <v>70479</v>
       </c>
-      <c r="D235" s="139">
+      <c r="D235" s="133">
         <f t="shared" si="33"/>
         <v>352.39499999999998</v>
       </c>
       <c r="F235" s="7"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="139" t="s">
+      <c r="A236" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B236" s="144">
+      <c r="B236" s="138">
         <f>1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C236" s="145">
+      <c r="C236" s="139">
         <v>55000</v>
       </c>
-      <c r="D236" s="139">
+      <c r="D236" s="133">
         <f t="shared" si="33"/>
         <v>275</v>
       </c>
       <c r="F236" s="7"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="136"/>
-      <c r="B237" s="148"/>
-      <c r="C237" s="136"/>
-      <c r="D237" s="136"/>
+      <c r="A237" s="130"/>
+      <c r="B237" s="142"/>
+      <c r="C237" s="130"/>
+      <c r="D237" s="130"/>
       <c r="F237" s="7"/>
     </row>
     <row r="238" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="141" t="s">
+      <c r="A238" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B238" s="151"/>
-      <c r="C238" s="141"/>
-      <c r="D238" s="151">
+      <c r="B238" s="145"/>
+      <c r="C238" s="135"/>
+      <c r="D238" s="145">
         <f>SUM(D232:D237)</f>
         <v>1627.395</v>
       </c>
@@ -14029,304 +14095,304 @@
       <c r="F239" s="7"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="135" t="s">
+      <c r="A240" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B240" s="148"/>
-      <c r="C240" s="136"/>
-      <c r="D240" s="136"/>
+      <c r="B240" s="142"/>
+      <c r="C240" s="130"/>
+      <c r="D240" s="130"/>
       <c r="F240" s="7"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="135"/>
-      <c r="B241" s="148"/>
-      <c r="C241" s="136"/>
-      <c r="D241" s="136"/>
+      <c r="A241" s="129"/>
+      <c r="B241" s="142"/>
+      <c r="C241" s="130"/>
+      <c r="D241" s="130"/>
       <c r="F241" s="7"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="143" t="s">
+      <c r="A242" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B242" s="143" t="s">
+      <c r="B242" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="143" t="s">
+      <c r="C242" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D242" s="143" t="s">
+      <c r="D242" s="137" t="s">
         <v>34</v>
       </c>
       <c r="F242" s="7"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="139" t="s">
+      <c r="A243" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="B243" s="144">
-        <v>1</v>
-      </c>
-      <c r="C243" s="145">
+      <c r="B243" s="138">
+        <v>1</v>
+      </c>
+      <c r="C243" s="139">
         <v>400</v>
       </c>
-      <c r="D243" s="145">
+      <c r="D243" s="139">
         <f t="shared" ref="D243:D257" si="34">B243*C243</f>
         <v>400</v>
       </c>
       <c r="F243" s="7"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="139" t="s">
+      <c r="A244" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B244" s="144">
-        <v>1</v>
-      </c>
-      <c r="C244" s="145">
+      <c r="B244" s="138">
+        <v>1</v>
+      </c>
+      <c r="C244" s="139">
         <v>400</v>
       </c>
-      <c r="D244" s="145">
+      <c r="D244" s="139">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F244" s="7"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="139" t="s">
+      <c r="A245" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B245" s="144">
-        <v>0</v>
-      </c>
-      <c r="C245" s="145">
+      <c r="B245" s="138">
+        <v>0</v>
+      </c>
+      <c r="C245" s="139">
         <v>400</v>
       </c>
-      <c r="D245" s="145">
+      <c r="D245" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F245" s="7"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="139" t="s">
+      <c r="A246" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B246" s="144">
-        <v>0</v>
-      </c>
-      <c r="C246" s="145">
+      <c r="B246" s="138">
+        <v>0</v>
+      </c>
+      <c r="C246" s="139">
         <v>500</v>
       </c>
-      <c r="D246" s="145">
+      <c r="D246" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="139" t="s">
+      <c r="A247" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="B247" s="144">
-        <v>1</v>
-      </c>
-      <c r="C247" s="145">
+      <c r="B247" s="138">
+        <v>1</v>
+      </c>
+      <c r="C247" s="139">
         <v>2000</v>
       </c>
-      <c r="D247" s="145">
+      <c r="D247" s="139">
         <f t="shared" si="34"/>
         <v>2000</v>
       </c>
       <c r="F247" s="7"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="139" t="s">
+      <c r="A248" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="B248" s="144">
+      <c r="B248" s="138">
         <v>2</v>
       </c>
-      <c r="C248" s="145">
+      <c r="C248" s="139">
         <v>400</v>
       </c>
-      <c r="D248" s="145">
+      <c r="D248" s="139">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F248" s="7"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="139" t="s">
+      <c r="A249" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="B249" s="144">
-        <v>0</v>
-      </c>
-      <c r="C249" s="145">
+      <c r="B249" s="138">
+        <v>0</v>
+      </c>
+      <c r="C249" s="139">
         <v>2500</v>
       </c>
-      <c r="D249" s="145">
+      <c r="D249" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F249" s="7"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="149" t="s">
+      <c r="A250" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="B250" s="144">
-        <v>0</v>
-      </c>
-      <c r="C250" s="145">
+      <c r="B250" s="138">
+        <v>0</v>
+      </c>
+      <c r="C250" s="139">
         <v>2000</v>
       </c>
-      <c r="D250" s="145">
+      <c r="D250" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F250" s="7"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="139" t="s">
+      <c r="A251" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="B251" s="144">
-        <v>1</v>
-      </c>
-      <c r="C251" s="145">
+      <c r="B251" s="138">
+        <v>1</v>
+      </c>
+      <c r="C251" s="139">
         <v>5000</v>
       </c>
-      <c r="D251" s="145">
+      <c r="D251" s="139">
         <f t="shared" si="34"/>
         <v>5000</v>
       </c>
       <c r="F251" s="7"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="139" t="s">
+      <c r="A252" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="144">
-        <v>1</v>
-      </c>
-      <c r="C252" s="145">
+      <c r="B252" s="138">
+        <v>1</v>
+      </c>
+      <c r="C252" s="139">
         <v>1000</v>
       </c>
-      <c r="D252" s="145">
+      <c r="D252" s="139">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="F252" s="7"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="139" t="s">
+      <c r="A253" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B253" s="144">
+      <c r="B253" s="138">
         <v>0.05</v>
       </c>
-      <c r="C253" s="145">
+      <c r="C253" s="139">
         <v>8000</v>
       </c>
-      <c r="D253" s="145">
+      <c r="D253" s="139">
         <f t="shared" si="34"/>
         <v>400</v>
       </c>
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="139" t="s">
+      <c r="A254" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B254" s="144">
+      <c r="B254" s="138">
         <v>2</v>
       </c>
-      <c r="C254" s="145">
+      <c r="C254" s="139">
         <v>400</v>
       </c>
-      <c r="D254" s="145">
+      <c r="D254" s="139">
         <f t="shared" si="34"/>
         <v>800</v>
       </c>
       <c r="F254" s="7"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="139" t="s">
+      <c r="A255" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="B255" s="144">
+      <c r="B255" s="138">
         <v>0.1</v>
       </c>
-      <c r="C255" s="145">
+      <c r="C255" s="139">
         <v>500</v>
       </c>
-      <c r="D255" s="145">
+      <c r="D255" s="139">
         <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="F255" s="7"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="139" t="s">
+      <c r="A256" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B256" s="144">
+      <c r="B256" s="138">
         <v>0.5</v>
       </c>
-      <c r="C256" s="145">
+      <c r="C256" s="139">
         <v>500</v>
       </c>
-      <c r="D256" s="145">
+      <c r="D256" s="139">
         <f t="shared" si="34"/>
         <v>250</v>
       </c>
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A257" s="139" t="s">
+      <c r="A257" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B257" s="144">
+      <c r="B257" s="138">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C257" s="145">
+      <c r="C257" s="139">
         <v>1500</v>
       </c>
-      <c r="D257" s="145">
+      <c r="D257" s="139">
         <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="F257" s="7"/>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A258" s="136"/>
-      <c r="B258" s="136"/>
-      <c r="C258" s="136"/>
-      <c r="D258" s="150"/>
+      <c r="A258" s="130"/>
+      <c r="B258" s="130"/>
+      <c r="C258" s="130"/>
+      <c r="D258" s="144"/>
       <c r="F258" s="7"/>
     </row>
     <row r="259" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="141" t="s">
+      <c r="A259" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B259" s="151"/>
-      <c r="C259" s="141"/>
-      <c r="D259" s="151">
+      <c r="B259" s="145"/>
+      <c r="C259" s="135"/>
+      <c r="D259" s="145">
         <f>SUM(D243:D258)</f>
         <v>11125</v>
       </c>
       <c r="F259" s="7"/>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A260" s="136"/>
-      <c r="B260" s="150"/>
-      <c r="C260" s="140">
+      <c r="A260" s="130"/>
+      <c r="B260" s="144"/>
+      <c r="C260" s="134">
         <f>+$B$102*B270</f>
         <v>304000</v>
       </c>
-      <c r="D260" s="150"/>
+      <c r="D260" s="144"/>
       <c r="F260" s="7"/>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
@@ -14827,42 +14893,42 @@
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A286" s="135" t="s">
+      <c r="A286" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B286" s="136"/>
-      <c r="C286" s="136"/>
+      <c r="B286" s="130"/>
+      <c r="C286" s="130"/>
       <c r="F286" s="47"/>
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A287" s="137"/>
-      <c r="B287" s="137"/>
-      <c r="C287" s="136"/>
+      <c r="A287" s="131"/>
+      <c r="B287" s="131"/>
+      <c r="C287" s="130"/>
       <c r="F287" s="47"/>
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A288" s="138" t="s">
+      <c r="A288" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="B288" s="138" t="s">
+      <c r="B288" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="C288" s="138" t="s">
+      <c r="C288" s="132" t="s">
         <v>87</v>
       </c>
       <c r="F288" s="47"/>
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="139" t="s">
+      <c r="A289" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="B289" s="140">
+      <c r="B289" s="134">
         <v>2388262</v>
       </c>
-      <c r="C289" s="140">
+      <c r="C289" s="134">
         <f>B289/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
@@ -14870,13 +14936,13 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A290" s="139" t="s">
+      <c r="A290" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="B290" s="140">
+      <c r="B290" s="134">
         <v>6775276.5</v>
       </c>
-      <c r="C290" s="140">
+      <c r="C290" s="134">
         <f t="shared" ref="C290:C293" si="37">B290/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -14884,26 +14950,26 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A291" s="139" t="s">
+      <c r="A291" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="B291" s="140">
+      <c r="B291" s="134">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C291" s="140">
+      <c r="C291" s="134">
         <f t="shared" si="37"/>
         <v>3986.6369999999997</v>
       </c>
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A292" s="139" t="s">
+      <c r="A292" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="B292" s="140">
+      <c r="B292" s="134">
         <v>6688000</v>
       </c>
-      <c r="C292" s="140">
+      <c r="C292" s="134">
         <f t="shared" si="37"/>
         <v>5573.333333333333</v>
       </c>
@@ -14912,143 +14978,143 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A293" s="139" t="s">
+      <c r="A293" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="B293" s="140">
+      <c r="B293" s="134">
         <v>63000</v>
       </c>
-      <c r="C293" s="140">
+      <c r="C293" s="134">
         <f t="shared" si="37"/>
         <v>52.5</v>
       </c>
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="141" t="s">
+      <c r="A294" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B294" s="141"/>
-      <c r="C294" s="142">
+      <c r="B294" s="135"/>
+      <c r="C294" s="136">
         <f>SUM(C289:C293)</f>
         <v>17248.752416666666</v>
       </c>
       <c r="G294" s="15"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A296" s="135" t="s">
+      <c r="A296" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="B296" s="136"/>
-      <c r="C296" s="136"/>
-      <c r="D296" s="136"/>
+      <c r="B296" s="130"/>
+      <c r="C296" s="130"/>
+      <c r="D296" s="130"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A297" s="136"/>
-      <c r="B297" s="136"/>
-      <c r="C297" s="136"/>
-      <c r="D297" s="136"/>
+      <c r="A297" s="130"/>
+      <c r="B297" s="130"/>
+      <c r="C297" s="130"/>
+      <c r="D297" s="130"/>
       <c r="H297" s="37"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A298" s="136"/>
-      <c r="B298" s="143" t="s">
+      <c r="A298" s="130"/>
+      <c r="B298" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C298" s="143" t="s">
+      <c r="C298" s="137" t="s">
         <v>33</v>
       </c>
-      <c r="D298" s="143" t="s">
+      <c r="D298" s="137" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A299" s="139" t="s">
+      <c r="A299" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="B299" s="144">
-        <v>1</v>
-      </c>
-      <c r="C299" s="145">
+      <c r="B299" s="138">
+        <v>1</v>
+      </c>
+      <c r="C299" s="139">
         <v>10000000</v>
       </c>
-      <c r="D299" s="145">
+      <c r="D299" s="139">
         <f t="shared" ref="D299:D309" si="38">B299*C299</f>
         <v>10000000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A300" s="139" t="s">
+      <c r="A300" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="B300" s="144">
+      <c r="B300" s="138">
         <v>12</v>
       </c>
-      <c r="C300" s="145">
+      <c r="C300" s="139">
         <v>4000000</v>
       </c>
-      <c r="D300" s="145">
+      <c r="D300" s="139">
         <f t="shared" si="38"/>
         <v>48000000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A301" s="139" t="s">
+      <c r="A301" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="B301" s="144">
+      <c r="B301" s="138">
         <v>6</v>
       </c>
-      <c r="C301" s="145">
+      <c r="C301" s="139">
         <v>1000000</v>
       </c>
-      <c r="D301" s="145">
+      <c r="D301" s="139">
         <f t="shared" si="38"/>
         <v>6000000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A302" s="139" t="s">
+      <c r="A302" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="B302" s="144">
-        <v>1</v>
-      </c>
-      <c r="C302" s="145">
+      <c r="B302" s="138">
+        <v>1</v>
+      </c>
+      <c r="C302" s="139">
         <v>1000000</v>
       </c>
-      <c r="D302" s="145">
+      <c r="D302" s="139">
         <f t="shared" si="38"/>
         <v>1000000</v>
       </c>
       <c r="I302" s="37"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A303" s="139" t="s">
+      <c r="A303" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="B303" s="144">
+      <c r="B303" s="138">
         <v>6</v>
       </c>
-      <c r="C303" s="145">
+      <c r="C303" s="139">
         <v>2000000</v>
       </c>
-      <c r="D303" s="145">
+      <c r="D303" s="139">
         <f t="shared" si="38"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="139" t="s">
+      <c r="A304" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="B304" s="144">
+      <c r="B304" s="138">
         <v>3</v>
       </c>
-      <c r="C304" s="145">
+      <c r="C304" s="139">
         <v>2500000</v>
       </c>
-      <c r="D304" s="145">
+      <c r="D304" s="139">
         <f t="shared" si="38"/>
         <v>7500000</v>
       </c>
@@ -15056,116 +15122,116 @@
       <c r="G304" s="27"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A305" s="139" t="s">
+      <c r="A305" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="B305" s="144">
+      <c r="B305" s="138">
         <v>10</v>
       </c>
-      <c r="C305" s="145">
+      <c r="C305" s="139">
         <v>400000</v>
       </c>
-      <c r="D305" s="145">
+      <c r="D305" s="139">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="G305" s="29"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="139" t="s">
+      <c r="A306" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="B306" s="144">
-        <v>1</v>
-      </c>
-      <c r="C306" s="145">
+      <c r="B306" s="138">
+        <v>1</v>
+      </c>
+      <c r="C306" s="139">
         <v>5000000</v>
       </c>
-      <c r="D306" s="145">
+      <c r="D306" s="139">
         <f t="shared" si="38"/>
         <v>5000000</v>
       </c>
       <c r="H306" s="30"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="139" t="s">
+      <c r="A307" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="B307" s="144">
+      <c r="B307" s="138">
         <v>2</v>
       </c>
-      <c r="C307" s="145">
+      <c r="C307" s="139">
         <v>2000000</v>
       </c>
-      <c r="D307" s="145">
+      <c r="D307" s="139">
         <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="H307" s="29"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A308" s="139" t="s">
+      <c r="A308" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="144">
+      <c r="B308" s="138">
         <v>5</v>
       </c>
-      <c r="C308" s="145">
+      <c r="C308" s="139">
         <v>400000</v>
       </c>
-      <c r="D308" s="145">
+      <c r="D308" s="139">
         <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
       <c r="H308" s="29"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A309" s="139" t="s">
+      <c r="A309" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="B309" s="144">
-        <v>1</v>
-      </c>
-      <c r="C309" s="145">
+      <c r="B309" s="138">
+        <v>1</v>
+      </c>
+      <c r="C309" s="139">
         <v>10000000</v>
       </c>
-      <c r="D309" s="145">
+      <c r="D309" s="139">
         <f t="shared" si="38"/>
         <v>10000000</v>
       </c>
       <c r="H309" s="29"/>
     </row>
     <row r="310" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="141" t="s">
+      <c r="A310" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B310" s="141"/>
-      <c r="C310" s="141"/>
-      <c r="D310" s="146">
+      <c r="B310" s="135"/>
+      <c r="C310" s="135"/>
+      <c r="D310" s="140">
         <f>SUM(D299:D309)</f>
         <v>109500000</v>
       </c>
       <c r="H310" s="29"/>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A311" s="136" t="s">
+      <c r="A311" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="B311" s="136"/>
-      <c r="C311" s="136"/>
-      <c r="D311" s="147">
+      <c r="B311" s="130"/>
+      <c r="C311" s="130"/>
+      <c r="D311" s="141">
         <f>D310/12</f>
         <v>9125000</v>
       </c>
       <c r="H311" s="29"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A312" s="136" t="s">
+      <c r="A312" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="B312" s="136"/>
-      <c r="C312" s="136"/>
-      <c r="D312" s="147">
+      <c r="B312" s="130"/>
+      <c r="C312" s="130"/>
+      <c r="D312" s="141">
         <f>D311/B3</f>
         <v>2281250</v>
       </c>
@@ -15173,12 +15239,12 @@
       <c r="I312" s="30"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A313" s="136" t="s">
+      <c r="A313" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="B313" s="136"/>
-      <c r="C313" s="136"/>
-      <c r="D313" s="147">
+      <c r="B313" s="130"/>
+      <c r="C313" s="130"/>
+      <c r="D313" s="141">
         <f>D312/D161</f>
         <v>7604.166666666667</v>
       </c>
@@ -16239,23 +16305,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="D4" s="132" t="s">
+      <c r="B4" s="150"/>
+      <c r="D4" s="149" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="133"/>
+      <c r="E4" s="150"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
@@ -16781,15 +16847,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b819869a-5527-41f8-bf27-4fbef748067a">
@@ -16798,6 +16855,15 @@
     <TaxCatchAll xmlns="ec36c1b3-45c0-40c9-96d4-e57661e8d407" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17008,20 +17074,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b819869a-5527-41f8-bf27-4fbef748067a"/>
     <ds:schemaRef ds:uri="ec36c1b3-45c0-40c9-96d4-e57661e8d407"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.varela/Development/github_personal/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326513AC-9E0F-7F41-B86A-605312E1EB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DE803-CF05-2540-A5AE-78878CF645EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="APEX" sheetId="5" r:id="rId6"/>
     <sheet name="NUTRIFLEX" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -817,7 +816,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
@@ -828,6 +827,7 @@
     <numFmt numFmtId="171" formatCode="_-[$COP]\ * #,##0.0_-;\-[$COP]\ * #,##0.0_-;_-[$COP]\ * &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0.00\ [$COP]_-;\-* #,##0.00\ [$COP]_-;_-* &quot;-&quot;??\ [$COP]_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1044,7 +1044,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1135,6 +1135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1346,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1521,6 +1527,9 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1539,11 +1548,55 @@
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="22" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="21" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="22" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="23" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="23" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="175" fontId="9" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1863,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F3DEE-FEFC-AE44-A2DE-BE929C614C50}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1874,7 +1927,7 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="49.83203125" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
     <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
@@ -1922,119 +1975,119 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="7" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="165" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="154">
+      <c r="B8" s="167">
         <f>X53*T29</f>
         <v>184607</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="165" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="154">
+      <c r="B9" s="169">
         <f>O52*K29</f>
         <v>86200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="154">
+      <c r="B10" s="169">
         <f>G51*C29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="155">
+    <row r="11" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="167">
         <f>D63</f>
         <v>13400</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="155">
+      <c r="B12" s="167">
         <f>D74</f>
         <v>1627.395</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="61"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="166"/>
+    </row>
+    <row r="13" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="155">
+      <c r="B13" s="167">
         <f>D152</f>
         <v>7723.958333333333</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="G13" s="61">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="166">
+        <v>34</v>
+      </c>
+      <c r="H13" s="168"/>
+    </row>
+    <row r="14" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="155">
+      <c r="B14" s="167">
         <f>C131</f>
         <v>11680.992416666668</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="166">
         <v>33</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="H14" s="168"/>
+    </row>
+    <row r="15" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="155">
+      <c r="B15" s="167">
         <f>D95</f>
         <v>32425</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="166">
         <v>33</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="168"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="154"/>
+      <c r="B16" s="148"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="155">
+      <c r="B17" s="162">
         <f>0.36</f>
         <v>0.36</v>
       </c>
@@ -2046,7 +2099,7 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="155">
+      <c r="B18" s="162">
         <f>+B17*B100*C119</f>
         <v>9070.434782608696</v>
       </c>
@@ -2061,15 +2114,15 @@
       <c r="A19" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="155">
+      <c r="B19" s="162">
         <v>0.36</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="171">
         <f>B4*(G13/100)*X53</f>
-        <v>609203.10000000009</v>
+        <v>627663.80000000005</v>
       </c>
       <c r="G19" s="71" t="s">
         <v>189</v>
@@ -2080,11 +2133,11 @@
       <c r="A20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="155">
+      <c r="B20" s="162">
         <f>+B19*G119</f>
         <v>3772.9565217391305</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="171">
         <f>B4*(G14/100)*O52</f>
         <v>284460</v>
       </c>
@@ -2094,8 +2147,8 @@
       <c r="H20" s="71"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="154"/>
-      <c r="F21" s="73">
+      <c r="B21" s="148"/>
+      <c r="F21" s="171">
         <f>B4*G15/100*G51</f>
         <v>353100</v>
       </c>
@@ -2104,11 +2157,11 @@
       </c>
       <c r="H21" s="71"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="156">
+      <c r="B22" s="170">
         <f>+B18+B20+B11+B12+B15+B13+B14+B8</f>
         <v>264307.73705434782</v>
       </c>
@@ -2116,9 +2169,9 @@
         <v>197</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="F22" s="74">
+      <c r="F22" s="172">
         <f>SUM(F19:F21)</f>
-        <v>1246763.1000000001</v>
+        <v>1265223.8</v>
       </c>
       <c r="G22" s="72" t="s">
         <v>194</v>
@@ -2244,26 +2297,26 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="157">
         <v>100</v>
       </c>
-      <c r="C31" s="83">
+      <c r="C31" s="158">
         <v>50</v>
       </c>
-      <c r="D31" s="83">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D31" s="158">
+        <v>1</v>
+      </c>
+      <c r="E31" s="159">
         <f>C31*F31/B31</f>
         <v>20000</v>
       </c>
-      <c r="F31" s="85">
+      <c r="F31" s="159">
         <v>40000</v>
       </c>
-      <c r="G31" s="52">
+      <c r="G31" s="180">
         <f>E31</f>
         <v>20000</v>
       </c>
@@ -2287,7 +2340,7 @@
       <c r="N31" s="85">
         <v>40000</v>
       </c>
-      <c r="O31" s="52"/>
+      <c r="O31" s="173"/>
       <c r="R31" s="3" t="s">
         <v>163</v>
       </c>
@@ -2313,26 +2366,26 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="157">
         <v>250</v>
       </c>
-      <c r="C32" s="83">
-        <v>0</v>
-      </c>
-      <c r="D32" s="83">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="C32" s="158">
+        <v>0</v>
+      </c>
+      <c r="D32" s="158">
+        <v>0</v>
+      </c>
+      <c r="E32" s="159">
         <f t="shared" ref="E32:E34" si="1">C32*F32/B32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="85">
+      <c r="F32" s="159">
         <v>50000</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G32" s="173">
         <f t="shared" ref="G32:G46" si="2">D32*F32</f>
         <v>0</v>
       </c>
@@ -2356,7 +2409,7 @@
       <c r="N32" s="85">
         <v>50000</v>
       </c>
-      <c r="O32" s="52">
+      <c r="O32" s="173">
         <f t="shared" ref="O32:O51" si="3">L32*N32</f>
         <v>0</v>
       </c>
@@ -2385,26 +2438,26 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="157">
         <v>500</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="158">
         <v>100</v>
       </c>
-      <c r="D33" s="83">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D33" s="158">
+        <v>0</v>
+      </c>
+      <c r="E33" s="159">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="F33" s="85">
+      <c r="F33" s="159">
         <v>100000</v>
       </c>
-      <c r="G33" s="52">
+      <c r="G33" s="173">
         <f>D33*F33</f>
         <v>0</v>
       </c>
@@ -2428,7 +2481,7 @@
       <c r="N33" s="85">
         <v>100000</v>
       </c>
-      <c r="O33" s="52">
+      <c r="O33" s="173">
         <f>M33</f>
         <v>0</v>
       </c>
@@ -2457,26 +2510,26 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="157">
         <v>1000</v>
       </c>
-      <c r="C34" s="83">
-        <v>0</v>
-      </c>
-      <c r="D34" s="83">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="C34" s="158">
+        <v>0</v>
+      </c>
+      <c r="D34" s="158">
+        <v>0</v>
+      </c>
+      <c r="E34" s="159">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="85">
+      <c r="F34" s="159">
         <v>20546.599999999999</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G34" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2500,7 +2553,7 @@
       <c r="N34" s="85">
         <v>20546.599999999999</v>
       </c>
-      <c r="O34" s="52">
+      <c r="O34" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2529,26 +2582,26 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="179" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="157">
         <v>10</v>
       </c>
-      <c r="C35" s="83">
-        <v>0</v>
-      </c>
-      <c r="D35" s="83">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="C35" s="158">
+        <v>0</v>
+      </c>
+      <c r="D35" s="158">
+        <v>1</v>
+      </c>
+      <c r="E35" s="159">
         <f>C35*F35/B35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="85">
+      <c r="F35" s="159">
         <v>1500</v>
       </c>
-      <c r="G35" s="52">
+      <c r="G35" s="180">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -2572,7 +2625,7 @@
       <c r="N35" s="85">
         <v>1500</v>
       </c>
-      <c r="O35" s="52">
+      <c r="O35" s="173">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -2601,26 +2654,26 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="157">
         <v>10</v>
       </c>
-      <c r="C36" s="83">
-        <v>0</v>
-      </c>
-      <c r="D36" s="83">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="C36" s="158">
+        <v>0</v>
+      </c>
+      <c r="D36" s="158">
+        <v>1</v>
+      </c>
+      <c r="E36" s="159">
         <f>C36*F36/B36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="85">
+      <c r="F36" s="159">
         <v>5700</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G36" s="180">
         <f t="shared" si="2"/>
         <v>5700</v>
       </c>
@@ -2644,7 +2697,7 @@
       <c r="N36" s="85">
         <v>5700</v>
       </c>
-      <c r="O36" s="52">
+      <c r="O36" s="173">
         <f t="shared" si="3"/>
         <v>5700</v>
       </c>
@@ -2673,26 +2726,26 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="179" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="157">
         <v>10</v>
       </c>
-      <c r="C37" s="83">
-        <v>0</v>
-      </c>
-      <c r="D37" s="83">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="C37" s="158">
+        <v>0</v>
+      </c>
+      <c r="D37" s="158">
+        <v>1</v>
+      </c>
+      <c r="E37" s="159">
         <f>C37*F37/B37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="85">
+      <c r="F37" s="159">
         <v>1500</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="180">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -2716,7 +2769,7 @@
       <c r="N37" s="85">
         <v>1500</v>
       </c>
-      <c r="O37" s="52">
+      <c r="O37" s="173">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -2745,26 +2798,26 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="157">
         <v>10</v>
       </c>
-      <c r="C38" s="83">
-        <v>0</v>
-      </c>
-      <c r="D38" s="83">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="C38" s="158">
+        <v>0</v>
+      </c>
+      <c r="D38" s="158">
+        <v>1</v>
+      </c>
+      <c r="E38" s="159">
         <f>C38*F38/B38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="85">
+      <c r="F38" s="159">
         <v>1500</v>
       </c>
-      <c r="G38" s="52">
+      <c r="G38" s="180">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -2788,7 +2841,7 @@
       <c r="N38" s="85">
         <v>1500</v>
       </c>
-      <c r="O38" s="52">
+      <c r="O38" s="173">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -2815,26 +2868,26 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="157">
         <v>10</v>
       </c>
-      <c r="C39" s="83">
-        <v>0</v>
-      </c>
-      <c r="D39" s="83">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
+      <c r="C39" s="158">
+        <v>0</v>
+      </c>
+      <c r="D39" s="158">
+        <v>0</v>
+      </c>
+      <c r="E39" s="159">
         <f>C39*F39/B39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="85">
+      <c r="F39" s="159">
         <v>1800</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="180">
         <v>1800</v>
       </c>
       <c r="H39" s="44"/>
@@ -2857,7 +2910,7 @@
       <c r="N39" s="85">
         <v>1800</v>
       </c>
-      <c r="O39" s="52">
+      <c r="O39" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2905,7 +2958,7 @@
       <c r="F40" s="85">
         <v>80000</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="159">
         <f>E40</f>
         <v>0</v>
       </c>
@@ -2927,7 +2980,7 @@
       <c r="N40" s="85">
         <v>80000</v>
       </c>
-      <c r="O40" s="52">
+      <c r="O40" s="173">
         <f>M40</f>
         <v>0</v>
       </c>
@@ -2975,7 +3028,7 @@
       <c r="F41" s="85">
         <v>10814</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G41" s="173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2997,7 +3050,7 @@
       <c r="N41" s="85">
         <v>10814</v>
       </c>
-      <c r="O41" s="52">
+      <c r="O41" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3024,26 +3077,26 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="83">
-        <v>0</v>
-      </c>
-      <c r="D42" s="83">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
+      <c r="B42" s="157">
+        <v>1</v>
+      </c>
+      <c r="C42" s="158">
+        <v>0</v>
+      </c>
+      <c r="D42" s="158">
+        <v>0</v>
+      </c>
+      <c r="E42" s="159">
         <f>C42*F42/B42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="85">
+      <c r="F42" s="159">
         <v>13000</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="181">
         <v>13000</v>
       </c>
       <c r="H42" s="44"/>
@@ -3066,7 +3119,7 @@
       <c r="N42" s="85">
         <v>13000</v>
       </c>
-      <c r="O42" s="52">
+      <c r="O42" s="173">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
@@ -3093,24 +3146,24 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="83">
-        <v>0</v>
-      </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="6">
+      <c r="B43" s="157">
+        <v>1</v>
+      </c>
+      <c r="C43" s="158">
+        <v>0</v>
+      </c>
+      <c r="D43" s="158"/>
+      <c r="E43" s="159">
         <f t="shared" ref="E43:E49" si="7">C43*F43/B43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="85">
+      <c r="F43" s="159">
         <v>23000</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="181">
         <v>23000</v>
       </c>
       <c r="H43" s="44"/>
@@ -3133,7 +3186,7 @@
       <c r="N43" s="85">
         <v>13000</v>
       </c>
-      <c r="O43" s="52"/>
+      <c r="O43" s="173"/>
       <c r="R43" s="3" t="s">
         <v>162</v>
       </c>
@@ -3195,7 +3248,7 @@
       <c r="N44" s="85">
         <v>23000</v>
       </c>
-      <c r="O44" s="52">
+      <c r="O44" s="173">
         <v>23000</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -3257,7 +3310,7 @@
       <c r="N45" s="85">
         <v>25000</v>
       </c>
-      <c r="O45" s="52">
+      <c r="O45" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3320,7 +3373,7 @@
       <c r="N46" s="85">
         <v>2000</v>
       </c>
-      <c r="O46" s="52">
+      <c r="O46" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3361,7 +3414,7 @@
       <c r="F47" s="85">
         <v>15000</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="159">
         <v>15000</v>
       </c>
       <c r="H47" s="44"/>
@@ -3382,7 +3435,7 @@
       <c r="N47" s="85">
         <v>3000</v>
       </c>
-      <c r="O47" s="52">
+      <c r="O47" s="173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3423,7 +3476,7 @@
       <c r="F48" s="85">
         <v>4000</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="159">
         <v>4000</v>
       </c>
       <c r="H48" s="44"/>
@@ -3506,7 +3559,7 @@
       <c r="N49" s="85">
         <v>21000</v>
       </c>
-      <c r="O49" s="52">
+      <c r="O49" s="173">
         <f>N49</f>
         <v>21000</v>
       </c>
@@ -3571,7 +3624,7 @@
       <c r="N50" s="85">
         <v>20000</v>
       </c>
-      <c r="O50" s="52"/>
+      <c r="O50" s="173"/>
       <c r="R50" s="22" t="s">
         <v>178</v>
       </c>
@@ -3611,23 +3664,23 @@
       <c r="I51" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="174">
         <v>500</v>
       </c>
-      <c r="K51" s="83">
-        <v>0</v>
-      </c>
-      <c r="L51" s="83">
-        <v>1</v>
-      </c>
-      <c r="M51" s="6">
+      <c r="K51" s="175">
+        <v>0</v>
+      </c>
+      <c r="L51" s="175">
+        <v>1</v>
+      </c>
+      <c r="M51" s="176">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N51" s="85">
+      <c r="N51" s="177">
         <v>4000</v>
       </c>
-      <c r="O51" s="52">
+      <c r="O51" s="173">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
@@ -3672,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="84"/>
-      <c r="O52" s="53">
+      <c r="O52" s="178">
         <f>SUM(O31:O51)</f>
         <v>86200</v>
       </c>
@@ -4880,28 +4933,28 @@
       <c r="A126" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B126" s="152">
+      <c r="B126" s="146">
         <v>2388262</v>
       </c>
-      <c r="C126" s="152">
+      <c r="C126" s="146">
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="146" t="s">
+      <c r="D126" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="147"/>
-      <c r="F126" s="147"/>
-      <c r="G126" s="147"/>
+      <c r="E126" s="150"/>
+      <c r="F126" s="150"/>
+      <c r="G126" s="150"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="152">
+      <c r="B127" s="146">
         <v>6775276.5</v>
       </c>
-      <c r="C127" s="152">
+      <c r="C127" s="146">
         <f t="shared" ref="C127:C130" si="13">B127/$E$4/B$3</f>
         <v>5646.0637500000003</v>
       </c>
@@ -4910,10 +4963,10 @@
       <c r="A128" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="152">
+      <c r="B128" s="146">
         <v>4783964.3999999994</v>
       </c>
-      <c r="C128" s="152">
+      <c r="C128" s="146">
         <f t="shared" si="13"/>
         <v>3986.6369999999997</v>
       </c>
@@ -4922,10 +4975,10 @@
       <c r="A129" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="B129" s="152">
+      <c r="B129" s="146">
         <v>6688</v>
       </c>
-      <c r="C129" s="152">
+      <c r="C129" s="146">
         <f t="shared" si="13"/>
         <v>5.5733333333333333</v>
       </c>
@@ -4934,10 +4987,10 @@
       <c r="A130" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="B130" s="152">
+      <c r="B130" s="146">
         <v>63000</v>
       </c>
-      <c r="C130" s="152">
+      <c r="C130" s="146">
         <f t="shared" si="13"/>
         <v>52.5</v>
       </c>
@@ -4947,7 +5000,7 @@
         <v>31</v>
       </c>
       <c r="B131" s="8"/>
-      <c r="C131" s="153">
+      <c r="C131" s="147">
         <f>SUM(C126:C130)</f>
         <v>11680.992416666668</v>
       </c>
@@ -4979,29 +5032,30 @@
       <c r="I136" s="30"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
+      <c r="A137" s="155"/>
+      <c r="B137" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="87" t="s">
+      <c r="C137" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="156" t="s">
         <v>34</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="123" t="s">
+      <c r="A138" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="116">
-        <v>1</v>
-      </c>
-      <c r="C138" s="117">
+      <c r="B138" s="158">
+        <v>1</v>
+      </c>
+      <c r="C138" s="159">
         <v>10000000</v>
       </c>
-      <c r="D138" s="117">
+      <c r="D138" s="159">
         <f>B138*C138</f>
         <v>10000000</v>
       </c>
@@ -5009,16 +5063,16 @@
       <c r="I138" s="35"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="115" t="s">
+      <c r="A139" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="116">
+      <c r="B139" s="158">
         <v>12</v>
       </c>
-      <c r="C139" s="117">
+      <c r="C139" s="159">
         <v>4000000</v>
       </c>
-      <c r="D139" s="117">
+      <c r="D139" s="159">
         <f t="shared" ref="D139:D148" si="14">B139*C139</f>
         <v>48000000</v>
       </c>
@@ -5026,16 +5080,16 @@
       <c r="I139" s="36"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="115" t="s">
+      <c r="A140" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="116">
+      <c r="B140" s="158">
         <v>6</v>
       </c>
-      <c r="C140" s="117">
+      <c r="C140" s="159">
         <v>1000000</v>
       </c>
-      <c r="D140" s="117">
+      <c r="D140" s="159">
         <f t="shared" si="14"/>
         <v>6000000</v>
       </c>
@@ -5043,159 +5097,165 @@
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="123" t="s">
+      <c r="A141" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="116">
-        <v>1</v>
-      </c>
-      <c r="C141" s="117">
+      <c r="B141" s="158">
+        <v>1</v>
+      </c>
+      <c r="C141" s="159">
         <v>1000000</v>
       </c>
-      <c r="D141" s="117">
+      <c r="D141" s="159">
         <f t="shared" si="14"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="123" t="s">
+      <c r="A142" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="116">
+      <c r="B142" s="158">
         <v>6</v>
       </c>
-      <c r="C142" s="117">
+      <c r="C142" s="159">
         <v>2000000</v>
       </c>
-      <c r="D142" s="117">
+      <c r="D142" s="159">
         <f t="shared" si="14"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="123" t="s">
+      <c r="A143" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="116">
+      <c r="B143" s="158">
         <v>3</v>
       </c>
-      <c r="C143" s="117">
+      <c r="C143" s="159">
         <v>2500000</v>
       </c>
-      <c r="D143" s="117">
+      <c r="D143" s="159">
         <f t="shared" si="14"/>
         <v>7500000</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="123" t="s">
+      <c r="A144" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="116">
+      <c r="B144" s="158">
         <v>10</v>
       </c>
-      <c r="C144" s="117">
+      <c r="C144" s="159">
         <v>400000</v>
       </c>
-      <c r="D144" s="117">
+      <c r="D144" s="159">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="123" t="s">
+      <c r="A145" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="116">
+      <c r="B145" s="158">
         <v>3</v>
       </c>
-      <c r="C145" s="117">
+      <c r="C145" s="159">
         <v>5000000</v>
       </c>
-      <c r="D145" s="117">
+      <c r="D145" s="159">
         <f t="shared" si="14"/>
         <v>15000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="123" t="s">
+      <c r="A146" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="116">
+      <c r="B146" s="158">
         <v>2</v>
       </c>
-      <c r="C146" s="117">
+      <c r="C146" s="159">
         <v>2000000</v>
       </c>
-      <c r="D146" s="117">
+      <c r="D146" s="159">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="123" t="s">
+      <c r="A147" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="116">
+      <c r="B147" s="158">
         <v>5</v>
       </c>
-      <c r="C147" s="117">
+      <c r="C147" s="159">
         <v>400000</v>
       </c>
-      <c r="D147" s="117">
+      <c r="D147" s="159">
         <f t="shared" si="14"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="123" t="s">
+      <c r="A148" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="B148" s="116">
+      <c r="B148" s="158">
         <v>3</v>
       </c>
-      <c r="C148" s="117">
+      <c r="C148" s="159">
         <v>575000</v>
       </c>
-      <c r="D148" s="117">
+      <c r="D148" s="159">
         <f t="shared" si="14"/>
         <v>1725000</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="126" t="s">
+      <c r="A149" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="90">
+      <c r="B149" s="160"/>
+      <c r="C149" s="160"/>
+      <c r="D149" s="161">
         <f>SUM(D138:D148)</f>
         <v>111225000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="D150" s="34">
+      <c r="B150" s="155"/>
+      <c r="C150" s="155"/>
+      <c r="D150" s="162">
         <f>D149/12</f>
         <v>9268750</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="D151" s="34">
+      <c r="B151" s="155"/>
+      <c r="C151" s="155"/>
+      <c r="D151" s="162">
         <f>D150/B135</f>
         <v>2317187.5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="D152" s="34">
+      <c r="B152" s="155"/>
+      <c r="C152" s="155"/>
+      <c r="D152" s="162">
         <f>D151/E4</f>
         <v>7723.958333333333</v>
       </c>
@@ -5207,18 +5267,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="148"/>
-      <c r="C155" s="148"/>
-      <c r="D155" s="148"/>
+      <c r="B155" s="151"/>
+      <c r="C155" s="151"/>
+      <c r="D155" s="151"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="148"/>
-      <c r="B156" s="148"/>
-      <c r="C156" s="148"/>
-      <c r="D156" s="148"/>
+      <c r="A156" s="151"/>
+      <c r="B156" s="151"/>
+      <c r="C156" s="151"/>
+      <c r="D156" s="151"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11630,12 +11690,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="146" t="s">
+      <c r="D126" s="149" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="147"/>
-      <c r="F126" s="147"/>
-      <c r="G126" s="147"/>
+      <c r="E126" s="150"/>
+      <c r="F126" s="150"/>
+      <c r="G126" s="150"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
@@ -11950,18 +12010,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="148" t="s">
+      <c r="A155" s="151" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="148"/>
-      <c r="C155" s="148"/>
-      <c r="D155" s="148"/>
+      <c r="B155" s="151"/>
+      <c r="C155" s="151"/>
+      <c r="D155" s="151"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="148"/>
-      <c r="B156" s="148"/>
-      <c r="C156" s="148"/>
-      <c r="D156" s="148"/>
+      <c r="A156" s="151"/>
+      <c r="B156" s="151"/>
+      <c r="C156" s="151"/>
+      <c r="D156" s="151"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -16305,23 +16365,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="D4" s="149" t="s">
+      <c r="B4" s="153"/>
+      <c r="D4" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="150"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
@@ -16858,15 +16918,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -17073,6 +17124,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
   <ds:schemaRefs>
@@ -17085,14 +17145,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17109,4 +17161,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/ORIGINAL.xlsx
+++ b/docs/ORIGINAL.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.varela/Development/github_personal/nutreconelalma_v2.2/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvarela/Development/github/nutreconelalma_v2.2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127DE803-CF05-2540-A5AE-78878CF645EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E19BAE-663A-6545-8ED0-B126767B8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metodo 1 (2)" sheetId="7" r:id="rId1"/>
-    <sheet name="Metodo 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Metodo 2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja Resumen" sheetId="4" r:id="rId5"/>
-    <sheet name="APEX" sheetId="5" r:id="rId6"/>
-    <sheet name="NUTRIFLEX" sheetId="6" r:id="rId7"/>
+    <sheet name="ANALISIS" sheetId="8" r:id="rId2"/>
+    <sheet name="Metodo 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Metodo 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja Resumen" sheetId="4" r:id="rId6"/>
+    <sheet name="APEX" sheetId="5" r:id="rId7"/>
+    <sheet name="NUTRIFLEX" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ANALISIS!$A$1:$L$131</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +38,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="242">
   <si>
     <t>Variables de Costo</t>
   </si>
@@ -811,12 +817,60 @@
   <si>
     <t>LA CONFIGURACIO DE LOS PORCENTAJES ESTA SOBRE CUALQUIER CENTRAL, PORQUE LA IDEA ES COMPARAR LA MANUAL CONTRA CUALQUIER AUTOMATIZADA</t>
   </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>POBLACION</t>
+  </si>
+  <si>
+    <t>ADULTO</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>AUTOMATIC</t>
+  </si>
+  <si>
+    <t>PEDIATRICO</t>
+  </si>
+  <si>
+    <t>NEONATAL</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>REVISAR</t>
+  </si>
+  <si>
+    <t>HAY FORMULA?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>ES LA MISMA FORMULA ?</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>SOLAMENTE EN CENTRAL MANUAL</t>
+  </si>
+  <si>
+    <t>NOTAS</t>
+  </si>
+  <si>
+    <t>SOLAMENTE EN CENTRAL AUTOMATICA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
@@ -827,9 +881,10 @@
     <numFmt numFmtId="171" formatCode="_-[$COP]\ * #,##0.0_-;\-[$COP]\ * #,##0.0_-;_-[$COP]\ * &quot;-&quot;?_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0.00\ [$COP]_-;\-* #,##0.00\ [$COP]_-;_-* &quot;-&quot;??\ [$COP]_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,8 +1098,47 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1235,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1476,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1530,24 +1660,6 @@
     <xf numFmtId="173" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1596,7 +1708,298 @@
     <xf numFmtId="168" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="175" fontId="9" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="9" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="29" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="32" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="33" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
@@ -1916,17 +2319,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275F3DEE-FEFC-AE44-A2DE-BE929C614C50}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A182" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="28.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
@@ -1975,110 +2378,110 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="163" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="165" t="s">
+    <row r="7" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="159" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="167">
+      <c r="B8" s="161">
         <f>X53*T29</f>
         <v>184607</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="165" t="s">
+    <row r="9" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="159" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="169">
+      <c r="B9" s="163">
         <f>O52*K29</f>
         <v>86200</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+    <row r="10" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="169">
+      <c r="B10" s="163">
         <f>G51*C29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="167">
+    <row r="11" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="161">
         <f>D63</f>
         <v>13400</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="165" t="s">
+    <row r="12" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="167">
+      <c r="B12" s="161">
         <f>D74</f>
         <v>1627.395</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="166"/>
-    </row>
-    <row r="13" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="165" t="s">
+      <c r="G12" s="160"/>
+    </row>
+    <row r="13" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="159" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="167">
+      <c r="B13" s="161">
         <f>D152</f>
         <v>7723.958333333333</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="166" t="s">
+      <c r="F13" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="G13" s="166">
+      <c r="G13" s="160">
         <v>34</v>
       </c>
-      <c r="H13" s="168"/>
-    </row>
-    <row r="14" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="165" t="s">
+      <c r="H13" s="162"/>
+    </row>
+    <row r="14" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="167">
+      <c r="B14" s="161">
         <f>C131</f>
         <v>11680.992416666668</v>
       </c>
-      <c r="F14" s="166" t="s">
+      <c r="F14" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="166">
+      <c r="G14" s="160">
         <v>33</v>
       </c>
-      <c r="H14" s="168"/>
-    </row>
-    <row r="15" spans="1:8" s="164" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="165" t="s">
+      <c r="H14" s="162"/>
+    </row>
+    <row r="15" spans="1:8" s="158" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="167">
+      <c r="B15" s="161">
         <f>D95</f>
         <v>32425</v>
       </c>
-      <c r="F15" s="166" t="s">
+      <c r="F15" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="166">
+      <c r="G15" s="160">
         <v>33</v>
       </c>
-      <c r="H15" s="168"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="148"/>
@@ -2087,7 +2490,7 @@
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="156">
         <f>0.36</f>
         <v>0.36</v>
       </c>
@@ -2099,7 +2502,7 @@
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="156">
         <f>+B17*B100*C119</f>
         <v>9070.434782608696</v>
       </c>
@@ -2114,13 +2517,13 @@
       <c r="A19" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="156">
         <v>0.36</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="171">
+      <c r="F19" s="165">
         <f>B4*(G13/100)*X53</f>
         <v>627663.80000000005</v>
       </c>
@@ -2133,11 +2536,11 @@
       <c r="A20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="156">
         <f>+B19*G119</f>
         <v>3772.9565217391305</v>
       </c>
-      <c r="F20" s="171">
+      <c r="F20" s="165">
         <f>B4*(G14/100)*O52</f>
         <v>284460</v>
       </c>
@@ -2148,7 +2551,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B21" s="148"/>
-      <c r="F21" s="171">
+      <c r="F21" s="165">
         <f>B4*G15/100*G51</f>
         <v>353100</v>
       </c>
@@ -2161,7 +2564,7 @@
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="170">
+      <c r="B22" s="164">
         <f>+B18+B20+B11+B12+B15+B13+B14+B8</f>
         <v>264307.73705434782</v>
       </c>
@@ -2169,7 +2572,7 @@
         <v>197</v>
       </c>
       <c r="D22" s="17"/>
-      <c r="F22" s="172">
+      <c r="F22" s="166">
         <f>SUM(F19:F21)</f>
         <v>1265223.8</v>
       </c>
@@ -2297,26 +2700,26 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="157">
+      <c r="B31" s="151">
         <v>100</v>
       </c>
-      <c r="C31" s="158">
+      <c r="C31" s="152">
         <v>50</v>
       </c>
-      <c r="D31" s="158">
-        <v>1</v>
-      </c>
-      <c r="E31" s="159">
+      <c r="D31" s="152">
+        <v>1</v>
+      </c>
+      <c r="E31" s="153">
         <f>C31*F31/B31</f>
         <v>20000</v>
       </c>
-      <c r="F31" s="159">
+      <c r="F31" s="153">
         <v>40000</v>
       </c>
-      <c r="G31" s="180">
+      <c r="G31" s="174">
         <f>E31</f>
         <v>20000</v>
       </c>
@@ -2340,7 +2743,7 @@
       <c r="N31" s="85">
         <v>40000</v>
       </c>
-      <c r="O31" s="173"/>
+      <c r="O31" s="167"/>
       <c r="R31" s="3" t="s">
         <v>163</v>
       </c>
@@ -2366,26 +2769,26 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="157">
+      <c r="B32" s="151">
         <v>250</v>
       </c>
-      <c r="C32" s="158">
-        <v>0</v>
-      </c>
-      <c r="D32" s="158">
-        <v>0</v>
-      </c>
-      <c r="E32" s="159">
+      <c r="C32" s="152">
+        <v>0</v>
+      </c>
+      <c r="D32" s="152">
+        <v>0</v>
+      </c>
+      <c r="E32" s="153">
         <f t="shared" ref="E32:E34" si="1">C32*F32/B32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="159">
+      <c r="F32" s="153">
         <v>50000</v>
       </c>
-      <c r="G32" s="173">
+      <c r="G32" s="167">
         <f t="shared" ref="G32:G46" si="2">D32*F32</f>
         <v>0</v>
       </c>
@@ -2409,7 +2812,7 @@
       <c r="N32" s="85">
         <v>50000</v>
       </c>
-      <c r="O32" s="173">
+      <c r="O32" s="167">
         <f t="shared" ref="O32:O51" si="3">L32*N32</f>
         <v>0</v>
       </c>
@@ -2438,26 +2841,26 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="157">
+      <c r="B33" s="151">
         <v>500</v>
       </c>
-      <c r="C33" s="158">
+      <c r="C33" s="152">
         <v>100</v>
       </c>
-      <c r="D33" s="158">
-        <v>0</v>
-      </c>
-      <c r="E33" s="159">
+      <c r="D33" s="152">
+        <v>0</v>
+      </c>
+      <c r="E33" s="153">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="F33" s="159">
+      <c r="F33" s="153">
         <v>100000</v>
       </c>
-      <c r="G33" s="173">
+      <c r="G33" s="167">
         <f>D33*F33</f>
         <v>0</v>
       </c>
@@ -2481,7 +2884,7 @@
       <c r="N33" s="85">
         <v>100000</v>
       </c>
-      <c r="O33" s="173">
+      <c r="O33" s="167">
         <f>M33</f>
         <v>0</v>
       </c>
@@ -2510,26 +2913,26 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="157">
+      <c r="B34" s="151">
         <v>1000</v>
       </c>
-      <c r="C34" s="158">
-        <v>0</v>
-      </c>
-      <c r="D34" s="158">
-        <v>0</v>
-      </c>
-      <c r="E34" s="159">
+      <c r="C34" s="152">
+        <v>0</v>
+      </c>
+      <c r="D34" s="152">
+        <v>0</v>
+      </c>
+      <c r="E34" s="153">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="159">
+      <c r="F34" s="153">
         <v>20546.599999999999</v>
       </c>
-      <c r="G34" s="173">
+      <c r="G34" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2553,7 +2956,7 @@
       <c r="N34" s="85">
         <v>20546.599999999999</v>
       </c>
-      <c r="O34" s="173">
+      <c r="O34" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2582,26 +2985,26 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="179" t="s">
+      <c r="A35" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="157">
+      <c r="B35" s="151">
         <v>10</v>
       </c>
-      <c r="C35" s="158">
-        <v>0</v>
-      </c>
-      <c r="D35" s="158">
-        <v>1</v>
-      </c>
-      <c r="E35" s="159">
+      <c r="C35" s="152">
+        <v>0</v>
+      </c>
+      <c r="D35" s="152">
+        <v>1</v>
+      </c>
+      <c r="E35" s="153">
         <f>C35*F35/B35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="159">
+      <c r="F35" s="153">
         <v>1500</v>
       </c>
-      <c r="G35" s="180">
+      <c r="G35" s="174">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -2625,7 +3028,7 @@
       <c r="N35" s="85">
         <v>1500</v>
       </c>
-      <c r="O35" s="173">
+      <c r="O35" s="167">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -2654,26 +3057,26 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="157">
+      <c r="B36" s="151">
         <v>10</v>
       </c>
-      <c r="C36" s="158">
-        <v>0</v>
-      </c>
-      <c r="D36" s="158">
-        <v>1</v>
-      </c>
-      <c r="E36" s="159">
+      <c r="C36" s="152">
+        <v>0</v>
+      </c>
+      <c r="D36" s="152">
+        <v>1</v>
+      </c>
+      <c r="E36" s="153">
         <f>C36*F36/B36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="159">
+      <c r="F36" s="153">
         <v>5700</v>
       </c>
-      <c r="G36" s="180">
+      <c r="G36" s="174">
         <f t="shared" si="2"/>
         <v>5700</v>
       </c>
@@ -2697,7 +3100,7 @@
       <c r="N36" s="85">
         <v>5700</v>
       </c>
-      <c r="O36" s="173">
+      <c r="O36" s="167">
         <f t="shared" si="3"/>
         <v>5700</v>
       </c>
@@ -2726,26 +3129,26 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="157">
+      <c r="B37" s="151">
         <v>10</v>
       </c>
-      <c r="C37" s="158">
-        <v>0</v>
-      </c>
-      <c r="D37" s="158">
-        <v>1</v>
-      </c>
-      <c r="E37" s="159">
+      <c r="C37" s="152">
+        <v>0</v>
+      </c>
+      <c r="D37" s="152">
+        <v>1</v>
+      </c>
+      <c r="E37" s="153">
         <f>C37*F37/B37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="159">
+      <c r="F37" s="153">
         <v>1500</v>
       </c>
-      <c r="G37" s="180">
+      <c r="G37" s="174">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -2769,7 +3172,7 @@
       <c r="N37" s="85">
         <v>1500</v>
       </c>
-      <c r="O37" s="173">
+      <c r="O37" s="167">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -2798,26 +3201,26 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="157">
+      <c r="B38" s="151">
         <v>10</v>
       </c>
-      <c r="C38" s="158">
-        <v>0</v>
-      </c>
-      <c r="D38" s="158">
-        <v>1</v>
-      </c>
-      <c r="E38" s="159">
+      <c r="C38" s="152">
+        <v>0</v>
+      </c>
+      <c r="D38" s="152">
+        <v>1</v>
+      </c>
+      <c r="E38" s="153">
         <f>C38*F38/B38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="159">
+      <c r="F38" s="153">
         <v>1500</v>
       </c>
-      <c r="G38" s="180">
+      <c r="G38" s="174">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -2841,7 +3244,7 @@
       <c r="N38" s="85">
         <v>1500</v>
       </c>
-      <c r="O38" s="173">
+      <c r="O38" s="167">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
@@ -2868,26 +3271,26 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="157">
+      <c r="B39" s="151">
         <v>10</v>
       </c>
-      <c r="C39" s="158">
-        <v>0</v>
-      </c>
-      <c r="D39" s="158">
-        <v>0</v>
-      </c>
-      <c r="E39" s="159">
+      <c r="C39" s="152">
+        <v>0</v>
+      </c>
+      <c r="D39" s="152">
+        <v>0</v>
+      </c>
+      <c r="E39" s="153">
         <f>C39*F39/B39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="159">
+      <c r="F39" s="153">
         <v>1800</v>
       </c>
-      <c r="G39" s="180">
+      <c r="G39" s="174">
         <v>1800</v>
       </c>
       <c r="H39" s="44"/>
@@ -2910,7 +3313,7 @@
       <c r="N39" s="85">
         <v>1800</v>
       </c>
-      <c r="O39" s="173">
+      <c r="O39" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2958,7 +3361,7 @@
       <c r="F40" s="85">
         <v>80000</v>
       </c>
-      <c r="G40" s="159">
+      <c r="G40" s="153">
         <f>E40</f>
         <v>0</v>
       </c>
@@ -2980,7 +3383,7 @@
       <c r="N40" s="85">
         <v>80000</v>
       </c>
-      <c r="O40" s="173">
+      <c r="O40" s="167">
         <f>M40</f>
         <v>0</v>
       </c>
@@ -3028,7 +3431,7 @@
       <c r="F41" s="85">
         <v>10814</v>
       </c>
-      <c r="G41" s="173">
+      <c r="G41" s="167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3050,7 +3453,7 @@
       <c r="N41" s="85">
         <v>10814</v>
       </c>
-      <c r="O41" s="173">
+      <c r="O41" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3077,26 +3480,26 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="157">
-        <v>1</v>
-      </c>
-      <c r="C42" s="158">
-        <v>0</v>
-      </c>
-      <c r="D42" s="158">
-        <v>0</v>
-      </c>
-      <c r="E42" s="159">
+      <c r="B42" s="151">
+        <v>1</v>
+      </c>
+      <c r="C42" s="152">
+        <v>0</v>
+      </c>
+      <c r="D42" s="152">
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
         <f>C42*F42/B42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="159">
+      <c r="F42" s="153">
         <v>13000</v>
       </c>
-      <c r="G42" s="181">
+      <c r="G42" s="175">
         <v>13000</v>
       </c>
       <c r="H42" s="44"/>
@@ -3119,7 +3522,7 @@
       <c r="N42" s="85">
         <v>13000</v>
       </c>
-      <c r="O42" s="173">
+      <c r="O42" s="167">
         <f t="shared" si="3"/>
         <v>13000</v>
       </c>
@@ -3146,24 +3549,24 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A43" s="157" t="s">
+      <c r="A43" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="157">
-        <v>1</v>
-      </c>
-      <c r="C43" s="158">
-        <v>0</v>
-      </c>
-      <c r="D43" s="158"/>
-      <c r="E43" s="159">
+      <c r="B43" s="151">
+        <v>1</v>
+      </c>
+      <c r="C43" s="152">
+        <v>0</v>
+      </c>
+      <c r="D43" s="152"/>
+      <c r="E43" s="153">
         <f t="shared" ref="E43:E49" si="7">C43*F43/B43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="159">
+      <c r="F43" s="153">
         <v>23000</v>
       </c>
-      <c r="G43" s="181">
+      <c r="G43" s="175">
         <v>23000</v>
       </c>
       <c r="H43" s="44"/>
@@ -3186,7 +3589,7 @@
       <c r="N43" s="85">
         <v>13000</v>
       </c>
-      <c r="O43" s="173"/>
+      <c r="O43" s="167"/>
       <c r="R43" s="3" t="s">
         <v>162</v>
       </c>
@@ -3248,7 +3651,7 @@
       <c r="N44" s="85">
         <v>23000</v>
       </c>
-      <c r="O44" s="173">
+      <c r="O44" s="167">
         <v>23000</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -3310,7 +3713,7 @@
       <c r="N45" s="85">
         <v>25000</v>
       </c>
-      <c r="O45" s="173">
+      <c r="O45" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3373,7 +3776,7 @@
       <c r="N46" s="85">
         <v>2000</v>
       </c>
-      <c r="O46" s="173">
+      <c r="O46" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3414,7 +3817,7 @@
       <c r="F47" s="85">
         <v>15000</v>
       </c>
-      <c r="G47" s="159">
+      <c r="G47" s="153">
         <v>15000</v>
       </c>
       <c r="H47" s="44"/>
@@ -3435,7 +3838,7 @@
       <c r="N47" s="85">
         <v>3000</v>
       </c>
-      <c r="O47" s="173">
+      <c r="O47" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3476,7 +3879,7 @@
       <c r="F48" s="85">
         <v>4000</v>
       </c>
-      <c r="G48" s="159">
+      <c r="G48" s="153">
         <v>4000</v>
       </c>
       <c r="H48" s="44"/>
@@ -3559,7 +3962,7 @@
       <c r="N49" s="85">
         <v>21000</v>
       </c>
-      <c r="O49" s="173">
+      <c r="O49" s="167">
         <f>N49</f>
         <v>21000</v>
       </c>
@@ -3624,7 +4027,7 @@
       <c r="N50" s="85">
         <v>20000</v>
       </c>
-      <c r="O50" s="173"/>
+      <c r="O50" s="167"/>
       <c r="R50" s="22" t="s">
         <v>178</v>
       </c>
@@ -3664,23 +4067,23 @@
       <c r="I51" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="J51" s="174">
+      <c r="J51" s="168">
         <v>500</v>
       </c>
-      <c r="K51" s="175">
-        <v>0</v>
-      </c>
-      <c r="L51" s="175">
-        <v>1</v>
-      </c>
-      <c r="M51" s="176">
+      <c r="K51" s="169">
+        <v>0</v>
+      </c>
+      <c r="L51" s="169">
+        <v>1</v>
+      </c>
+      <c r="M51" s="170">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N51" s="177">
+      <c r="N51" s="171">
         <v>4000</v>
       </c>
-      <c r="O51" s="173">
+      <c r="O51" s="167">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
@@ -3725,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="84"/>
-      <c r="O52" s="178">
+      <c r="O52" s="172">
         <f>SUM(O31:O51)</f>
         <v>86200</v>
       </c>
@@ -4940,12 +5343,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="149" t="s">
+      <c r="D126" s="176" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="150"/>
-      <c r="F126" s="150"/>
-      <c r="G126" s="150"/>
+      <c r="E126" s="177"/>
+      <c r="F126" s="177"/>
+      <c r="G126" s="177"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
@@ -5032,30 +5435,30 @@
       <c r="I136" s="30"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="155"/>
-      <c r="B137" s="156" t="s">
+      <c r="A137" s="149"/>
+      <c r="B137" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="156" t="s">
+      <c r="C137" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="156" t="s">
+      <c r="D137" s="150" t="s">
         <v>34</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="157" t="s">
+      <c r="A138" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="B138" s="158">
-        <v>1</v>
-      </c>
-      <c r="C138" s="159">
+      <c r="B138" s="152">
+        <v>1</v>
+      </c>
+      <c r="C138" s="153">
         <v>10000000</v>
       </c>
-      <c r="D138" s="159">
+      <c r="D138" s="153">
         <f>B138*C138</f>
         <v>10000000</v>
       </c>
@@ -5063,16 +5466,16 @@
       <c r="I138" s="35"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="157" t="s">
+      <c r="A139" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="158">
+      <c r="B139" s="152">
         <v>12</v>
       </c>
-      <c r="C139" s="159">
+      <c r="C139" s="153">
         <v>4000000</v>
       </c>
-      <c r="D139" s="159">
+      <c r="D139" s="153">
         <f t="shared" ref="D139:D148" si="14">B139*C139</f>
         <v>48000000</v>
       </c>
@@ -5080,16 +5483,16 @@
       <c r="I139" s="36"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="157" t="s">
+      <c r="A140" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="158">
+      <c r="B140" s="152">
         <v>6</v>
       </c>
-      <c r="C140" s="159">
+      <c r="C140" s="153">
         <v>1000000</v>
       </c>
-      <c r="D140" s="159">
+      <c r="D140" s="153">
         <f t="shared" si="14"/>
         <v>6000000</v>
       </c>
@@ -5097,165 +5500,165 @@
       <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="157" t="s">
+      <c r="A141" s="151" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="158">
-        <v>1</v>
-      </c>
-      <c r="C141" s="159">
+      <c r="B141" s="152">
+        <v>1</v>
+      </c>
+      <c r="C141" s="153">
         <v>1000000</v>
       </c>
-      <c r="D141" s="159">
+      <c r="D141" s="153">
         <f t="shared" si="14"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="157" t="s">
+      <c r="A142" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="158">
+      <c r="B142" s="152">
         <v>6</v>
       </c>
-      <c r="C142" s="159">
+      <c r="C142" s="153">
         <v>2000000</v>
       </c>
-      <c r="D142" s="159">
+      <c r="D142" s="153">
         <f t="shared" si="14"/>
         <v>12000000</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="157" t="s">
+      <c r="A143" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="158">
+      <c r="B143" s="152">
         <v>3</v>
       </c>
-      <c r="C143" s="159">
+      <c r="C143" s="153">
         <v>2500000</v>
       </c>
-      <c r="D143" s="159">
+      <c r="D143" s="153">
         <f t="shared" si="14"/>
         <v>7500000</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="157" t="s">
+      <c r="A144" s="151" t="s">
         <v>123</v>
       </c>
-      <c r="B144" s="158">
+      <c r="B144" s="152">
         <v>10</v>
       </c>
-      <c r="C144" s="159">
+      <c r="C144" s="153">
         <v>400000</v>
       </c>
-      <c r="D144" s="159">
+      <c r="D144" s="153">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="157" t="s">
+      <c r="A145" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="158">
+      <c r="B145" s="152">
         <v>3</v>
       </c>
-      <c r="C145" s="159">
+      <c r="C145" s="153">
         <v>5000000</v>
       </c>
-      <c r="D145" s="159">
+      <c r="D145" s="153">
         <f t="shared" si="14"/>
         <v>15000000</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="157" t="s">
+      <c r="A146" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="B146" s="158">
+      <c r="B146" s="152">
         <v>2</v>
       </c>
-      <c r="C146" s="159">
+      <c r="C146" s="153">
         <v>2000000</v>
       </c>
-      <c r="D146" s="159">
+      <c r="D146" s="153">
         <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="157" t="s">
+      <c r="A147" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="B147" s="158">
+      <c r="B147" s="152">
         <v>5</v>
       </c>
-      <c r="C147" s="159">
+      <c r="C147" s="153">
         <v>400000</v>
       </c>
-      <c r="D147" s="159">
+      <c r="D147" s="153">
         <f t="shared" si="14"/>
         <v>2000000</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="157" t="s">
+      <c r="A148" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="B148" s="158">
+      <c r="B148" s="152">
         <v>3</v>
       </c>
-      <c r="C148" s="159">
+      <c r="C148" s="153">
         <v>575000</v>
       </c>
-      <c r="D148" s="159">
+      <c r="D148" s="153">
         <f t="shared" si="14"/>
         <v>1725000</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="160" t="s">
+      <c r="A149" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="B149" s="160"/>
-      <c r="C149" s="160"/>
-      <c r="D149" s="161">
+      <c r="B149" s="154"/>
+      <c r="C149" s="154"/>
+      <c r="D149" s="155">
         <f>SUM(D138:D148)</f>
         <v>111225000</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="155" t="s">
+      <c r="A150" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="B150" s="155"/>
-      <c r="C150" s="155"/>
-      <c r="D150" s="162">
+      <c r="B150" s="149"/>
+      <c r="C150" s="149"/>
+      <c r="D150" s="156">
         <f>D149/12</f>
         <v>9268750</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="155" t="s">
+      <c r="A151" s="149" t="s">
         <v>134</v>
       </c>
-      <c r="B151" s="155"/>
-      <c r="C151" s="155"/>
-      <c r="D151" s="162">
+      <c r="B151" s="149"/>
+      <c r="C151" s="149"/>
+      <c r="D151" s="156">
         <f>D150/B135</f>
         <v>2317187.5</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="155" t="s">
+      <c r="A152" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="B152" s="155"/>
-      <c r="C152" s="155"/>
-      <c r="D152" s="162">
+      <c r="B152" s="149"/>
+      <c r="C152" s="149"/>
+      <c r="D152" s="156">
         <f>D151/E4</f>
         <v>7723.958333333333</v>
       </c>
@@ -5267,18 +5670,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="151" t="s">
+      <c r="A155" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="151"/>
-      <c r="C155" s="151"/>
-      <c r="D155" s="151"/>
+      <c r="B155" s="178"/>
+      <c r="C155" s="178"/>
+      <c r="D155" s="178"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="151"/>
-      <c r="B156" s="151"/>
-      <c r="C156" s="151"/>
-      <c r="D156" s="151"/>
+      <c r="A156" s="178"/>
+      <c r="B156" s="178"/>
+      <c r="C156" s="178"/>
+      <c r="D156" s="178"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -8666,11 +9069,4997 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91E2F10-EE76-9443-B2C8-25D1C127F96E}">
+  <dimension ref="A1:M131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="185" customWidth="1"/>
+    <col min="2" max="2" width="15" style="185" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" style="185" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.83203125" style="272"/>
+    <col min="7" max="9" width="18.83203125" style="187"/>
+    <col min="10" max="10" width="14.33203125" style="185" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="185" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="185" customWidth="1"/>
+    <col min="13" max="13" width="47.33203125" style="185" customWidth="1"/>
+    <col min="14" max="16384" width="18.83203125" style="185"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="182" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="182" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="255" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="255" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="184" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="184" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="184" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="182" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="182" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="182" t="s">
+        <v>237</v>
+      </c>
+      <c r="M1" s="182" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="196">
+        <v>500</v>
+      </c>
+      <c r="E2" s="196">
+        <v>100</v>
+      </c>
+      <c r="F2" s="196">
+        <v>1</v>
+      </c>
+      <c r="G2" s="197">
+        <f>E2*H2/D2</f>
+        <v>800</v>
+      </c>
+      <c r="H2" s="197">
+        <v>4000</v>
+      </c>
+      <c r="I2" s="217">
+        <f>(H2/D2)*E2</f>
+        <v>800</v>
+      </c>
+      <c r="J2" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="188" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="198">
+        <v>500</v>
+      </c>
+      <c r="E3" s="198">
+        <v>100</v>
+      </c>
+      <c r="F3" s="198">
+        <v>1</v>
+      </c>
+      <c r="G3" s="199">
+        <f>E3*H3/D3</f>
+        <v>800</v>
+      </c>
+      <c r="H3" s="199">
+        <v>4000</v>
+      </c>
+      <c r="I3" s="217">
+        <f>F3*H3</f>
+        <v>4000</v>
+      </c>
+      <c r="J3" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="196">
+        <v>500</v>
+      </c>
+      <c r="E4" s="196">
+        <v>0</v>
+      </c>
+      <c r="F4" s="196"/>
+      <c r="G4" s="197">
+        <f>E4*H4/D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="197">
+        <v>4000</v>
+      </c>
+      <c r="I4" s="197">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="186" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="196">
+        <v>500</v>
+      </c>
+      <c r="E5" s="196">
+        <v>100</v>
+      </c>
+      <c r="F5" s="196"/>
+      <c r="G5" s="197">
+        <f>E5*H5/D5</f>
+        <v>800</v>
+      </c>
+      <c r="H5" s="197">
+        <v>4000</v>
+      </c>
+      <c r="I5" s="199">
+        <v>4000</v>
+      </c>
+      <c r="J5" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="188" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="256">
+        <v>500</v>
+      </c>
+      <c r="E6" s="256">
+        <v>0</v>
+      </c>
+      <c r="F6" s="256">
+        <v>1</v>
+      </c>
+      <c r="G6" s="199">
+        <f>E6*H6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="199">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="199">
+        <f>F6*H6</f>
+        <v>4000</v>
+      </c>
+      <c r="J6" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="188" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="256">
+        <v>500</v>
+      </c>
+      <c r="E7" s="256">
+        <v>98.37</v>
+      </c>
+      <c r="F7" s="256">
+        <v>1</v>
+      </c>
+      <c r="G7" s="199">
+        <f>E7*H7/D7</f>
+        <v>786.96</v>
+      </c>
+      <c r="H7" s="199">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="199">
+        <f>F7*H7</f>
+        <v>4000</v>
+      </c>
+      <c r="J7" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="189" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="200">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="200">
+        <v>0</v>
+      </c>
+      <c r="F8" s="200">
+        <v>0</v>
+      </c>
+      <c r="G8" s="201">
+        <f>E8*H8/D8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="201">
+        <v>135000</v>
+      </c>
+      <c r="I8" s="201">
+        <f>(H8/D8)*E8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="190" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="200">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="200">
+        <v>0</v>
+      </c>
+      <c r="F9" s="200">
+        <v>0</v>
+      </c>
+      <c r="G9" s="201">
+        <f>E9*H9/D9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="201">
+        <v>135000</v>
+      </c>
+      <c r="I9" s="201">
+        <f>F9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L9" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="202">
+        <v>500</v>
+      </c>
+      <c r="E10" s="202">
+        <v>0</v>
+      </c>
+      <c r="F10" s="202">
+        <v>0</v>
+      </c>
+      <c r="G10" s="203">
+        <f>E10*H10/D10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="203">
+        <v>66000</v>
+      </c>
+      <c r="I10" s="203">
+        <f>(H10/D10)*E10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="202">
+        <v>500</v>
+      </c>
+      <c r="E11" s="202">
+        <v>0</v>
+      </c>
+      <c r="F11" s="202">
+        <v>0</v>
+      </c>
+      <c r="G11" s="203">
+        <f>E11*H11/D11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="203">
+        <v>66000</v>
+      </c>
+      <c r="I11" s="203">
+        <f>F11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="193" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="204">
+        <v>500</v>
+      </c>
+      <c r="E12" s="204">
+        <v>0</v>
+      </c>
+      <c r="F12" s="204">
+        <v>0</v>
+      </c>
+      <c r="G12" s="205">
+        <f>E12*H12/D12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="205">
+        <v>61000</v>
+      </c>
+      <c r="I12" s="205">
+        <f>(H12/D12)*E12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="206">
+        <v>500</v>
+      </c>
+      <c r="E13" s="206">
+        <v>0</v>
+      </c>
+      <c r="F13" s="206">
+        <v>0</v>
+      </c>
+      <c r="G13" s="207">
+        <f>E13*H13/D13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="207">
+        <v>61000</v>
+      </c>
+      <c r="I13" s="207">
+        <f>F13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="190" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="200">
+        <v>100</v>
+      </c>
+      <c r="E14" s="200">
+        <v>50</v>
+      </c>
+      <c r="F14" s="200">
+        <v>1</v>
+      </c>
+      <c r="G14" s="201">
+        <f>E14*H14/D14</f>
+        <v>20000</v>
+      </c>
+      <c r="H14" s="201">
+        <v>40000</v>
+      </c>
+      <c r="I14" s="241">
+        <f>G14</f>
+        <v>20000</v>
+      </c>
+      <c r="J14" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K14" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="218">
+        <v>100</v>
+      </c>
+      <c r="E15" s="218">
+        <v>20.54</v>
+      </c>
+      <c r="F15" s="218">
+        <v>1</v>
+      </c>
+      <c r="G15" s="219">
+        <f>E15*H15/D15</f>
+        <v>8216</v>
+      </c>
+      <c r="H15" s="219">
+        <v>40000</v>
+      </c>
+      <c r="I15" s="241">
+        <f>G15</f>
+        <v>8216</v>
+      </c>
+      <c r="J15" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="257">
+        <v>100</v>
+      </c>
+      <c r="E16" s="257">
+        <v>0</v>
+      </c>
+      <c r="F16" s="257">
+        <v>1</v>
+      </c>
+      <c r="G16" s="201">
+        <f>E16*H16/D16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="201">
+        <v>40000</v>
+      </c>
+      <c r="I16" s="253"/>
+      <c r="J16" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="258">
+        <v>100</v>
+      </c>
+      <c r="E17" s="258"/>
+      <c r="F17" s="258">
+        <v>1</v>
+      </c>
+      <c r="G17" s="219">
+        <f>E17*H17/D17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="219">
+        <v>40000</v>
+      </c>
+      <c r="I17" s="219"/>
+      <c r="J17" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L17" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="192" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="202">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="202">
+        <v>0</v>
+      </c>
+      <c r="F18" s="202">
+        <v>0</v>
+      </c>
+      <c r="G18" s="203">
+        <f>E18*H18/D18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="203">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="I18" s="203">
+        <f>F18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="192" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="202">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="202">
+        <v>0</v>
+      </c>
+      <c r="F19" s="202">
+        <v>0</v>
+      </c>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="I19" s="203">
+        <f>F19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="259">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="259">
+        <v>0</v>
+      </c>
+      <c r="F20" s="259">
+        <v>0</v>
+      </c>
+      <c r="G20" s="203">
+        <f>E20*H20/D20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="203">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="I20" s="203">
+        <f>F20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="192" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="259">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259">
+        <v>0</v>
+      </c>
+      <c r="G21" s="203">
+        <f>E21*H21/D21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="203">
+        <v>20546.599999999999</v>
+      </c>
+      <c r="I21" s="254">
+        <f>F21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="206">
+        <v>250</v>
+      </c>
+      <c r="E22" s="206">
+        <v>0</v>
+      </c>
+      <c r="F22" s="206">
+        <v>0</v>
+      </c>
+      <c r="G22" s="207">
+        <f>E22*H22/D22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="207">
+        <v>50000</v>
+      </c>
+      <c r="I22" s="207">
+        <f>F22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="193" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="204">
+        <v>250</v>
+      </c>
+      <c r="E23" s="204">
+        <v>0</v>
+      </c>
+      <c r="F23" s="204">
+        <v>0</v>
+      </c>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205">
+        <v>50000</v>
+      </c>
+      <c r="I23" s="205">
+        <f>F23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="193" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="260">
+        <v>250</v>
+      </c>
+      <c r="E24" s="260">
+        <v>0</v>
+      </c>
+      <c r="F24" s="260">
+        <v>0</v>
+      </c>
+      <c r="G24" s="207">
+        <f>E24*H24/D24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="207">
+        <v>50000</v>
+      </c>
+      <c r="I24" s="207">
+        <f>F24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="193" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="261">
+        <v>250</v>
+      </c>
+      <c r="E25" s="261"/>
+      <c r="F25" s="261">
+        <v>0</v>
+      </c>
+      <c r="G25" s="205">
+        <f>E25*H25/D25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="205">
+        <v>50000</v>
+      </c>
+      <c r="I25" s="205">
+        <f>F25*H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="195" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="208">
+        <v>500</v>
+      </c>
+      <c r="E26" s="208">
+        <v>100</v>
+      </c>
+      <c r="F26" s="208">
+        <v>0</v>
+      </c>
+      <c r="G26" s="209">
+        <f>E26*H26/D26</f>
+        <v>20000</v>
+      </c>
+      <c r="H26" s="209">
+        <v>100000</v>
+      </c>
+      <c r="I26" s="209">
+        <f>F26*H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="222" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="223">
+        <v>500</v>
+      </c>
+      <c r="E27" s="223">
+        <v>0</v>
+      </c>
+      <c r="F27" s="223">
+        <v>0</v>
+      </c>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224">
+        <v>100000</v>
+      </c>
+      <c r="I27" s="224">
+        <f>F27*H27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="195" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="262">
+        <v>500</v>
+      </c>
+      <c r="E28" s="262">
+        <v>0</v>
+      </c>
+      <c r="F28" s="262">
+        <v>0</v>
+      </c>
+      <c r="G28" s="209">
+        <f>E28*H28/D28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="209">
+        <v>100000</v>
+      </c>
+      <c r="I28" s="240">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="195" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="262">
+        <v>500</v>
+      </c>
+      <c r="E29" s="262">
+        <v>147</v>
+      </c>
+      <c r="F29" s="262">
+        <v>0</v>
+      </c>
+      <c r="G29" s="209">
+        <f>E29*H29/D29</f>
+        <v>29400</v>
+      </c>
+      <c r="H29" s="209">
+        <v>100000</v>
+      </c>
+      <c r="I29" s="240">
+        <f>G29</f>
+        <v>29400</v>
+      </c>
+      <c r="J29" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="195" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="208">
+        <v>500</v>
+      </c>
+      <c r="E30" s="208">
+        <v>600</v>
+      </c>
+      <c r="F30" s="208">
+        <v>1</v>
+      </c>
+      <c r="G30" s="209">
+        <f>E30*H30/D30</f>
+        <v>48000</v>
+      </c>
+      <c r="H30" s="209">
+        <v>40000</v>
+      </c>
+      <c r="I30" s="240">
+        <f>(H30/D30)*E30</f>
+        <v>48000</v>
+      </c>
+      <c r="J30" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="195" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="208">
+        <v>500</v>
+      </c>
+      <c r="E31" s="208">
+        <v>600</v>
+      </c>
+      <c r="F31" s="208">
+        <v>1</v>
+      </c>
+      <c r="G31" s="209">
+        <f>E31*H31/D31</f>
+        <v>48000</v>
+      </c>
+      <c r="H31" s="209">
+        <v>40000</v>
+      </c>
+      <c r="I31" s="240">
+        <f>F31*H31</f>
+        <v>40000</v>
+      </c>
+      <c r="J31" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="210" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="211">
+        <v>1</v>
+      </c>
+      <c r="E32" s="211">
+        <v>0</v>
+      </c>
+      <c r="F32" s="211"/>
+      <c r="G32" s="212">
+        <f>E32*H32/D32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="212">
+        <v>31000</v>
+      </c>
+      <c r="I32" s="212"/>
+      <c r="J32" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B33" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="210" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="211">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="211">
+        <v>1</v>
+      </c>
+      <c r="F33" s="211"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212">
+        <v>31000</v>
+      </c>
+      <c r="I33" s="212"/>
+      <c r="J33" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="210" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="263">
+        <v>1</v>
+      </c>
+      <c r="E34" s="263">
+        <v>0</v>
+      </c>
+      <c r="F34" s="263"/>
+      <c r="G34" s="212">
+        <f>E34*H34/D34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="212">
+        <v>21000</v>
+      </c>
+      <c r="I34" s="212">
+        <f>H34</f>
+        <v>21000</v>
+      </c>
+      <c r="J34" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M34" s="185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="250" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="211">
+        <v>1</v>
+      </c>
+      <c r="E35" s="211">
+        <v>1</v>
+      </c>
+      <c r="F35" s="211">
+        <v>1</v>
+      </c>
+      <c r="G35" s="212"/>
+      <c r="H35" s="212">
+        <v>39000</v>
+      </c>
+      <c r="I35" s="212">
+        <f>(H35/D35)*E35</f>
+        <v>39000</v>
+      </c>
+      <c r="J35" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="251" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="214">
+        <v>1</v>
+      </c>
+      <c r="E36" s="214">
+        <v>0</v>
+      </c>
+      <c r="F36" s="214"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="215">
+        <v>30000</v>
+      </c>
+      <c r="I36" s="215">
+        <f>(H36/D36)*E36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M36" s="185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="245" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="246">
+        <v>1</v>
+      </c>
+      <c r="E37" s="246">
+        <v>0</v>
+      </c>
+      <c r="F37" s="246"/>
+      <c r="G37" s="247">
+        <f>E37*H37/D37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="247">
+        <v>20000</v>
+      </c>
+      <c r="I37" s="249">
+        <f>H37</f>
+        <v>20000</v>
+      </c>
+      <c r="J37" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L37" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="213" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="214">
+        <v>500</v>
+      </c>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="215">
+        <f>H38</f>
+        <v>30000</v>
+      </c>
+      <c r="H38" s="215">
+        <v>30000</v>
+      </c>
+      <c r="I38" s="249">
+        <f>H38</f>
+        <v>30000</v>
+      </c>
+      <c r="J38" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L38" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="245" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="264">
+        <v>1</v>
+      </c>
+      <c r="E39" s="264">
+        <v>0</v>
+      </c>
+      <c r="F39" s="264"/>
+      <c r="G39" s="215">
+        <f>E39*H39/D39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="215">
+        <v>20000</v>
+      </c>
+      <c r="I39" s="215"/>
+      <c r="J39" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K39" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L39" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39" s="185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="216">
+        <v>10</v>
+      </c>
+      <c r="E40" s="216">
+        <v>30</v>
+      </c>
+      <c r="F40" s="216">
+        <v>1</v>
+      </c>
+      <c r="G40" s="217">
+        <f>E40*H40/D40</f>
+        <v>4500</v>
+      </c>
+      <c r="H40" s="217">
+        <v>1500</v>
+      </c>
+      <c r="I40" s="217">
+        <f>(H40/D40)*E40</f>
+        <v>4500</v>
+      </c>
+      <c r="J40" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K40" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="198">
+        <v>10</v>
+      </c>
+      <c r="E41" s="198">
+        <v>30</v>
+      </c>
+      <c r="F41" s="198">
+        <v>1</v>
+      </c>
+      <c r="G41" s="199">
+        <f>E41*H41/D41</f>
+        <v>4500</v>
+      </c>
+      <c r="H41" s="199">
+        <v>1500</v>
+      </c>
+      <c r="I41" s="217">
+        <f>F41*H41</f>
+        <v>1500</v>
+      </c>
+      <c r="J41" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K41" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L41" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="198">
+        <v>10</v>
+      </c>
+      <c r="E42" s="198">
+        <v>0</v>
+      </c>
+      <c r="F42" s="198">
+        <v>1</v>
+      </c>
+      <c r="G42" s="199">
+        <f>E42*H42/D42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="199">
+        <v>1500</v>
+      </c>
+      <c r="I42" s="199">
+        <f>F42*H42</f>
+        <v>1500</v>
+      </c>
+      <c r="J42" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="198">
+        <v>10</v>
+      </c>
+      <c r="E43" s="198">
+        <v>0.4</v>
+      </c>
+      <c r="F43" s="198">
+        <v>1</v>
+      </c>
+      <c r="G43" s="199">
+        <f>E43*H43/D43</f>
+        <v>60</v>
+      </c>
+      <c r="H43" s="199">
+        <v>1500</v>
+      </c>
+      <c r="I43" s="199">
+        <f>F43*H43</f>
+        <v>1500</v>
+      </c>
+      <c r="J43" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L43" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="188" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="256">
+        <v>10</v>
+      </c>
+      <c r="E44" s="256">
+        <v>0</v>
+      </c>
+      <c r="F44" s="256">
+        <v>1</v>
+      </c>
+      <c r="G44" s="199">
+        <f>E44*H44/D44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="199">
+        <v>1500</v>
+      </c>
+      <c r="I44" s="199">
+        <f>F44*H44</f>
+        <v>1500</v>
+      </c>
+      <c r="J44" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L44" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B45" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="186" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="265">
+        <v>10</v>
+      </c>
+      <c r="E45" s="265"/>
+      <c r="F45" s="265">
+        <v>1</v>
+      </c>
+      <c r="G45" s="197">
+        <f>E45*H45/D45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="197">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="197">
+        <f>F45*H45</f>
+        <v>1500</v>
+      </c>
+      <c r="J45" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L45" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="218">
+        <v>10</v>
+      </c>
+      <c r="E46" s="218">
+        <v>30</v>
+      </c>
+      <c r="F46" s="218"/>
+      <c r="G46" s="219">
+        <f>E46*H46/D46</f>
+        <v>4500</v>
+      </c>
+      <c r="H46" s="219">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="241">
+        <f>(H46/D46)*E46</f>
+        <v>4500</v>
+      </c>
+      <c r="J46" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L46" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="218">
+        <v>10</v>
+      </c>
+      <c r="E47" s="218">
+        <v>30</v>
+      </c>
+      <c r="F47" s="218"/>
+      <c r="G47" s="219">
+        <f>E47*H47/D47</f>
+        <v>4500</v>
+      </c>
+      <c r="H47" s="219">
+        <v>1500</v>
+      </c>
+      <c r="I47" s="241">
+        <v>1500</v>
+      </c>
+      <c r="J47" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K47" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47" s="252" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="218">
+        <v>10</v>
+      </c>
+      <c r="E48" s="218">
+        <v>0</v>
+      </c>
+      <c r="F48" s="218">
+        <v>1</v>
+      </c>
+      <c r="G48" s="219">
+        <f>E48*H48/D48</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="219">
+        <v>1500</v>
+      </c>
+      <c r="I48" s="219">
+        <f>F48*H48</f>
+        <v>1500</v>
+      </c>
+      <c r="J48" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L48" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="218">
+        <v>10</v>
+      </c>
+      <c r="E49" s="218">
+        <v>1.57</v>
+      </c>
+      <c r="F49" s="218">
+        <v>1</v>
+      </c>
+      <c r="G49" s="219">
+        <f>E49*H49/D49</f>
+        <v>235.5</v>
+      </c>
+      <c r="H49" s="219">
+        <v>1500</v>
+      </c>
+      <c r="I49" s="219">
+        <f>F49*H49</f>
+        <v>1500</v>
+      </c>
+      <c r="J49" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L49" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="257">
+        <v>10</v>
+      </c>
+      <c r="E50" s="257">
+        <v>0</v>
+      </c>
+      <c r="F50" s="257">
+        <v>1</v>
+      </c>
+      <c r="G50" s="201">
+        <f>E50*H50/D50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="201">
+        <v>1500</v>
+      </c>
+      <c r="I50" s="201">
+        <f>F50*H50</f>
+        <v>1500</v>
+      </c>
+      <c r="J50" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L50" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="190" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="257">
+        <v>10</v>
+      </c>
+      <c r="E51" s="257">
+        <v>2.5</v>
+      </c>
+      <c r="F51" s="257">
+        <v>1</v>
+      </c>
+      <c r="G51" s="201">
+        <f>E51*H51/D51</f>
+        <v>375</v>
+      </c>
+      <c r="H51" s="201">
+        <v>1500</v>
+      </c>
+      <c r="I51" s="201">
+        <f>F51*H51</f>
+        <v>1500</v>
+      </c>
+      <c r="J51" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L51" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" s="192" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="202">
+        <v>10</v>
+      </c>
+      <c r="E52" s="202">
+        <v>1</v>
+      </c>
+      <c r="F52" s="202"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="203">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="242">
+        <f>(H52/D52)*E52</f>
+        <v>300</v>
+      </c>
+      <c r="J52" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K52" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L52" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="220"/>
+      <c r="E53" s="220">
+        <v>1</v>
+      </c>
+      <c r="F53" s="220"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221">
+        <v>3000</v>
+      </c>
+      <c r="I53" s="242">
+        <f>F53*H53</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K53" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L53" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C54" s="192" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="202">
+        <v>10</v>
+      </c>
+      <c r="E54" s="202">
+        <v>0</v>
+      </c>
+      <c r="F54" s="202"/>
+      <c r="G54" s="203">
+        <f>E54*H54/D54</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="203">
+        <v>3000</v>
+      </c>
+      <c r="I54" s="203">
+        <f>F54*H54</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K54" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L54" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C55" s="192" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="202"/>
+      <c r="E55" s="202">
+        <v>0</v>
+      </c>
+      <c r="F55" s="202"/>
+      <c r="G55" s="203"/>
+      <c r="H55" s="203">
+        <v>3000</v>
+      </c>
+      <c r="I55" s="203">
+        <f>F55*H55</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L55" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="191" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="259">
+        <v>10</v>
+      </c>
+      <c r="E56" s="259">
+        <v>0</v>
+      </c>
+      <c r="F56" s="259"/>
+      <c r="G56" s="203">
+        <f>E56*H56/D56</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="203">
+        <v>3000</v>
+      </c>
+      <c r="I56" s="203">
+        <f>F56*H56</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K56" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L56" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="192" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="259" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="259"/>
+      <c r="F57" s="259"/>
+      <c r="G57" s="203"/>
+      <c r="H57" s="203">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="203">
+        <f>F57*H57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L57" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="204">
+        <v>500</v>
+      </c>
+      <c r="E58" s="204">
+        <v>250</v>
+      </c>
+      <c r="F58" s="204"/>
+      <c r="G58" s="205">
+        <f>E58*H58/D58</f>
+        <v>5407</v>
+      </c>
+      <c r="H58" s="205">
+        <v>10814</v>
+      </c>
+      <c r="I58" s="243">
+        <f>(H58/D58)*E58</f>
+        <v>5407</v>
+      </c>
+      <c r="J58" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L58" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="204">
+        <v>500</v>
+      </c>
+      <c r="E59" s="204">
+        <v>250</v>
+      </c>
+      <c r="F59" s="204"/>
+      <c r="G59" s="205">
+        <f>E59*H59/D59</f>
+        <v>5407</v>
+      </c>
+      <c r="H59" s="205">
+        <v>10814</v>
+      </c>
+      <c r="I59" s="243">
+        <v>10814</v>
+      </c>
+      <c r="J59" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K59" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L59" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C60" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="204">
+        <v>500</v>
+      </c>
+      <c r="E60" s="204">
+        <v>0</v>
+      </c>
+      <c r="F60" s="204">
+        <v>0</v>
+      </c>
+      <c r="G60" s="205">
+        <f>E60*H60/D60</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="205">
+        <v>10814</v>
+      </c>
+      <c r="I60" s="205">
+        <f>F60*H60</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="204">
+        <v>500</v>
+      </c>
+      <c r="E61" s="204">
+        <v>18</v>
+      </c>
+      <c r="F61" s="204">
+        <v>0</v>
+      </c>
+      <c r="G61" s="205">
+        <f>E61*H61/D61</f>
+        <v>389.30399999999997</v>
+      </c>
+      <c r="H61" s="205">
+        <v>10814</v>
+      </c>
+      <c r="I61" s="205">
+        <f>F61*H61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L61" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="261">
+        <v>500</v>
+      </c>
+      <c r="E62" s="261">
+        <v>0</v>
+      </c>
+      <c r="F62" s="261"/>
+      <c r="G62" s="205">
+        <f>E62*H62/D62</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="205">
+        <v>10814</v>
+      </c>
+      <c r="I62" s="205">
+        <f>F62*H62</f>
+        <v>0</v>
+      </c>
+      <c r="J62" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L62" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="193" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="261">
+        <v>500</v>
+      </c>
+      <c r="E63" s="261">
+        <v>127</v>
+      </c>
+      <c r="F63" s="261"/>
+      <c r="G63" s="205">
+        <f>E63*H63/D63</f>
+        <v>2746.7559999999999</v>
+      </c>
+      <c r="H63" s="205">
+        <v>10814</v>
+      </c>
+      <c r="I63" s="205">
+        <f>F63*H63</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L63" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B64" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" s="195" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" s="208">
+        <v>10</v>
+      </c>
+      <c r="E64" s="208">
+        <v>0</v>
+      </c>
+      <c r="F64" s="208"/>
+      <c r="G64" s="209">
+        <f>E64*H64/D64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="209">
+        <v>15000</v>
+      </c>
+      <c r="I64" s="209">
+        <v>15000</v>
+      </c>
+      <c r="J64" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K64" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L64" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="222" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="223">
+        <v>10</v>
+      </c>
+      <c r="E65" s="223">
+        <v>0</v>
+      </c>
+      <c r="F65" s="223"/>
+      <c r="G65" s="224">
+        <v>15000</v>
+      </c>
+      <c r="H65" s="224">
+        <v>15000</v>
+      </c>
+      <c r="I65" s="209">
+        <v>15000</v>
+      </c>
+      <c r="J65" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L65" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="195" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="266">
+        <v>10</v>
+      </c>
+      <c r="E66" s="266">
+        <v>0</v>
+      </c>
+      <c r="F66" s="266">
+        <v>1</v>
+      </c>
+      <c r="G66" s="224">
+        <f>E66*H66/D66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="224">
+        <v>15000</v>
+      </c>
+      <c r="I66" s="224">
+        <f>F66*H66</f>
+        <v>15000</v>
+      </c>
+      <c r="J66" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L66" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="195" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="262">
+        <v>10</v>
+      </c>
+      <c r="E67" s="262"/>
+      <c r="F67" s="262">
+        <v>1</v>
+      </c>
+      <c r="G67" s="209">
+        <v>15000</v>
+      </c>
+      <c r="H67" s="209">
+        <v>15000</v>
+      </c>
+      <c r="I67" s="209">
+        <f>F67*H67</f>
+        <v>15000</v>
+      </c>
+      <c r="J67" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K67" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L67" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="222" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="223">
+        <v>10</v>
+      </c>
+      <c r="E68" s="223">
+        <v>1</v>
+      </c>
+      <c r="F68" s="223">
+        <v>1</v>
+      </c>
+      <c r="G68" s="224"/>
+      <c r="H68" s="224">
+        <v>20000</v>
+      </c>
+      <c r="I68" s="240">
+        <f>(H68/D68)*E68</f>
+        <v>2000</v>
+      </c>
+      <c r="J68" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K68" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L68" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="195" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="208">
+        <v>10</v>
+      </c>
+      <c r="E69" s="208"/>
+      <c r="F69" s="208">
+        <v>1</v>
+      </c>
+      <c r="G69" s="209">
+        <v>20000</v>
+      </c>
+      <c r="H69" s="209">
+        <v>20000</v>
+      </c>
+      <c r="I69" s="240">
+        <f>F69*H69</f>
+        <v>20000</v>
+      </c>
+      <c r="J69" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K69" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L69" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="225">
+        <v>10</v>
+      </c>
+      <c r="E70" s="225">
+        <v>10</v>
+      </c>
+      <c r="F70" s="225">
+        <v>1</v>
+      </c>
+      <c r="G70" s="226">
+        <f>E70*H70/D70</f>
+        <v>5700</v>
+      </c>
+      <c r="H70" s="226">
+        <v>5700</v>
+      </c>
+      <c r="I70" s="226">
+        <f>(H70/D70)*E70</f>
+        <v>5700</v>
+      </c>
+      <c r="J70" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K70" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="L70" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="227" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="225">
+        <v>10</v>
+      </c>
+      <c r="E71" s="225">
+        <v>10</v>
+      </c>
+      <c r="F71" s="225">
+        <v>1</v>
+      </c>
+      <c r="G71" s="226">
+        <f>E71*H71/D71</f>
+        <v>5700</v>
+      </c>
+      <c r="H71" s="226">
+        <v>5700</v>
+      </c>
+      <c r="I71" s="226">
+        <f>F71*H71</f>
+        <v>5700</v>
+      </c>
+      <c r="J71" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K71" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="L71" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="190" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="200">
+        <v>10</v>
+      </c>
+      <c r="E72" s="200">
+        <v>0</v>
+      </c>
+      <c r="F72" s="200">
+        <v>1</v>
+      </c>
+      <c r="G72" s="201">
+        <f>E72*H72/D72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="201">
+        <v>5700</v>
+      </c>
+      <c r="I72" s="201">
+        <f>F72*H72</f>
+        <v>5700</v>
+      </c>
+      <c r="J72" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K72" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L72" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="190" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="200">
+        <v>10</v>
+      </c>
+      <c r="E73" s="200">
+        <v>0.3624</v>
+      </c>
+      <c r="F73" s="200">
+        <v>1</v>
+      </c>
+      <c r="G73" s="201">
+        <f>E73*H73/D73</f>
+        <v>206.56799999999998</v>
+      </c>
+      <c r="H73" s="201">
+        <v>5700</v>
+      </c>
+      <c r="I73" s="201">
+        <f>F73*H73</f>
+        <v>5700</v>
+      </c>
+      <c r="J73" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K73" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L73" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="263">
+        <v>10</v>
+      </c>
+      <c r="E74" s="263">
+        <v>0</v>
+      </c>
+      <c r="F74" s="263">
+        <v>1</v>
+      </c>
+      <c r="G74" s="212">
+        <f>E74*H74/D74</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="212">
+        <v>5700</v>
+      </c>
+      <c r="I74" s="212">
+        <f>F74*H74</f>
+        <v>5700</v>
+      </c>
+      <c r="J74" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K74" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L74" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" s="210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="263">
+        <v>10</v>
+      </c>
+      <c r="E75" s="263">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F75" s="263">
+        <v>1</v>
+      </c>
+      <c r="G75" s="212">
+        <f>E75*H75/D75</f>
+        <v>1396.5000000000002</v>
+      </c>
+      <c r="H75" s="212">
+        <v>5700</v>
+      </c>
+      <c r="I75" s="212">
+        <f>F75*H75</f>
+        <v>5700</v>
+      </c>
+      <c r="J75" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K75" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L75" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="228" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="229">
+        <v>20</v>
+      </c>
+      <c r="E76" s="229">
+        <v>0</v>
+      </c>
+      <c r="F76" s="229">
+        <v>1</v>
+      </c>
+      <c r="G76" s="230">
+        <f>E76*H76/D76</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="230">
+        <v>20000</v>
+      </c>
+      <c r="I76" s="244">
+        <f>(H76/D76)*E76</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K76" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L76" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="228" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="229">
+        <v>20</v>
+      </c>
+      <c r="E77" s="229">
+        <v>0</v>
+      </c>
+      <c r="F77" s="229">
+        <v>1</v>
+      </c>
+      <c r="G77" s="230">
+        <f>E77*H77/D77</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="230">
+        <v>20000</v>
+      </c>
+      <c r="I77" s="244">
+        <f>F77*H77</f>
+        <v>20000</v>
+      </c>
+      <c r="J77" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K77" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L77" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="188" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="198">
+        <v>10</v>
+      </c>
+      <c r="E78" s="198">
+        <v>20</v>
+      </c>
+      <c r="F78" s="198">
+        <v>0</v>
+      </c>
+      <c r="G78" s="199">
+        <f>E78*H78/D78</f>
+        <v>3600</v>
+      </c>
+      <c r="H78" s="199">
+        <v>1800</v>
+      </c>
+      <c r="I78" s="217">
+        <f>(H78/D78)*E78</f>
+        <v>3600</v>
+      </c>
+      <c r="J78" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L78" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B79" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="188" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="196">
+        <v>10</v>
+      </c>
+      <c r="E79" s="196">
+        <v>20</v>
+      </c>
+      <c r="F79" s="196">
+        <v>0</v>
+      </c>
+      <c r="G79" s="197">
+        <f>E79*H79/D79</f>
+        <v>3600</v>
+      </c>
+      <c r="H79" s="197">
+        <v>1800</v>
+      </c>
+      <c r="I79" s="217">
+        <v>1800</v>
+      </c>
+      <c r="J79" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K79" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L79" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="220">
+        <v>10</v>
+      </c>
+      <c r="E80" s="220">
+        <v>0</v>
+      </c>
+      <c r="F80" s="220">
+        <v>0</v>
+      </c>
+      <c r="G80" s="221">
+        <f>E80*H80/D80</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="221">
+        <v>1800</v>
+      </c>
+      <c r="I80" s="221">
+        <v>1800</v>
+      </c>
+      <c r="J80" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K80" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L80" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="202">
+        <v>10</v>
+      </c>
+      <c r="E81" s="202">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="F81" s="202">
+        <v>0</v>
+      </c>
+      <c r="G81" s="203">
+        <f>E81*H81/D81</f>
+        <v>369.71999999999997</v>
+      </c>
+      <c r="H81" s="203">
+        <v>1800</v>
+      </c>
+      <c r="I81" s="221">
+        <v>1800</v>
+      </c>
+      <c r="J81" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K81" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L81" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="267">
+        <v>10</v>
+      </c>
+      <c r="E82" s="267">
+        <v>0</v>
+      </c>
+      <c r="F82" s="267">
+        <v>0</v>
+      </c>
+      <c r="G82" s="247">
+        <f>E82*H82/D82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="247">
+        <v>1800</v>
+      </c>
+      <c r="I82" s="247">
+        <f>F82*H82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K82" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L82" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="267">
+        <v>10</v>
+      </c>
+      <c r="E83" s="267">
+        <v>2.5</v>
+      </c>
+      <c r="F83" s="267">
+        <v>0</v>
+      </c>
+      <c r="G83" s="247">
+        <f>E83*H83/D83</f>
+        <v>450</v>
+      </c>
+      <c r="H83" s="247">
+        <v>1800</v>
+      </c>
+      <c r="I83" s="247">
+        <f>F83*H83</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K83" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L83" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="206">
+        <v>100</v>
+      </c>
+      <c r="E84" s="206">
+        <v>0</v>
+      </c>
+      <c r="F84" s="206">
+        <v>1</v>
+      </c>
+      <c r="G84" s="207">
+        <f>E84*H84/D84</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="207">
+        <v>80000</v>
+      </c>
+      <c r="I84" s="243">
+        <f>G84</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K84" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L84" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="206">
+        <v>100</v>
+      </c>
+      <c r="E85" s="206">
+        <v>10.148999999999999</v>
+      </c>
+      <c r="F85" s="206">
+        <v>1</v>
+      </c>
+      <c r="G85" s="207">
+        <f>E85*H85/D85</f>
+        <v>8119.1999999999989</v>
+      </c>
+      <c r="H85" s="207">
+        <v>80000</v>
+      </c>
+      <c r="I85" s="243">
+        <f>G85</f>
+        <v>8119.1999999999989</v>
+      </c>
+      <c r="J85" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K85" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L85" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="228" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="268">
+        <v>100</v>
+      </c>
+      <c r="E86" s="268">
+        <v>0</v>
+      </c>
+      <c r="F86" s="268"/>
+      <c r="G86" s="239">
+        <f>E86*H86/D86</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="239">
+        <v>80000</v>
+      </c>
+      <c r="I86" s="244">
+        <f>G86</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K86" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L86" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="228" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="269">
+        <v>100</v>
+      </c>
+      <c r="E87" s="269">
+        <v>73.5</v>
+      </c>
+      <c r="F87" s="269"/>
+      <c r="G87" s="230">
+        <f>E87*H87/D87</f>
+        <v>58800</v>
+      </c>
+      <c r="H87" s="230">
+        <v>80000</v>
+      </c>
+      <c r="I87" s="244">
+        <f>G87</f>
+        <v>58800</v>
+      </c>
+      <c r="J87" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K87" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L87" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="189" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="218">
+        <v>500</v>
+      </c>
+      <c r="E88" s="218">
+        <v>200</v>
+      </c>
+      <c r="F88" s="218"/>
+      <c r="G88" s="219">
+        <f>E88*H88/D88</f>
+        <v>32000</v>
+      </c>
+      <c r="H88" s="219">
+        <v>80000</v>
+      </c>
+      <c r="I88" s="241">
+        <f>(H88/D88)*E88</f>
+        <v>32000</v>
+      </c>
+      <c r="J88" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K88" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L88" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C89" s="189" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="218">
+        <v>500</v>
+      </c>
+      <c r="E89" s="218">
+        <v>200</v>
+      </c>
+      <c r="F89" s="218"/>
+      <c r="G89" s="219">
+        <f>E89*H89/D89</f>
+        <v>32000</v>
+      </c>
+      <c r="H89" s="219">
+        <v>80000</v>
+      </c>
+      <c r="I89" s="241">
+        <v>80000</v>
+      </c>
+      <c r="J89" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K89" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L89" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="191" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="220">
+        <v>1</v>
+      </c>
+      <c r="E90" s="220">
+        <v>0</v>
+      </c>
+      <c r="F90" s="220"/>
+      <c r="G90" s="221"/>
+      <c r="H90" s="221">
+        <v>25000</v>
+      </c>
+      <c r="I90" s="221">
+        <f>(H90/D90)*E90</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K90" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L90" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="191" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91" s="202"/>
+      <c r="E91" s="202">
+        <v>0</v>
+      </c>
+      <c r="F91" s="202"/>
+      <c r="G91" s="203"/>
+      <c r="H91" s="203">
+        <v>25000</v>
+      </c>
+      <c r="I91" s="203">
+        <f>F91*H91</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K91" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L91" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="208">
+        <v>1</v>
+      </c>
+      <c r="E92" s="208">
+        <v>0</v>
+      </c>
+      <c r="F92" s="208"/>
+      <c r="G92" s="209">
+        <f>E92*H92/D92</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="209">
+        <v>25000</v>
+      </c>
+      <c r="I92" s="209">
+        <f>F92*H92</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K92" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L92" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="195" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="208"/>
+      <c r="E93" s="208">
+        <v>1</v>
+      </c>
+      <c r="F93" s="208"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209">
+        <v>25000</v>
+      </c>
+      <c r="I93" s="209">
+        <f>F93*H93</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K93" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L93" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="188" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="256">
+        <v>1</v>
+      </c>
+      <c r="E94" s="256">
+        <v>0</v>
+      </c>
+      <c r="F94" s="256"/>
+      <c r="G94" s="199">
+        <f>E94*H94/D94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="199">
+        <v>25000</v>
+      </c>
+      <c r="I94" s="199">
+        <f>F94*H94</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K94" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L94" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="186" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="265" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="265">
+        <v>5</v>
+      </c>
+      <c r="F95" s="265"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="197">
+        <v>25000</v>
+      </c>
+      <c r="I95" s="197">
+        <f>F95*H95</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L95" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" s="231" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" s="232"/>
+      <c r="E96" s="232"/>
+      <c r="F96" s="232"/>
+      <c r="G96" s="233"/>
+      <c r="H96" s="233">
+        <v>31000</v>
+      </c>
+      <c r="I96" s="233">
+        <f>F96*H96</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K96" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L96" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M96" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B97" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" s="189" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="258"/>
+      <c r="E97" s="258"/>
+      <c r="F97" s="258"/>
+      <c r="G97" s="219"/>
+      <c r="H97" s="219">
+        <v>31000</v>
+      </c>
+      <c r="I97" s="219"/>
+      <c r="J97" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K97" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L97" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M97" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" s="231" t="s">
+        <v>183</v>
+      </c>
+      <c r="D98" s="234"/>
+      <c r="E98" s="234">
+        <v>1</v>
+      </c>
+      <c r="F98" s="234">
+        <v>1</v>
+      </c>
+      <c r="G98" s="235"/>
+      <c r="H98" s="235">
+        <v>39000</v>
+      </c>
+      <c r="I98" s="235">
+        <f>F98*H98</f>
+        <v>39000</v>
+      </c>
+      <c r="J98" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K98" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L98" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M98" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B99" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="189" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="258"/>
+      <c r="E99" s="258"/>
+      <c r="F99" s="258"/>
+      <c r="G99" s="219"/>
+      <c r="H99" s="219">
+        <v>31000</v>
+      </c>
+      <c r="I99" s="219"/>
+      <c r="J99" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K99" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L99" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M99" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" s="231" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="234">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="234"/>
+      <c r="F100" s="234">
+        <v>0</v>
+      </c>
+      <c r="G100" s="235">
+        <v>31000</v>
+      </c>
+      <c r="H100" s="235">
+        <v>31000</v>
+      </c>
+      <c r="I100" s="236">
+        <f>F100*H100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K100" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L100" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M100" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="190" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="257"/>
+      <c r="E101" s="257">
+        <v>1</v>
+      </c>
+      <c r="F101" s="257"/>
+      <c r="G101" s="201"/>
+      <c r="H101" s="201">
+        <v>31000</v>
+      </c>
+      <c r="I101" s="201">
+        <f>H101</f>
+        <v>31000</v>
+      </c>
+      <c r="J101" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K101" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L101" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M101" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" s="231" t="s">
+        <v>101</v>
+      </c>
+      <c r="D102" s="234">
+        <v>500</v>
+      </c>
+      <c r="E102" s="234"/>
+      <c r="F102" s="234"/>
+      <c r="G102" s="235"/>
+      <c r="H102" s="235">
+        <v>30000</v>
+      </c>
+      <c r="I102" s="235">
+        <f>F102*H102</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K102" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L102" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M102" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" s="189" t="s">
+        <v>101</v>
+      </c>
+      <c r="D103" s="258"/>
+      <c r="E103" s="258"/>
+      <c r="F103" s="258"/>
+      <c r="G103" s="219">
+        <v>30000</v>
+      </c>
+      <c r="H103" s="219">
+        <v>30000</v>
+      </c>
+      <c r="I103" s="219"/>
+      <c r="J103" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K103" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L103" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="M103" s="185" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="198">
+        <v>10</v>
+      </c>
+      <c r="E104" s="198">
+        <v>12</v>
+      </c>
+      <c r="F104" s="198">
+        <v>1</v>
+      </c>
+      <c r="G104" s="199">
+        <f>E104*H104/D104</f>
+        <v>1800</v>
+      </c>
+      <c r="H104" s="199">
+        <v>1500</v>
+      </c>
+      <c r="I104" s="217">
+        <f>(H104/D104)*E104</f>
+        <v>1800</v>
+      </c>
+      <c r="J104" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K104" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L104" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" s="188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="196">
+        <v>10</v>
+      </c>
+      <c r="E105" s="196">
+        <v>12</v>
+      </c>
+      <c r="F105" s="196">
+        <v>1</v>
+      </c>
+      <c r="G105" s="197">
+        <f>E105*H105/D105</f>
+        <v>1800</v>
+      </c>
+      <c r="H105" s="197">
+        <v>1500</v>
+      </c>
+      <c r="I105" s="217">
+        <f>F105*H105</f>
+        <v>1500</v>
+      </c>
+      <c r="J105" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K105" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L105" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="227" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="225">
+        <v>10</v>
+      </c>
+      <c r="E106" s="225">
+        <v>0</v>
+      </c>
+      <c r="F106" s="225">
+        <v>1</v>
+      </c>
+      <c r="G106" s="226">
+        <f>E106*H106/D106</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="226">
+        <v>1500</v>
+      </c>
+      <c r="I106" s="226">
+        <f>F106*H106</f>
+        <v>1500</v>
+      </c>
+      <c r="J106" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K106" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L106" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="210" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="211">
+        <v>10</v>
+      </c>
+      <c r="E107" s="211">
+        <v>0.3624</v>
+      </c>
+      <c r="F107" s="211">
+        <v>1</v>
+      </c>
+      <c r="G107" s="212">
+        <f>E107*H107/D107</f>
+        <v>54.36</v>
+      </c>
+      <c r="H107" s="212">
+        <v>1500</v>
+      </c>
+      <c r="I107" s="212">
+        <f>F107*H107</f>
+        <v>1500</v>
+      </c>
+      <c r="J107" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K107" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L107" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="259">
+        <v>10</v>
+      </c>
+      <c r="E108" s="259">
+        <v>0</v>
+      </c>
+      <c r="F108" s="259">
+        <v>1</v>
+      </c>
+      <c r="G108" s="203">
+        <f>E108*H108/D108</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="203">
+        <v>1500</v>
+      </c>
+      <c r="I108" s="203">
+        <f>F108*H108</f>
+        <v>1500</v>
+      </c>
+      <c r="J108" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K108" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L108" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="270">
+        <v>10</v>
+      </c>
+      <c r="E109" s="270">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F109" s="270">
+        <v>1</v>
+      </c>
+      <c r="G109" s="221">
+        <f>E109*H109/D109</f>
+        <v>1470.0000000000002</v>
+      </c>
+      <c r="H109" s="221">
+        <v>1500</v>
+      </c>
+      <c r="I109" s="221">
+        <f>F109*H109</f>
+        <v>1500</v>
+      </c>
+      <c r="J109" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K109" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L109" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C110" s="190" t="s">
+        <v>173</v>
+      </c>
+      <c r="D110" s="200">
+        <v>5</v>
+      </c>
+      <c r="E110" s="200">
+        <v>1</v>
+      </c>
+      <c r="F110" s="200"/>
+      <c r="G110" s="201"/>
+      <c r="H110" s="201">
+        <v>3000</v>
+      </c>
+      <c r="I110" s="241">
+        <f>(H110/D110)*E110</f>
+        <v>600</v>
+      </c>
+      <c r="J110" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K110" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L110" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B111" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="189" t="s">
+        <v>173</v>
+      </c>
+      <c r="D111" s="218"/>
+      <c r="E111" s="218">
+        <v>1</v>
+      </c>
+      <c r="F111" s="218"/>
+      <c r="G111" s="219"/>
+      <c r="H111" s="219">
+        <v>3000</v>
+      </c>
+      <c r="I111" s="241">
+        <f>F111*H111</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K111" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L111" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="192" t="s">
+        <v>154</v>
+      </c>
+      <c r="D112" s="202">
+        <v>5</v>
+      </c>
+      <c r="E112" s="202">
+        <v>1</v>
+      </c>
+      <c r="F112" s="202"/>
+      <c r="G112" s="203"/>
+      <c r="H112" s="203">
+        <v>2000</v>
+      </c>
+      <c r="I112" s="242">
+        <f>(H112/D112)*E112</f>
+        <v>400</v>
+      </c>
+      <c r="J112" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K112" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L112" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="191" t="s">
+        <v>154</v>
+      </c>
+      <c r="D113" s="220"/>
+      <c r="E113" s="220">
+        <v>1</v>
+      </c>
+      <c r="F113" s="220"/>
+      <c r="G113" s="221"/>
+      <c r="H113" s="221">
+        <v>2000</v>
+      </c>
+      <c r="I113" s="242">
+        <f>F113*H113</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="185" t="s">
+        <v>234</v>
+      </c>
+      <c r="K113" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L113" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="213" t="s">
+        <v>154</v>
+      </c>
+      <c r="D114" s="214">
+        <v>5</v>
+      </c>
+      <c r="E114" s="214">
+        <v>0</v>
+      </c>
+      <c r="F114" s="214"/>
+      <c r="G114" s="215">
+        <f>E114*H114/D114</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="215">
+        <v>2000</v>
+      </c>
+      <c r="I114" s="248">
+        <f>F114*H114</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K114" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L114" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="245" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="246"/>
+      <c r="E115" s="246">
+        <v>0</v>
+      </c>
+      <c r="F115" s="246"/>
+      <c r="G115" s="247"/>
+      <c r="H115" s="247">
+        <v>2000</v>
+      </c>
+      <c r="I115" s="247">
+        <f>F115*H115</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K115" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L115" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="260">
+        <v>5</v>
+      </c>
+      <c r="E116" s="260">
+        <v>0</v>
+      </c>
+      <c r="F116" s="260"/>
+      <c r="G116" s="207">
+        <f>E116*H116/D116</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="207">
+        <v>2000</v>
+      </c>
+      <c r="I116" s="207">
+        <f>F116*H116</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K116" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L116" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" s="194" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="260" t="s">
+        <v>97</v>
+      </c>
+      <c r="E117" s="260"/>
+      <c r="F117" s="260"/>
+      <c r="G117" s="207"/>
+      <c r="H117" s="207">
+        <v>2000</v>
+      </c>
+      <c r="I117" s="207">
+        <f>F117*H117</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K117" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L117" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C118" s="227" t="s">
+        <v>152</v>
+      </c>
+      <c r="D118" s="225">
+        <v>1</v>
+      </c>
+      <c r="E118" s="225">
+        <v>1</v>
+      </c>
+      <c r="F118" s="225"/>
+      <c r="G118" s="226"/>
+      <c r="H118" s="226">
+        <v>23000</v>
+      </c>
+      <c r="I118" s="226">
+        <f>(H118/D118)*E118</f>
+        <v>23000</v>
+      </c>
+      <c r="J118" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K118" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L118" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C119" s="210" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="225"/>
+      <c r="E119" s="225">
+        <v>1</v>
+      </c>
+      <c r="F119" s="225"/>
+      <c r="G119" s="226">
+        <v>23000</v>
+      </c>
+      <c r="H119" s="226">
+        <v>23000</v>
+      </c>
+      <c r="I119" s="226">
+        <v>23000</v>
+      </c>
+      <c r="J119" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K119" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L119" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="228" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="229">
+        <v>1</v>
+      </c>
+      <c r="E120" s="229">
+        <v>0</v>
+      </c>
+      <c r="F120" s="229"/>
+      <c r="G120" s="230">
+        <f>E120*H120/D120</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="230">
+        <v>23000</v>
+      </c>
+      <c r="I120" s="230">
+        <v>23000</v>
+      </c>
+      <c r="J120" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K120" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L120" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" s="228" t="s">
+        <v>152</v>
+      </c>
+      <c r="D121" s="229"/>
+      <c r="E121" s="229">
+        <v>1</v>
+      </c>
+      <c r="F121" s="229"/>
+      <c r="G121" s="230">
+        <v>23000</v>
+      </c>
+      <c r="H121" s="230">
+        <v>23000</v>
+      </c>
+      <c r="I121" s="230">
+        <v>23000</v>
+      </c>
+      <c r="J121" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K121" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L121" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="222" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" s="266">
+        <v>1</v>
+      </c>
+      <c r="E122" s="266">
+        <v>0</v>
+      </c>
+      <c r="F122" s="266"/>
+      <c r="G122" s="224">
+        <f>E122*H122/D122</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="224">
+        <v>23000</v>
+      </c>
+      <c r="I122" s="224">
+        <v>23000</v>
+      </c>
+      <c r="J122" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K122" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L122" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="195" t="s">
+        <v>152</v>
+      </c>
+      <c r="D123" s="262" t="s">
+        <v>97</v>
+      </c>
+      <c r="E123" s="262"/>
+      <c r="F123" s="262"/>
+      <c r="G123" s="209">
+        <v>23000</v>
+      </c>
+      <c r="H123" s="209">
+        <v>23000</v>
+      </c>
+      <c r="I123" s="209">
+        <v>23000</v>
+      </c>
+      <c r="J123" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K123" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L123" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="237" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="238">
+        <v>1</v>
+      </c>
+      <c r="E124" s="238">
+        <v>1</v>
+      </c>
+      <c r="F124" s="238">
+        <v>1</v>
+      </c>
+      <c r="G124" s="239"/>
+      <c r="H124" s="239">
+        <v>13000</v>
+      </c>
+      <c r="I124" s="239">
+        <f>(H124/D124)*E124</f>
+        <v>13000</v>
+      </c>
+      <c r="J124" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K124" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L124" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C125" s="228" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" s="229"/>
+      <c r="E125" s="229">
+        <v>1</v>
+      </c>
+      <c r="F125" s="229">
+        <v>1</v>
+      </c>
+      <c r="G125" s="230">
+        <v>13000</v>
+      </c>
+      <c r="H125" s="230">
+        <v>13000</v>
+      </c>
+      <c r="I125" s="230">
+        <v>13000</v>
+      </c>
+      <c r="J125" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K125" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L125" s="185" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" s="227" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="271">
+        <v>1</v>
+      </c>
+      <c r="E126" s="271">
+        <v>0</v>
+      </c>
+      <c r="F126" s="271">
+        <v>1</v>
+      </c>
+      <c r="G126" s="226">
+        <f>E126*H126/D126</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="226">
+        <v>13000</v>
+      </c>
+      <c r="I126" s="226"/>
+      <c r="J126" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K126" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L126" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" s="227" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="271" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="271"/>
+      <c r="F127" s="271">
+        <v>1</v>
+      </c>
+      <c r="G127" s="226"/>
+      <c r="H127" s="226">
+        <v>13000</v>
+      </c>
+      <c r="I127" s="226"/>
+      <c r="J127" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K127" s="185" t="s">
+        <v>236</v>
+      </c>
+      <c r="L127" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C128" s="186" t="s">
+        <v>151</v>
+      </c>
+      <c r="D128" s="196">
+        <v>1</v>
+      </c>
+      <c r="E128" s="196">
+        <v>0</v>
+      </c>
+      <c r="F128" s="196">
+        <v>0</v>
+      </c>
+      <c r="G128" s="197">
+        <f>E128*H128/D128</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="197">
+        <v>13000</v>
+      </c>
+      <c r="I128" s="197">
+        <v>13000</v>
+      </c>
+      <c r="J128" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K128" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L128" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" s="185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129" s="186" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="196" t="s">
+        <v>192</v>
+      </c>
+      <c r="E129" s="196">
+        <v>1</v>
+      </c>
+      <c r="F129" s="196"/>
+      <c r="G129" s="197">
+        <v>13000</v>
+      </c>
+      <c r="H129" s="197">
+        <v>13000</v>
+      </c>
+      <c r="I129" s="197">
+        <v>13000</v>
+      </c>
+      <c r="J129" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K129" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="L129" s="185" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="185" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="D130" s="256">
+        <v>1</v>
+      </c>
+      <c r="E130" s="256">
+        <v>0</v>
+      </c>
+      <c r="F130" s="256">
+        <v>1</v>
+      </c>
+      <c r="G130" s="199">
+        <f>E130*H130/D130</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="199">
+        <v>13000</v>
+      </c>
+      <c r="I130" s="199">
+        <f>F130*H130</f>
+        <v>13000</v>
+      </c>
+      <c r="J130" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K130" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L130" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="185" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" s="185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="186" t="s">
+        <v>151</v>
+      </c>
+      <c r="D131" s="265" t="s">
+        <v>97</v>
+      </c>
+      <c r="E131" s="265"/>
+      <c r="F131" s="265">
+        <v>1</v>
+      </c>
+      <c r="G131" s="197">
+        <v>13000</v>
+      </c>
+      <c r="H131" s="197">
+        <v>13000</v>
+      </c>
+      <c r="I131" s="197">
+        <f>F131*H131</f>
+        <v>13000</v>
+      </c>
+      <c r="J131" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="K131" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="L131" s="185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L131" xr:uid="{C91E2F10-EE76-9443-B2C8-25D1C127F96E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J131">
+    <sortCondition ref="C2:C131"/>
+    <sortCondition ref="B2:B131"/>
+    <sortCondition descending="1" ref="A2:A131"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X325"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="O185" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11690,12 +17079,12 @@
         <f>B126/$E$4/B$3</f>
         <v>1990.2183333333332</v>
       </c>
-      <c r="D126" s="149" t="s">
+      <c r="D126" s="176" t="s">
         <v>224</v>
       </c>
-      <c r="E126" s="150"/>
-      <c r="F126" s="150"/>
-      <c r="G126" s="150"/>
+      <c r="E126" s="177"/>
+      <c r="F126" s="177"/>
+      <c r="G126" s="177"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="115" t="s">
@@ -12010,18 +17399,18 @@
       <c r="D154" s="34"/>
     </row>
     <row r="155" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="151" t="s">
+      <c r="A155" s="178" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="151"/>
-      <c r="C155" s="151"/>
-      <c r="D155" s="151"/>
+      <c r="B155" s="178"/>
+      <c r="C155" s="178"/>
+      <c r="D155" s="178"/>
     </row>
     <row r="156" spans="1:4" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="151"/>
-      <c r="B156" s="151"/>
-      <c r="C156" s="151"/>
-      <c r="D156" s="151"/>
+      <c r="A156" s="178"/>
+      <c r="B156" s="178"/>
+      <c r="C156" s="178"/>
+      <c r="D156" s="178"/>
     </row>
     <row r="157" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -15407,7 +20796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC313A9-C4FC-CF4E-895F-FFFD8D968FA4}">
   <dimension ref="A6:I53"/>
   <sheetViews>
@@ -16166,7 +21555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAEC93E-6A2D-594D-B06A-D7EE668DC9F8}">
   <dimension ref="I9:J29"/>
   <sheetViews>
@@ -16346,7 +21735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105DDAB5-037E-4F8A-8C89-C898E252AB15}">
   <dimension ref="A2:F26"/>
   <sheetViews>
@@ -16365,23 +21754,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="181" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="179" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="D4" s="152" t="s">
+      <c r="B4" s="180"/>
+      <c r="D4" s="179" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="153"/>
+      <c r="E4" s="180"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
@@ -16685,7 +22074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197329E8-BAD3-4721-9453-D416E7B0A793}">
   <dimension ref="A8:D16"/>
   <sheetViews>
@@ -16826,7 +22215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C53FD5F-B1DF-4969-A4C2-279A92B202FC}">
   <dimension ref="A4:C9"/>
   <sheetViews>
@@ -16918,6 +22307,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007DF9B5A93DCAFC458C2AC7806CA98A95" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8a0b36e56b723c1886532595dd5151a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b819869a-5527-41f8-bf27-4fbef748067a" xmlns:ns3="ec36c1b3-45c0-40c9-96d4-e57661e8d407" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ccdd94dee6f3848ae17e84baf957797" ns2:_="" ns3:_="">
     <xsd:import namespace="b819869a-5527-41f8-bf27-4fbef748067a"/>
@@ -17124,15 +22522,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{683A8DC6-E796-4DA8-B834-97E70B707C60}">
   <ds:schemaRefs>
@@ -17145,6 +22534,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907054FB-D4B2-4BBB-A4B5-5238AE8109B7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17161,12 +22558,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{244463B3-A800-4DEA-BE06-2554ACC63119}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>